--- a/Thesis-codes/NH3-summary-final.xlsx
+++ b/Thesis-codes/NH3-summary-final.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2815B678-7B5D-4B4F-9ABF-46BC35547449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9DEA12-78C9-4E73-8EB6-1765E68D50A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7046" yWindow="2511" windowWidth="24660" windowHeight="13252" tabRatio="761" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
+    <workbookView xWindow="3943" yWindow="2031" windowWidth="22491" windowHeight="13252" tabRatio="761" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
   </bookViews>
   <sheets>
     <sheet name="Predict-0116-0122" sheetId="7" r:id="rId1"/>
-    <sheet name="Predict-exp3-1010-1016 (final)" sheetId="3" r:id="rId2"/>
-    <sheet name="Predict-exp3-1022-1028 (X)" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="Predict-exp3-1010-1016 (final)" sheetId="3" r:id="rId3"/>
+    <sheet name="Predict-exp3-1022-1028 (X)" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Predict-0116-0122'!$A$1:$W$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Predict-exp3-1010-1016 (final)'!$A$1:$W$58</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Predict-exp3-1022-1028 (X)'!$A$1:$V$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Predict-exp3-1010-1016 (final)'!$A$1:$W$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Predict-exp3-1022-1028 (X)'!$A$1:$V$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="80">
   <si>
     <t>fc1_rmse_mean</t>
   </si>
@@ -708,17 +709,18 @@
   <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.4609375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.07421875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.61328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.07421875" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.61328125" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.4609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.4609375" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4609375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.765625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.921875" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.765625" style="2" bestFit="1" customWidth="1"/>
@@ -808,70 +810,70 @@
         <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2">
-        <v>0.2412</v>
+        <v>0.2492</v>
       </c>
       <c r="D2" s="2">
-        <v>0.89629999999999999</v>
+        <v>0.88919999999999999</v>
       </c>
       <c r="E2" s="2">
-        <v>3.8800000000000001E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="F2" s="2">
-        <v>2.7645</v>
+        <v>3.0945</v>
       </c>
       <c r="G2" s="2">
-        <v>1.0795999999999999</v>
+        <v>0.95250000000000001</v>
       </c>
       <c r="H2" s="6">
-        <v>1.2500000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I2" s="2">
-        <v>4.8999999999999998E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="J2" s="2">
-        <v>0.2452</v>
+        <v>0.26</v>
       </c>
       <c r="K2" s="2">
-        <v>0.23419999999999999</v>
+        <v>0.24160000000000001</v>
       </c>
       <c r="L2" s="2">
-        <v>4.3E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="M2" s="2">
-        <v>0.90229999999999999</v>
+        <v>0.89590000000000003</v>
       </c>
       <c r="N2" s="2">
-        <v>0.89280000000000004</v>
+        <v>0.87960000000000005</v>
       </c>
       <c r="O2" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="P2" s="2">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="Q2" s="2">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="Q2" s="2">
-        <v>3.7999999999999999E-2</v>
-      </c>
       <c r="R2" s="2">
-        <v>3.1E-2</v>
+        <v>0.09</v>
       </c>
       <c r="S2" s="2">
-        <v>2.8058999999999998</v>
+        <v>3.2073999999999998</v>
       </c>
       <c r="T2" s="2">
-        <v>2.7313999999999998</v>
+        <v>2.9872000000000001</v>
       </c>
       <c r="U2" s="2">
-        <v>1.12E-2</v>
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="V2" s="2">
-        <v>1.0944</v>
+        <v>0.9587</v>
       </c>
       <c r="W2" s="2">
-        <v>1.0673999999999999</v>
+        <v>0.94169999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
@@ -879,567 +881,567 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2">
-        <v>0.2467</v>
+        <v>0.2457</v>
       </c>
       <c r="D3" s="2">
-        <v>0.89159999999999995</v>
+        <v>0.89239999999999997</v>
       </c>
       <c r="E3" s="2">
-        <v>3.9199999999999999E-2</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="F3" s="2">
-        <v>3.6937000000000002</v>
+        <v>2.2677999999999998</v>
       </c>
       <c r="G3" s="2">
-        <v>1.0969</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="H3" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I3" s="2">
-        <v>3.2000000000000002E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="J3" s="2">
-        <v>0.251</v>
+        <v>0.24840000000000001</v>
       </c>
       <c r="K3" s="2">
-        <v>0.24340000000000001</v>
+        <v>0.24249999999999999</v>
       </c>
       <c r="L3" s="2">
-        <v>2.8E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="M3" s="2">
-        <v>0.89439999999999997</v>
+        <v>0.8952</v>
       </c>
       <c r="N3" s="2">
-        <v>0.88780000000000003</v>
+        <v>0.89</v>
       </c>
       <c r="O3" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="P3" s="2">
-        <v>0.04</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="Q3" s="2">
         <v>3.8699999999999998E-2</v>
       </c>
       <c r="R3" s="2">
-        <v>0.1038</v>
+        <v>4.02E-2</v>
       </c>
       <c r="S3" s="2">
-        <v>3.8328000000000002</v>
+        <v>2.3096000000000001</v>
       </c>
       <c r="T3" s="2">
-        <v>3.5834999999999999</v>
+        <v>2.2136</v>
       </c>
       <c r="U3" s="2">
-        <v>1.5900000000000001E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="V3" s="2">
-        <v>1.1185</v>
+        <v>1.0024999999999999</v>
       </c>
       <c r="W3" s="2">
-        <v>1.0807</v>
+        <v>0.94010000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.24660000000000001</v>
-      </c>
-      <c r="D4" s="5">
-        <v>0.89149999999999996</v>
-      </c>
-      <c r="E4" s="5">
-        <v>3.95E-2</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2.3408000000000002</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1.1218999999999999</v>
-      </c>
-      <c r="H4" s="9">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="I4" s="5">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0.25290000000000001</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0.2389</v>
-      </c>
-      <c r="L4" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0.8982</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="O4" s="5">
-        <v>1E-3</v>
-      </c>
-      <c r="P4" s="5">
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="R4" s="5">
-        <v>3.4599999999999999E-2</v>
-      </c>
-      <c r="S4" s="5">
-        <v>2.3841999999999999</v>
-      </c>
-      <c r="T4" s="5">
-        <v>2.2993999999999999</v>
-      </c>
-      <c r="U4" s="5">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="V4" s="5">
-        <v>1.1324000000000001</v>
-      </c>
-      <c r="W4" s="5">
-        <v>1.1133</v>
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.2329</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.9032</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3.73E-2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1.3922000000000001</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1.0146999999999999</v>
+      </c>
+      <c r="H4" s="8">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.2402</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="L4" s="4">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0.8972</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P4" s="4">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="R4" s="4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="S4" s="4">
+        <v>1.4157999999999999</v>
+      </c>
+      <c r="T4" s="4">
+        <v>1.3593</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="V4" s="4">
+        <v>1.0394000000000001</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0.99139999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.2215</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.91259999999999997</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1.2123999999999999</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1.1485000000000001</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="B5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.87670000000000003</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5.0528000000000004</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="H5" s="6">
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="I5" s="3">
-        <v>1.9E-3</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.22409999999999999</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.21959999999999999</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1.5E-3</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0.91410000000000002</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0.91049999999999998</v>
-      </c>
-      <c r="O5" s="3">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="P5" s="3">
-        <v>3.95E-2</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="R5" s="3">
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="S5" s="3">
-        <v>1.282</v>
-      </c>
-      <c r="T5" s="3">
-        <v>1.1093999999999999</v>
-      </c>
-      <c r="U5" s="3">
-        <v>3.6600000000000001E-2</v>
-      </c>
-      <c r="V5" s="3">
-        <v>1.1915</v>
-      </c>
-      <c r="W5" s="3">
-        <v>1.1019000000000001</v>
+      <c r="I5" s="2">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.2671</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.26050000000000001</v>
+      </c>
+      <c r="L5" s="2">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="O5" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P5" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>4.19E-2</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="S5" s="2">
+        <v>5.1502999999999997</v>
+      </c>
+      <c r="T5" s="2">
+        <v>4.9143999999999997</v>
+      </c>
+      <c r="U5" s="2">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="V5" s="2">
+        <v>1.0322</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0.9909</v>
       </c>
     </row>
     <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.2399</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0.89729999999999999</v>
-      </c>
-      <c r="E6" s="4">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1.7656000000000001</v>
-      </c>
-      <c r="G6" s="4">
-        <v>1.1803999999999999</v>
-      </c>
-      <c r="H6" s="8">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="I6" s="4">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="J6" s="4">
-        <v>0.24970000000000001</v>
-      </c>
-      <c r="K6" s="4">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="L6" s="4">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="M6" s="4">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="N6" s="4">
-        <v>0.88890000000000002</v>
-      </c>
-      <c r="O6" s="4">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="P6" s="4">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="R6" s="4">
-        <v>4.41E-2</v>
-      </c>
-      <c r="S6" s="4">
-        <v>1.8274999999999999</v>
-      </c>
-      <c r="T6" s="4">
-        <v>1.7279</v>
-      </c>
-      <c r="U6" s="4">
-        <v>2.9600000000000001E-2</v>
-      </c>
-      <c r="V6" s="4">
-        <v>1.2061999999999999</v>
-      </c>
-      <c r="W6" s="4">
-        <v>1.1389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.24329999999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.0162</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3.1250000000000001E-6</v>
+      </c>
+      <c r="I6" s="2">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.25369999999999998</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.2366</v>
+      </c>
+      <c r="L6" s="2">
+        <v>6.6E-3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.9002</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="O6" s="2">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="P6" s="2">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3.85E-2</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.1026</v>
+      </c>
+      <c r="S6" s="2">
+        <v>2.4051999999999998</v>
+      </c>
+      <c r="T6" s="2">
+        <v>2.1652999999999998</v>
+      </c>
+      <c r="U6" s="2">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="V6" s="2">
+        <v>1.0795999999999999</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.97440000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2">
-        <v>0.20899999999999999</v>
+        <v>0.23449999999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>0.92210000000000003</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="E7" s="2">
-        <v>3.8300000000000001E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="F7" s="2">
-        <v>2.2033999999999998</v>
+        <v>4.4535</v>
       </c>
       <c r="G7" s="2">
-        <v>1.2507999999999999</v>
+        <v>1.0266</v>
       </c>
       <c r="H7" s="6">
-        <v>6.2500000000000003E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I7" s="2">
-        <v>2.2000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>0.2114</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="K7" s="2">
-        <v>0.20610000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="L7" s="2">
-        <v>1.6000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="M7" s="2">
-        <v>0.92430000000000001</v>
+        <v>0.90410000000000001</v>
       </c>
       <c r="N7" s="2">
-        <v>0.9204</v>
+        <v>0.89980000000000004</v>
       </c>
       <c r="O7" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P7" s="2">
-        <v>3.8800000000000001E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="Q7" s="2">
-        <v>3.7199999999999997E-2</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="R7" s="2">
-        <v>2.3900000000000001E-2</v>
+        <v>0.1381</v>
       </c>
       <c r="S7" s="2">
-        <v>2.2353000000000001</v>
+        <v>4.6323999999999996</v>
       </c>
       <c r="T7" s="2">
-        <v>2.1776</v>
+        <v>4.2961</v>
       </c>
       <c r="U7" s="2">
-        <v>4.58E-2</v>
+        <v>2.01E-2</v>
       </c>
       <c r="V7" s="2">
-        <v>1.3038000000000001</v>
+        <v>1.0530999999999999</v>
       </c>
       <c r="W7" s="2">
-        <v>1.1919999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+        <v>1.0043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.24030000000000001</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="E8" s="2">
-        <v>3.85E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3.0371000000000001</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1.2644</v>
-      </c>
-      <c r="H8" s="6">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.23830000000000001</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.89880000000000004</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.89480000000000004</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="B8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.24099999999999999</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.9583999999999999</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.0406</v>
+      </c>
+      <c r="H8" s="9">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.24529999999999999</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.2349</v>
+      </c>
+      <c r="L8" s="5">
+        <v>3.8E-3</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="N8" s="5">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="O8" s="5">
         <v>1E-4</v>
       </c>
-      <c r="P8" s="2">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="R8" s="2">
-        <v>4.9099999999999998E-2</v>
-      </c>
-      <c r="S8" s="2">
-        <v>3.09</v>
-      </c>
-      <c r="T8" s="2">
-        <v>2.9716999999999998</v>
-      </c>
-      <c r="U8" s="2">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="V8" s="2">
-        <v>1.2710999999999999</v>
-      </c>
-      <c r="W8" s="2">
-        <v>1.2531000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="P8" s="5">
+        <v>4.02E-2</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.1013</v>
+      </c>
+      <c r="S8" s="5">
+        <v>2.0979999999999999</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1.8609</v>
+      </c>
+      <c r="U8" s="5">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="V8" s="5">
+        <v>1.0744</v>
+      </c>
+      <c r="W8" s="5">
+        <v>1.0158</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2">
-        <v>0.2409</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>0.89629999999999999</v>
+        <v>0.92210000000000003</v>
       </c>
       <c r="E9" s="2">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2.2033999999999998</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.2507999999999999</v>
+      </c>
+      <c r="H9" s="6">
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.2114</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.20610000000000001</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.9204</v>
+      </c>
+      <c r="O9" s="2">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="P9" s="2">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="F9" s="2">
-        <v>2.5232000000000001</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1.2345999999999999</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1.5625000000000001E-6</v>
-      </c>
-      <c r="I9" s="2">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.25419999999999998</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.23250000000000001</v>
-      </c>
-      <c r="L9" s="2">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0.90359999999999996</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0.88480000000000003</v>
-      </c>
-      <c r="O9" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="P9" s="2">
-        <v>3.9199999999999999E-2</v>
-      </c>
       <c r="Q9" s="2">
-        <v>3.85E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="R9" s="2">
-        <v>0.1004</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="S9" s="2">
-        <v>2.661</v>
+        <v>2.2353000000000001</v>
       </c>
       <c r="T9" s="2">
-        <v>2.4243999999999999</v>
+        <v>2.1776</v>
       </c>
       <c r="U9" s="2">
-        <v>5.1999999999999998E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="V9" s="2">
-        <v>1.2821</v>
+        <v>1.3038000000000001</v>
       </c>
       <c r="W9" s="2">
-        <v>1.1621999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2">
-        <v>0.25159999999999999</v>
+        <v>0.24030000000000001</v>
       </c>
       <c r="D10" s="2">
-        <v>0.8871</v>
+        <v>0.89710000000000001</v>
       </c>
       <c r="E10" s="2">
-        <v>4.0500000000000001E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="F10" s="2">
-        <v>5.7820999999999998</v>
+        <v>3.0371000000000001</v>
       </c>
       <c r="G10" s="2">
-        <v>1.2365999999999999</v>
+        <v>1.2644</v>
       </c>
       <c r="H10" s="6">
-        <v>1.2500000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I10" s="2">
-        <v>2.3E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J10" s="2">
-        <v>0.25430000000000003</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="K10" s="2">
-        <v>0.24859999999999999</v>
+        <v>0.23830000000000001</v>
       </c>
       <c r="L10" s="2">
-        <v>2.0999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="M10" s="2">
-        <v>0.88990000000000002</v>
+        <v>0.89880000000000004</v>
       </c>
       <c r="N10" s="2">
-        <v>0.88470000000000004</v>
+        <v>0.89480000000000004</v>
       </c>
       <c r="O10" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P10" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="Q10" s="2">
-        <v>0.04</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="R10" s="2">
-        <v>2.58E-2</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="S10" s="2">
-        <v>5.8181000000000003</v>
+        <v>3.09</v>
       </c>
       <c r="T10" s="2">
-        <v>5.7591999999999999</v>
+        <v>2.9716999999999998</v>
       </c>
       <c r="U10" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="V10" s="2">
-        <v>1.2484</v>
+        <v>1.2710999999999999</v>
       </c>
       <c r="W10" s="2">
-        <v>1.2154</v>
+        <v>1.2531000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1447,354 +1449,354 @@
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2">
-        <v>0.23949999999999999</v>
+        <v>0.2412</v>
       </c>
       <c r="D11" s="2">
-        <v>0.89770000000000005</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="E11" s="2">
-        <v>3.8899999999999997E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="F11" s="2">
-        <v>3.7313999999999998</v>
+        <v>2.7645</v>
       </c>
       <c r="G11" s="2">
-        <v>1.1891</v>
+        <v>1.0795999999999999</v>
       </c>
       <c r="H11" s="6">
-        <v>5.0000000000000002E-5</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I11" s="2">
-        <v>4.1000000000000003E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="J11" s="2">
-        <v>0.24340000000000001</v>
+        <v>0.2452</v>
       </c>
       <c r="K11" s="2">
-        <v>0.23380000000000001</v>
+        <v>0.23419999999999999</v>
       </c>
       <c r="L11" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="M11" s="2">
-        <v>0.90259999999999996</v>
+        <v>0.90229999999999999</v>
       </c>
       <c r="N11" s="2">
-        <v>0.89439999999999997</v>
+        <v>0.89280000000000004</v>
       </c>
       <c r="O11" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="P11" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="R11" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="S11" s="2">
+        <v>2.8058999999999998</v>
+      </c>
+      <c r="T11" s="2">
+        <v>2.7313999999999998</v>
+      </c>
+      <c r="U11" s="2">
+        <v>1.12E-2</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1.0944</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1.0673999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.2215</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1.2123999999999999</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.1485000000000001</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.21959999999999999</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="O12" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="P11" s="2">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="Q11" s="2">
+      <c r="P12" s="3">
+        <v>3.95E-2</v>
+      </c>
+      <c r="Q12" s="3">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="R11" s="2">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="S11" s="2">
-        <v>3.8039000000000001</v>
-      </c>
-      <c r="T11" s="2">
-        <v>3.665</v>
-      </c>
-      <c r="U11" s="2">
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="V11" s="2">
-        <v>1.2302</v>
-      </c>
-      <c r="W11" s="2">
-        <v>1.1565000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.22770000000000001</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.90759999999999996</v>
-      </c>
-      <c r="E12" s="2">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>2.5659999999999998</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="H12" s="6">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="I12" s="2">
-        <v>2.8E-3</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.22370000000000001</v>
-      </c>
-      <c r="L12" s="2">
-        <v>2.3E-3</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0.91080000000000005</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="O12" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="P12" s="2">
-        <v>3.9600000000000003E-2</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="R12" s="2">
-        <v>6.08E-2</v>
-      </c>
-      <c r="S12" s="2">
-        <v>2.6322999999999999</v>
-      </c>
-      <c r="T12" s="2">
-        <v>2.4855</v>
-      </c>
-      <c r="U12" s="2">
-        <v>5.57E-2</v>
-      </c>
-      <c r="V12" s="2">
-        <v>1.3168</v>
-      </c>
-      <c r="W12" s="2">
-        <v>1.1892</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+      <c r="R12" s="3">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1.282</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1.1093999999999999</v>
+      </c>
+      <c r="U12" s="3">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1.1915</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1.1019000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="C13" s="4">
-        <v>0.2329</v>
+        <v>0.2399</v>
       </c>
       <c r="D13" s="4">
-        <v>0.9032</v>
+        <v>0.89729999999999999</v>
       </c>
       <c r="E13" s="4">
-        <v>3.73E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="F13" s="4">
-        <v>1.3922000000000001</v>
+        <v>1.7656000000000001</v>
       </c>
       <c r="G13" s="4">
-        <v>1.0146999999999999</v>
+        <v>1.1803999999999999</v>
       </c>
       <c r="H13" s="8">
-        <v>1.2500000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I13" s="4">
-        <v>7.4000000000000003E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="J13" s="4">
-        <v>0.2402</v>
+        <v>0.24970000000000001</v>
       </c>
       <c r="K13" s="4">
-        <v>0.22270000000000001</v>
+        <v>0.23330000000000001</v>
       </c>
       <c r="L13" s="4">
         <v>6.1000000000000004E-3</v>
       </c>
       <c r="M13" s="4">
-        <v>0.91159999999999997</v>
+        <v>0.90300000000000002</v>
       </c>
       <c r="N13" s="4">
-        <v>0.8972</v>
+        <v>0.88890000000000002</v>
       </c>
       <c r="O13" s="4">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P13" s="4">
-        <v>3.7699999999999997E-2</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="Q13" s="4">
-        <v>3.7100000000000001E-2</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="R13" s="4">
-        <v>2.4E-2</v>
+        <v>4.41E-2</v>
       </c>
       <c r="S13" s="4">
-        <v>1.4157999999999999</v>
+        <v>1.8274999999999999</v>
       </c>
       <c r="T13" s="4">
-        <v>1.3593</v>
+        <v>1.7279</v>
       </c>
       <c r="U13" s="4">
-        <v>1.9599999999999999E-2</v>
+        <v>2.9600000000000001E-2</v>
       </c>
       <c r="V13" s="4">
-        <v>1.0394000000000001</v>
+        <v>1.2061999999999999</v>
       </c>
       <c r="W13" s="4">
-        <v>0.99139999999999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.1389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
-        <v>0.23449999999999999</v>
+        <v>0.2409</v>
       </c>
       <c r="D14" s="2">
-        <v>0.90200000000000002</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="E14" s="2">
-        <v>3.8699999999999998E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="F14" s="2">
-        <v>4.4535</v>
+        <v>2.5232000000000001</v>
       </c>
       <c r="G14" s="2">
-        <v>1.0266</v>
+        <v>1.2345999999999999</v>
       </c>
       <c r="H14" s="6">
-        <v>2.5000000000000001E-5</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I14" s="2">
-        <v>2E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="J14" s="2">
-        <v>0.23699999999999999</v>
+        <v>0.25419999999999998</v>
       </c>
       <c r="K14" s="2">
-        <v>0.23200000000000001</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="L14" s="2">
-        <v>1.8E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="M14" s="2">
-        <v>0.90410000000000001</v>
+        <v>0.90359999999999996</v>
       </c>
       <c r="N14" s="2">
-        <v>0.89980000000000004</v>
+        <v>0.88480000000000003</v>
       </c>
       <c r="O14" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P14" s="2">
-        <v>3.8899999999999997E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="Q14" s="2">
-        <v>3.8199999999999998E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="R14" s="2">
-        <v>0.1381</v>
+        <v>0.1004</v>
       </c>
       <c r="S14" s="2">
-        <v>4.6323999999999996</v>
+        <v>2.661</v>
       </c>
       <c r="T14" s="2">
-        <v>4.2961</v>
+        <v>2.4243999999999999</v>
       </c>
       <c r="U14" s="2">
-        <v>2.01E-2</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="V14" s="2">
-        <v>1.0530999999999999</v>
+        <v>1.2821</v>
       </c>
       <c r="W14" s="2">
-        <v>1.0043</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.1621999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2">
-        <v>0.222</v>
+        <v>0.23949999999999999</v>
       </c>
       <c r="D15" s="2">
-        <v>0.91210000000000002</v>
+        <v>0.89770000000000005</v>
       </c>
       <c r="E15" s="2">
-        <v>3.9800000000000002E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="F15" s="2">
-        <v>5.0961999999999996</v>
+        <v>3.7313999999999998</v>
       </c>
       <c r="G15" s="2">
-        <v>1.2612000000000001</v>
+        <v>1.1891</v>
       </c>
       <c r="H15" s="6">
-        <v>6.2500000000000003E-6</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="I15" s="2">
-        <v>1.9E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="J15" s="2">
-        <v>0.22409999999999999</v>
+        <v>0.24340000000000001</v>
       </c>
       <c r="K15" s="2">
-        <v>0.21959999999999999</v>
+        <v>0.23380000000000001</v>
       </c>
       <c r="L15" s="2">
-        <v>1.4E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="M15" s="2">
-        <v>0.91400000000000003</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="N15" s="2">
-        <v>0.91049999999999998</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="O15" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P15" s="2">
-        <v>0.04</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="Q15" s="2">
-        <v>3.9399999999999998E-2</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="R15" s="2">
-        <v>4.2799999999999998E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="S15" s="2">
-        <v>5.1534000000000004</v>
+        <v>3.8039000000000001</v>
       </c>
       <c r="T15" s="2">
-        <v>5.0506000000000002</v>
+        <v>3.665</v>
       </c>
       <c r="U15" s="2">
-        <v>2.69E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="V15" s="2">
-        <v>1.2866</v>
+        <v>1.2302</v>
       </c>
       <c r="W15" s="2">
-        <v>1.2239</v>
+        <v>1.1565000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
@@ -1802,141 +1804,141 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2">
-        <v>0.23089999999999999</v>
+        <v>0.22770000000000001</v>
       </c>
       <c r="D16" s="2">
-        <v>0.90500000000000003</v>
+        <v>0.90759999999999996</v>
       </c>
       <c r="E16" s="2">
-        <v>3.9199999999999999E-2</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="F16" s="2">
-        <v>3.0629</v>
+        <v>2.5659999999999998</v>
       </c>
       <c r="G16" s="2">
-        <v>1.2199</v>
+        <v>1.2390000000000001</v>
       </c>
       <c r="H16" s="6">
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="I16" s="2">
-        <v>3.3E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="J16" s="2">
-        <v>0.2346</v>
+        <v>0.23</v>
       </c>
       <c r="K16" s="2">
-        <v>0.2266</v>
+        <v>0.22370000000000001</v>
       </c>
       <c r="L16" s="2">
-        <v>2.7000000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="M16" s="2">
-        <v>0.90849999999999997</v>
+        <v>0.91080000000000005</v>
       </c>
       <c r="N16" s="2">
-        <v>0.90190000000000003</v>
+        <v>0.90569999999999995</v>
       </c>
       <c r="O16" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P16" s="2">
-        <v>3.9399999999999998E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="Q16" s="2">
-        <v>3.9E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="R16" s="2">
-        <v>3.7100000000000001E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="S16" s="2">
-        <v>3.1074000000000002</v>
+        <v>2.6322999999999999</v>
       </c>
       <c r="T16" s="2">
-        <v>3.0167000000000002</v>
+        <v>2.4855</v>
       </c>
       <c r="U16" s="2">
-        <v>1.37E-2</v>
+        <v>5.57E-2</v>
       </c>
       <c r="V16" s="2">
-        <v>1.2367999999999999</v>
+        <v>1.3168</v>
       </c>
       <c r="W16" s="2">
-        <v>1.2032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
+        <v>1.1892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.2311</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.90480000000000005</v>
-      </c>
-      <c r="E17" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1.4258</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1.3076000000000001</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1.2500000000000001E-5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3.8E-3</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.2364</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0.22770000000000001</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="B17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.2467</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.89159999999999995</v>
+      </c>
+      <c r="E17" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3.6937000000000002</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1.0969</v>
+      </c>
+      <c r="H17" s="6">
+        <v>3.1250000000000001E-6</v>
+      </c>
+      <c r="I17" s="2">
         <v>3.2000000000000002E-3</v>
       </c>
-      <c r="M17" s="3">
-        <v>0.90759999999999996</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0.90039999999999998</v>
-      </c>
-      <c r="O17" s="3">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="P17" s="3">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="R17" s="3">
-        <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1.4936</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1.3716999999999999</v>
-      </c>
-      <c r="U17" s="3">
-        <v>2.1399999999999999E-2</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1.3357000000000001</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1.2837000000000001</v>
+      <c r="J17" s="2">
+        <v>0.251</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="O17" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.1038</v>
+      </c>
+      <c r="S17" s="2">
+        <v>3.8328000000000002</v>
+      </c>
+      <c r="T17" s="2">
+        <v>3.5834999999999999</v>
+      </c>
+      <c r="U17" s="2">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="V17" s="2">
+        <v>1.1185</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1.0807</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1944,141 +1946,141 @@
         <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2">
-        <v>0.21729999999999999</v>
+        <v>0.23089999999999999</v>
       </c>
       <c r="D18" s="2">
-        <v>0.91579999999999995</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="E18" s="2">
-        <v>3.9600000000000003E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="F18" s="2">
-        <v>1.6396999999999999</v>
+        <v>3.0629</v>
       </c>
       <c r="G18" s="2">
-        <v>1.3097000000000001</v>
+        <v>1.2199</v>
       </c>
       <c r="H18" s="6">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.2346</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.2266</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="O18" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P18" s="2">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="R18" s="2">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="S18" s="2">
+        <v>3.1074000000000002</v>
+      </c>
+      <c r="T18" s="2">
+        <v>3.0167000000000002</v>
+      </c>
+      <c r="U18" s="2">
+        <v>1.37E-2</v>
+      </c>
+      <c r="V18" s="2">
+        <v>1.2367999999999999</v>
+      </c>
+      <c r="W18" s="2">
+        <v>1.2032</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0.24660000000000001</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3.95E-2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2.3408000000000002</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1.1218999999999999</v>
+      </c>
+      <c r="H19" s="9">
         <v>6.2500000000000003E-6</v>
       </c>
-      <c r="I18" s="2">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.22339999999999999</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.21329999999999999</v>
-      </c>
-      <c r="L18" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.91890000000000005</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="O18" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="P18" s="2">
-        <v>3.9899999999999998E-2</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="R18" s="2">
-        <v>8.1900000000000001E-2</v>
-      </c>
-      <c r="S18" s="2">
-        <v>1.7354000000000001</v>
-      </c>
-      <c r="T18" s="2">
-        <v>1.5353000000000001</v>
-      </c>
-      <c r="U18" s="2">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="V18" s="2">
-        <v>1.331</v>
-      </c>
-      <c r="W18" s="2">
-        <v>1.2881</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.23250000000000001</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.90359999999999996</v>
-      </c>
-      <c r="E19" s="2">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="F19" s="2">
-        <v>5.6917999999999997</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1.3993</v>
-      </c>
-      <c r="H19" s="6">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="I19" s="2">
-        <v>4.5999999999999999E-3</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.2384</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.22720000000000001</v>
-      </c>
-      <c r="L19" s="2">
-        <v>3.8E-3</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0.89870000000000005</v>
-      </c>
-      <c r="O19" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="P19" s="2">
-        <v>4.07E-2</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>4.02E-2</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0.12189999999999999</v>
-      </c>
-      <c r="S19" s="2">
-        <v>5.8236999999999997</v>
-      </c>
-      <c r="T19" s="2">
-        <v>5.5297000000000001</v>
-      </c>
-      <c r="U19" s="2">
-        <v>5.3199999999999997E-2</v>
-      </c>
-      <c r="V19" s="2">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="W19" s="2">
-        <v>1.3244</v>
+      <c r="I19" s="5">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0.25290000000000001</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.2389</v>
+      </c>
+      <c r="L19" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M19" s="5">
+        <v>0.8982</v>
+      </c>
+      <c r="N19" s="5">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="O19" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="P19" s="5">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="R19" s="5">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="S19" s="5">
+        <v>2.3841999999999999</v>
+      </c>
+      <c r="T19" s="5">
+        <v>2.2993999999999999</v>
+      </c>
+      <c r="U19" s="5">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="V19" s="5">
+        <v>1.1324000000000001</v>
+      </c>
+      <c r="W19" s="5">
+        <v>1.1133</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
@@ -2086,570 +2088,570 @@
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2">
-        <v>0.249</v>
+        <v>0.21729999999999999</v>
       </c>
       <c r="D20" s="2">
-        <v>0.88949999999999996</v>
+        <v>0.91579999999999995</v>
       </c>
       <c r="E20" s="2">
-        <v>4.1399999999999999E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="F20" s="2">
-        <v>6.3574000000000002</v>
+        <v>1.6396999999999999</v>
       </c>
       <c r="G20" s="2">
-        <v>1.3637999999999999</v>
+        <v>1.3097000000000001</v>
       </c>
       <c r="H20" s="6">
-        <v>1.2500000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I20" s="2">
-        <v>1.9E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="J20" s="2">
-        <v>0.2515</v>
+        <v>0.22339999999999999</v>
       </c>
       <c r="K20" s="2">
-        <v>0.24709999999999999</v>
+        <v>0.21329999999999999</v>
       </c>
       <c r="L20" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="M20" s="2">
-        <v>0.89119999999999999</v>
+        <v>0.91890000000000005</v>
       </c>
       <c r="N20" s="2">
-        <v>0.88719999999999999</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="O20" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P20" s="2">
-        <v>4.2000000000000003E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="Q20" s="2">
-        <v>4.0800000000000003E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="R20" s="2">
-        <v>0.1777</v>
+        <v>8.1900000000000001E-2</v>
       </c>
       <c r="S20" s="2">
-        <v>6.6025999999999998</v>
+        <v>1.7354000000000001</v>
       </c>
       <c r="T20" s="2">
-        <v>6.1874000000000002</v>
+        <v>1.5353000000000001</v>
       </c>
       <c r="U20" s="2">
-        <v>3.5900000000000001E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="V20" s="2">
-        <v>1.403</v>
+        <v>1.331</v>
       </c>
       <c r="W20" s="2">
-        <v>1.3162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.2881</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2">
-        <v>0.2271</v>
+        <v>0.222</v>
       </c>
       <c r="D21" s="2">
-        <v>0.90810000000000002</v>
+        <v>0.91210000000000002</v>
       </c>
       <c r="E21" s="2">
-        <v>4.1500000000000002E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="F21" s="2">
-        <v>4.4733000000000001</v>
+        <v>5.0961999999999996</v>
       </c>
       <c r="G21" s="2">
-        <v>1.5087999999999999</v>
+        <v>1.2612000000000001</v>
       </c>
       <c r="H21" s="6">
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.21959999999999999</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1.4E-3</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="O21" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="R21" s="2">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="S21" s="2">
+        <v>5.1534000000000004</v>
+      </c>
+      <c r="T21" s="2">
+        <v>5.0506000000000002</v>
+      </c>
+      <c r="U21" s="2">
+        <v>2.69E-2</v>
+      </c>
+      <c r="V21" s="2">
+        <v>1.2866</v>
+      </c>
+      <c r="W21" s="2">
+        <v>1.2239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.25159999999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.8871</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5.7820999999999998</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.2365999999999999</v>
+      </c>
+      <c r="H22" s="6">
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="I21" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.2273</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.2268</v>
-      </c>
-      <c r="L21" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0.9083</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0.90790000000000004</v>
-      </c>
-      <c r="O21" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="P21" s="2">
-        <v>4.1599999999999998E-2</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>4.1300000000000003E-2</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0.19869999999999999</v>
-      </c>
-      <c r="S21" s="2">
-        <v>4.6665000000000001</v>
-      </c>
-      <c r="T21" s="2">
-        <v>4.2000999999999999</v>
-      </c>
-      <c r="U21" s="2">
-        <v>3.3599999999999998E-2</v>
-      </c>
-      <c r="V21" s="2">
-        <v>1.5383</v>
-      </c>
-      <c r="W21" s="2">
-        <v>1.4617</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="5">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="D22" s="5">
-        <v>0.89639999999999997</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="I22" s="2">
+        <v>2.3E-3</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.25430000000000003</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.24859999999999999</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="O22" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P22" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Q22" s="2">
         <v>0.04</v>
       </c>
-      <c r="F22" s="5">
-        <v>1.9583999999999999</v>
-      </c>
-      <c r="G22" s="5">
-        <v>1.0406</v>
-      </c>
-      <c r="H22" s="9">
-        <v>1.2500000000000001E-5</v>
-      </c>
-      <c r="I22" s="5">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0.24529999999999999</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0.2349</v>
-      </c>
-      <c r="L22" s="5">
-        <v>3.8E-3</v>
-      </c>
-      <c r="M22" s="5">
-        <v>0.90169999999999995</v>
-      </c>
-      <c r="N22" s="5">
-        <v>0.89270000000000005</v>
-      </c>
-      <c r="O22" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="P22" s="5">
-        <v>4.02E-2</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>3.9899999999999998E-2</v>
-      </c>
-      <c r="R22" s="5">
-        <v>0.1013</v>
-      </c>
-      <c r="S22" s="5">
-        <v>2.0979999999999999</v>
-      </c>
-      <c r="T22" s="5">
-        <v>1.8609</v>
-      </c>
-      <c r="U22" s="5">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="V22" s="5">
-        <v>1.0744</v>
-      </c>
-      <c r="W22" s="5">
-        <v>1.0158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="R22" s="2">
+        <v>2.58E-2</v>
+      </c>
+      <c r="S22" s="2">
+        <v>5.8181000000000003</v>
+      </c>
+      <c r="T22" s="2">
+        <v>5.7591999999999999</v>
+      </c>
+      <c r="U22" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1.2484</v>
+      </c>
+      <c r="W22" s="2">
+        <v>1.2154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2">
-        <v>0.23499999999999999</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="D23" s="2">
-        <v>0.90159999999999996</v>
+        <v>0.90359999999999996</v>
       </c>
       <c r="E23" s="2">
-        <v>4.2099999999999999E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="F23" s="2">
-        <v>4.9897999999999998</v>
+        <v>5.6917999999999997</v>
       </c>
       <c r="G23" s="2">
-        <v>1.5425</v>
+        <v>1.3993</v>
       </c>
       <c r="H23" s="6">
         <v>6.2500000000000003E-6</v>
       </c>
       <c r="I23" s="2">
-        <v>3.5999999999999999E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="J23" s="2">
-        <v>0.24010000000000001</v>
+        <v>0.2384</v>
       </c>
       <c r="K23" s="2">
-        <v>0.2324</v>
+        <v>0.22720000000000001</v>
       </c>
       <c r="L23" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="M23" s="2">
-        <v>0.90380000000000005</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="N23" s="2">
-        <v>0.89729999999999999</v>
+        <v>0.89870000000000005</v>
       </c>
       <c r="O23" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P23" s="2">
-        <v>4.2900000000000001E-2</v>
+        <v>4.07E-2</v>
       </c>
       <c r="Q23" s="2">
-        <v>4.1099999999999998E-2</v>
+        <v>4.02E-2</v>
       </c>
       <c r="R23" s="2">
-        <v>0.31440000000000001</v>
+        <v>0.12189999999999999</v>
       </c>
       <c r="S23" s="2">
-        <v>5.3608000000000002</v>
+        <v>5.8236999999999997</v>
       </c>
       <c r="T23" s="2">
-        <v>4.5921000000000003</v>
+        <v>5.5297000000000001</v>
       </c>
       <c r="U23" s="2">
-        <v>5.6599999999999998E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="V23" s="2">
-        <v>1.61</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="W23" s="2">
-        <v>1.4715</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+        <v>1.3244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.24329999999999999</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.89439999999999997</v>
-      </c>
-      <c r="E24" s="2">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="F24" s="2">
-        <v>2.3069999999999999</v>
-      </c>
-      <c r="G24" s="2">
-        <v>1.0162</v>
-      </c>
-      <c r="H24" s="6">
-        <v>3.1250000000000001E-6</v>
-      </c>
-      <c r="I24" s="2">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="J24" s="2">
-        <v>0.25369999999999998</v>
-      </c>
-      <c r="K24" s="2">
-        <v>0.2366</v>
-      </c>
-      <c r="L24" s="2">
-        <v>6.6E-3</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0.9002</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0.88519999999999999</v>
-      </c>
-      <c r="O24" s="2">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="P24" s="2">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>3.85E-2</v>
-      </c>
-      <c r="R24" s="2">
-        <v>0.1026</v>
-      </c>
-      <c r="S24" s="2">
-        <v>2.4051999999999998</v>
-      </c>
-      <c r="T24" s="2">
-        <v>2.1652999999999998</v>
-      </c>
-      <c r="U24" s="2">
-        <v>4.5600000000000002E-2</v>
-      </c>
-      <c r="V24" s="2">
-        <v>1.0795999999999999</v>
-      </c>
-      <c r="W24" s="2">
-        <v>0.97440000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="3">
+        <v>0.2311</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="E24" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.4258</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.3076000000000001</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>3.8E-3</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.2364</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0.22770000000000001</v>
+      </c>
+      <c r="L24" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="O24" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P24" s="3">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="R24" s="3">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1.4936</v>
+      </c>
+      <c r="T24" s="3">
+        <v>1.3716999999999999</v>
+      </c>
+      <c r="U24" s="3">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="V24" s="3">
+        <v>1.3357000000000001</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1.2837000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
-        <v>0.2457</v>
+        <v>0.249</v>
       </c>
       <c r="D25" s="2">
-        <v>0.89239999999999997</v>
+        <v>0.88949999999999996</v>
       </c>
       <c r="E25" s="2">
-        <v>3.9699999999999999E-2</v>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="F25" s="2">
-        <v>2.2677999999999998</v>
+        <v>6.3574000000000002</v>
       </c>
       <c r="G25" s="2">
-        <v>0.97989999999999999</v>
+        <v>1.3637999999999999</v>
       </c>
       <c r="H25" s="6">
-        <v>2.5000000000000001E-5</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I25" s="2">
-        <v>2.3999999999999998E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="J25" s="2">
-        <v>0.24840000000000001</v>
+        <v>0.2515</v>
       </c>
       <c r="K25" s="2">
-        <v>0.24249999999999999</v>
+        <v>0.24709999999999999</v>
       </c>
       <c r="L25" s="2">
-        <v>2.0999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="M25" s="2">
-        <v>0.8952</v>
+        <v>0.89119999999999999</v>
       </c>
       <c r="N25" s="2">
-        <v>0.89</v>
+        <v>0.88719999999999999</v>
       </c>
       <c r="O25" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P25" s="2">
-        <v>4.0399999999999998E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="Q25" s="2">
-        <v>3.8699999999999998E-2</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="R25" s="2">
-        <v>4.02E-2</v>
+        <v>0.1777</v>
       </c>
       <c r="S25" s="2">
-        <v>2.3096000000000001</v>
+        <v>6.6025999999999998</v>
       </c>
       <c r="T25" s="2">
-        <v>2.2136</v>
+        <v>6.1874000000000002</v>
       </c>
       <c r="U25" s="2">
-        <v>2.8199999999999999E-2</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="V25" s="2">
-        <v>1.0024999999999999</v>
+        <v>1.403</v>
       </c>
       <c r="W25" s="2">
-        <v>0.94010000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.3162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C26" s="2">
-        <v>0.2384</v>
+        <v>0.2271</v>
       </c>
       <c r="D26" s="2">
-        <v>0.89859999999999995</v>
+        <v>0.90810000000000002</v>
       </c>
       <c r="E26" s="2">
-        <v>4.3200000000000002E-2</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="F26" s="2">
-        <v>3.5800999999999998</v>
+        <v>4.4733000000000001</v>
       </c>
       <c r="G26" s="2">
-        <v>1.5992</v>
+        <v>1.5087999999999999</v>
       </c>
       <c r="H26" s="6">
-        <v>2.5000000000000001E-5</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I26" s="2">
-        <v>2.8E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J26" s="2">
-        <v>0.24210000000000001</v>
+        <v>0.2273</v>
       </c>
       <c r="K26" s="2">
-        <v>0.2354</v>
+        <v>0.2268</v>
       </c>
       <c r="L26" s="2">
-        <v>2.3999999999999998E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M26" s="2">
-        <v>0.9012</v>
+        <v>0.9083</v>
       </c>
       <c r="N26" s="2">
-        <v>0.89549999999999996</v>
+        <v>0.90790000000000004</v>
       </c>
       <c r="O26" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P26" s="2">
-        <v>4.3499999999999997E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="Q26" s="2">
-        <v>4.2700000000000002E-2</v>
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="R26" s="2">
-        <v>6.9500000000000006E-2</v>
+        <v>0.19869999999999999</v>
       </c>
       <c r="S26" s="2">
-        <v>3.6783000000000001</v>
+        <v>4.6665000000000001</v>
       </c>
       <c r="T26" s="2">
-        <v>3.5278999999999998</v>
+        <v>4.2000999999999999</v>
       </c>
       <c r="U26" s="2">
-        <v>0.03</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="V26" s="2">
-        <v>1.6215999999999999</v>
+        <v>1.5383</v>
       </c>
       <c r="W26" s="2">
-        <v>1.5568</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.4617</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2">
-        <v>0.2465</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="D27" s="2">
-        <v>0.89149999999999996</v>
+        <v>0.90159999999999996</v>
       </c>
       <c r="E27" s="2">
-        <v>4.3400000000000001E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="F27" s="2">
-        <v>4.3446999999999996</v>
+        <v>4.9897999999999998</v>
       </c>
       <c r="G27" s="2">
-        <v>1.6041000000000001</v>
+        <v>1.5425</v>
       </c>
       <c r="H27" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I27" s="2">
-        <v>1.06E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="J27" s="2">
-        <v>0.26</v>
+        <v>0.24010000000000001</v>
       </c>
       <c r="K27" s="2">
-        <v>0.23400000000000001</v>
+        <v>0.2324</v>
       </c>
       <c r="L27" s="2">
-        <v>9.4000000000000004E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="M27" s="2">
-        <v>0.90239999999999998</v>
+        <v>0.90380000000000005</v>
       </c>
       <c r="N27" s="2">
-        <v>0.87949999999999995</v>
+        <v>0.89729999999999999</v>
       </c>
       <c r="O27" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="P27" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="Q27" s="2">
-        <v>4.3099999999999999E-2</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="R27" s="2">
-        <v>0.1153</v>
+        <v>0.31440000000000001</v>
       </c>
       <c r="S27" s="2">
-        <v>4.5061999999999998</v>
+        <v>5.3608000000000002</v>
       </c>
       <c r="T27" s="2">
-        <v>4.2450999999999999</v>
+        <v>4.5921000000000003</v>
       </c>
       <c r="U27" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="V27" s="2">
-        <v>1.6476</v>
+        <v>1.61</v>
       </c>
       <c r="W27" s="2">
-        <v>1.542</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.4715</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -2720,1001 +2722,1001 @@
         <v>1.6212</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C29" s="2">
-        <v>0.24049999999999999</v>
+        <v>0.2384</v>
       </c>
       <c r="D29" s="2">
-        <v>0.89690000000000003</v>
+        <v>0.89859999999999995</v>
       </c>
       <c r="E29" s="2">
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="F29" s="2">
-        <v>6.3140999999999998</v>
+        <v>3.5800999999999998</v>
       </c>
       <c r="G29" s="2">
-        <v>1.6345000000000001</v>
+        <v>1.5992</v>
       </c>
       <c r="H29" s="6">
-        <v>6.2500000000000003E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I29" s="2">
-        <v>4.7999999999999996E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="J29" s="2">
-        <v>0.2447</v>
+        <v>0.24210000000000001</v>
       </c>
       <c r="K29" s="2">
-        <v>0.23380000000000001</v>
+        <v>0.2354</v>
       </c>
       <c r="L29" s="2">
-        <v>4.1000000000000003E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="M29" s="2">
-        <v>0.90259999999999996</v>
+        <v>0.9012</v>
       </c>
       <c r="N29" s="2">
-        <v>0.89329999999999998</v>
+        <v>0.89549999999999996</v>
       </c>
       <c r="O29" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P29" s="2">
-        <v>4.3700000000000003E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="Q29" s="2">
-        <v>4.2500000000000003E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="R29" s="2">
-        <v>0.13009999999999999</v>
+        <v>6.9500000000000006E-2</v>
       </c>
       <c r="S29" s="2">
-        <v>6.4614000000000003</v>
+        <v>3.6783000000000001</v>
       </c>
       <c r="T29" s="2">
-        <v>6.1448999999999998</v>
+        <v>3.5278999999999998</v>
       </c>
       <c r="U29" s="2">
-        <v>4.6399999999999997E-2</v>
+        <v>0.03</v>
       </c>
       <c r="V29" s="2">
-        <v>1.6998</v>
+        <v>1.6215999999999999</v>
       </c>
       <c r="W29" s="2">
-        <v>1.5963000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.5568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2">
-        <v>0.2492</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="D30" s="2">
-        <v>0.88919999999999999</v>
+        <v>0.89690000000000003</v>
       </c>
       <c r="E30" s="2">
-        <v>4.0300000000000002E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="F30" s="2">
-        <v>3.0945</v>
+        <v>6.3140999999999998</v>
       </c>
       <c r="G30" s="2">
-        <v>0.95250000000000001</v>
+        <v>1.6345000000000001</v>
       </c>
       <c r="H30" s="6">
         <v>6.2500000000000003E-6</v>
       </c>
       <c r="I30" s="2">
-        <v>7.9000000000000008E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="J30" s="2">
-        <v>0.26</v>
+        <v>0.2447</v>
       </c>
       <c r="K30" s="2">
-        <v>0.24160000000000001</v>
+        <v>0.23380000000000001</v>
       </c>
       <c r="L30" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="M30" s="2">
-        <v>0.89590000000000003</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="N30" s="2">
-        <v>0.87960000000000005</v>
+        <v>0.89329999999999998</v>
       </c>
       <c r="O30" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P30" s="2">
-        <v>4.1099999999999998E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="Q30" s="2">
-        <v>3.9199999999999999E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="R30" s="2">
-        <v>0.09</v>
+        <v>0.13009999999999999</v>
       </c>
       <c r="S30" s="2">
-        <v>3.2073999999999998</v>
+        <v>6.4614000000000003</v>
       </c>
       <c r="T30" s="2">
-        <v>2.9872000000000001</v>
+        <v>6.1448999999999998</v>
       </c>
       <c r="U30" s="2">
-        <v>7.7000000000000002E-3</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="V30" s="2">
-        <v>0.9587</v>
+        <v>1.6998</v>
       </c>
       <c r="W30" s="2">
-        <v>0.94169999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.5963000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2">
-        <v>0.25180000000000002</v>
+        <v>0.2465</v>
       </c>
       <c r="D31" s="2">
-        <v>0.88700000000000001</v>
+        <v>0.89149999999999996</v>
       </c>
       <c r="E31" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>4.3400000000000001E-2</v>
       </c>
       <c r="F31" s="2">
-        <v>7.2229999999999999</v>
+        <v>4.3446999999999996</v>
       </c>
       <c r="G31" s="2">
-        <v>1.6734</v>
+        <v>1.6041000000000001</v>
       </c>
       <c r="H31" s="6">
         <v>3.1250000000000001E-6</v>
       </c>
       <c r="I31" s="2">
-        <v>4.7999999999999996E-3</v>
+        <v>1.06E-2</v>
       </c>
       <c r="J31" s="2">
-        <v>0.2581</v>
+        <v>0.26</v>
       </c>
       <c r="K31" s="2">
-        <v>0.24640000000000001</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="L31" s="2">
-        <v>4.3E-3</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="M31" s="2">
-        <v>0.89180000000000004</v>
+        <v>0.90239999999999998</v>
       </c>
       <c r="N31" s="2">
-        <v>0.88129999999999997</v>
+        <v>0.87949999999999995</v>
       </c>
       <c r="O31" s="2">
-        <v>1E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P31" s="2">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q31" s="2">
-        <v>4.3799999999999999E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="R31" s="2">
-        <v>4.5499999999999999E-2</v>
+        <v>0.1153</v>
       </c>
       <c r="S31" s="2">
-        <v>7.2816999999999998</v>
+        <v>4.5061999999999998</v>
       </c>
       <c r="T31" s="2">
-        <v>7.1710000000000003</v>
+        <v>4.2450999999999999</v>
       </c>
       <c r="U31" s="2">
-        <v>1.5900000000000001E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="V31" s="2">
-        <v>1.6875</v>
+        <v>1.6476</v>
       </c>
       <c r="W31" s="2">
-        <v>1.6511</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="C32" s="2">
-        <v>0.2286</v>
+        <v>0.25180000000000002</v>
       </c>
       <c r="D32" s="2">
-        <v>0.90690000000000004</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="E32" s="2">
-        <v>4.4200000000000003E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F32" s="2">
-        <v>2.8605</v>
+        <v>7.2229999999999999</v>
       </c>
       <c r="G32" s="2">
-        <v>1.7045999999999999</v>
+        <v>1.6734</v>
       </c>
       <c r="H32" s="6">
-        <v>2.5000000000000001E-5</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I32" s="2">
-        <v>4.1999999999999997E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="J32" s="2">
-        <v>0.2344</v>
+        <v>0.2581</v>
       </c>
       <c r="K32" s="2">
-        <v>0.22459999999999999</v>
+        <v>0.24640000000000001</v>
       </c>
       <c r="L32" s="2">
-        <v>3.3999999999999998E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="M32" s="2">
-        <v>0.91010000000000002</v>
+        <v>0.89180000000000004</v>
       </c>
       <c r="N32" s="2">
-        <v>0.90210000000000001</v>
+        <v>0.88129999999999997</v>
       </c>
       <c r="O32" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P32" s="2">
-        <v>4.4600000000000001E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q32" s="2">
         <v>4.3799999999999999E-2</v>
       </c>
       <c r="R32" s="2">
-        <v>4.2099999999999999E-2</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="S32" s="2">
-        <v>2.9194</v>
+        <v>7.2816999999999998</v>
       </c>
       <c r="T32" s="2">
-        <v>2.8243999999999998</v>
+        <v>7.1710000000000003</v>
       </c>
       <c r="U32" s="2">
-        <v>2.4E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="V32" s="2">
-        <v>1.7299</v>
+        <v>1.6875</v>
       </c>
       <c r="W32" s="2">
-        <v>1.6722999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.6511</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2">
-        <v>0.26300000000000001</v>
+        <v>0.2286</v>
       </c>
       <c r="D33" s="2">
-        <v>0.87670000000000003</v>
+        <v>0.90690000000000004</v>
       </c>
       <c r="E33" s="2">
-        <v>4.2599999999999999E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="F33" s="2">
-        <v>5.0528000000000004</v>
+        <v>2.8605</v>
       </c>
       <c r="G33" s="2">
-        <v>1.0149999999999999</v>
+        <v>1.7045999999999999</v>
       </c>
       <c r="H33" s="6">
-        <v>1.2500000000000001E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I33" s="2">
-        <v>2.8999999999999998E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="J33" s="2">
-        <v>0.2671</v>
+        <v>0.2344</v>
       </c>
       <c r="K33" s="2">
-        <v>0.26050000000000001</v>
+        <v>0.22459999999999999</v>
       </c>
       <c r="L33" s="2">
-        <v>2.8E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="M33" s="2">
-        <v>0.87909999999999999</v>
+        <v>0.91010000000000002</v>
       </c>
       <c r="N33" s="2">
-        <v>0.87280000000000002</v>
+        <v>0.90210000000000001</v>
       </c>
       <c r="O33" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P33" s="2">
-        <v>4.2999999999999997E-2</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="Q33" s="2">
-        <v>4.19E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="R33" s="2">
-        <v>0.10050000000000001</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="S33" s="2">
-        <v>5.1502999999999997</v>
+        <v>2.9194</v>
       </c>
       <c r="T33" s="2">
-        <v>4.9143999999999997</v>
+        <v>2.8243999999999998</v>
       </c>
       <c r="U33" s="2">
-        <v>1.7500000000000002E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="V33" s="2">
-        <v>1.0322</v>
+        <v>1.7299</v>
       </c>
       <c r="W33" s="2">
-        <v>0.9909</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.6722999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C34" s="2">
-        <v>0.34499999999999997</v>
+        <v>0.3493</v>
       </c>
       <c r="D34" s="2">
-        <v>0.78769999999999996</v>
+        <v>0.78249999999999997</v>
       </c>
       <c r="E34" s="2">
-        <v>5.6300000000000003E-2</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="F34" s="2">
-        <v>9.2777999999999992</v>
+        <v>10.982900000000001</v>
       </c>
       <c r="G34" s="2">
-        <v>3.1677</v>
+        <v>3.2383000000000002</v>
       </c>
       <c r="H34" s="6">
-        <v>7.8125000000000004E-7</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I34" s="2">
-        <v>7.1000000000000004E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J34" s="2">
-        <v>0.3528</v>
+        <v>0.35060000000000002</v>
       </c>
       <c r="K34" s="2">
-        <v>0.3357</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="L34" s="2">
-        <v>8.6999999999999994E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="M34" s="2">
-        <v>0.79910000000000003</v>
+        <v>0.7853</v>
       </c>
       <c r="N34" s="2">
-        <v>0.77810000000000001</v>
+        <v>0.78090000000000004</v>
       </c>
       <c r="O34" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="P34" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="Q34" s="2">
-        <v>5.5800000000000002E-2</v>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="R34" s="2">
-        <v>9.0800000000000006E-2</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="S34" s="2">
-        <v>9.3751999999999995</v>
+        <v>11.0199</v>
       </c>
       <c r="T34" s="2">
-        <v>9.1565999999999992</v>
+        <v>10.958600000000001</v>
       </c>
       <c r="U34" s="2">
-        <v>3.3500000000000002E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="V34" s="2">
-        <v>3.1937000000000002</v>
+        <v>3.2440000000000002</v>
       </c>
       <c r="W34" s="2">
-        <v>3.1204000000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.2353999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2">
-        <v>0.34029999999999999</v>
+        <v>0.34810000000000002</v>
       </c>
       <c r="D35" s="2">
-        <v>0.79349999999999998</v>
+        <v>0.78380000000000005</v>
       </c>
       <c r="E35" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="F35" s="2">
-        <v>8.4863</v>
+        <v>9.7302999999999997</v>
       </c>
       <c r="G35" s="2">
-        <v>3.1833</v>
+        <v>3.2170000000000001</v>
       </c>
       <c r="H35" s="6">
-        <v>1.5625000000000001E-6</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I35" s="2">
-        <v>6.4999999999999997E-3</v>
+        <v>1.15E-2</v>
       </c>
       <c r="J35" s="2">
-        <v>0.34949999999999998</v>
+        <v>0.36380000000000001</v>
       </c>
       <c r="K35" s="2">
-        <v>0.3357</v>
+        <v>0.33639999999999998</v>
       </c>
       <c r="L35" s="2">
-        <v>7.9000000000000008E-3</v>
+        <v>1.44E-2</v>
       </c>
       <c r="M35" s="2">
-        <v>0.79910000000000003</v>
+        <v>0.79830000000000001</v>
       </c>
       <c r="N35" s="2">
-        <v>0.7823</v>
+        <v>0.76419999999999999</v>
       </c>
       <c r="O35" s="2">
-        <v>1E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P35" s="2">
-        <v>5.7099999999999998E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="Q35" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="R35" s="2">
-        <v>5.3199999999999997E-2</v>
+        <v>0.1021</v>
       </c>
       <c r="S35" s="2">
-        <v>8.5442</v>
+        <v>9.8604000000000003</v>
       </c>
       <c r="T35" s="2">
-        <v>8.4156999999999993</v>
+        <v>9.6111000000000004</v>
       </c>
       <c r="U35" s="2">
-        <v>8.3099999999999993E-2</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="V35" s="2">
-        <v>3.2715999999999998</v>
+        <v>3.2744</v>
       </c>
       <c r="W35" s="2">
-        <v>3.0720000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.1248999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2">
-        <v>0.34129999999999999</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="D36" s="2">
-        <v>0.7923</v>
+        <v>0.78769999999999996</v>
       </c>
       <c r="E36" s="2">
-        <v>5.7200000000000001E-2</v>
+        <v>5.6300000000000003E-2</v>
       </c>
       <c r="F36" s="2">
-        <v>9.6792999999999996</v>
+        <v>9.2777999999999992</v>
       </c>
       <c r="G36" s="2">
-        <v>3.1972</v>
+        <v>3.1677</v>
       </c>
       <c r="H36" s="6">
-        <v>1.5625000000000001E-6</v>
+        <v>7.8125000000000004E-7</v>
       </c>
       <c r="I36" s="2">
-        <v>8.8999999999999999E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="J36" s="2">
-        <v>0.3538</v>
+        <v>0.3528</v>
       </c>
       <c r="K36" s="2">
-        <v>0.33489999999999998</v>
+        <v>0.3357</v>
       </c>
       <c r="L36" s="2">
-        <v>1.09E-2</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="M36" s="2">
-        <v>0.80010000000000003</v>
+        <v>0.79910000000000003</v>
       </c>
       <c r="N36" s="2">
-        <v>0.77690000000000003</v>
+        <v>0.77810000000000001</v>
       </c>
       <c r="O36" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P36" s="2">
-        <v>5.7599999999999998E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="Q36" s="2">
-        <v>5.6899999999999999E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="R36" s="2">
-        <v>7.9799999999999996E-2</v>
+        <v>9.0800000000000006E-2</v>
       </c>
       <c r="S36" s="2">
-        <v>9.7509999999999994</v>
+        <v>9.3751999999999995</v>
       </c>
       <c r="T36" s="2">
-        <v>9.5679999999999996</v>
+        <v>9.1565999999999992</v>
       </c>
       <c r="U36" s="2">
-        <v>5.9200000000000003E-2</v>
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="V36" s="2">
-        <v>3.2605</v>
+        <v>3.1937000000000002</v>
       </c>
       <c r="W36" s="2">
-        <v>3.1181000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.1204000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
-        <v>0.34250000000000003</v>
+        <v>0.34129999999999999</v>
       </c>
       <c r="D37" s="2">
-        <v>0.79090000000000005</v>
+        <v>0.79239999999999999</v>
       </c>
       <c r="E37" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="F37" s="2">
-        <v>8.4193999999999996</v>
+        <v>8.1373999999999995</v>
       </c>
       <c r="G37" s="2">
-        <v>3.2014</v>
+        <v>3.2317</v>
       </c>
       <c r="H37" s="6">
-        <v>1.5625000000000001E-6</v>
+        <v>7.8125000000000004E-7</v>
       </c>
       <c r="I37" s="2">
-        <v>4.4999999999999997E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="J37" s="2">
-        <v>0.34849999999999998</v>
+        <v>0.34739999999999999</v>
       </c>
       <c r="K37" s="2">
-        <v>0.33750000000000002</v>
+        <v>0.33550000000000002</v>
       </c>
       <c r="L37" s="2">
-        <v>5.5999999999999999E-3</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="M37" s="2">
-        <v>0.79700000000000004</v>
+        <v>0.79930000000000001</v>
       </c>
       <c r="N37" s="2">
-        <v>0.78349999999999997</v>
+        <v>0.78490000000000004</v>
       </c>
       <c r="O37" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P37" s="2">
-        <v>5.7200000000000001E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="Q37" s="2">
-        <v>5.6899999999999999E-2</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="R37" s="2">
-        <v>5.8200000000000002E-2</v>
+        <v>0.108</v>
       </c>
       <c r="S37" s="2">
-        <v>8.4974000000000007</v>
+        <v>8.2614000000000001</v>
       </c>
       <c r="T37" s="2">
-        <v>8.3575999999999997</v>
+        <v>7.9981999999999998</v>
       </c>
       <c r="U37" s="2">
-        <v>4.7699999999999999E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="V37" s="2">
-        <v>3.2688999999999999</v>
+        <v>3.2709000000000001</v>
       </c>
       <c r="W37" s="2">
-        <v>3.1657999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.1983999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C38" s="2">
-        <v>0.34810000000000002</v>
+        <v>0.34029999999999999</v>
       </c>
       <c r="D38" s="2">
-        <v>0.78380000000000005</v>
+        <v>0.79349999999999998</v>
       </c>
       <c r="E38" s="2">
-        <v>5.62E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F38" s="2">
-        <v>9.7302999999999997</v>
+        <v>8.4863</v>
       </c>
       <c r="G38" s="2">
-        <v>3.2170000000000001</v>
+        <v>3.1833</v>
       </c>
       <c r="H38" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I38" s="2">
-        <v>1.15E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="J38" s="2">
-        <v>0.36380000000000001</v>
+        <v>0.34949999999999998</v>
       </c>
       <c r="K38" s="2">
-        <v>0.33639999999999998</v>
+        <v>0.3357</v>
       </c>
       <c r="L38" s="2">
-        <v>1.44E-2</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="M38" s="2">
-        <v>0.79830000000000001</v>
+        <v>0.79910000000000003</v>
       </c>
       <c r="N38" s="2">
-        <v>0.76419999999999999</v>
+        <v>0.7823</v>
       </c>
       <c r="O38" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P38" s="2">
-        <v>5.6899999999999999E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="Q38" s="2">
-        <v>5.5800000000000002E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="R38" s="2">
-        <v>0.1021</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="S38" s="2">
-        <v>9.8604000000000003</v>
+        <v>8.5442</v>
       </c>
       <c r="T38" s="2">
-        <v>9.6111000000000004</v>
+        <v>8.4156999999999993</v>
       </c>
       <c r="U38" s="2">
-        <v>6.5799999999999997E-2</v>
+        <v>8.3099999999999993E-2</v>
       </c>
       <c r="V38" s="2">
-        <v>3.2744</v>
+        <v>3.2715999999999998</v>
       </c>
       <c r="W38" s="2">
-        <v>3.1248999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.0720000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2">
-        <v>0.33760000000000001</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="D39" s="2">
-        <v>0.79679999999999995</v>
+        <v>0.79090000000000005</v>
       </c>
       <c r="E39" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F39" s="2">
-        <v>9.9016999999999999</v>
+        <v>8.4193999999999996</v>
       </c>
       <c r="G39" s="2">
-        <v>3.2170999999999998</v>
+        <v>3.2014</v>
       </c>
       <c r="H39" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I39" s="2">
-        <v>1E-4</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="J39" s="2">
-        <v>0.33779999999999999</v>
+        <v>0.34849999999999998</v>
       </c>
       <c r="K39" s="2">
         <v>0.33750000000000002</v>
       </c>
       <c r="L39" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="M39" s="2">
         <v>0.79700000000000004</v>
       </c>
       <c r="N39" s="2">
-        <v>0.79659999999999997</v>
+        <v>0.78349999999999997</v>
       </c>
       <c r="O39" s="2">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P39" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="Q39" s="2">
         <v>5.6899999999999999E-2</v>
       </c>
       <c r="R39" s="2">
-        <v>5.8999999999999997E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="S39" s="2">
-        <v>9.9810999999999996</v>
+        <v>8.4974000000000007</v>
       </c>
       <c r="T39" s="2">
-        <v>9.8398000000000003</v>
+        <v>8.3575999999999997</v>
       </c>
       <c r="U39" s="2">
-        <v>4.2599999999999999E-2</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="V39" s="2">
-        <v>3.2770000000000001</v>
+        <v>3.2688999999999999</v>
       </c>
       <c r="W39" s="2">
-        <v>3.1821000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.1657999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C40" s="2">
-        <v>0.3473</v>
+        <v>0.33760000000000001</v>
       </c>
       <c r="D40" s="2">
-        <v>0.78510000000000002</v>
+        <v>0.79679999999999995</v>
       </c>
       <c r="E40" s="2">
-        <v>5.7099999999999998E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F40" s="2">
-        <v>7.2785000000000002</v>
+        <v>9.9016999999999999</v>
       </c>
       <c r="G40" s="2">
-        <v>3.2187999999999999</v>
+        <v>3.2170999999999998</v>
       </c>
       <c r="H40" s="6">
-        <v>7.8125000000000004E-7</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I40" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="J40" s="2">
-        <v>0.35139999999999999</v>
+        <v>0.33779999999999999</v>
       </c>
       <c r="K40" s="2">
-        <v>0.34279999999999999</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="L40" s="2">
-        <v>4.3E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M40" s="2">
-        <v>0.79059999999999997</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="N40" s="2">
-        <v>0.78</v>
+        <v>0.79659999999999997</v>
       </c>
       <c r="O40" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="P40" s="2">
-        <v>5.74E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="Q40" s="2">
         <v>5.6899999999999999E-2</v>
       </c>
       <c r="R40" s="2">
-        <v>0.1057</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="S40" s="2">
-        <v>7.3810000000000002</v>
+        <v>9.9810999999999996</v>
       </c>
       <c r="T40" s="2">
-        <v>7.133</v>
+        <v>9.8398000000000003</v>
       </c>
       <c r="U40" s="2">
-        <v>2E-3</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="V40" s="2">
-        <v>3.2210999999999999</v>
+        <v>3.2770000000000001</v>
       </c>
       <c r="W40" s="2">
-        <v>3.2161</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.1821000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C41" s="2">
-        <v>0.34129999999999999</v>
+        <v>0.3473</v>
       </c>
       <c r="D41" s="2">
-        <v>0.79239999999999999</v>
+        <v>0.78510000000000002</v>
       </c>
       <c r="E41" s="2">
-        <v>5.6899999999999999E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="F41" s="2">
-        <v>8.1373999999999995</v>
+        <v>7.2785000000000002</v>
       </c>
       <c r="G41" s="2">
-        <v>3.2317</v>
+        <v>3.2187999999999999</v>
       </c>
       <c r="H41" s="6">
         <v>7.8125000000000004E-7</v>
       </c>
       <c r="I41" s="2">
-        <v>4.8999999999999998E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="J41" s="2">
-        <v>0.34739999999999999</v>
+        <v>0.35139999999999999</v>
       </c>
       <c r="K41" s="2">
-        <v>0.33550000000000002</v>
+        <v>0.34279999999999999</v>
       </c>
       <c r="L41" s="2">
-        <v>5.8999999999999999E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="M41" s="2">
-        <v>0.79930000000000001</v>
+        <v>0.79059999999999997</v>
       </c>
       <c r="N41" s="2">
-        <v>0.78490000000000004</v>
+        <v>0.78</v>
       </c>
       <c r="O41" s="2">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P41" s="2">
-        <v>5.7099999999999998E-2</v>
+        <v>5.74E-2</v>
       </c>
       <c r="Q41" s="2">
-        <v>5.6800000000000003E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="R41" s="2">
-        <v>0.108</v>
+        <v>0.1057</v>
       </c>
       <c r="S41" s="2">
-        <v>8.2614000000000001</v>
+        <v>7.3810000000000002</v>
       </c>
       <c r="T41" s="2">
-        <v>7.9981999999999998</v>
+        <v>7.133</v>
       </c>
       <c r="U41" s="2">
-        <v>2.9899999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="V41" s="2">
-        <v>3.2709000000000001</v>
+        <v>3.2210999999999999</v>
       </c>
       <c r="W41" s="2">
-        <v>3.1983999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.2161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C42" s="2">
-        <v>0.3493</v>
+        <v>0.34129999999999999</v>
       </c>
       <c r="D42" s="2">
-        <v>0.78249999999999997</v>
+        <v>0.7923</v>
       </c>
       <c r="E42" s="2">
-        <v>5.6099999999999997E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="F42" s="2">
-        <v>10.982900000000001</v>
+        <v>9.6792999999999996</v>
       </c>
       <c r="G42" s="2">
-        <v>3.2383000000000002</v>
+        <v>3.1972</v>
       </c>
       <c r="H42" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I42" s="2">
-        <v>1.6000000000000001E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="J42" s="2">
-        <v>0.35060000000000002</v>
+        <v>0.3538</v>
       </c>
       <c r="K42" s="2">
-        <v>0.34710000000000002</v>
+        <v>0.33489999999999998</v>
       </c>
       <c r="L42" s="2">
-        <v>2E-3</v>
+        <v>1.09E-2</v>
       </c>
       <c r="M42" s="2">
-        <v>0.7853</v>
+        <v>0.80010000000000003</v>
       </c>
       <c r="N42" s="2">
-        <v>0.78090000000000004</v>
+        <v>0.77690000000000003</v>
       </c>
       <c r="O42" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P42" s="2">
-        <v>5.6599999999999998E-2</v>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="Q42" s="2">
-        <v>5.5199999999999999E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="R42" s="2">
-        <v>2.6599999999999999E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="S42" s="2">
-        <v>11.0199</v>
+        <v>9.7509999999999994</v>
       </c>
       <c r="T42" s="2">
-        <v>10.958600000000001</v>
+        <v>9.5679999999999996</v>
       </c>
       <c r="U42" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="V42" s="2">
-        <v>3.2440000000000002</v>
+        <v>3.2605</v>
       </c>
       <c r="W42" s="2">
-        <v>3.2353999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.1181000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
@@ -3785,149 +3787,149 @@
         <v>3.2435</v>
       </c>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2">
-        <v>0.48830000000000001</v>
+        <v>0.47589999999999999</v>
       </c>
       <c r="D44" s="2">
-        <v>0.50680000000000003</v>
+        <v>0.5252</v>
       </c>
       <c r="E44" s="2">
-        <v>7.6499999999999999E-2</v>
+        <v>7.6300000000000007E-2</v>
       </c>
       <c r="F44" s="2">
-        <v>20.547599999999999</v>
+        <v>20.363900000000001</v>
       </c>
       <c r="G44" s="2">
-        <v>6.8270999999999997</v>
+        <v>6.8353000000000002</v>
       </c>
       <c r="H44" s="6">
-        <v>1.5625000000000001E-6</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I44" s="2">
-        <v>0.1956</v>
+        <v>0.1996</v>
       </c>
       <c r="J44" s="2">
-        <v>0.76459999999999995</v>
+        <v>0.75819999999999999</v>
       </c>
       <c r="K44" s="2">
-        <v>0.33900000000000002</v>
+        <v>0.33460000000000001</v>
       </c>
       <c r="L44" s="2">
-        <v>0.38819999999999999</v>
+        <v>0.38890000000000002</v>
       </c>
       <c r="M44" s="2">
-        <v>0.79510000000000003</v>
+        <v>0.80049999999999999</v>
       </c>
       <c r="N44" s="2">
-        <v>-4.2000000000000003E-2</v>
+        <v>-2.47E-2</v>
       </c>
       <c r="O44" s="2">
-        <v>2.7799999999999998E-2</v>
+        <v>2.7300000000000001E-2</v>
       </c>
       <c r="P44" s="2">
-        <v>0.1158</v>
+        <v>0.1149</v>
       </c>
       <c r="Q44" s="2">
-        <v>5.67E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="R44" s="2">
-        <v>13.2361</v>
+        <v>15.239000000000001</v>
       </c>
       <c r="S44" s="2">
-        <v>39.263100000000001</v>
+        <v>41.914999999999999</v>
       </c>
       <c r="T44" s="2">
-        <v>10.8931</v>
+        <v>9.5381</v>
       </c>
       <c r="U44" s="2">
-        <v>5.0525000000000002</v>
+        <v>5.1262999999999996</v>
       </c>
       <c r="V44" s="2">
-        <v>13.9725</v>
+        <v>14.084899999999999</v>
       </c>
       <c r="W44" s="2">
-        <v>3.2486999999999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.1876000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C45" s="2">
-        <v>0.47589999999999999</v>
+        <v>0.48830000000000001</v>
       </c>
       <c r="D45" s="2">
-        <v>0.5252</v>
+        <v>0.50680000000000003</v>
       </c>
       <c r="E45" s="2">
-        <v>7.6300000000000007E-2</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="F45" s="2">
-        <v>20.363900000000001</v>
+        <v>20.547599999999999</v>
       </c>
       <c r="G45" s="2">
-        <v>6.8353000000000002</v>
+        <v>6.8270999999999997</v>
       </c>
       <c r="H45" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I45" s="2">
-        <v>0.1996</v>
+        <v>0.1956</v>
       </c>
       <c r="J45" s="2">
-        <v>0.75819999999999999</v>
+        <v>0.76459999999999995</v>
       </c>
       <c r="K45" s="2">
-        <v>0.33460000000000001</v>
+        <v>0.33900000000000002</v>
       </c>
       <c r="L45" s="2">
-        <v>0.38890000000000002</v>
+        <v>0.38819999999999999</v>
       </c>
       <c r="M45" s="2">
-        <v>0.80049999999999999</v>
+        <v>0.79510000000000003</v>
       </c>
       <c r="N45" s="2">
-        <v>-2.47E-2</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="O45" s="2">
-        <v>2.7300000000000001E-2</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="P45" s="2">
-        <v>0.1149</v>
+        <v>0.1158</v>
       </c>
       <c r="Q45" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>5.67E-2</v>
       </c>
       <c r="R45" s="2">
-        <v>15.239000000000001</v>
+        <v>13.2361</v>
       </c>
       <c r="S45" s="2">
-        <v>41.914999999999999</v>
+        <v>39.263100000000001</v>
       </c>
       <c r="T45" s="2">
-        <v>9.5381</v>
+        <v>10.8931</v>
       </c>
       <c r="U45" s="2">
-        <v>5.1262999999999996</v>
+        <v>5.0525000000000002</v>
       </c>
       <c r="V45" s="2">
-        <v>14.084899999999999</v>
+        <v>13.9725</v>
       </c>
       <c r="W45" s="2">
-        <v>3.1876000000000002</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.2486999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
@@ -3998,7 +4000,7 @@
         <v>3.2227000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>79</v>
       </c>
@@ -4069,152 +4071,168 @@
         <v>3.2012999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C48" s="2">
-        <v>0.65310000000000001</v>
+        <v>0.63929999999999998</v>
       </c>
       <c r="D48" s="2">
-        <v>0.1583</v>
+        <v>0.18840000000000001</v>
       </c>
       <c r="E48" s="2">
-        <v>0.1009</v>
+        <v>9.9599999999999994E-2</v>
       </c>
       <c r="F48" s="2">
-        <v>30.641100000000002</v>
+        <v>30.553999999999998</v>
       </c>
       <c r="G48" s="2">
-        <v>10.636100000000001</v>
+        <v>10.6532</v>
       </c>
       <c r="H48" s="6">
-        <v>3.9062500000000002E-7</v>
+        <v>1.9531250000000001E-7</v>
       </c>
       <c r="I48" s="2">
-        <v>0.21379999999999999</v>
+        <v>0.21609999999999999</v>
       </c>
       <c r="J48" s="2">
-        <v>0.80430000000000001</v>
+        <v>0.81630000000000003</v>
       </c>
       <c r="K48" s="2">
-        <v>0.35070000000000001</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="L48" s="2">
-        <v>0.44009999999999999</v>
+        <v>0.43630000000000002</v>
       </c>
       <c r="M48" s="2">
-        <v>0.78069999999999995</v>
+        <v>0.8</v>
       </c>
       <c r="N48" s="2">
-        <v>-0.153</v>
+        <v>-0.18770000000000001</v>
       </c>
       <c r="O48" s="2">
-        <v>3.1099999999999999E-2</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="P48" s="2">
-        <v>0.1229</v>
+        <v>0.12540000000000001</v>
       </c>
       <c r="Q48" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="R48" s="2">
-        <v>15.898099999999999</v>
+        <v>16.325600000000001</v>
       </c>
       <c r="S48" s="2">
-        <v>42.122199999999999</v>
+        <v>42.366</v>
       </c>
       <c r="T48" s="2">
-        <v>8.1595999999999993</v>
+        <v>7.4680999999999997</v>
       </c>
       <c r="U48" s="2">
-        <v>5.2087000000000003</v>
+        <v>5.3102999999999998</v>
       </c>
       <c r="V48" s="2">
-        <v>14.342499999999999</v>
+        <v>14.5829</v>
       </c>
       <c r="W48" s="2">
-        <v>3.2698999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.1459999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2">
-        <v>0.63929999999999998</v>
+        <v>0.65310000000000001</v>
       </c>
       <c r="D49" s="2">
-        <v>0.18840000000000001</v>
+        <v>0.1583</v>
       </c>
       <c r="E49" s="2">
-        <v>9.9599999999999994E-2</v>
+        <v>0.1009</v>
       </c>
       <c r="F49" s="2">
-        <v>30.553999999999998</v>
+        <v>30.641100000000002</v>
       </c>
       <c r="G49" s="2">
-        <v>10.6532</v>
+        <v>10.636100000000001</v>
       </c>
       <c r="H49" s="6">
-        <v>1.9531250000000001E-7</v>
+        <v>3.9062500000000002E-7</v>
       </c>
       <c r="I49" s="2">
-        <v>0.21609999999999999</v>
+        <v>0.21379999999999999</v>
       </c>
       <c r="J49" s="2">
-        <v>0.81630000000000003</v>
+        <v>0.80430000000000001</v>
       </c>
       <c r="K49" s="2">
-        <v>0.33500000000000002</v>
+        <v>0.35070000000000001</v>
       </c>
       <c r="L49" s="2">
-        <v>0.43630000000000002</v>
+        <v>0.44009999999999999</v>
       </c>
       <c r="M49" s="2">
-        <v>0.8</v>
+        <v>0.78069999999999995</v>
       </c>
       <c r="N49" s="2">
-        <v>-0.18770000000000001</v>
+        <v>-0.153</v>
       </c>
       <c r="O49" s="2">
-        <v>3.0200000000000001E-2</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="P49" s="2">
-        <v>0.12540000000000001</v>
+        <v>0.1229</v>
       </c>
       <c r="Q49" s="2">
-        <v>5.7200000000000001E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="R49" s="2">
-        <v>16.325600000000001</v>
+        <v>15.898099999999999</v>
       </c>
       <c r="S49" s="2">
-        <v>42.366</v>
+        <v>42.122199999999999</v>
       </c>
       <c r="T49" s="2">
-        <v>7.4680999999999997</v>
+        <v>8.1595999999999993</v>
       </c>
       <c r="U49" s="2">
-        <v>5.3102999999999998</v>
+        <v>5.2087000000000003</v>
       </c>
       <c r="V49" s="2">
-        <v>14.5829</v>
+        <v>14.342499999999999</v>
       </c>
       <c r="W49" s="2">
-        <v>3.1459999999999999</v>
+        <v>3.2698999999999998</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:W49" xr:uid="{CA0D07A2-8BFB-4532-81F8-4995D0BF2BB4}">
     <filterColumn colId="1">
       <filters>
+        <filter val="CNN-ew2"/>
+        <filter val="CNN-ew3"/>
+        <filter val="CNN-ew4"/>
+        <filter val="CNN-obs"/>
+        <filter val="CNN-or"/>
+        <filter val="CNN-sg5"/>
+        <filter val="CNN-sg7"/>
+        <filter val="CNN-sg9"/>
+        <filter val="DNN-ew2"/>
+        <filter val="DNN-ew3"/>
+        <filter val="DNN-ew4"/>
+        <filter val="DNN-obs"/>
+        <filter val="DNN-or"/>
+        <filter val="DNN-sg5"/>
+        <filter val="DNN-sg7"/>
+        <filter val="DNN-sg9"/>
         <filter val="GRU-ew2"/>
         <filter val="GRU-ew3"/>
         <filter val="GRU-ew4"/>
@@ -4223,24 +4241,385 @@
         <filter val="GRU-sg5"/>
         <filter val="GRU-sg7"/>
         <filter val="GRU-sg9"/>
+        <filter val="LSTM-ew2"/>
+        <filter val="LSTM-ew3"/>
+        <filter val="LSTM-ew4"/>
+        <filter val="LSTM-obs"/>
+        <filter val="LSTM-or"/>
+        <filter val="LSTM-sg5"/>
+        <filter val="LSTM-sg7"/>
+        <filter val="LSTM-sg9"/>
+        <filter val="RNN-ew2"/>
+        <filter val="RNN-ew3"/>
+        <filter val="RNN-ew4"/>
+        <filter val="RNN-obs"/>
+        <filter val="RNN-or"/>
+        <filter val="RNN-sg5"/>
+        <filter val="RNN-sg7"/>
+        <filter val="RNN-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:W20">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:W49">
       <sortCondition ref="E1:E49"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7214CF6-9A35-4870-82BC-6A202AFC67C5}">
+  <dimension ref="F7:N36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27:N36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="7" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="I7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="10">
+        <v>1.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="I8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.61E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="I9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="I11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.67E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="I12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.6899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.95250000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="6:13" x14ac:dyDescent="0.4">
+      <c r="F16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1.0795999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="4">
+        <v>1.0146999999999999</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1.0969</v>
+      </c>
+    </row>
+    <row r="18" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1.1218999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1.0162</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="4">
+        <v>1.1803999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="F20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.0266</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1.1891</v>
+      </c>
+    </row>
+    <row r="26" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="G26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="2">
+        <v>1.0795999999999999</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="2">
+        <v>3.8300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="G27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1.0969</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J27" s="2">
+        <v>3.85E-2</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27" s="10">
+        <v>1.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="G28" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="5">
+        <v>1.1218999999999999</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J28" s="2">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1.61E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="G29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1.1803999999999999</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="4">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N29" s="2">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="G30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1.1891</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J30" s="2">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="G31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1.2199</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="2">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1.67E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="6:14" x14ac:dyDescent="0.4">
+      <c r="G32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1.2345999999999999</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J32" s="2">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1.6899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G33" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1.2365999999999999</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J33" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J34" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="G35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1.2507999999999999</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="5">
+        <v>3.95E-2</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="2">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.4">
+      <c r="M36" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1.77E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1DB96E-F0A8-460E-9A4B-15CE75D83F02}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="E8" activeCellId="1" sqref="B8:B19 E8:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4337,7 +4716,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -4408,7 +4787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -4479,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -4550,7 +4929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4621,7 +5000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>77</v>
       </c>
@@ -4692,7 +5071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -4834,7 +5213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>77</v>
       </c>
@@ -5047,7 +5426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -8054,7 +8433,59 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W58" xr:uid="{0B1DB96E-F0A8-460E-9A4B-15CE75D83F02}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W58">
+    <filterColumn colId="1">
+      <filters blank="1">
+        <filter val="CNN-ew2"/>
+        <filter val="CNN-ew3"/>
+        <filter val="CNN-ew4"/>
+        <filter val="CNN-obs"/>
+        <filter val="CNN-or"/>
+        <filter val="CNN-sg5"/>
+        <filter val="CNN-sg7"/>
+        <filter val="CNN-sg9"/>
+        <filter val="DNN-ew2"/>
+        <filter val="DNN-ew3"/>
+        <filter val="DNN-ew4"/>
+        <filter val="DNN-obs"/>
+        <filter val="DNN-or"/>
+        <filter val="DNN-sg5"/>
+        <filter val="DNN-sg7"/>
+        <filter val="DNN-sg9"/>
+        <filter val="GRU-ew2"/>
+        <filter val="GRU-ew3"/>
+        <filter val="GRU-ew4"/>
+        <filter val="GRU-obs"/>
+        <filter val="GRU-or"/>
+        <filter val="GRU-sg5"/>
+        <filter val="GRU-sg7"/>
+        <filter val="GRU-sg9"/>
+        <filter val="LSTM-ew2"/>
+        <filter val="LSTM-ew3"/>
+        <filter val="LSTM-ew4"/>
+        <filter val="LSTM-obs"/>
+        <filter val="LSTM-or"/>
+        <filter val="LSTM-sg5"/>
+        <filter val="LSTM-sg7"/>
+        <filter val="LSTM-sg9"/>
+        <filter val="RF-ew2"/>
+        <filter val="RF-ew3"/>
+        <filter val="RF-ew4"/>
+        <filter val="RF-obs"/>
+        <filter val="RF-or"/>
+        <filter val="RF-sg5"/>
+        <filter val="RF-sg7"/>
+        <filter val="RF-sg9"/>
+        <filter val="RNN-ew2"/>
+        <filter val="RNN-ew3"/>
+        <filter val="RNN-ew4"/>
+        <filter val="RNN-obs"/>
+        <filter val="RNN-or"/>
+        <filter val="RNN-sg5"/>
+        <filter val="RNN-sg7"/>
+        <filter val="RNN-sg9"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:W58">
       <sortCondition ref="E1:E58"/>
     </sortState>
   </autoFilter>
@@ -8063,7 +8494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2614E7D4-0119-49DF-BE51-5E4AC211198A}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V49"/>

--- a/Thesis-codes/NH3-summary-final.xlsx
+++ b/Thesis-codes/NH3-summary-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9DEA12-78C9-4E73-8EB6-1765E68D50A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0810E1-8A46-4510-8583-BC0587771EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3943" yWindow="2031" windowWidth="22491" windowHeight="13252" tabRatio="761" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
+    <workbookView xWindow="7123" yWindow="1363" windowWidth="22491" windowHeight="16603" tabRatio="761" activeTab="1" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
   </bookViews>
   <sheets>
     <sheet name="Predict-0116-0122" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Predict-0116-0122'!$A$1:$W$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Predict-exp3-1010-1016 (final)'!$A$1:$W$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Predict-exp3-1010-1016 (final)'!$A$1:$W$60</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Predict-exp3-1022-1028 (X)'!$A$1:$V$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="83">
   <si>
     <t>fc1_rmse_mean</t>
   </si>
@@ -284,12 +284,21 @@
   <si>
     <t>0116-0122</t>
   </si>
+  <si>
+    <t>1022-1028</t>
+  </si>
+  <si>
+    <t>0110-0115</t>
+  </si>
+  <si>
+    <t>Model-dataset</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +315,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -343,7 +358,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -351,11 +366,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -391,6 +421,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -708,8 +783,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1302,7 +1377,7 @@
         <v>1.0158</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
@@ -1373,7 +1448,7 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -1728,7 +1803,7 @@
         <v>1.1621999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>79</v>
       </c>
@@ -1799,7 +1874,7 @@
         <v>1.1565000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>79</v>
       </c>
@@ -1941,7 +2016,7 @@
         <v>1.0807</v>
       </c>
     </row>
-    <row r="18" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>79</v>
       </c>
@@ -2083,7 +2158,7 @@
         <v>1.1133</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
@@ -2296,7 +2371,7 @@
         <v>1.2154</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
@@ -2438,7 +2513,7 @@
         <v>1.2837000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
@@ -2509,7 +2584,7 @@
         <v>1.3162</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -2580,7 +2655,7 @@
         <v>1.4617</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -2651,7 +2726,7 @@
         <v>1.4715</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -2722,7 +2797,7 @@
         <v>1.6212</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
@@ -2793,7 +2868,7 @@
         <v>1.5568</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
@@ -2864,7 +2939,7 @@
         <v>1.5963000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>79</v>
       </c>
@@ -2935,7 +3010,7 @@
         <v>1.542</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>79</v>
       </c>
@@ -3006,7 +3081,7 @@
         <v>1.6511</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>79</v>
       </c>
@@ -3077,7 +3152,7 @@
         <v>1.6722999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
@@ -3148,7 +3223,7 @@
         <v>3.2353999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>79</v>
       </c>
@@ -3219,7 +3294,7 @@
         <v>3.1248999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -3290,7 +3365,7 @@
         <v>3.1204000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -3361,7 +3436,7 @@
         <v>3.1983999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>79</v>
       </c>
@@ -3432,7 +3507,7 @@
         <v>3.0720000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
@@ -3503,7 +3578,7 @@
         <v>3.1657999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
@@ -3574,7 +3649,7 @@
         <v>3.1821000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
@@ -3645,7 +3720,7 @@
         <v>3.2161</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>79</v>
       </c>
@@ -3716,7 +3791,7 @@
         <v>3.1181000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
@@ -3787,7 +3862,7 @@
         <v>3.2435</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>79</v>
       </c>
@@ -3858,7 +3933,7 @@
         <v>3.1876000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>79</v>
       </c>
@@ -3929,7 +4004,7 @@
         <v>3.2486999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
@@ -4000,7 +4075,7 @@
         <v>3.2227000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>79</v>
       </c>
@@ -4071,7 +4146,7 @@
         <v>3.2012999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>79</v>
       </c>
@@ -4142,7 +4217,7 @@
         <v>3.1459999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>79</v>
       </c>
@@ -4217,30 +4292,6 @@
   <autoFilter ref="A1:W49" xr:uid="{CA0D07A2-8BFB-4532-81F8-4995D0BF2BB4}">
     <filterColumn colId="1">
       <filters>
-        <filter val="CNN-ew2"/>
-        <filter val="CNN-ew3"/>
-        <filter val="CNN-ew4"/>
-        <filter val="CNN-obs"/>
-        <filter val="CNN-or"/>
-        <filter val="CNN-sg5"/>
-        <filter val="CNN-sg7"/>
-        <filter val="CNN-sg9"/>
-        <filter val="DNN-ew2"/>
-        <filter val="DNN-ew3"/>
-        <filter val="DNN-ew4"/>
-        <filter val="DNN-obs"/>
-        <filter val="DNN-or"/>
-        <filter val="DNN-sg5"/>
-        <filter val="DNN-sg7"/>
-        <filter val="DNN-sg9"/>
-        <filter val="GRU-ew2"/>
-        <filter val="GRU-ew3"/>
-        <filter val="GRU-ew4"/>
-        <filter val="GRU-obs"/>
-        <filter val="GRU-or"/>
-        <filter val="GRU-sg5"/>
-        <filter val="GRU-sg7"/>
-        <filter val="GRU-sg9"/>
         <filter val="LSTM-ew2"/>
         <filter val="LSTM-ew3"/>
         <filter val="LSTM-ew4"/>
@@ -4249,17 +4300,9 @@
         <filter val="LSTM-sg5"/>
         <filter val="LSTM-sg7"/>
         <filter val="LSTM-sg9"/>
-        <filter val="RNN-ew2"/>
-        <filter val="RNN-ew3"/>
-        <filter val="RNN-ew4"/>
-        <filter val="RNN-obs"/>
-        <filter val="RNN-or"/>
-        <filter val="RNN-sg5"/>
-        <filter val="RNN-sg7"/>
-        <filter val="RNN-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:W49">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:W24">
       <sortCondition ref="E1:E49"/>
     </sortState>
   </autoFilter>
@@ -4271,343 +4314,695 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7214CF6-9A35-4870-82BC-6A202AFC67C5}">
-  <dimension ref="F7:N36"/>
+  <dimension ref="A5:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27:N36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.23046875" style="2"/>
+    <col min="4" max="4" width="12.921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.4609375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.4609375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="6:13" x14ac:dyDescent="0.4">
-      <c r="I7" s="10" t="s">
+    <row r="5" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D5" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D7" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="16">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1.2507999999999999</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="10">
+      <c r="H8" s="16">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="I8" s="18">
+        <v>1.0795999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="16">
+        <v>3.85E-2</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1.2644</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="19">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1.1803999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="16">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1.1891</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="16">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="I10" s="16">
+        <v>1.2345999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="16">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="16">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1.0969</v>
+      </c>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="16">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1.2199</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="20">
+        <v>3.95E-2</v>
+      </c>
+      <c r="I12" s="21">
+        <v>1.1218999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="16">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1.3097000000000001</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="16">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="I13" s="16">
+        <v>1.2612000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="16">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1.3993</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="16">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="I14" s="16">
+        <v>1.2365999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="16">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1.3637999999999999</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="22">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="I15" s="22">
+        <v>1.3076000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D20" s="24">
+        <v>1016</v>
+      </c>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D22" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D23" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="25">
+        <v>1.67E-2</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1.2199</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="25">
+        <v>1.61E-2</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1.0969</v>
+      </c>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D24" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="25">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" s="25">
         <v>1.5800000000000002E-2</v>
       </c>
-    </row>
-    <row r="8" spans="6:13" x14ac:dyDescent="0.4">
-      <c r="I8" s="2" t="s">
+      <c r="I24" s="18">
+        <v>1.0795999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D25" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="25">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1.1891</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="25">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="I25" s="21">
+        <v>1.1218999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D26" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="25">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="F26" s="25">
+        <v>1.3097000000000001</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="25">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="I26" s="25">
+        <v>1.2365999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D27" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="25">
+        <v>1.78E-2</v>
+      </c>
+      <c r="F27" s="25">
+        <v>1.2644</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="25">
+        <v>1.77E-2</v>
+      </c>
+      <c r="I27" s="25">
+        <v>1.2612000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D28" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F28" s="25">
+        <v>1.2507999999999999</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="25">
+        <v>1.66E-2</v>
+      </c>
+      <c r="I28" s="25">
+        <v>1.2345999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D29" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="25">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="F29" s="25">
+        <v>1.3993</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I29" s="26">
+        <v>1.1803999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D30" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="25">
+        <v>1.89E-2</v>
+      </c>
+      <c r="F30" s="25">
+        <v>1.3637999999999999</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H30" s="25">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="I30" s="27">
+        <v>1.3076000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D34" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D35" s="25"/>
+      <c r="E35" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D36" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="25">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="F36" s="25">
+        <v>1.3097000000000001</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="25">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="I36" s="25">
+        <v>1.2365999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D37" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E37" s="25">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="F37" s="18">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="G37" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="2">
-        <v>1.61E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="6:13" x14ac:dyDescent="0.4">
-      <c r="I9" s="2" t="s">
+      <c r="H37" s="25">
+        <v>4.87E-2</v>
+      </c>
+      <c r="I37" s="18">
+        <v>1.0969</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D38" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="25">
+        <v>1.67E-2</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1.2199</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H38" s="25">
+        <v>5.11E-2</v>
+      </c>
+      <c r="I38" s="21">
+        <v>1.1218999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D39" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="25">
+        <v>1.78E-2</v>
+      </c>
+      <c r="F39" s="25">
+        <v>1.2644</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="25">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I39" s="25">
+        <v>1.2612000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D40" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F40" s="25">
+        <v>1.2507999999999999</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="25">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="I40" s="25">
+        <v>1.2345999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D41" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="25">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F41" s="18">
+        <v>1.1891</v>
+      </c>
+      <c r="G41" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="2">
-        <v>1.6299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="6:13" x14ac:dyDescent="0.4">
-      <c r="I10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1.66E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="6:13" x14ac:dyDescent="0.4">
-      <c r="I11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1.67E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="6:13" x14ac:dyDescent="0.4">
-      <c r="I12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1.6899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="6:13" x14ac:dyDescent="0.4">
-      <c r="F15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0.95250000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="6:13" x14ac:dyDescent="0.4">
-      <c r="F16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0.97989999999999999</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1.0795999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="F17" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="4">
-        <v>1.0146999999999999</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1.0969</v>
-      </c>
-    </row>
-    <row r="18" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="F18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1.0149999999999999</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="M18" s="5">
+      <c r="H41" s="25">
+        <v>5.4800000000000001E-2</v>
+      </c>
+      <c r="I41" s="21">
         <v>1.1218999999999999</v>
       </c>
     </row>
-    <row r="19" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="F19" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="2">
-        <v>1.0162</v>
-      </c>
-      <c r="L19" s="4" t="s">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D42" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="25">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="F42" s="25">
+        <v>1.3993</v>
+      </c>
+      <c r="G42" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="M19" s="4">
+      <c r="H42" s="25">
+        <v>6.7400000000000002E-2</v>
+      </c>
+      <c r="I42" s="26">
         <v>1.1803999999999999</v>
       </c>
     </row>
-    <row r="20" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="F20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="2">
-        <v>1.0266</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M20" s="2">
-        <v>1.1891</v>
-      </c>
-    </row>
-    <row r="26" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="G26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="2">
-        <v>1.0795999999999999</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="2">
-        <v>3.8300000000000001E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="G27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1.0969</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J27" s="2">
-        <v>3.85E-2</v>
-      </c>
-      <c r="M27" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N27" s="10">
-        <v>1.5800000000000002E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="G28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="5">
-        <v>1.1218999999999999</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="2">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="N28" s="2">
-        <v>1.61E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="G29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="4">
-        <v>1.1803999999999999</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J29" s="4">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N29" s="2">
-        <v>1.6299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="G30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="2">
-        <v>1.1891</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="2">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N30" s="2">
-        <v>1.66E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="G31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" s="2">
-        <v>1.2199</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" s="2">
-        <v>3.8899999999999997E-2</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="N31" s="2">
-        <v>1.67E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="6:14" x14ac:dyDescent="0.4">
-      <c r="G32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H32" s="2">
-        <v>1.2345999999999999</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J32" s="2">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="N32" s="2">
-        <v>1.6899999999999998E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="7:14" x14ac:dyDescent="0.4">
-      <c r="G33" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="2">
-        <v>1.2365999999999999</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J33" s="2">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N33" s="2">
-        <v>1.7000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="7:14" x14ac:dyDescent="0.4">
-      <c r="G34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J34" s="2">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N34" s="2">
-        <v>1.7399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="7:14" x14ac:dyDescent="0.4">
-      <c r="G35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="2">
-        <v>1.2507999999999999</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J35" s="5">
-        <v>3.95E-2</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N35" s="2">
-        <v>1.7500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="7:14" x14ac:dyDescent="0.4">
-      <c r="M36" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N36" s="2">
-        <v>1.77E-2</v>
-      </c>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D43" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="25">
+        <v>1.89E-2</v>
+      </c>
+      <c r="F43" s="25">
+        <v>1.3637999999999999</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="25">
+        <v>7.5600000000000001E-2</v>
+      </c>
+      <c r="I43" s="27">
+        <v>1.3076000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D34:I34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4615,11 +5010,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1DB96E-F0A8-460E-9A4B-15CE75D83F02}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" activeCellId="1" sqref="B8:B19 E8:E19"/>
+      <selection activeCell="D6" sqref="D6:I15"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4939,22 +5335,22 @@
       <c r="C5" s="4">
         <v>0.20930000000000001</v>
       </c>
-      <c r="D5" s="2">
-        <v>0.94669999999999999</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="16">
         <v>1.55E-2</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>0</v>
+      </c>
+      <c r="I5" s="16">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="J5" s="2">
@@ -5000,199 +5396,160 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.21729999999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.9425</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1.4E-3</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.21840000000000001</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.21529999999999999</v>
-      </c>
-      <c r="L6" s="2">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.94359999999999999</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.94189999999999996</v>
-      </c>
-      <c r="O6" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="P6" s="2">
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>1.55E-2</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
     </row>
     <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.21729999999999999</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>0</v>
+      </c>
+      <c r="I7" s="16">
+        <v>1.4E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.21840000000000001</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.21529999999999999</v>
+      </c>
+      <c r="L7" s="2">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1.55E-2</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>0.22289999999999999</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="16">
         <v>0.9395</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E8" s="16">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18">
         <v>2.5999999999999999E-3</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J8" s="2">
         <v>0.22509999999999999</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K8" s="2">
         <v>0.21920000000000001</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L8" s="2">
         <v>1.4E-3</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M8" s="2">
         <v>0.9415</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N8" s="2">
         <v>0.93830000000000002</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O8" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P8" s="2">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q8" s="2">
         <v>1.54E-2</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0.21110000000000001</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.94579999999999997</v>
-      </c>
-      <c r="E8" s="10">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.21290000000000001</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.2097</v>
-      </c>
-      <c r="L8" s="2">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.94650000000000001</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.94479999999999997</v>
-      </c>
-      <c r="O8" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>1.55E-2</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -5218,52 +5575,52 @@
         <v>77</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.2092</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.94669999999999999</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1.6E-2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>2.8E-3</v>
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1.61E-2</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0</v>
+      </c>
+      <c r="I9" s="16">
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>0.21299999999999999</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="K9" s="2">
-        <v>0.20649999999999999</v>
+        <v>0.2147</v>
       </c>
       <c r="L9" s="2">
-        <v>1.5E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M9" s="2">
-        <v>0.94810000000000005</v>
+        <v>0.94389999999999996</v>
       </c>
       <c r="N9" s="2">
-        <v>0.94469999999999998</v>
+        <v>0.94189999999999996</v>
       </c>
       <c r="O9" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1.67E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="Q9" s="2">
-        <v>1.5699999999999999E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -5284,57 +5641,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.21690000000000001</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.94269999999999998</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1.61E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1.6000000000000001E-3</v>
+        <v>64</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.2092</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.94669999999999999</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16">
+        <v>2.8E-3</v>
       </c>
       <c r="J10" s="2">
-        <v>0.21840000000000001</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="K10" s="2">
-        <v>0.2147</v>
+        <v>0.20649999999999999</v>
       </c>
       <c r="L10" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="M10" s="2">
-        <v>0.94389999999999996</v>
+        <v>0.94810000000000005</v>
       </c>
       <c r="N10" s="2">
-        <v>0.94189999999999996</v>
+        <v>0.94469999999999998</v>
       </c>
       <c r="O10" s="2">
-        <v>0</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P10" s="2">
-        <v>1.61E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q10" s="2">
-        <v>1.61E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -5355,57 +5712,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.2112</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.94569999999999999</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>2.2000000000000001E-3</v>
+      <c r="B11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.21110000000000001</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J11" s="2">
-        <v>0.21410000000000001</v>
+        <v>0.21290000000000001</v>
       </c>
       <c r="K11" s="2">
-        <v>0.2087</v>
+        <v>0.2097</v>
       </c>
       <c r="L11" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="M11" s="2">
-        <v>0.94699999999999995</v>
+        <v>0.94650000000000001</v>
       </c>
       <c r="N11" s="2">
-        <v>0.94420000000000004</v>
+        <v>0.94479999999999997</v>
       </c>
       <c r="O11" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P11" s="2">
-        <v>1.6799999999999999E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="Q11" s="2">
-        <v>1.6E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -5431,52 +5788,52 @@
         <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.24030000000000001</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.92969999999999997</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1.5E-3</v>
+        <v>55</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.2112</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.94569999999999999</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="J12" s="2">
-        <v>0.2424</v>
+        <v>0.21410000000000001</v>
       </c>
       <c r="K12" s="2">
-        <v>0.2392</v>
+        <v>0.2087</v>
       </c>
       <c r="L12" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="M12" s="2">
-        <v>0.93030000000000002</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="N12" s="2">
-        <v>0.92849999999999999</v>
+        <v>0.94420000000000004</v>
       </c>
       <c r="O12" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P12" s="2">
-        <v>1.67E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="Q12" s="2">
-        <v>1.61E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -5497,57 +5854,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2">
-        <v>0.2137</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1.66E-2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1.1000000000000001E-3</v>
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0</v>
+      </c>
+      <c r="I13" s="16">
+        <v>1.5E-3</v>
       </c>
       <c r="J13" s="2">
-        <v>0.21529999999999999</v>
+        <v>0.2424</v>
       </c>
       <c r="K13" s="2">
-        <v>0.2127</v>
+        <v>0.2392</v>
       </c>
       <c r="L13" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M13" s="2">
-        <v>0.94489999999999996</v>
+        <v>0.93030000000000002</v>
       </c>
       <c r="N13" s="2">
-        <v>0.94359999999999999</v>
+        <v>0.92849999999999999</v>
       </c>
       <c r="O13" s="2">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P13" s="2">
         <v>1.67E-2</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.6500000000000001E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -5568,57 +5925,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>0.2218</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.94010000000000005</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1.67E-2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>1.2999999999999999E-3</v>
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>1.4E-3</v>
       </c>
       <c r="J14" s="2">
-        <v>0.22359999999999999</v>
+        <v>0.24129999999999999</v>
       </c>
       <c r="K14" s="2">
-        <v>0.2208</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="L14" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M14" s="2">
-        <v>0.94059999999999999</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="N14" s="2">
-        <v>0.93910000000000005</v>
+        <v>0.92910000000000004</v>
       </c>
       <c r="O14" s="2">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P14" s="2">
-        <v>1.67E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="Q14" s="2">
-        <v>1.67E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -5644,52 +5999,52 @@
         <v>77</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
-        <v>0.2198</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.94120000000000004</v>
-      </c>
-      <c r="E15" s="2">
-        <v>1.6899999999999998E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>1.1000000000000001E-3</v>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.94469999999999998</v>
+      </c>
+      <c r="E15" s="16">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="16">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="J15" s="2">
-        <v>0.22109999999999999</v>
+        <v>0.21529999999999999</v>
       </c>
       <c r="K15" s="2">
-        <v>0.2185</v>
+        <v>0.21149999999999999</v>
       </c>
       <c r="L15" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="M15" s="2">
-        <v>0.94189999999999996</v>
+        <v>0.94550000000000001</v>
       </c>
       <c r="N15" s="2">
-        <v>0.9405</v>
+        <v>0.94350000000000001</v>
       </c>
       <c r="O15" s="2">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P15" s="2">
-        <v>1.7000000000000001E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.67E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -5715,52 +6070,52 @@
         <v>77</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2">
-        <v>0.2271</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.93720000000000003</v>
-      </c>
-      <c r="E16" s="2">
+        <v>0.2198</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="E16" s="16">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.2185</v>
+      </c>
+      <c r="L16" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.9405</v>
+      </c>
+      <c r="O16" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="P16" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F16" s="2">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.23019999999999999</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.22450000000000001</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.93859999999999999</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0.9355</v>
-      </c>
-      <c r="O16" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="P16" s="2">
-        <v>1.7399999999999999E-2</v>
-      </c>
       <c r="Q16" s="2">
-        <v>1.66E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -5786,52 +6141,52 @@
         <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.94469999999999998</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="F17" s="2">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>0.2218</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="E17" s="25">
+        <v>1.67E-2</v>
+      </c>
+      <c r="F17" s="25">
+        <v>0</v>
+      </c>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
+        <v>0</v>
+      </c>
+      <c r="I17" s="25">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J17" s="2">
-        <v>0.21529999999999999</v>
+        <v>0.22359999999999999</v>
       </c>
       <c r="K17" s="2">
-        <v>0.21149999999999999</v>
+        <v>0.2208</v>
       </c>
       <c r="L17" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="M17" s="2">
-        <v>0.94550000000000001</v>
+        <v>0.94059999999999999</v>
       </c>
       <c r="N17" s="2">
-        <v>0.94350000000000001</v>
+        <v>0.93910000000000005</v>
       </c>
       <c r="O17" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
-        <v>1.7600000000000001E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q17" s="2">
-        <v>1.72E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
@@ -5857,51 +6212,53 @@
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2">
-        <v>0.23980000000000001</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="E18" s="2">
+        <v>0.2223</v>
+      </c>
+      <c r="D18" s="25">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="E18" s="25">
+        <v>1.78E-2</v>
+      </c>
+      <c r="F18" s="25">
+        <v>0</v>
+      </c>
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
+        <v>0</v>
+      </c>
+      <c r="I18" s="25">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.22620000000000001</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.21940000000000001</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.94140000000000001</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.93769999999999998</v>
+      </c>
+      <c r="O18" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1.84E-2</v>
+      </c>
+      <c r="Q18" s="2">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>1.4E-3</v>
-      </c>
-      <c r="J18" s="2">
-        <v>0.24129999999999999</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="L18" s="2">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0.92910000000000004</v>
-      </c>
-      <c r="O18" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1.7299999999999999E-2</v>
-      </c>
       <c r="R18" s="2">
         <v>0</v>
       </c>
@@ -5921,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -5931,22 +6288,22 @@
       <c r="C19" s="2">
         <v>0.24049999999999999</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="25">
         <v>0.92959999999999998</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="25">
         <v>1.77E-2</v>
       </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
+      <c r="F19" s="25">
+        <v>0</v>
+      </c>
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
+        <v>0</v>
+      </c>
+      <c r="I19" s="25">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="J19" s="2">
@@ -5992,57 +6349,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
-        <v>0.2223</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.93979999999999997</v>
-      </c>
-      <c r="E20" s="2">
-        <v>1.78E-2</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>2.8999999999999998E-3</v>
+        <v>0.2137</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="E20" s="25">
+        <v>1.66E-2</v>
+      </c>
+      <c r="F20" s="25">
+        <v>0</v>
+      </c>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
+        <v>0</v>
+      </c>
+      <c r="I20" s="25">
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="J20" s="2">
-        <v>0.22620000000000001</v>
+        <v>0.21529999999999999</v>
       </c>
       <c r="K20" s="2">
-        <v>0.21940000000000001</v>
+        <v>0.2127</v>
       </c>
       <c r="L20" s="2">
-        <v>1.6000000000000001E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="M20" s="2">
-        <v>0.94140000000000001</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="N20" s="2">
-        <v>0.93769999999999998</v>
+        <v>0.94359999999999999</v>
       </c>
       <c r="O20" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P20" s="2">
-        <v>1.84E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q20" s="2">
-        <v>1.7500000000000002E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -6064,75 +6421,36 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.2165</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.94289999999999996</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="J21" s="2">
-        <v>0.21679999999999999</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0.216</v>
-      </c>
-      <c r="L21" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0.94320000000000004</v>
-      </c>
-      <c r="N21" s="2">
-        <v>0.94279999999999997</v>
-      </c>
-      <c r="O21" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="P21" s="2">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>1.77E-2</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0</v>
-      </c>
-      <c r="S21" s="2">
-        <v>0</v>
-      </c>
-      <c r="T21" s="2">
-        <v>0</v>
-      </c>
-      <c r="U21" s="2">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2">
-        <v>0</v>
-      </c>
+      <c r="F21" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
@@ -6144,23 +6462,23 @@
       <c r="C22" s="2">
         <v>0.2243</v>
       </c>
-      <c r="D22" s="2">
-        <v>0.93879999999999997</v>
-      </c>
-      <c r="E22" s="2">
+      <c r="D22" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="25">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F22" s="2">
-        <v>0</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <v>4.1000000000000003E-3</v>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
       </c>
       <c r="J22" s="2">
         <v>0.22739999999999999</v>
@@ -6205,57 +6523,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.24979999999999999</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="E23" s="2">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>0</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
-        <v>0</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2.3999999999999998E-3</v>
+        <v>35</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.2165</v>
+      </c>
+      <c r="D23" s="25">
+        <v>0.94289999999999996</v>
+      </c>
+      <c r="E23" s="25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="25">
+        <v>0</v>
+      </c>
+      <c r="H23" s="25">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J23" s="2">
-        <v>0.25230000000000002</v>
+        <v>0.21679999999999999</v>
       </c>
       <c r="K23" s="2">
-        <v>0.24660000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="L23" s="2">
-        <v>1.4E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M23" s="2">
-        <v>0.92589999999999995</v>
+        <v>0.94320000000000004</v>
       </c>
       <c r="N23" s="2">
-        <v>0.92249999999999999</v>
+        <v>0.94279999999999997</v>
       </c>
       <c r="O23" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P23" s="2">
-        <v>1.89E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="Q23" s="2">
-        <v>1.8499999999999999E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -6281,52 +6599,52 @@
         <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.21729999999999999</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.9425</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="F24" s="2">
-        <v>0</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>43</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.2271</v>
+      </c>
+      <c r="D24" s="25">
+        <v>0.93720000000000003</v>
+      </c>
+      <c r="E24" s="25">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="25">
+        <v>0</v>
+      </c>
+      <c r="H24" s="25">
+        <v>0</v>
+      </c>
+      <c r="I24" s="18">
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="J24" s="2">
-        <v>0.21870000000000001</v>
+        <v>0.23019999999999999</v>
       </c>
       <c r="K24" s="2">
-        <v>0.2157</v>
+        <v>0.22450000000000001</v>
       </c>
       <c r="L24" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="M24" s="2">
-        <v>0.94330000000000003</v>
+        <v>0.93859999999999999</v>
       </c>
       <c r="N24" s="2">
-        <v>0.94179999999999997</v>
+        <v>0.9355</v>
       </c>
       <c r="O24" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P24" s="2">
-        <v>1.9099999999999999E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="Q24" s="2">
-        <v>1.8599999999999998E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -6352,52 +6670,52 @@
         <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C25" s="2">
-        <v>0.25359999999999999</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.92169999999999996</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1.89E-2</v>
-      </c>
-      <c r="F25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-      <c r="H25" s="2">
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>0.24979999999999999</v>
+      </c>
+      <c r="D25" s="25">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E25" s="25">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="18">
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="J25" s="2">
-        <v>0.25750000000000001</v>
+        <v>0.25230000000000002</v>
       </c>
       <c r="K25" s="2">
-        <v>0.249</v>
+        <v>0.24660000000000001</v>
       </c>
       <c r="L25" s="2">
-        <v>2.0999999999999999E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="M25" s="2">
-        <v>0.92449999999999999</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="N25" s="2">
-        <v>0.91930000000000001</v>
+        <v>0.92249999999999999</v>
       </c>
       <c r="O25" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P25" s="2">
-        <v>1.9199999999999998E-2</v>
+        <v>1.89E-2</v>
       </c>
       <c r="Q25" s="2">
-        <v>1.8700000000000001E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -6418,57 +6736,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.2384</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.93079999999999996</v>
-      </c>
-      <c r="E26" s="2">
-        <v>1.9E-2</v>
-      </c>
-      <c r="F26" s="2">
-        <v>0</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="2">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>1.8E-3</v>
+        <v>40</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0.21729999999999999</v>
+      </c>
+      <c r="D26" s="25">
+        <v>0.9425</v>
+      </c>
+      <c r="E26" s="25">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="F26" s="25">
+        <v>0</v>
+      </c>
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
+      <c r="H26" s="25">
+        <v>0</v>
+      </c>
+      <c r="I26" s="25">
+        <v>1.4E-3</v>
       </c>
       <c r="J26" s="2">
-        <v>0.24049999999999999</v>
+        <v>0.21870000000000001</v>
       </c>
       <c r="K26" s="2">
-        <v>0.23619999999999999</v>
+        <v>0.2157</v>
       </c>
       <c r="L26" s="2">
-        <v>1E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="M26" s="2">
-        <v>0.93210000000000004</v>
+        <v>0.94330000000000003</v>
       </c>
       <c r="N26" s="2">
-        <v>0.92959999999999998</v>
+        <v>0.94179999999999997</v>
       </c>
       <c r="O26" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P26" s="2">
-        <v>1.9300000000000001E-2</v>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="Q26" s="2">
-        <v>1.8800000000000001E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="R26" s="2">
         <v>0</v>
@@ -6494,49 +6812,49 @@
         <v>77</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2">
-        <v>0.24349999999999999</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.92779999999999996</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="F27" s="2">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>2.3999999999999998E-3</v>
+        <v>0.25359999999999999</v>
+      </c>
+      <c r="D27" s="25">
+        <v>0.92169999999999996</v>
+      </c>
+      <c r="E27" s="25">
+        <v>1.89E-2</v>
+      </c>
+      <c r="F27" s="25">
+        <v>0</v>
+      </c>
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25">
+        <v>0</v>
+      </c>
+      <c r="I27" s="25">
+        <v>1.5E-3</v>
       </c>
       <c r="J27" s="2">
-        <v>0.2467</v>
+        <v>0.25750000000000001</v>
       </c>
       <c r="K27" s="2">
-        <v>0.24110000000000001</v>
+        <v>0.249</v>
       </c>
       <c r="L27" s="2">
-        <v>1.4E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="M27" s="2">
-        <v>0.92920000000000003</v>
+        <v>0.92449999999999999</v>
       </c>
       <c r="N27" s="2">
-        <v>0.92589999999999995</v>
+        <v>0.91930000000000001</v>
       </c>
       <c r="O27" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P27" s="2">
-        <v>1.9599999999999999E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="Q27" s="2">
         <v>1.8700000000000001E-2</v>
@@ -6560,57 +6878,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2">
-        <v>0.2399</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="E28" s="2">
+        <v>0.2384</v>
+      </c>
+      <c r="D28" s="25">
+        <v>0.93079999999999996</v>
+      </c>
+      <c r="E28" s="25">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F28" s="25">
+        <v>0</v>
+      </c>
+      <c r="G28" s="25">
+        <v>0</v>
+      </c>
+      <c r="H28" s="25">
+        <v>0</v>
+      </c>
+      <c r="I28" s="25">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0.23619999999999999</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0.93210000000000004</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="O28" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P28" s="2">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-      <c r="G28" s="2">
-        <v>0</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>3.0999999999999999E-3</v>
-      </c>
-      <c r="J28" s="2">
-        <v>0.24410000000000001</v>
-      </c>
-      <c r="K28" s="2">
-        <v>0.23669999999999999</v>
-      </c>
-      <c r="L28" s="2">
-        <v>1.8E-3</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0.93179999999999996</v>
-      </c>
-      <c r="N28" s="2">
-        <v>0.92749999999999999</v>
-      </c>
-      <c r="O28" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="P28" s="2">
-        <v>1.9400000000000001E-2</v>
-      </c>
       <c r="Q28" s="2">
-        <v>1.9099999999999999E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
@@ -6631,57 +6949,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2">
-        <v>0.2382</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.93089999999999995</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1.95E-2</v>
-      </c>
-      <c r="F29" s="2">
-        <v>0</v>
-      </c>
-      <c r="G29" s="2">
-        <v>0</v>
-      </c>
-      <c r="H29" s="2">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>0.24349999999999999</v>
+      </c>
+      <c r="D29" s="25">
+        <v>0.92779999999999996</v>
+      </c>
+      <c r="E29" s="25">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25">
+        <v>0</v>
+      </c>
+      <c r="H29" s="25">
+        <v>0</v>
+      </c>
+      <c r="I29" s="25">
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J29" s="2">
-        <v>0.24049999999999999</v>
+        <v>0.2467</v>
       </c>
       <c r="K29" s="2">
-        <v>0.23630000000000001</v>
+        <v>0.24110000000000001</v>
       </c>
       <c r="L29" s="2">
-        <v>1E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="M29" s="2">
-        <v>0.93200000000000005</v>
+        <v>0.92920000000000003</v>
       </c>
       <c r="N29" s="2">
-        <v>0.92959999999999998</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="O29" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P29" s="2">
-        <v>1.9800000000000002E-2</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="Q29" s="2">
-        <v>1.9199999999999998E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="R29" s="2">
         <v>0</v>
@@ -6702,57 +7018,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C30" s="2">
-        <v>0.25590000000000002</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.92020000000000002</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1.9699999999999999E-2</v>
-      </c>
-      <c r="F30" s="2">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2">
-        <v>0</v>
-      </c>
-      <c r="H30" s="2">
-        <v>0</v>
-      </c>
-      <c r="I30" s="2">
-        <v>2.8999999999999998E-3</v>
+        <v>0.2399</v>
+      </c>
+      <c r="D30" s="25">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="E30" s="25">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="F30" s="25">
+        <v>0</v>
+      </c>
+      <c r="G30" s="25">
+        <v>0</v>
+      </c>
+      <c r="H30" s="25">
+        <v>0</v>
+      </c>
+      <c r="I30" s="25">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="J30" s="2">
-        <v>0.25950000000000001</v>
+        <v>0.24410000000000001</v>
       </c>
       <c r="K30" s="2">
-        <v>0.25240000000000001</v>
+        <v>0.23669999999999999</v>
       </c>
       <c r="L30" s="2">
         <v>1.8E-3</v>
       </c>
       <c r="M30" s="2">
-        <v>0.9224</v>
+        <v>0.93179999999999996</v>
       </c>
       <c r="N30" s="2">
-        <v>0.91800000000000004</v>
+        <v>0.92749999999999999</v>
       </c>
       <c r="O30" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P30" s="2">
-        <v>1.9800000000000002E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="Q30" s="2">
-        <v>1.9400000000000001E-2</v>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="R30" s="2">
         <v>0</v>
@@ -6773,57 +7089,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2">
-        <v>0.2427</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.92830000000000001</v>
-      </c>
-      <c r="E31" s="2">
-        <v>2.01E-2</v>
-      </c>
-      <c r="F31" s="2">
-        <v>0</v>
-      </c>
-      <c r="G31" s="2">
-        <v>0</v>
-      </c>
-      <c r="H31" s="2">
-        <v>0</v>
-      </c>
-      <c r="I31" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>0.2382</v>
+      </c>
+      <c r="D31" s="25">
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="E31" s="25">
+        <v>1.95E-2</v>
+      </c>
+      <c r="F31" s="25">
+        <v>0</v>
+      </c>
+      <c r="G31" s="25">
+        <v>0</v>
+      </c>
+      <c r="H31" s="25">
+        <v>0</v>
+      </c>
+      <c r="I31" s="25">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="J31" s="2">
-        <v>0.24759999999999999</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="K31" s="2">
-        <v>0.2399</v>
+        <v>0.23630000000000001</v>
       </c>
       <c r="L31" s="2">
-        <v>2.0999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="M31" s="2">
-        <v>0.92989999999999995</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="N31" s="2">
-        <v>0.92530000000000001</v>
+        <v>0.92959999999999998</v>
       </c>
       <c r="O31" s="2">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P31" s="2">
-        <v>2.0299999999999999E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="Q31" s="2">
-        <v>0.02</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="R31" s="2">
         <v>0</v>
@@ -6844,57 +7160,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C32" s="2">
-        <v>0.2397</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="E32" s="2">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="F32" s="2">
-        <v>0</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0</v>
-      </c>
-      <c r="H32" s="2">
-        <v>0</v>
-      </c>
-      <c r="I32" s="2">
-        <v>1.4E-3</v>
+        <v>0.25590000000000002</v>
+      </c>
+      <c r="D32" s="25">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="E32" s="25">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="F32" s="25">
+        <v>0</v>
+      </c>
+      <c r="G32" s="25">
+        <v>0</v>
+      </c>
+      <c r="H32" s="25">
+        <v>0</v>
+      </c>
+      <c r="I32" s="25">
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="J32" s="2">
-        <v>0.2417</v>
+        <v>0.25950000000000001</v>
       </c>
       <c r="K32" s="2">
-        <v>0.2384</v>
+        <v>0.25240000000000001</v>
       </c>
       <c r="L32" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>1.8E-3</v>
       </c>
       <c r="M32" s="2">
-        <v>0.93079999999999996</v>
+        <v>0.9224</v>
       </c>
       <c r="N32" s="2">
-        <v>0.92889999999999995</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="O32" s="2">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P32" s="2">
-        <v>2.07E-2</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="Q32" s="2">
-        <v>2.0400000000000001E-2</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
@@ -6915,57 +7231,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2">
-        <v>0.26679999999999998</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.9133</v>
-      </c>
-      <c r="E33" s="2">
-        <v>2.06E-2</v>
-      </c>
-      <c r="F33" s="2">
-        <v>0</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="2">
-        <v>0</v>
-      </c>
-      <c r="I33" s="2">
-        <v>2E-3</v>
+        <v>0.2427</v>
+      </c>
+      <c r="D33" s="25">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="E33" s="25">
+        <v>2.01E-2</v>
+      </c>
+      <c r="F33" s="25">
+        <v>0</v>
+      </c>
+      <c r="G33" s="25">
+        <v>0</v>
+      </c>
+      <c r="H33" s="25">
+        <v>0</v>
+      </c>
+      <c r="I33" s="25">
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="J33" s="2">
-        <v>0.26889999999999997</v>
+        <v>0.24759999999999999</v>
       </c>
       <c r="K33" s="2">
-        <v>0.26419999999999999</v>
+        <v>0.2399</v>
       </c>
       <c r="L33" s="2">
-        <v>1.2999999999999999E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="M33" s="2">
-        <v>0.91500000000000004</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="N33" s="2">
-        <v>0.91190000000000004</v>
+        <v>0.92530000000000001</v>
       </c>
       <c r="O33" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P33" s="2">
-        <v>2.0799999999999999E-2</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="Q33" s="2">
-        <v>2.0400000000000001E-2</v>
+        <v>0.02</v>
       </c>
       <c r="R33" s="2">
         <v>0</v>
@@ -6986,276 +7302,281 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0.36749999999999999</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1">
-        <v>2.6700000000000002E-2</v>
-      </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1">
-        <v>1.5E-3</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.36840000000000001</v>
-      </c>
-      <c r="K34" s="1">
-        <v>0.36659999999999998</v>
-      </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+        <v>37</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.2397</v>
+      </c>
+      <c r="D34" s="25">
+        <v>0.93</v>
+      </c>
+      <c r="E34" s="25">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="F34" s="25">
+        <v>0</v>
+      </c>
+      <c r="G34" s="25">
+        <v>0</v>
+      </c>
+      <c r="H34" s="25">
+        <v>0</v>
+      </c>
+      <c r="I34" s="25">
+        <v>1.4E-3</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.2417</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.2384</v>
+      </c>
+      <c r="L34" s="2">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.93079999999999996</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0.92889999999999995</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="P34" s="2">
+        <v>2.07E-2</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <v>0</v>
+      </c>
+      <c r="T34" s="2">
+        <v>0</v>
+      </c>
+      <c r="U34" s="2">
+        <v>0</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0.38340000000000002</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1">
-        <v>3.3E-3</v>
-      </c>
-      <c r="J35" s="1">
-        <v>0.38540000000000002</v>
-      </c>
-      <c r="K35" s="1">
-        <v>0.38140000000000002</v>
-      </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.26679999999999998</v>
+      </c>
+      <c r="D35" s="25">
+        <v>0.9133</v>
+      </c>
+      <c r="E35" s="25">
+        <v>2.06E-2</v>
+      </c>
+      <c r="F35" s="16">
+        <v>0</v>
+      </c>
+      <c r="G35" s="25">
+        <v>0</v>
+      </c>
+      <c r="H35" s="25">
+        <v>0</v>
+      </c>
+      <c r="I35" s="16">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.26889999999999997</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.26419999999999999</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="O35" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P35" s="2">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="R35" s="2">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <v>0</v>
+      </c>
+      <c r="T35" s="2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2">
+        <v>0</v>
+      </c>
+      <c r="V35" s="2">
+        <v>0</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.3609</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.84150000000000003</v>
-      </c>
-      <c r="E36" s="2">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="F36" s="2">
-        <v>0</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="2">
-        <v>0</v>
-      </c>
-      <c r="I36" s="2">
-        <v>0</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0.3609</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0.36080000000000001</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2">
-        <v>0.84150000000000003</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0.84150000000000003</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="R36" s="2">
-        <v>0</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0</v>
-      </c>
-      <c r="T36" s="2">
-        <v>0</v>
-      </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="F36" s="25">
+        <v>0</v>
+      </c>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="25">
+        <v>1.4E-3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.36659999999999998</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.36280000000000001</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.8397</v>
-      </c>
-      <c r="E37" s="2">
-        <v>3.15E-2</v>
-      </c>
-      <c r="F37" s="2">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="2">
-        <v>0</v>
-      </c>
-      <c r="I37" s="2">
-        <v>5.3E-3</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0.37030000000000002</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="L37" s="2">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0.84309999999999996</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="O37" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="P37" s="2">
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="R37" s="2">
-        <v>0</v>
-      </c>
-      <c r="S37" s="2">
-        <v>0</v>
-      </c>
-      <c r="T37" s="2">
-        <v>0</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
-      <c r="V37" s="2">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.38340000000000002</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="F37" s="18">
+        <v>0</v>
+      </c>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="18">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.38540000000000002</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.38140000000000002</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2">
-        <v>0.3649</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.83779999999999999</v>
-      </c>
-      <c r="E38" s="2">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="F38" s="2">
-        <v>0</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <v>5.0000000000000001E-3</v>
+        <v>0.3609</v>
+      </c>
+      <c r="D38" s="25">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="E38" s="25">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="F38" s="18">
+        <v>0</v>
+      </c>
+      <c r="G38" s="25">
+        <v>0</v>
+      </c>
+      <c r="H38" s="25">
+        <v>0</v>
+      </c>
+      <c r="I38" s="18">
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="J38" s="2">
-        <v>0.37130000000000002</v>
+        <v>0.3609</v>
       </c>
       <c r="K38" s="2">
-        <v>0.35920000000000002</v>
+        <v>0.36080000000000001</v>
       </c>
       <c r="L38" s="2">
-        <v>4.4000000000000003E-3</v>
+        <v>0</v>
       </c>
       <c r="M38" s="2">
-        <v>0.84289999999999998</v>
+        <v>0.84150000000000003</v>
       </c>
       <c r="N38" s="2">
-        <v>0.83209999999999995</v>
+        <v>0.84150000000000003</v>
       </c>
       <c r="O38" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="P38" s="2">
-        <v>3.1800000000000002E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="Q38" s="2">
-        <v>3.1399999999999997E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R38" s="2">
         <v>0</v>
@@ -7276,54 +7597,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="C39" s="2">
-        <v>0.36509999999999998</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.8377</v>
-      </c>
-      <c r="E39" s="2">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="F39" s="2">
-        <v>0</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="2">
-        <v>0</v>
-      </c>
-      <c r="I39" s="2">
-        <v>5.1999999999999998E-3</v>
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="D39" s="25">
+        <v>0.8397</v>
+      </c>
+      <c r="E39" s="25">
+        <v>3.15E-2</v>
+      </c>
+      <c r="F39" s="25">
+        <v>0</v>
+      </c>
+      <c r="G39" s="25">
+        <v>0</v>
+      </c>
+      <c r="H39" s="25">
+        <v>0</v>
+      </c>
+      <c r="I39" s="25">
+        <v>1.5E-3</v>
       </c>
       <c r="J39" s="2">
-        <v>0.37159999999999999</v>
+        <v>0.37030000000000002</v>
       </c>
       <c r="K39" s="2">
         <v>0.35899999999999999</v>
       </c>
       <c r="L39" s="2">
-        <v>4.5999999999999999E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="M39" s="2">
         <v>0.84309999999999996</v>
       </c>
       <c r="N39" s="2">
-        <v>0.83179999999999998</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="O39" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P39" s="2">
-        <v>3.1899999999999998E-2</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="Q39" s="2">
         <v>3.1399999999999997E-2</v>
@@ -7347,57 +7668,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="C40" s="2">
-        <v>0.36620000000000003</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.83660000000000001</v>
-      </c>
-      <c r="E40" s="2">
+        <v>0.3649</v>
+      </c>
+      <c r="D40" s="25">
+        <v>0.83779999999999999</v>
+      </c>
+      <c r="E40" s="25">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2">
-        <v>0</v>
-      </c>
-      <c r="I40" s="2">
-        <v>8.8000000000000005E-3</v>
+      <c r="F40" s="25">
+        <v>0</v>
+      </c>
+      <c r="G40" s="25">
+        <v>0</v>
+      </c>
+      <c r="H40" s="25">
+        <v>0</v>
+      </c>
+      <c r="I40" s="25">
+        <v>2.8E-3</v>
       </c>
       <c r="J40" s="2">
-        <v>0.37859999999999999</v>
+        <v>0.37130000000000002</v>
       </c>
       <c r="K40" s="2">
-        <v>0.35980000000000001</v>
+        <v>0.35920000000000002</v>
       </c>
       <c r="L40" s="2">
-        <v>7.9000000000000008E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="M40" s="2">
-        <v>0.84230000000000005</v>
+        <v>0.84289999999999998</v>
       </c>
       <c r="N40" s="2">
-        <v>0.82540000000000002</v>
+        <v>0.83209999999999995</v>
       </c>
       <c r="O40" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P40" s="2">
-        <v>3.2199999999999999E-2</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="Q40" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="R40" s="2">
         <v>0</v>
@@ -7418,57 +7739,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2">
-        <v>0.372</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.83150000000000002</v>
-      </c>
-      <c r="E41" s="2">
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="2">
-        <v>0</v>
-      </c>
-      <c r="I41" s="2">
-        <v>8.8999999999999999E-3</v>
+        <v>0.36509999999999998</v>
+      </c>
+      <c r="D41" s="25">
+        <v>0.8377</v>
+      </c>
+      <c r="E41" s="25">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="F41" s="18">
+        <v>0</v>
+      </c>
+      <c r="G41" s="25">
+        <v>0</v>
+      </c>
+      <c r="H41" s="25">
+        <v>0</v>
+      </c>
+      <c r="I41" s="18">
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="J41" s="2">
-        <v>0.38140000000000002</v>
+        <v>0.37159999999999999</v>
       </c>
       <c r="K41" s="2">
-        <v>0.36</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="L41" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="M41" s="2">
-        <v>0.84219999999999995</v>
+        <v>0.84309999999999996</v>
       </c>
       <c r="N41" s="2">
-        <v>0.82289999999999996</v>
+        <v>0.83179999999999998</v>
       </c>
       <c r="O41" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P41" s="2">
-        <v>3.2199999999999999E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="Q41" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="R41" s="2">
         <v>0</v>
@@ -7489,57 +7810,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C42" s="2">
         <v>0.36620000000000003</v>
       </c>
-      <c r="D42" s="2">
-        <v>0.8367</v>
-      </c>
-      <c r="E42" s="2">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="F42" s="2">
-        <v>0</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0</v>
-      </c>
-      <c r="H42" s="2">
-        <v>0</v>
-      </c>
-      <c r="I42" s="2">
-        <v>2.9999999999999997E-4</v>
+      <c r="D42" s="25">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="E42" s="25">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25">
+        <v>0</v>
+      </c>
+      <c r="H42" s="25">
+        <v>0</v>
+      </c>
+      <c r="I42" s="25">
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J42" s="2">
-        <v>0.36649999999999999</v>
+        <v>0.37859999999999999</v>
       </c>
       <c r="K42" s="2">
-        <v>0.36580000000000001</v>
+        <v>0.35980000000000001</v>
       </c>
       <c r="L42" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="M42" s="2">
-        <v>0.83709999999999996</v>
+        <v>0.84230000000000005</v>
       </c>
       <c r="N42" s="2">
-        <v>0.83640000000000003</v>
+        <v>0.82540000000000002</v>
       </c>
       <c r="O42" s="2">
-        <v>0</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P42" s="2">
-        <v>3.2000000000000001E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="Q42" s="2">
-        <v>3.1899999999999998E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R42" s="2">
         <v>0</v>
@@ -7560,57 +7879,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="E43" s="2">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="2">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2">
-        <v>3.2000000000000002E-3</v>
+        <v>0.372</v>
+      </c>
+      <c r="D43" s="25">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="E43" s="25">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="F43" s="25">
+        <v>0</v>
+      </c>
+      <c r="G43" s="25">
+        <v>0</v>
+      </c>
+      <c r="H43" s="25">
+        <v>0</v>
+      </c>
+      <c r="I43" s="25">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="J43" s="2">
-        <v>0.37330000000000002</v>
+        <v>0.38140000000000002</v>
       </c>
       <c r="K43" s="2">
-        <v>0.36559999999999998</v>
+        <v>0.36</v>
       </c>
       <c r="L43" s="2">
-        <v>2.8999999999999998E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="M43" s="2">
-        <v>0.83720000000000006</v>
+        <v>0.84219999999999995</v>
       </c>
       <c r="N43" s="2">
-        <v>0.83030000000000004</v>
+        <v>0.82289999999999996</v>
       </c>
       <c r="O43" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P43" s="2">
-        <v>3.2099999999999997E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="Q43" s="2">
-        <v>3.1699999999999999E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R43" s="2">
         <v>0</v>
@@ -7631,57 +7950,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C44" s="2">
-        <v>0.37559999999999999</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="E44" s="2">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="D44" s="14">
+        <v>0.8367</v>
+      </c>
+      <c r="E44" s="14">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="F44" s="2">
-        <v>0</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
-      <c r="H44" s="2">
-        <v>0</v>
-      </c>
-      <c r="I44" s="2">
-        <v>1.4200000000000001E-2</v>
+      <c r="F44" s="14">
+        <v>0</v>
+      </c>
+      <c r="G44" s="14">
+        <v>0</v>
+      </c>
+      <c r="H44" s="14">
+        <v>0</v>
+      </c>
+      <c r="I44" s="14">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="J44" s="2">
-        <v>0.39460000000000001</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="K44" s="2">
-        <v>0.36059999999999998</v>
+        <v>0.36580000000000001</v>
       </c>
       <c r="L44" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="M44" s="2">
-        <v>0.8417</v>
+        <v>0.83709999999999996</v>
       </c>
       <c r="N44" s="2">
-        <v>0.8105</v>
+        <v>0.83640000000000003</v>
       </c>
       <c r="O44" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="P44" s="2">
-        <v>3.2899999999999999E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="Q44" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="R44" s="2">
         <v>0</v>
@@ -7702,54 +8021,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C45" s="2">
-        <v>0.37740000000000001</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0.8266</v>
-      </c>
-      <c r="E45" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="D45" s="14">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="E45" s="14">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="F45" s="2">
-        <v>0</v>
-      </c>
-      <c r="G45" s="2">
-        <v>0</v>
-      </c>
-      <c r="H45" s="2">
-        <v>0</v>
-      </c>
-      <c r="I45" s="2">
-        <v>4.7999999999999996E-3</v>
+      <c r="F45" s="14">
+        <v>0</v>
+      </c>
+      <c r="G45" s="14">
+        <v>0</v>
+      </c>
+      <c r="H45" s="14">
+        <v>0</v>
+      </c>
+      <c r="I45" s="14">
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="J45" s="2">
-        <v>0.38369999999999999</v>
+        <v>0.37330000000000002</v>
       </c>
       <c r="K45" s="2">
-        <v>0.372</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="L45" s="2">
-        <v>4.4000000000000003E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="M45" s="2">
-        <v>0.83150000000000002</v>
+        <v>0.83720000000000006</v>
       </c>
       <c r="N45" s="2">
-        <v>0.82079999999999997</v>
+        <v>0.83030000000000004</v>
       </c>
       <c r="O45" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P45" s="2">
-        <v>3.2199999999999999E-2</v>
+        <v>3.2099999999999997E-2</v>
       </c>
       <c r="Q45" s="2">
         <v>3.1699999999999999E-2</v>
@@ -7773,96 +8092,161 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.37909999999999999</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0.38059999999999999</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0.37769999999999998</v>
-      </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.37559999999999999</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E46" s="2">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0.36059999999999998</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0.8417</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0.8105</v>
+      </c>
+      <c r="O46" s="2">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="P46" s="2">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="R46" s="2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="2">
+        <v>0</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0</v>
+      </c>
+      <c r="V46" s="2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.36580000000000001</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1">
-        <v>4.7100000000000003E-2</v>
-      </c>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0.36680000000000001</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0.36480000000000001</v>
-      </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.37740000000000001</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.8266</v>
+      </c>
+      <c r="E47" s="2">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.38369999999999999</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.372</v>
+      </c>
+      <c r="L47" s="2">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="O47" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P47" s="2">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="R47" s="2">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C48" s="1">
-        <v>0.3614</v>
+        <v>0.37909999999999999</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1">
-        <v>5.2699999999999997E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -7871,10 +8255,10 @@
         <v>2.3999999999999998E-3</v>
       </c>
       <c r="J48" s="1">
-        <v>0.3629</v>
+        <v>0.38059999999999999</v>
       </c>
       <c r="K48" s="1">
-        <v>0.3599</v>
+        <v>0.37769999999999998</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -7889,31 +8273,30 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>77</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C49" s="1">
-        <v>0.37090000000000001</v>
+        <v>0.36580000000000001</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1">
-        <v>5.3400000000000003E-2</v>
-      </c>
-      <c r="F49" s="1"/>
+        <v>4.7100000000000003E-2</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="J49" s="1">
-        <v>0.37240000000000001</v>
+        <v>0.36680000000000001</v>
       </c>
       <c r="K49" s="1">
-        <v>0.36930000000000002</v>
+        <v>0.36480000000000001</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -7928,163 +8311,99 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>77</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.5272</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0.59340000000000004</v>
-      </c>
-      <c r="E50" s="2">
-        <v>5.6399999999999999E-2</v>
-      </c>
-      <c r="F50" s="2">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2">
-        <v>0</v>
-      </c>
-      <c r="H50" s="2">
-        <v>0</v>
-      </c>
-      <c r="I50" s="2">
-        <v>0.2366</v>
-      </c>
-      <c r="J50" s="2">
-        <v>0.86180000000000001</v>
-      </c>
-      <c r="K50" s="2">
+        <v>71</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0.3614</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1">
+        <v>5.2699999999999997E-2</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.3629</v>
+      </c>
+      <c r="K50" s="1">
         <v>0.3599</v>
       </c>
-      <c r="L50" s="2">
-        <v>0.35189999999999999</v>
-      </c>
-      <c r="M50" s="2">
-        <v>0.84230000000000005</v>
-      </c>
-      <c r="N50" s="2">
-        <v>9.5799999999999996E-2</v>
-      </c>
-      <c r="O50" s="2">
-        <v>3.5400000000000001E-2</v>
-      </c>
-      <c r="P50" s="2">
-        <v>0.10639999999999999</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="R50" s="2">
-        <v>0</v>
-      </c>
-      <c r="S50" s="2">
-        <v>0</v>
-      </c>
-      <c r="T50" s="2">
-        <v>0</v>
-      </c>
-      <c r="U50" s="2">
-        <v>0</v>
-      </c>
-      <c r="V50" s="2">
-        <v>0</v>
-      </c>
-      <c r="W50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+    </row>
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.5272</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0.5958</v>
-      </c>
-      <c r="E51" s="2">
-        <v>5.67E-2</v>
-      </c>
-      <c r="F51" s="2">
-        <v>0</v>
-      </c>
-      <c r="G51" s="2">
-        <v>0</v>
-      </c>
-      <c r="H51" s="2">
-        <v>0</v>
-      </c>
-      <c r="I51" s="2">
-        <v>0.2326</v>
-      </c>
-      <c r="J51" s="2">
-        <v>0.85609999999999997</v>
-      </c>
-      <c r="K51" s="2">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="L51" s="2">
-        <v>0.34510000000000002</v>
-      </c>
-      <c r="M51" s="2">
-        <v>0.84140000000000004</v>
-      </c>
-      <c r="N51" s="2">
-        <v>0.1077</v>
-      </c>
-      <c r="O51" s="2">
-        <v>3.5200000000000002E-2</v>
-      </c>
-      <c r="P51" s="2">
-        <v>0.1066</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="R51" s="2">
-        <v>0</v>
-      </c>
-      <c r="S51" s="2">
-        <v>0</v>
-      </c>
-      <c r="T51" s="2">
-        <v>0</v>
-      </c>
-      <c r="U51" s="2">
-        <v>0</v>
-      </c>
-      <c r="V51" s="2">
-        <v>0</v>
-      </c>
-      <c r="W51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
+        <v>74</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0.37090000000000001</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.37240000000000001</v>
+      </c>
+      <c r="K51" s="1">
+        <v>0.36930000000000002</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+    </row>
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2">
-        <v>0.53649999999999998</v>
+        <v>0.5272</v>
       </c>
       <c r="D52" s="2">
-        <v>0.58589999999999998</v>
+        <v>0.59340000000000004</v>
       </c>
       <c r="E52" s="2">
-        <v>5.67E-2</v>
+        <v>5.6399999999999999E-2</v>
       </c>
       <c r="F52" s="2">
         <v>0</v>
@@ -8096,31 +8415,31 @@
         <v>0</v>
       </c>
       <c r="I52" s="2">
-        <v>0.2286</v>
+        <v>0.2366</v>
       </c>
       <c r="J52" s="2">
-        <v>0.85950000000000004</v>
+        <v>0.86180000000000001</v>
       </c>
       <c r="K52" s="2">
-        <v>0.3639</v>
+        <v>0.3599</v>
       </c>
       <c r="L52" s="2">
-        <v>0.34339999999999998</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="M52" s="2">
-        <v>0.83879999999999999</v>
+        <v>0.84230000000000005</v>
       </c>
       <c r="N52" s="2">
-        <v>0.10050000000000001</v>
+        <v>9.5799999999999996E-2</v>
       </c>
       <c r="O52" s="2">
-        <v>3.5099999999999999E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="P52" s="2">
-        <v>0.1062</v>
+        <v>0.10639999999999999</v>
       </c>
       <c r="Q52" s="2">
-        <v>3.1399999999999997E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
@@ -8141,316 +8460,443 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0.38140000000000002</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1">
-        <v>2.8E-3</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0.38319999999999999</v>
-      </c>
-      <c r="K53" s="1">
-        <v>0.37969999999999998</v>
-      </c>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="C53" s="2">
+        <v>0.5272</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.5958</v>
+      </c>
+      <c r="E53" s="2">
+        <v>5.67E-2</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.2326</v>
+      </c>
+      <c r="J53" s="2">
+        <v>0.85609999999999997</v>
+      </c>
+      <c r="K53" s="2">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="L53" s="2">
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="M53" s="2">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="N53" s="2">
+        <v>0.1077</v>
+      </c>
+      <c r="O53" s="2">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0.1066</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="R53" s="2">
+        <v>0</v>
+      </c>
+      <c r="S53" s="2">
+        <v>0</v>
+      </c>
+      <c r="T53" s="2">
+        <v>0</v>
+      </c>
+      <c r="U53" s="2">
+        <v>0</v>
+      </c>
+      <c r="V53" s="2">
+        <v>0</v>
+      </c>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0.36209999999999998</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1">
-        <v>6.0600000000000001E-2</v>
-      </c>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="J54" s="1">
-        <v>0.36330000000000001</v>
-      </c>
-      <c r="K54" s="1">
-        <v>0.36080000000000001</v>
-      </c>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.58589999999999998</v>
+      </c>
+      <c r="E54" s="2">
+        <v>5.67E-2</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.2286</v>
+      </c>
+      <c r="J54" s="2">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="K54" s="2">
+        <v>0.3639</v>
+      </c>
+      <c r="L54" s="2">
+        <v>0.34339999999999998</v>
+      </c>
+      <c r="M54" s="2">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="N54" s="2">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="O54" s="2">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0.1062</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="R54" s="2">
+        <v>0</v>
+      </c>
+      <c r="S54" s="2">
+        <v>0</v>
+      </c>
+      <c r="T54" s="2">
+        <v>0</v>
+      </c>
+      <c r="U54" s="2">
+        <v>0</v>
+      </c>
+      <c r="V54" s="2">
+        <v>0</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0.69089999999999996</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0.35220000000000001</v>
-      </c>
-      <c r="E55" s="2">
-        <v>8.14E-2</v>
-      </c>
-      <c r="F55" s="2">
-        <v>0</v>
-      </c>
-      <c r="G55" s="2">
-        <v>0</v>
-      </c>
-      <c r="H55" s="2">
-        <v>0</v>
-      </c>
-      <c r="I55" s="2">
-        <v>0.23400000000000001</v>
-      </c>
-      <c r="J55" s="2">
-        <v>0.85640000000000005</v>
-      </c>
-      <c r="K55" s="2">
-        <v>0.3599</v>
-      </c>
-      <c r="L55" s="2">
-        <v>0.34660000000000002</v>
-      </c>
-      <c r="M55" s="2">
-        <v>0.84230000000000005</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0.107</v>
-      </c>
-      <c r="O55" s="2">
-        <v>3.5400000000000001E-2</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0.10639999999999999</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="R55" s="2">
-        <v>0</v>
-      </c>
-      <c r="S55" s="2">
-        <v>0</v>
-      </c>
-      <c r="T55" s="2">
-        <v>0</v>
-      </c>
-      <c r="U55" s="2">
-        <v>0</v>
-      </c>
-      <c r="V55" s="2">
-        <v>0</v>
-      </c>
-      <c r="W55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.38140000000000002</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.38319999999999999</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0.34920000000000001</v>
-      </c>
-      <c r="E56" s="2">
-        <v>8.2100000000000006E-2</v>
-      </c>
-      <c r="F56" s="2">
-        <v>0</v>
-      </c>
-      <c r="G56" s="2">
-        <v>0</v>
-      </c>
-      <c r="H56" s="2">
-        <v>0</v>
-      </c>
-      <c r="I56" s="2">
-        <v>0.2359</v>
-      </c>
-      <c r="J56" s="2">
-        <v>0.85899999999999999</v>
-      </c>
-      <c r="K56" s="2">
-        <v>0.3584</v>
-      </c>
-      <c r="L56" s="2">
-        <v>0.34960000000000002</v>
-      </c>
-      <c r="M56" s="2">
-        <v>0.84360000000000002</v>
-      </c>
-      <c r="N56" s="2">
-        <v>0.1017</v>
-      </c>
-      <c r="O56" s="2">
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0.1085</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="R56" s="2">
-        <v>0</v>
-      </c>
-      <c r="S56" s="2">
-        <v>0</v>
-      </c>
-      <c r="T56" s="2">
-        <v>0</v>
-      </c>
-      <c r="U56" s="2">
-        <v>0</v>
-      </c>
-      <c r="V56" s="2">
-        <v>0</v>
-      </c>
-      <c r="W56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.36209999999999998</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.36330000000000001</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.36080000000000001</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.69089999999999996</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="E57" s="2">
+        <v>8.14E-2</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="J57" s="2">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="K57" s="2">
+        <v>0.3599</v>
+      </c>
+      <c r="L57" s="2">
+        <v>0.34660000000000002</v>
+      </c>
+      <c r="M57" s="2">
+        <v>0.84230000000000005</v>
+      </c>
+      <c r="N57" s="2">
+        <v>0.107</v>
+      </c>
+      <c r="O57" s="2">
+        <v>3.5400000000000001E-2</v>
+      </c>
+      <c r="P57" s="2">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="R57" s="2">
+        <v>0</v>
+      </c>
+      <c r="S57" s="2">
+        <v>0</v>
+      </c>
+      <c r="T57" s="2">
+        <v>0</v>
+      </c>
+      <c r="U57" s="2">
+        <v>0</v>
+      </c>
+      <c r="V57" s="2">
+        <v>0</v>
+      </c>
+      <c r="W57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="E58" s="2">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0.2359</v>
+      </c>
+      <c r="J58" s="2">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="K58" s="2">
+        <v>0.3584</v>
+      </c>
+      <c r="L58" s="2">
+        <v>0.34960000000000002</v>
+      </c>
+      <c r="M58" s="2">
+        <v>0.84360000000000002</v>
+      </c>
+      <c r="N58" s="2">
+        <v>0.1017</v>
+      </c>
+      <c r="O58" s="2">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="P58" s="2">
+        <v>0.1085</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="R58" s="2">
+        <v>0</v>
+      </c>
+      <c r="S58" s="2">
+        <v>0</v>
+      </c>
+      <c r="T58" s="2">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2">
+        <v>0</v>
+      </c>
+      <c r="V58" s="2">
+        <v>0</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C59" s="2">
         <v>0.69550000000000001</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D59" s="2">
         <v>0.34770000000000001</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E59" s="2">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="F57" s="2">
-        <v>0</v>
-      </c>
-      <c r="G57" s="2">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2">
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
         <v>0.2283</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J59" s="2">
         <v>0.8569</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K59" s="2">
         <v>0.37269999999999998</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L59" s="2">
         <v>0.3417</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M59" s="2">
         <v>0.83089999999999997</v>
       </c>
-      <c r="N57" s="2">
+      <c r="N59" s="2">
         <v>0.1061</v>
       </c>
-      <c r="O57" s="2">
+      <c r="O59" s="2">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="P57" s="2">
+      <c r="P59" s="2">
         <v>0.1076</v>
       </c>
-      <c r="Q57" s="2">
+      <c r="Q59" s="2">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="R57" s="2">
-        <v>0</v>
-      </c>
-      <c r="S57" s="2">
-        <v>0</v>
-      </c>
-      <c r="T57" s="2">
-        <v>0</v>
-      </c>
-      <c r="U57" s="2">
-        <v>0</v>
-      </c>
-      <c r="V57" s="2">
-        <v>0</v>
-      </c>
-      <c r="W57" s="2">
-        <v>0</v>
-      </c>
-    </row>
+      <c r="R59" s="2">
+        <v>0</v>
+      </c>
+      <c r="S59" s="2">
+        <v>0</v>
+      </c>
+      <c r="T59" s="2">
+        <v>0</v>
+      </c>
+      <c r="U59" s="2">
+        <v>0</v>
+      </c>
+      <c r="V59" s="2">
+        <v>0</v>
+      </c>
+      <c r="W59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <autoFilter ref="A1:W58" xr:uid="{0B1DB96E-F0A8-460E-9A4B-15CE75D83F02}">
+  <autoFilter ref="A1:W60" xr:uid="{0B1DB96E-F0A8-460E-9A4B-15CE75D83F02}">
     <filterColumn colId="1">
-      <filters blank="1">
-        <filter val="CNN-ew2"/>
-        <filter val="CNN-ew3"/>
-        <filter val="CNN-ew4"/>
-        <filter val="CNN-obs"/>
-        <filter val="CNN-or"/>
-        <filter val="CNN-sg5"/>
-        <filter val="CNN-sg7"/>
-        <filter val="CNN-sg9"/>
-        <filter val="DNN-ew2"/>
-        <filter val="DNN-ew3"/>
-        <filter val="DNN-ew4"/>
-        <filter val="DNN-obs"/>
-        <filter val="DNN-or"/>
-        <filter val="DNN-sg5"/>
-        <filter val="DNN-sg7"/>
-        <filter val="DNN-sg9"/>
+      <filters>
         <filter val="GRU-ew2"/>
         <filter val="GRU-ew3"/>
         <filter val="GRU-ew4"/>
@@ -8459,34 +8905,10 @@
         <filter val="GRU-sg5"/>
         <filter val="GRU-sg7"/>
         <filter val="GRU-sg9"/>
-        <filter val="LSTM-ew2"/>
-        <filter val="LSTM-ew3"/>
-        <filter val="LSTM-ew4"/>
-        <filter val="LSTM-obs"/>
-        <filter val="LSTM-or"/>
-        <filter val="LSTM-sg5"/>
-        <filter val="LSTM-sg7"/>
-        <filter val="LSTM-sg9"/>
-        <filter val="RF-ew2"/>
-        <filter val="RF-ew3"/>
-        <filter val="RF-ew4"/>
-        <filter val="RF-obs"/>
-        <filter val="RF-or"/>
-        <filter val="RF-sg5"/>
-        <filter val="RF-sg7"/>
-        <filter val="RF-sg9"/>
-        <filter val="RNN-ew2"/>
-        <filter val="RNN-ew3"/>
-        <filter val="RNN-ew4"/>
-        <filter val="RNN-obs"/>
-        <filter val="RNN-or"/>
-        <filter val="RNN-sg5"/>
-        <filter val="RNN-sg7"/>
-        <filter val="RNN-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:W58">
-      <sortCondition ref="E1:E58"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:W27">
+      <sortCondition ref="C1:C60"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8500,7 +8922,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" activeCellId="1" sqref="A3:A43 D3:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -8730,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
@@ -8866,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
@@ -9070,7 +9492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
@@ -9138,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
@@ -9274,7 +9696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -9410,7 +9832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
@@ -9478,7 +9900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -9614,18 +10036,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2">
-        <v>0.14419999999999999</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="C17" s="2">
-        <v>0.73729999999999996</v>
+        <v>0.74870000000000003</v>
       </c>
       <c r="D17" s="2">
-        <v>5.1900000000000002E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
@@ -9637,31 +10059,31 @@
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>2.3E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="I17" s="2">
-        <v>0.1469</v>
+        <v>0.14369999999999999</v>
       </c>
       <c r="J17" s="2">
-        <v>0.14130000000000001</v>
+        <v>0.13930000000000001</v>
       </c>
       <c r="K17" s="2">
-        <v>8.3999999999999995E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="L17" s="2">
-        <v>0.74790000000000001</v>
+        <v>0.75490000000000002</v>
       </c>
       <c r="M17" s="2">
-        <v>0.72740000000000005</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="N17" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="O17" s="2">
-        <v>5.2400000000000002E-2</v>
+        <v>5.3800000000000001E-2</v>
       </c>
       <c r="P17" s="2">
-        <v>5.0999999999999997E-2</v>
+        <v>5.2499999999999998E-2</v>
       </c>
       <c r="Q17" s="2">
         <v>0</v>
@@ -9818,7 +10240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -9954,18 +10376,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>0.14099999999999999</v>
+        <v>0.14419999999999999</v>
       </c>
       <c r="C22" s="2">
-        <v>0.74870000000000003</v>
+        <v>0.73729999999999996</v>
       </c>
       <c r="D22" s="2">
-        <v>5.2999999999999999E-2</v>
+        <v>5.1900000000000002E-2</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -9977,31 +10399,31 @@
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <v>1.9E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="I22" s="2">
-        <v>0.14369999999999999</v>
+        <v>0.1469</v>
       </c>
       <c r="J22" s="2">
-        <v>0.13930000000000001</v>
+        <v>0.14130000000000001</v>
       </c>
       <c r="K22" s="2">
-        <v>7.0000000000000001E-3</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="L22" s="2">
-        <v>0.75490000000000002</v>
+        <v>0.74790000000000001</v>
       </c>
       <c r="M22" s="2">
-        <v>0.73899999999999999</v>
+        <v>0.72740000000000005</v>
       </c>
       <c r="N22" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="O22" s="2">
-        <v>5.3800000000000001E-2</v>
+        <v>5.2400000000000002E-2</v>
       </c>
       <c r="P22" s="2">
-        <v>5.2499999999999998E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="Q22" s="2">
         <v>0</v>
@@ -10022,7 +10444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -10158,7 +10580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -10226,7 +10648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>33</v>
       </c>
@@ -10294,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -10430,7 +10852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>37</v>
       </c>
@@ -10498,7 +10920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>38</v>
       </c>
@@ -10634,7 +11056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>24</v>
       </c>
@@ -10770,7 +11192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
@@ -10838,7 +11260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>44</v>
       </c>
@@ -10906,7 +11328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
@@ -10974,7 +11396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>59</v>
       </c>
@@ -11042,7 +11464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>49</v>
       </c>
@@ -11110,7 +11532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
@@ -11178,7 +11600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>34</v>
       </c>
@@ -11246,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>54</v>
       </c>
@@ -11314,7 +11736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
@@ -11450,7 +11872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
@@ -11518,7 +11940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>56</v>
       </c>
@@ -11586,7 +12008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>36</v>
       </c>
@@ -11654,7 +12076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>41</v>
       </c>
@@ -11722,7 +12144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
@@ -11790,7 +12212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
@@ -11862,30 +12284,6 @@
   <autoFilter ref="A1:V49" xr:uid="{2614E7D4-0119-49DF-BE51-5E4AC211198A}">
     <filterColumn colId="0">
       <filters>
-        <filter val="CNN-ew2"/>
-        <filter val="CNN-ew3"/>
-        <filter val="CNN-ew4"/>
-        <filter val="CNN-obs"/>
-        <filter val="CNN-or"/>
-        <filter val="CNN-sg5"/>
-        <filter val="CNN-sg7"/>
-        <filter val="CNN-sg9"/>
-        <filter val="DNN-ew2"/>
-        <filter val="DNN-ew3"/>
-        <filter val="DNN-ew4"/>
-        <filter val="DNN-obs"/>
-        <filter val="DNN-or"/>
-        <filter val="DNN-sg5"/>
-        <filter val="DNN-sg7"/>
-        <filter val="DNN-sg9"/>
-        <filter val="GRU-ew2"/>
-        <filter val="GRU-ew3"/>
-        <filter val="GRU-ew4"/>
-        <filter val="GRU-obs"/>
-        <filter val="GRU-or"/>
-        <filter val="GRU-sg5"/>
-        <filter val="GRU-sg7"/>
-        <filter val="GRU-sg9"/>
         <filter val="LSTM-ew2"/>
         <filter val="LSTM-ew3"/>
         <filter val="LSTM-ew4"/>
@@ -11894,17 +12292,9 @@
         <filter val="LSTM-sg5"/>
         <filter val="LSTM-sg7"/>
         <filter val="LSTM-sg9"/>
-        <filter val="RNN-ew2"/>
-        <filter val="RNN-ew3"/>
-        <filter val="RNN-ew4"/>
-        <filter val="RNN-obs"/>
-        <filter val="RNN-or"/>
-        <filter val="RNN-sg5"/>
-        <filter val="RNN-sg7"/>
-        <filter val="RNN-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V49">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:V43">
       <sortCondition ref="D1:D49"/>
     </sortState>
   </autoFilter>

--- a/Thesis-codes/NH3-summary-final.xlsx
+++ b/Thesis-codes/NH3-summary-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0810E1-8A46-4510-8583-BC0587771EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B8A1CC-CF96-47AE-AC89-F2788473EB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7123" yWindow="1363" windowWidth="22491" windowHeight="16603" tabRatio="761" activeTab="1" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
+    <workbookView xWindow="-27009" yWindow="2640" windowWidth="22492" windowHeight="13251" tabRatio="761" activeTab="2" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
   </bookViews>
   <sheets>
     <sheet name="Predict-0116-0122" sheetId="7" r:id="rId1"/>
@@ -298,6 +298,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -385,7 +388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -417,16 +420,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -449,9 +446,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -465,6 +459,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,7 +805,7 @@
   <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:G24"/>
+      <selection activeCell="U11" sqref="U11:U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -794,15 +815,14 @@
     <col min="3" max="3" width="14.07421875" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11.61328125" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.4609375" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.4609375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.53515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.3828125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.4609375" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.765625" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.921875" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.765625" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.53515625" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.53515625" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.3828125" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.15234375" style="2" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="11.61328125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.4609375" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.23046875" style="2" bestFit="1" customWidth="1"/>
@@ -1420,7 +1440,7 @@
       <c r="N9" s="2">
         <v>0.9204</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="29">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="P9" s="2">
@@ -1438,7 +1458,7 @@
       <c r="T9" s="2">
         <v>2.1776</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="29">
         <v>4.58E-2</v>
       </c>
       <c r="V9" s="2">
@@ -1491,7 +1511,7 @@
       <c r="N10" s="2">
         <v>0.89480000000000004</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="29">
         <v>1E-4</v>
       </c>
       <c r="P10" s="2">
@@ -1509,7 +1529,7 @@
       <c r="T10" s="2">
         <v>2.9716999999999998</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="29">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="V10" s="2">
@@ -1562,7 +1582,7 @@
       <c r="N11" s="2">
         <v>0.89280000000000004</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="29">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="P11" s="2">
@@ -1571,7 +1591,7 @@
       <c r="Q11" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="29">
         <v>3.1E-2</v>
       </c>
       <c r="S11" s="2">
@@ -1580,7 +1600,7 @@
       <c r="T11" s="2">
         <v>2.7313999999999998</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="29">
         <v>1.12E-2</v>
       </c>
       <c r="V11" s="2">
@@ -1704,7 +1724,7 @@
       <c r="N13" s="4">
         <v>0.88890000000000002</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O13" s="30">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P13" s="4">
@@ -1713,7 +1733,7 @@
       <c r="Q13" s="4">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="R13" s="4">
+      <c r="R13" s="30">
         <v>4.41E-2</v>
       </c>
       <c r="S13" s="4">
@@ -1722,7 +1742,7 @@
       <c r="T13" s="4">
         <v>1.7279</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U13" s="30">
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="V13" s="4">
@@ -1775,7 +1795,7 @@
       <c r="N14" s="2">
         <v>0.88480000000000003</v>
       </c>
-      <c r="O14" s="2">
+      <c r="O14" s="29">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P14" s="2">
@@ -1784,7 +1804,7 @@
       <c r="Q14" s="2">
         <v>3.85E-2</v>
       </c>
-      <c r="R14" s="2">
+      <c r="R14" s="29">
         <v>0.1004</v>
       </c>
       <c r="S14" s="2">
@@ -1793,7 +1813,7 @@
       <c r="T14" s="2">
         <v>2.4243999999999999</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U14" s="29">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="V14" s="2">
@@ -1846,7 +1866,7 @@
       <c r="N15" s="2">
         <v>0.89439999999999997</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="P15" s="2">
@@ -1864,7 +1884,7 @@
       <c r="T15" s="2">
         <v>3.665</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U15" s="29">
         <v>3.0700000000000002E-2</v>
       </c>
       <c r="V15" s="2">
@@ -1917,7 +1937,7 @@
       <c r="N16" s="2">
         <v>0.90569999999999995</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="P16" s="2">
@@ -1935,7 +1955,7 @@
       <c r="T16" s="2">
         <v>2.4855</v>
       </c>
-      <c r="U16" s="2">
+      <c r="U16" s="29">
         <v>5.57E-2</v>
       </c>
       <c r="V16" s="2">
@@ -1988,7 +2008,7 @@
       <c r="N17" s="2">
         <v>0.88780000000000003</v>
       </c>
-      <c r="O17" s="2">
+      <c r="O17" s="29">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="P17" s="2">
@@ -1997,7 +2017,7 @@
       <c r="Q17" s="2">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="R17" s="2">
+      <c r="R17" s="29">
         <v>0.1038</v>
       </c>
       <c r="S17" s="2">
@@ -2006,7 +2026,7 @@
       <c r="T17" s="2">
         <v>3.5834999999999999</v>
       </c>
-      <c r="U17" s="2">
+      <c r="U17" s="29">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="V17" s="2">
@@ -2059,7 +2079,7 @@
       <c r="N18" s="2">
         <v>0.90190000000000003</v>
       </c>
-      <c r="O18" s="2">
+      <c r="O18" s="29">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P18" s="2">
@@ -2077,7 +2097,7 @@
       <c r="T18" s="2">
         <v>3.0167000000000002</v>
       </c>
-      <c r="U18" s="2">
+      <c r="U18" s="29">
         <v>1.37E-2</v>
       </c>
       <c r="V18" s="2">
@@ -2130,7 +2150,7 @@
       <c r="N19" s="5">
         <v>0.88600000000000001</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="31">
         <v>1E-3</v>
       </c>
       <c r="P19" s="5">
@@ -2139,7 +2159,7 @@
       <c r="Q19" s="5">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="31">
         <v>3.4599999999999999E-2</v>
       </c>
       <c r="S19" s="5">
@@ -2148,7 +2168,7 @@
       <c r="T19" s="5">
         <v>2.2993999999999999</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="31">
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="V19" s="5">
@@ -2201,7 +2221,7 @@
       <c r="N20" s="2">
         <v>0.91100000000000003</v>
       </c>
-      <c r="O20" s="2">
+      <c r="O20" s="29">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P20" s="2">
@@ -2219,7 +2239,7 @@
       <c r="T20" s="2">
         <v>1.5353000000000001</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="29">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="V20" s="2">
@@ -2272,7 +2292,7 @@
       <c r="N21" s="2">
         <v>0.91049999999999998</v>
       </c>
-      <c r="O21" s="2">
+      <c r="O21" s="29">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P21" s="2">
@@ -2281,7 +2301,7 @@
       <c r="Q21" s="2">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="R21" s="2">
+      <c r="R21" s="29">
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="S21" s="2">
@@ -2290,7 +2310,7 @@
       <c r="T21" s="2">
         <v>5.0506000000000002</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U21" s="29">
         <v>2.69E-2</v>
       </c>
       <c r="V21" s="2">
@@ -2343,7 +2363,7 @@
       <c r="N22" s="2">
         <v>0.88470000000000004</v>
       </c>
-      <c r="O22" s="2">
+      <c r="O22" s="29">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="P22" s="2">
@@ -2352,7 +2372,7 @@
       <c r="Q22" s="2">
         <v>0.04</v>
       </c>
-      <c r="R22" s="2">
+      <c r="R22" s="29">
         <v>2.58E-2</v>
       </c>
       <c r="S22" s="2">
@@ -2361,7 +2381,7 @@
       <c r="T22" s="2">
         <v>5.7591999999999999</v>
       </c>
-      <c r="U22" s="2">
+      <c r="U22" s="29">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="V22" s="2">
@@ -2414,7 +2434,7 @@
       <c r="N23" s="2">
         <v>0.89870000000000005</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="29">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P23" s="2">
@@ -2432,7 +2452,7 @@
       <c r="T23" s="2">
         <v>5.5297000000000001</v>
       </c>
-      <c r="U23" s="2">
+      <c r="U23" s="29">
         <v>5.3199999999999997E-2</v>
       </c>
       <c r="V23" s="2">
@@ -2485,7 +2505,7 @@
       <c r="N24" s="3">
         <v>0.90039999999999998</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="32">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="P24" s="3">
@@ -2494,7 +2514,7 @@
       <c r="Q24" s="3">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="32">
         <v>5.0700000000000002E-2</v>
       </c>
       <c r="S24" s="3">
@@ -2503,7 +2523,7 @@
       <c r="T24" s="3">
         <v>1.3716999999999999</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="32">
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="V24" s="3">
@@ -2556,7 +2576,7 @@
       <c r="N25" s="2">
         <v>0.88719999999999999</v>
       </c>
-      <c r="O25" s="2">
+      <c r="O25" s="29">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="P25" s="2">
@@ -2574,7 +2594,7 @@
       <c r="T25" s="2">
         <v>6.1874000000000002</v>
       </c>
-      <c r="U25" s="2">
+      <c r="U25" s="29">
         <v>3.5900000000000001E-2</v>
       </c>
       <c r="V25" s="2">
@@ -2627,7 +2647,7 @@
       <c r="N26" s="2">
         <v>0.90790000000000004</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="29">
         <v>1E-4</v>
       </c>
       <c r="P26" s="2">
@@ -2645,7 +2665,7 @@
       <c r="T26" s="2">
         <v>4.2000999999999999</v>
       </c>
-      <c r="U26" s="2">
+      <c r="U26" s="29">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="V26" s="2">
@@ -2698,7 +2718,7 @@
       <c r="N27" s="2">
         <v>0.89729999999999999</v>
       </c>
-      <c r="O27" s="2">
+      <c r="O27" s="29">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="P27" s="2">
@@ -2716,7 +2736,7 @@
       <c r="T27" s="2">
         <v>4.5921000000000003</v>
       </c>
-      <c r="U27" s="2">
+      <c r="U27" s="29">
         <v>5.6599999999999998E-2</v>
       </c>
       <c r="V27" s="2">
@@ -2769,7 +2789,7 @@
       <c r="N28" s="2">
         <v>0.91139999999999999</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="29">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="P28" s="2">
@@ -2787,7 +2807,7 @@
       <c r="T28" s="2">
         <v>3.1808000000000001</v>
       </c>
-      <c r="U28" s="2">
+      <c r="U28" s="29">
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="V28" s="2">
@@ -2840,7 +2860,7 @@
       <c r="N29" s="2">
         <v>0.89549999999999996</v>
       </c>
-      <c r="O29" s="2">
+      <c r="O29" s="29">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P29" s="2">
@@ -2858,7 +2878,7 @@
       <c r="T29" s="2">
         <v>3.5278999999999998</v>
       </c>
-      <c r="U29" s="2">
+      <c r="U29" s="29">
         <v>0.03</v>
       </c>
       <c r="V29" s="2">
@@ -4316,7 +4336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7214CF6-9A35-4870-82BC-6A202AFC67C5}">
   <dimension ref="A5:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D6" sqref="D6:I15"/>
     </sheetView>
   </sheetViews>
@@ -4332,670 +4352,670 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D6" s="29"/>
-      <c r="E6" s="29" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29" t="s">
+      <c r="G6" s="26"/>
+      <c r="H6" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="29" t="s">
+      <c r="I6" s="26" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>1.2507999999999999</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="16">
         <v>1.0795999999999999</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>3.85E-2</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <v>1.2644</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="17">
         <v>1.1803999999999999</v>
       </c>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="F10" s="18">
+      <c r="F10" s="16">
         <v>1.1891</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="14">
         <v>1.2345999999999999</v>
       </c>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="16">
         <v>1.2390000000000001</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="14">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="16">
         <v>1.0969</v>
       </c>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="16">
         <v>1.2199</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="18">
         <v>3.95E-2</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="19">
         <v>1.1218999999999999</v>
       </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <v>1.3097000000000001</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="14">
         <v>1.2612000000000001</v>
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="14">
         <v>1.3993</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="14">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="14">
         <v>1.2365999999999999</v>
       </c>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="14">
         <v>1.3637999999999999</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="22">
+      <c r="H15" s="20">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="20">
         <v>1.3076000000000001</v>
       </c>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D20" s="24">
+      <c r="D20" s="27">
         <v>1016</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="27"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D21" s="28"/>
-      <c r="E21" s="28" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28" t="s">
+      <c r="G21" s="25"/>
+      <c r="H21" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="28" t="s">
+      <c r="I21" s="25" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="25" t="s">
+      <c r="E22" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25" t="s">
+      <c r="G22" s="22"/>
+      <c r="H22" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I22" s="16" t="s">
+      <c r="I22" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="22">
         <v>1.67E-2</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="16">
         <v>1.2199</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="22">
         <v>1.61E-2</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="16">
         <v>1.0969</v>
       </c>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E24" s="22">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <v>1.2390000000000001</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="25">
+      <c r="H24" s="22">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="16">
         <v>1.0795999999999999</v>
       </c>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="22">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="16">
         <v>1.1891</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G25" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="22">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="19">
         <v>1.1218999999999999</v>
       </c>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="22">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="F26" s="25">
+      <c r="F26" s="22">
         <v>1.3097000000000001</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="25">
+      <c r="H26" s="22">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="22">
         <v>1.2365999999999999</v>
       </c>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="22">
         <v>1.78E-2</v>
       </c>
-      <c r="F27" s="25">
+      <c r="F27" s="22">
         <v>1.2644</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="22">
         <v>1.77E-2</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="22">
         <v>1.2612000000000001</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="22">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F28" s="25">
+      <c r="F28" s="22">
         <v>1.2507999999999999</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="25">
+      <c r="H28" s="22">
         <v>1.66E-2</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="22">
         <v>1.2345999999999999</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="22">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="F29" s="25">
+      <c r="F29" s="22">
         <v>1.3993</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="22">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I29" s="26">
+      <c r="I29" s="23">
         <v>1.1803999999999999</v>
       </c>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D30" s="25" t="s">
+      <c r="D30" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="22">
         <v>1.89E-2</v>
       </c>
-      <c r="F30" s="25">
+      <c r="F30" s="22">
         <v>1.3637999999999999</v>
       </c>
-      <c r="G30" s="25" t="s">
+      <c r="G30" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="25">
+      <c r="H30" s="22">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="I30" s="27">
+      <c r="I30" s="24">
         <v>1.3076000000000001</v>
       </c>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D35" s="25"/>
-      <c r="E35" s="25" t="s">
+      <c r="D35" s="22"/>
+      <c r="E35" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="16" t="s">
+      <c r="F35" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25" t="s">
+      <c r="G35" s="22"/>
+      <c r="H35" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I35" s="16" t="s">
+      <c r="I35" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="25">
+      <c r="E36" s="22">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="22">
         <v>1.3097000000000001</v>
       </c>
-      <c r="G36" s="25" t="s">
+      <c r="G36" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="25">
+      <c r="H36" s="22">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="I36" s="25">
+      <c r="I36" s="22">
         <v>1.2365999999999999</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="25">
+      <c r="E37" s="22">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F37" s="16">
         <v>1.2390000000000001</v>
       </c>
-      <c r="G37" s="25" t="s">
+      <c r="G37" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="22">
         <v>4.87E-2</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="16">
         <v>1.0969</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="22">
         <v>1.67E-2</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="16">
         <v>1.2199</v>
       </c>
-      <c r="G38" s="25" t="s">
+      <c r="G38" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="25">
+      <c r="H38" s="22">
         <v>5.11E-2</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="19">
         <v>1.1218999999999999</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="22">
         <v>1.78E-2</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="22">
         <v>1.2644</v>
       </c>
-      <c r="G39" s="25" t="s">
+      <c r="G39" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="22">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="I39" s="25">
+      <c r="I39" s="22">
         <v>1.2612000000000001</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D40" s="25" t="s">
+      <c r="D40" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="22">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="22">
         <v>1.2507999999999999</v>
       </c>
-      <c r="G40" s="25" t="s">
+      <c r="G40" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="22">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="I40" s="25">
+      <c r="I40" s="22">
         <v>1.2345999999999999</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D41" s="25" t="s">
+      <c r="D41" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="22">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F41" s="18">
+      <c r="F41" s="16">
         <v>1.1891</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="25">
+      <c r="H41" s="22">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="I41" s="21">
+      <c r="I41" s="19">
         <v>1.1218999999999999</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="22">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="22">
         <v>1.3993</v>
       </c>
-      <c r="G42" s="25" t="s">
+      <c r="G42" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="22">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="I42" s="26">
+      <c r="I42" s="23">
         <v>1.1803999999999999</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="22">
         <v>1.89E-2</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="22">
         <v>1.3637999999999999</v>
       </c>
-      <c r="G43" s="25" t="s">
+      <c r="G43" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="25">
+      <c r="H43" s="22">
         <v>7.5600000000000001E-2</v>
       </c>
-      <c r="I43" s="27">
+      <c r="I43" s="24">
         <v>1.3076000000000001</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5015,7 +5035,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D6" sqref="D6:I15"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6:I15"/>
+      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5112,7 +5132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>77</v>
       </c>
@@ -5125,7 +5145,7 @@
       <c r="D2" s="2">
         <v>0.94410000000000005</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="35">
         <v>1.49E-2</v>
       </c>
       <c r="F2" s="2">
@@ -5183,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -5196,7 +5216,7 @@
       <c r="D3" s="2">
         <v>0.94230000000000003</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="35">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F3" s="2">
@@ -5254,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5267,7 +5287,7 @@
       <c r="D4" s="2">
         <v>0.94589999999999996</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="35">
         <v>1.52E-2</v>
       </c>
       <c r="F4" s="2">
@@ -5325,7 +5345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -5335,22 +5355,22 @@
       <c r="C5" s="4">
         <v>0.20930000000000001</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="34">
         <v>1.55E-2</v>
       </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16">
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0</v>
+      </c>
+      <c r="I5" s="14">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="J5" s="2">
@@ -5396,21 +5416,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="14" t="s">
         <v>81</v>
       </c>
       <c r="J6" s="2"/>
@@ -5428,7 +5448,7 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -5438,22 +5458,22 @@
       <c r="C7" s="2">
         <v>0.21729999999999999</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="34">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
+      <c r="F7" s="14">
+        <v>0</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
         <v>1.4E-3</v>
       </c>
       <c r="J7" s="2">
@@ -5499,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -5509,22 +5529,22 @@
       <c r="C8" s="2">
         <v>0.22289999999999999</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>0.9395</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="34">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="18">
+      <c r="F8" s="14">
+        <v>0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="J8" s="2">
@@ -5571,56 +5591,56 @@
       </c>
     </row>
     <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="A9" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.21690000000000001</v>
+      <c r="B9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.21110000000000001</v>
       </c>
       <c r="D9" s="16">
-        <v>0.94269999999999998</v>
+        <v>0.94579999999999997</v>
       </c>
       <c r="E9" s="16">
-        <v>1.61E-2</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
         <v>0</v>
       </c>
       <c r="I9" s="16">
-        <v>1.6000000000000001E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>0.21840000000000001</v>
+        <v>0.21290000000000001</v>
       </c>
       <c r="K9" s="2">
-        <v>0.2147</v>
+        <v>0.2097</v>
       </c>
       <c r="L9" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="M9" s="2">
-        <v>0.94389999999999996</v>
+        <v>0.94650000000000001</v>
       </c>
       <c r="N9" s="2">
-        <v>0.94189999999999996</v>
-      </c>
-      <c r="O9" s="2">
-        <v>0</v>
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="O9" s="29">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P9" s="2">
-        <v>1.61E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="Q9" s="2">
-        <v>1.61E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -5641,7 +5661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>77</v>
       </c>
@@ -5651,22 +5671,22 @@
       <c r="C10" s="3">
         <v>0.2092</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>0.94669999999999999</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="34">
         <v>1.6E-2</v>
       </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+      <c r="I10" s="14">
         <v>2.8E-3</v>
       </c>
       <c r="J10" s="2">
@@ -5713,56 +5733,56 @@
       </c>
     </row>
     <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="12" t="s">
+      <c r="A11" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.21110000000000001</v>
-      </c>
-      <c r="D11" s="18">
-        <v>0.94579999999999997</v>
-      </c>
-      <c r="E11" s="18">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="18">
-        <v>1.2999999999999999E-3</v>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="D11" s="14">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="E11" s="14">
+        <v>1.61E-2</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+      <c r="I11" s="14">
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J11" s="2">
-        <v>0.21290000000000001</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="K11" s="2">
-        <v>0.2097</v>
+        <v>0.2147</v>
       </c>
       <c r="L11" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M11" s="2">
-        <v>0.94650000000000001</v>
+        <v>0.94389999999999996</v>
       </c>
       <c r="N11" s="2">
-        <v>0.94479999999999997</v>
-      </c>
-      <c r="O11" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="O11" s="29">
+        <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1.6400000000000001E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="Q11" s="2">
-        <v>1.55E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -5793,22 +5813,22 @@
       <c r="C12" s="5">
         <v>0.2112</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>0.94569999999999999</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
-        <v>0</v>
-      </c>
-      <c r="I12" s="18">
+      <c r="F12" s="14">
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="16">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="J12" s="2">
@@ -5826,7 +5846,7 @@
       <c r="N12" s="2">
         <v>0.94420000000000004</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="29">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P12" s="2">
@@ -5854,7 +5874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -5864,22 +5884,22 @@
       <c r="C13" s="2">
         <v>0.24030000000000001</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>0.92969999999999997</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="34">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
-        <v>0</v>
-      </c>
-      <c r="I13" s="16">
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
         <v>1.5E-3</v>
       </c>
       <c r="J13" s="2">
@@ -5930,50 +5950,52 @@
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
-        <v>0.23980000000000001</v>
-      </c>
-      <c r="D14" s="16">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16">
-        <v>0</v>
-      </c>
-      <c r="I14" s="16">
-        <v>1.4E-3</v>
+        <v>0.2137</v>
+      </c>
+      <c r="D14" s="22">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="E14" s="22">
+        <v>1.66E-2</v>
+      </c>
+      <c r="F14" s="22">
+        <v>0</v>
+      </c>
+      <c r="G14" s="22">
+        <v>0</v>
+      </c>
+      <c r="H14" s="22">
+        <v>0</v>
+      </c>
+      <c r="I14" s="22">
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="J14" s="2">
-        <v>0.24129999999999999</v>
+        <v>0.21529999999999999</v>
       </c>
       <c r="K14" s="2">
-        <v>0.23799999999999999</v>
+        <v>0.2127</v>
       </c>
       <c r="L14" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="M14" s="2">
-        <v>0.93100000000000005</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="N14" s="2">
-        <v>0.92910000000000004</v>
-      </c>
-      <c r="O14" s="2">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="O14" s="29">
         <v>1E-4</v>
       </c>
       <c r="P14" s="2">
-        <v>1.7600000000000001E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q14" s="2">
-        <v>1.7299999999999999E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -5994,57 +6016,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="D15" s="16">
-        <v>0.94469999999999998</v>
-      </c>
-      <c r="E15" s="16">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16">
-        <v>0</v>
-      </c>
-      <c r="I15" s="16">
-        <v>1.6999999999999999E-3</v>
+        <v>0.2218</v>
+      </c>
+      <c r="D15" s="22">
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="E15" s="33">
+        <v>1.67E-2</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22">
+        <v>0</v>
+      </c>
+      <c r="H15" s="22">
+        <v>0</v>
+      </c>
+      <c r="I15" s="22">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J15" s="2">
-        <v>0.21529999999999999</v>
+        <v>0.22359999999999999</v>
       </c>
       <c r="K15" s="2">
-        <v>0.21149999999999999</v>
+        <v>0.2208</v>
       </c>
       <c r="L15" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="M15" s="2">
-        <v>0.94550000000000001</v>
+        <v>0.94059999999999999</v>
       </c>
       <c r="N15" s="2">
-        <v>0.94350000000000001</v>
-      </c>
-      <c r="O15" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>0.93910000000000005</v>
+      </c>
+      <c r="O15" s="29">
+        <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>1.7600000000000001E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.72E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -6065,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6075,22 +6097,22 @@
       <c r="C16" s="2">
         <v>0.2198</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <v>0.94120000000000004</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="34">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="16">
+      <c r="F16" s="14">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0</v>
+      </c>
+      <c r="I16" s="14">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="J16" s="2">
@@ -6136,57 +6158,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2">
-        <v>0.2218</v>
-      </c>
-      <c r="D17" s="25">
-        <v>0.94010000000000005</v>
-      </c>
-      <c r="E17" s="25">
-        <v>1.67E-2</v>
-      </c>
-      <c r="F17" s="25">
-        <v>0</v>
-      </c>
-      <c r="G17" s="25">
-        <v>0</v>
-      </c>
-      <c r="H17" s="25">
-        <v>0</v>
-      </c>
-      <c r="I17" s="25">
+        <v>0.2271</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0.93720000000000003</v>
+      </c>
+      <c r="E17" s="33">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="22">
+        <v>0</v>
+      </c>
+      <c r="H17" s="22">
+        <v>0</v>
+      </c>
+      <c r="I17" s="16">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.23019999999999999</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="L17" s="2">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="J17" s="2">
-        <v>0.22359999999999999</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0.2208</v>
-      </c>
-      <c r="L17" s="2">
-        <v>6.9999999999999999E-4</v>
-      </c>
       <c r="M17" s="2">
-        <v>0.94059999999999999</v>
+        <v>0.93859999999999999</v>
       </c>
       <c r="N17" s="2">
-        <v>0.93910000000000005</v>
+        <v>0.9355</v>
       </c>
       <c r="O17" s="2">
-        <v>0</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P17" s="2">
-        <v>1.67E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="Q17" s="2">
-        <v>1.67E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
@@ -6207,57 +6229,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2">
-        <v>0.2223</v>
-      </c>
-      <c r="D18" s="25">
-        <v>0.93979999999999997</v>
-      </c>
-      <c r="E18" s="25">
-        <v>1.78E-2</v>
-      </c>
-      <c r="F18" s="25">
-        <v>0</v>
-      </c>
-      <c r="G18" s="25">
-        <v>0</v>
-      </c>
-      <c r="H18" s="25">
-        <v>0</v>
-      </c>
-      <c r="I18" s="25">
-        <v>2.8999999999999998E-3</v>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D18" s="14">
+        <v>0.94469999999999998</v>
+      </c>
+      <c r="E18" s="34">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="F18" s="14">
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0</v>
+      </c>
+      <c r="I18" s="14">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="J18" s="2">
-        <v>0.22620000000000001</v>
+        <v>0.21529999999999999</v>
       </c>
       <c r="K18" s="2">
-        <v>0.21940000000000001</v>
+        <v>0.21149999999999999</v>
       </c>
       <c r="L18" s="2">
-        <v>1.6000000000000001E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="M18" s="2">
-        <v>0.94140000000000001</v>
+        <v>0.94550000000000001</v>
       </c>
       <c r="N18" s="2">
-        <v>0.93769999999999998</v>
+        <v>0.94350000000000001</v>
       </c>
       <c r="O18" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P18" s="2">
-        <v>1.84E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="Q18" s="2">
-        <v>1.7500000000000002E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -6283,52 +6305,50 @@
         <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>0.24049999999999999</v>
-      </c>
-      <c r="D19" s="25">
-        <v>0.92959999999999998</v>
-      </c>
-      <c r="E19" s="25">
-        <v>1.77E-2</v>
-      </c>
-      <c r="F19" s="25">
-        <v>0</v>
-      </c>
-      <c r="G19" s="25">
-        <v>0</v>
-      </c>
-      <c r="H19" s="25">
-        <v>0</v>
-      </c>
-      <c r="I19" s="25">
-        <v>2.8999999999999998E-3</v>
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="D19" s="14">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="E19" s="14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14">
+        <v>0</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1.4E-3</v>
       </c>
       <c r="J19" s="2">
-        <v>0.24440000000000001</v>
+        <v>0.24129999999999999</v>
       </c>
       <c r="K19" s="2">
-        <v>0.23749999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="L19" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M19" s="2">
-        <v>0.93130000000000002</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="N19" s="2">
-        <v>0.92730000000000001</v>
-      </c>
-      <c r="O19" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="O19" s="29">
+        <v>1E-4</v>
       </c>
       <c r="P19" s="2">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="Q19" s="2">
-        <v>1.7500000000000002E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -6354,52 +6374,52 @@
         <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2">
-        <v>0.2137</v>
-      </c>
-      <c r="D20" s="25">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="E20" s="25">
-        <v>1.66E-2</v>
-      </c>
-      <c r="F20" s="25">
-        <v>0</v>
-      </c>
-      <c r="G20" s="25">
-        <v>0</v>
-      </c>
-      <c r="H20" s="25">
-        <v>0</v>
-      </c>
-      <c r="I20" s="25">
-        <v>1.1000000000000001E-3</v>
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="D20" s="22">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1.77E-2</v>
+      </c>
+      <c r="F20" s="22">
+        <v>0</v>
+      </c>
+      <c r="G20" s="22">
+        <v>0</v>
+      </c>
+      <c r="H20" s="22">
+        <v>0</v>
+      </c>
+      <c r="I20" s="22">
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="J20" s="2">
-        <v>0.21529999999999999</v>
+        <v>0.24440000000000001</v>
       </c>
       <c r="K20" s="2">
-        <v>0.2127</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="L20" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="M20" s="2">
-        <v>0.94489999999999996</v>
+        <v>0.93130000000000002</v>
       </c>
       <c r="N20" s="2">
-        <v>0.94359999999999999</v>
-      </c>
-      <c r="O20" s="2">
-        <v>1E-4</v>
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="O20" s="29">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P20" s="2">
-        <v>1.67E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q20" s="2">
-        <v>1.6500000000000001E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -6420,21 +6440,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25" t="s">
+      <c r="G21" s="22"/>
+      <c r="H21" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="22" t="s">
         <v>81</v>
       </c>
       <c r="J21" s="2"/>
@@ -6452,57 +6472,57 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>77</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2">
-        <v>0.2243</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="25">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0</v>
-      </c>
-      <c r="G22" s="25">
-        <v>0</v>
-      </c>
-      <c r="H22" s="25">
-        <v>0</v>
-      </c>
-      <c r="I22" s="16">
-        <v>0</v>
+        <v>0.2223</v>
+      </c>
+      <c r="D22" s="22">
+        <v>0.93979999999999997</v>
+      </c>
+      <c r="E22" s="33">
+        <v>1.78E-2</v>
+      </c>
+      <c r="F22" s="22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="22">
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="J22" s="2">
-        <v>0.22739999999999999</v>
+        <v>0.22620000000000001</v>
       </c>
       <c r="K22" s="2">
-        <v>0.2185</v>
+        <v>0.21940000000000001</v>
       </c>
       <c r="L22" s="2">
-        <v>2.2000000000000001E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="M22" s="2">
-        <v>0.94189999999999996</v>
+        <v>0.94140000000000001</v>
       </c>
       <c r="N22" s="2">
-        <v>0.93710000000000004</v>
+        <v>0.93769999999999998</v>
       </c>
       <c r="O22" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P22" s="2">
         <v>1.84E-2</v>
       </c>
       <c r="Q22" s="2">
-        <v>1.7299999999999999E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="R22" s="2">
         <v>0</v>
@@ -6533,22 +6553,22 @@
       <c r="C23" s="4">
         <v>0.2165</v>
       </c>
-      <c r="D23" s="25">
+      <c r="D23" s="22">
         <v>0.94289999999999996</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="22">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F23" s="18">
-        <v>0</v>
-      </c>
-      <c r="G23" s="25">
-        <v>0</v>
-      </c>
-      <c r="H23" s="25">
-        <v>0</v>
-      </c>
-      <c r="I23" s="18">
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="22">
+        <v>0</v>
+      </c>
+      <c r="H23" s="22">
+        <v>0</v>
+      </c>
+      <c r="I23" s="16">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="J23" s="2">
@@ -6566,7 +6586,7 @@
       <c r="N23" s="2">
         <v>0.94279999999999997</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="29">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P23" s="2">
@@ -6594,57 +6614,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C24" s="2">
-        <v>0.2271</v>
-      </c>
-      <c r="D24" s="25">
-        <v>0.93720000000000003</v>
-      </c>
-      <c r="E24" s="25">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="F24" s="18">
-        <v>0</v>
-      </c>
-      <c r="G24" s="25">
-        <v>0</v>
-      </c>
-      <c r="H24" s="25">
-        <v>0</v>
-      </c>
-      <c r="I24" s="18">
-        <v>2.5999999999999999E-3</v>
+        <v>0.2243</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="33">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0</v>
+      </c>
+      <c r="G24" s="22">
+        <v>0</v>
+      </c>
+      <c r="H24" s="22">
+        <v>0</v>
+      </c>
+      <c r="I24" s="14">
+        <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>0.23019999999999999</v>
+        <v>0.22739999999999999</v>
       </c>
       <c r="K24" s="2">
-        <v>0.22450000000000001</v>
+        <v>0.2185</v>
       </c>
       <c r="L24" s="2">
-        <v>1.2999999999999999E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="M24" s="2">
-        <v>0.93859999999999999</v>
+        <v>0.94189999999999996</v>
       </c>
       <c r="N24" s="2">
-        <v>0.9355</v>
+        <v>0.93710000000000004</v>
       </c>
       <c r="O24" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P24" s="2">
-        <v>1.7399999999999999E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="Q24" s="2">
-        <v>1.66E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -6665,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -6675,22 +6695,22 @@
       <c r="C25" s="2">
         <v>0.24979999999999999</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="22">
         <v>0.92400000000000004</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E25" s="33">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="F25" s="18">
-        <v>0</v>
-      </c>
-      <c r="G25" s="25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="25">
-        <v>0</v>
-      </c>
-      <c r="I25" s="18">
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="22">
+        <v>0</v>
+      </c>
+      <c r="H25" s="22">
+        <v>0</v>
+      </c>
+      <c r="I25" s="16">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="J25" s="2">
@@ -6746,22 +6766,22 @@
       <c r="C26" s="3">
         <v>0.21729999999999999</v>
       </c>
-      <c r="D26" s="25">
+      <c r="D26" s="22">
         <v>0.9425</v>
       </c>
-      <c r="E26" s="25">
+      <c r="E26" s="22">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="F26" s="25">
-        <v>0</v>
-      </c>
-      <c r="G26" s="25">
-        <v>0</v>
-      </c>
-      <c r="H26" s="25">
-        <v>0</v>
-      </c>
-      <c r="I26" s="25">
+      <c r="F26" s="22">
+        <v>0</v>
+      </c>
+      <c r="G26" s="22">
+        <v>0</v>
+      </c>
+      <c r="H26" s="22">
+        <v>0</v>
+      </c>
+      <c r="I26" s="22">
         <v>1.4E-3</v>
       </c>
       <c r="J26" s="2">
@@ -6779,7 +6799,7 @@
       <c r="N26" s="2">
         <v>0.94179999999999997</v>
       </c>
-      <c r="O26" s="2">
+      <c r="O26" s="29">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P26" s="2">
@@ -6807,7 +6827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -6817,22 +6837,22 @@
       <c r="C27" s="2">
         <v>0.25359999999999999</v>
       </c>
-      <c r="D27" s="25">
+      <c r="D27" s="22">
         <v>0.92169999999999996</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="33">
         <v>1.89E-2</v>
       </c>
-      <c r="F27" s="25">
-        <v>0</v>
-      </c>
-      <c r="G27" s="25">
-        <v>0</v>
-      </c>
-      <c r="H27" s="25">
-        <v>0</v>
-      </c>
-      <c r="I27" s="25">
+      <c r="F27" s="22">
+        <v>0</v>
+      </c>
+      <c r="G27" s="22">
+        <v>0</v>
+      </c>
+      <c r="H27" s="22">
+        <v>0</v>
+      </c>
+      <c r="I27" s="22">
         <v>1.5E-3</v>
       </c>
       <c r="J27" s="2">
@@ -6888,22 +6908,22 @@
       <c r="C28" s="2">
         <v>0.2384</v>
       </c>
-      <c r="D28" s="25">
+      <c r="D28" s="22">
         <v>0.93079999999999996</v>
       </c>
-      <c r="E28" s="25">
+      <c r="E28" s="22">
         <v>1.9E-2</v>
       </c>
-      <c r="F28" s="25">
-        <v>0</v>
-      </c>
-      <c r="G28" s="25">
-        <v>0</v>
-      </c>
-      <c r="H28" s="25">
-        <v>0</v>
-      </c>
-      <c r="I28" s="25">
+      <c r="F28" s="22">
+        <v>0</v>
+      </c>
+      <c r="G28" s="22">
+        <v>0</v>
+      </c>
+      <c r="H28" s="22">
+        <v>0</v>
+      </c>
+      <c r="I28" s="22">
         <v>2.8E-3</v>
       </c>
       <c r="J28" s="2">
@@ -6959,20 +6979,20 @@
       <c r="C29" s="2">
         <v>0.24349999999999999</v>
       </c>
-      <c r="D29" s="25">
+      <c r="D29" s="22">
         <v>0.92779999999999996</v>
       </c>
-      <c r="E29" s="25">
+      <c r="E29" s="22">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25">
-        <v>0</v>
-      </c>
-      <c r="H29" s="25">
-        <v>0</v>
-      </c>
-      <c r="I29" s="25">
+      <c r="F29" s="22"/>
+      <c r="G29" s="22">
+        <v>0</v>
+      </c>
+      <c r="H29" s="22">
+        <v>0</v>
+      </c>
+      <c r="I29" s="22">
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="J29" s="2">
@@ -7028,22 +7048,22 @@
       <c r="C30" s="2">
         <v>0.2399</v>
       </c>
-      <c r="D30" s="25">
+      <c r="D30" s="22">
         <v>0.92989999999999995</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="22">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="F30" s="25">
-        <v>0</v>
-      </c>
-      <c r="G30" s="25">
-        <v>0</v>
-      </c>
-      <c r="H30" s="25">
-        <v>0</v>
-      </c>
-      <c r="I30" s="25">
+      <c r="F30" s="22">
+        <v>0</v>
+      </c>
+      <c r="G30" s="22">
+        <v>0</v>
+      </c>
+      <c r="H30" s="22">
+        <v>0</v>
+      </c>
+      <c r="I30" s="22">
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="J30" s="2">
@@ -7099,22 +7119,22 @@
       <c r="C31" s="2">
         <v>0.2382</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="22">
         <v>0.93089999999999995</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="22">
         <v>1.95E-2</v>
       </c>
-      <c r="F31" s="25">
-        <v>0</v>
-      </c>
-      <c r="G31" s="25">
-        <v>0</v>
-      </c>
-      <c r="H31" s="25">
-        <v>0</v>
-      </c>
-      <c r="I31" s="25">
+      <c r="F31" s="22">
+        <v>0</v>
+      </c>
+      <c r="G31" s="22">
+        <v>0</v>
+      </c>
+      <c r="H31" s="22">
+        <v>0</v>
+      </c>
+      <c r="I31" s="22">
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="J31" s="2">
@@ -7170,22 +7190,22 @@
       <c r="C32" s="2">
         <v>0.25590000000000002</v>
       </c>
-      <c r="D32" s="25">
+      <c r="D32" s="22">
         <v>0.92020000000000002</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="22">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="F32" s="25">
-        <v>0</v>
-      </c>
-      <c r="G32" s="25">
-        <v>0</v>
-      </c>
-      <c r="H32" s="25">
-        <v>0</v>
-      </c>
-      <c r="I32" s="25">
+      <c r="F32" s="22">
+        <v>0</v>
+      </c>
+      <c r="G32" s="22">
+        <v>0</v>
+      </c>
+      <c r="H32" s="22">
+        <v>0</v>
+      </c>
+      <c r="I32" s="22">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="J32" s="2">
@@ -7241,22 +7261,22 @@
       <c r="C33" s="2">
         <v>0.2427</v>
       </c>
-      <c r="D33" s="25">
+      <c r="D33" s="22">
         <v>0.92830000000000001</v>
       </c>
-      <c r="E33" s="25">
+      <c r="E33" s="22">
         <v>2.01E-2</v>
       </c>
-      <c r="F33" s="25">
-        <v>0</v>
-      </c>
-      <c r="G33" s="25">
-        <v>0</v>
-      </c>
-      <c r="H33" s="25">
-        <v>0</v>
-      </c>
-      <c r="I33" s="25">
+      <c r="F33" s="22">
+        <v>0</v>
+      </c>
+      <c r="G33" s="22">
+        <v>0</v>
+      </c>
+      <c r="H33" s="22">
+        <v>0</v>
+      </c>
+      <c r="I33" s="22">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="J33" s="2">
@@ -7312,22 +7332,22 @@
       <c r="C34" s="2">
         <v>0.2397</v>
       </c>
-      <c r="D34" s="25">
+      <c r="D34" s="22">
         <v>0.93</v>
       </c>
-      <c r="E34" s="25">
+      <c r="E34" s="22">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="F34" s="25">
-        <v>0</v>
-      </c>
-      <c r="G34" s="25">
-        <v>0</v>
-      </c>
-      <c r="H34" s="25">
-        <v>0</v>
-      </c>
-      <c r="I34" s="25">
+      <c r="F34" s="22">
+        <v>0</v>
+      </c>
+      <c r="G34" s="22">
+        <v>0</v>
+      </c>
+      <c r="H34" s="22">
+        <v>0</v>
+      </c>
+      <c r="I34" s="22">
         <v>1.4E-3</v>
       </c>
       <c r="J34" s="2">
@@ -7383,22 +7403,22 @@
       <c r="C35" s="2">
         <v>0.26679999999999998</v>
       </c>
-      <c r="D35" s="25">
+      <c r="D35" s="22">
         <v>0.9133</v>
       </c>
-      <c r="E35" s="25">
+      <c r="E35" s="22">
         <v>2.06E-2</v>
       </c>
-      <c r="F35" s="16">
-        <v>0</v>
-      </c>
-      <c r="G35" s="25">
-        <v>0</v>
-      </c>
-      <c r="H35" s="25">
-        <v>0</v>
-      </c>
-      <c r="I35" s="16">
+      <c r="F35" s="14">
+        <v>0</v>
+      </c>
+      <c r="G35" s="22">
+        <v>0</v>
+      </c>
+      <c r="H35" s="22">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14">
         <v>0</v>
       </c>
       <c r="J35" s="2">
@@ -7454,16 +7474,16 @@
       <c r="C36" s="1">
         <v>0.36749999999999999</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28">
+      <c r="D36" s="25"/>
+      <c r="E36" s="25">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="F36" s="25">
-        <v>0</v>
-      </c>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="25">
+      <c r="F36" s="22">
+        <v>0</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="22">
         <v>1.4E-3</v>
       </c>
       <c r="J36" s="1">
@@ -7495,16 +7515,16 @@
       <c r="C37" s="1">
         <v>0.38340000000000002</v>
       </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28">
+      <c r="D37" s="25"/>
+      <c r="E37" s="25">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="F37" s="18">
-        <v>0</v>
-      </c>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="18">
+      <c r="F37" s="16">
+        <v>0</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="16">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="J37" s="1">
@@ -7536,22 +7556,22 @@
       <c r="C38" s="2">
         <v>0.3609</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38" s="22">
         <v>0.84150000000000003</v>
       </c>
-      <c r="E38" s="25">
+      <c r="E38" s="22">
         <v>3.1300000000000001E-2</v>
       </c>
-      <c r="F38" s="18">
-        <v>0</v>
-      </c>
-      <c r="G38" s="25">
-        <v>0</v>
-      </c>
-      <c r="H38" s="25">
-        <v>0</v>
-      </c>
-      <c r="I38" s="18">
+      <c r="F38" s="16">
+        <v>0</v>
+      </c>
+      <c r="G38" s="22">
+        <v>0</v>
+      </c>
+      <c r="H38" s="22">
+        <v>0</v>
+      </c>
+      <c r="I38" s="16">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="J38" s="2">
@@ -7607,22 +7627,22 @@
       <c r="C39" s="2">
         <v>0.36280000000000001</v>
       </c>
-      <c r="D39" s="25">
+      <c r="D39" s="22">
         <v>0.8397</v>
       </c>
-      <c r="E39" s="25">
+      <c r="E39" s="22">
         <v>3.15E-2</v>
       </c>
-      <c r="F39" s="25">
-        <v>0</v>
-      </c>
-      <c r="G39" s="25">
-        <v>0</v>
-      </c>
-      <c r="H39" s="25">
-        <v>0</v>
-      </c>
-      <c r="I39" s="25">
+      <c r="F39" s="22">
+        <v>0</v>
+      </c>
+      <c r="G39" s="22">
+        <v>0</v>
+      </c>
+      <c r="H39" s="22">
+        <v>0</v>
+      </c>
+      <c r="I39" s="22">
         <v>1.5E-3</v>
       </c>
       <c r="J39" s="2">
@@ -7678,22 +7698,22 @@
       <c r="C40" s="2">
         <v>0.3649</v>
       </c>
-      <c r="D40" s="25">
+      <c r="D40" s="22">
         <v>0.83779999999999999</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="22">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="F40" s="25">
-        <v>0</v>
-      </c>
-      <c r="G40" s="25">
-        <v>0</v>
-      </c>
-      <c r="H40" s="25">
-        <v>0</v>
-      </c>
-      <c r="I40" s="25">
+      <c r="F40" s="22">
+        <v>0</v>
+      </c>
+      <c r="G40" s="22">
+        <v>0</v>
+      </c>
+      <c r="H40" s="22">
+        <v>0</v>
+      </c>
+      <c r="I40" s="22">
         <v>2.8E-3</v>
       </c>
       <c r="J40" s="2">
@@ -7749,22 +7769,22 @@
       <c r="C41" s="2">
         <v>0.36509999999999998</v>
       </c>
-      <c r="D41" s="25">
+      <c r="D41" s="22">
         <v>0.8377</v>
       </c>
-      <c r="E41" s="25">
+      <c r="E41" s="22">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="F41" s="18">
-        <v>0</v>
-      </c>
-      <c r="G41" s="25">
-        <v>0</v>
-      </c>
-      <c r="H41" s="25">
-        <v>0</v>
-      </c>
-      <c r="I41" s="18">
+      <c r="F41" s="16">
+        <v>0</v>
+      </c>
+      <c r="G41" s="22">
+        <v>0</v>
+      </c>
+      <c r="H41" s="22">
+        <v>0</v>
+      </c>
+      <c r="I41" s="16">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="J41" s="2">
@@ -7820,20 +7840,20 @@
       <c r="C42" s="2">
         <v>0.36620000000000003</v>
       </c>
-      <c r="D42" s="25">
+      <c r="D42" s="22">
         <v>0.83660000000000001</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="22">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25">
-        <v>0</v>
-      </c>
-      <c r="H42" s="25">
-        <v>0</v>
-      </c>
-      <c r="I42" s="25">
+      <c r="F42" s="22"/>
+      <c r="G42" s="22">
+        <v>0</v>
+      </c>
+      <c r="H42" s="22">
+        <v>0</v>
+      </c>
+      <c r="I42" s="22">
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="J42" s="2">
@@ -7889,22 +7909,22 @@
       <c r="C43" s="2">
         <v>0.372</v>
       </c>
-      <c r="D43" s="25">
+      <c r="D43" s="22">
         <v>0.83150000000000002</v>
       </c>
-      <c r="E43" s="25">
+      <c r="E43" s="22">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="F43" s="25">
-        <v>0</v>
-      </c>
-      <c r="G43" s="25">
-        <v>0</v>
-      </c>
-      <c r="H43" s="25">
-        <v>0</v>
-      </c>
-      <c r="I43" s="25">
+      <c r="F43" s="22">
+        <v>0</v>
+      </c>
+      <c r="G43" s="22">
+        <v>0</v>
+      </c>
+      <c r="H43" s="22">
+        <v>0</v>
+      </c>
+      <c r="I43" s="22">
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="J43" s="2">
@@ -7960,22 +7980,22 @@
       <c r="C44" s="2">
         <v>0.36620000000000003</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D44" s="13">
         <v>0.8367</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="13">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="F44" s="14">
-        <v>0</v>
-      </c>
-      <c r="G44" s="14">
-        <v>0</v>
-      </c>
-      <c r="H44" s="14">
-        <v>0</v>
-      </c>
-      <c r="I44" s="14">
+      <c r="F44" s="13">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13">
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="J44" s="2">
@@ -8031,22 +8051,22 @@
       <c r="C45" s="2">
         <v>0.37</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D45" s="13">
         <v>0.83330000000000004</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="13">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="F45" s="14">
-        <v>0</v>
-      </c>
-      <c r="G45" s="14">
-        <v>0</v>
-      </c>
-      <c r="H45" s="14">
-        <v>0</v>
-      </c>
-      <c r="I45" s="14">
+      <c r="F45" s="13">
+        <v>0</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <v>0</v>
+      </c>
+      <c r="I45" s="13">
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="J45" s="2">
@@ -8897,18 +8917,18 @@
   <autoFilter ref="A1:W60" xr:uid="{0B1DB96E-F0A8-460E-9A4B-15CE75D83F02}">
     <filterColumn colId="1">
       <filters>
-        <filter val="GRU-ew2"/>
-        <filter val="GRU-ew3"/>
-        <filter val="GRU-ew4"/>
-        <filter val="GRU-obs"/>
-        <filter val="GRU-or"/>
-        <filter val="GRU-sg5"/>
-        <filter val="GRU-sg7"/>
-        <filter val="GRU-sg9"/>
+        <filter val="LSTM-3-ew2"/>
+        <filter val="LSTM-3-ew3"/>
+        <filter val="LSTM-3-ew4"/>
+        <filter val="LSTM-3-obs"/>
+        <filter val="LSTM-3-or"/>
+        <filter val="LSTM-3-sg5"/>
+        <filter val="LSTM-3-sg7"/>
+        <filter val="LSTM-3-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A15:W27">
-      <sortCondition ref="C1:C60"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W13">
+      <sortCondition ref="E1:E60"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Thesis-codes/NH3-summary-final.xlsx
+++ b/Thesis-codes/NH3-summary-final.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B8A1CC-CF96-47AE-AC89-F2788473EB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A5AA61-8751-4217-9409-C112938530B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27009" yWindow="2640" windowWidth="22492" windowHeight="13251" tabRatio="761" activeTab="2" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
+    <workbookView xWindow="4149" yWindow="4149" windowWidth="12308" windowHeight="5108" tabRatio="761" activeTab="3" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
   </bookViews>
   <sheets>
     <sheet name="Predict-0116-0122" sheetId="7" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
     <sheet name="Predict-exp3-1010-1016 (final)" sheetId="3" r:id="rId3"/>
-    <sheet name="Predict-exp3-1022-1028 (X)" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
+    <sheet name="Predict-exp3-1022-1028 (X)" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Predict-0116-0122'!$A$1:$W$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Predict-exp3-1010-1016 (final)'!$A$1:$W$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Predict-exp3-1022-1028 (X)'!$A$1:$V$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Predict-exp3-1022-1028 (X)'!$A$1:$V$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$I$13:$M$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="83">
   <si>
     <t>fc1_rmse_mean</t>
   </si>
@@ -299,9 +301,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +326,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -385,10 +394,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -460,36 +470,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1440,7 +1452,7 @@
       <c r="N9" s="2">
         <v>0.9204</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="27">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="P9" s="2">
@@ -1458,7 +1470,7 @@
       <c r="T9" s="2">
         <v>2.1776</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="27">
         <v>4.58E-2</v>
       </c>
       <c r="V9" s="2">
@@ -1511,7 +1523,7 @@
       <c r="N10" s="2">
         <v>0.89480000000000004</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="27">
         <v>1E-4</v>
       </c>
       <c r="P10" s="2">
@@ -1529,7 +1541,7 @@
       <c r="T10" s="2">
         <v>2.9716999999999998</v>
       </c>
-      <c r="U10" s="29">
+      <c r="U10" s="27">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="V10" s="2">
@@ -1582,7 +1594,7 @@
       <c r="N11" s="2">
         <v>0.89280000000000004</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="27">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="P11" s="2">
@@ -1591,7 +1603,7 @@
       <c r="Q11" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="R11" s="29">
+      <c r="R11" s="27">
         <v>3.1E-2</v>
       </c>
       <c r="S11" s="2">
@@ -1600,7 +1612,7 @@
       <c r="T11" s="2">
         <v>2.7313999999999998</v>
       </c>
-      <c r="U11" s="29">
+      <c r="U11" s="27">
         <v>1.12E-2</v>
       </c>
       <c r="V11" s="2">
@@ -1724,7 +1736,7 @@
       <c r="N13" s="4">
         <v>0.88890000000000002</v>
       </c>
-      <c r="O13" s="30">
+      <c r="O13" s="28">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P13" s="4">
@@ -1733,7 +1745,7 @@
       <c r="Q13" s="4">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="R13" s="30">
+      <c r="R13" s="28">
         <v>4.41E-2</v>
       </c>
       <c r="S13" s="4">
@@ -1742,7 +1754,7 @@
       <c r="T13" s="4">
         <v>1.7279</v>
       </c>
-      <c r="U13" s="30">
+      <c r="U13" s="28">
         <v>2.9600000000000001E-2</v>
       </c>
       <c r="V13" s="4">
@@ -1795,7 +1807,7 @@
       <c r="N14" s="2">
         <v>0.88480000000000003</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="27">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P14" s="2">
@@ -1804,7 +1816,7 @@
       <c r="Q14" s="2">
         <v>3.85E-2</v>
       </c>
-      <c r="R14" s="29">
+      <c r="R14" s="27">
         <v>0.1004</v>
       </c>
       <c r="S14" s="2">
@@ -1813,7 +1825,7 @@
       <c r="T14" s="2">
         <v>2.4243999999999999</v>
       </c>
-      <c r="U14" s="29">
+      <c r="U14" s="27">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="V14" s="2">
@@ -1866,7 +1878,7 @@
       <c r="N15" s="2">
         <v>0.89439999999999997</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="27">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="P15" s="2">
@@ -1884,7 +1896,7 @@
       <c r="T15" s="2">
         <v>3.665</v>
       </c>
-      <c r="U15" s="29">
+      <c r="U15" s="27">
         <v>3.0700000000000002E-2</v>
       </c>
       <c r="V15" s="2">
@@ -1937,7 +1949,7 @@
       <c r="N16" s="2">
         <v>0.90569999999999995</v>
       </c>
-      <c r="O16" s="29">
+      <c r="O16" s="27">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="P16" s="2">
@@ -1955,7 +1967,7 @@
       <c r="T16" s="2">
         <v>2.4855</v>
       </c>
-      <c r="U16" s="29">
+      <c r="U16" s="27">
         <v>5.57E-2</v>
       </c>
       <c r="V16" s="2">
@@ -2008,7 +2020,7 @@
       <c r="N17" s="2">
         <v>0.88780000000000003</v>
       </c>
-      <c r="O17" s="29">
+      <c r="O17" s="27">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="P17" s="2">
@@ -2017,7 +2029,7 @@
       <c r="Q17" s="2">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="R17" s="29">
+      <c r="R17" s="27">
         <v>0.1038</v>
       </c>
       <c r="S17" s="2">
@@ -2026,7 +2038,7 @@
       <c r="T17" s="2">
         <v>3.5834999999999999</v>
       </c>
-      <c r="U17" s="29">
+      <c r="U17" s="27">
         <v>1.5900000000000001E-2</v>
       </c>
       <c r="V17" s="2">
@@ -2079,7 +2091,7 @@
       <c r="N18" s="2">
         <v>0.90190000000000003</v>
       </c>
-      <c r="O18" s="29">
+      <c r="O18" s="27">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P18" s="2">
@@ -2097,7 +2109,7 @@
       <c r="T18" s="2">
         <v>3.0167000000000002</v>
       </c>
-      <c r="U18" s="29">
+      <c r="U18" s="27">
         <v>1.37E-2</v>
       </c>
       <c r="V18" s="2">
@@ -2150,7 +2162,7 @@
       <c r="N19" s="5">
         <v>0.88600000000000001</v>
       </c>
-      <c r="O19" s="31">
+      <c r="O19" s="29">
         <v>1E-3</v>
       </c>
       <c r="P19" s="5">
@@ -2159,7 +2171,7 @@
       <c r="Q19" s="5">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="R19" s="31">
+      <c r="R19" s="29">
         <v>3.4599999999999999E-2</v>
       </c>
       <c r="S19" s="5">
@@ -2168,7 +2180,7 @@
       <c r="T19" s="5">
         <v>2.2993999999999999</v>
       </c>
-      <c r="U19" s="31">
+      <c r="U19" s="29">
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="V19" s="5">
@@ -2221,7 +2233,7 @@
       <c r="N20" s="2">
         <v>0.91100000000000003</v>
       </c>
-      <c r="O20" s="29">
+      <c r="O20" s="27">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P20" s="2">
@@ -2239,7 +2251,7 @@
       <c r="T20" s="2">
         <v>1.5353000000000001</v>
       </c>
-      <c r="U20" s="29">
+      <c r="U20" s="27">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="V20" s="2">
@@ -2292,7 +2304,7 @@
       <c r="N21" s="2">
         <v>0.91049999999999998</v>
       </c>
-      <c r="O21" s="29">
+      <c r="O21" s="27">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P21" s="2">
@@ -2301,7 +2313,7 @@
       <c r="Q21" s="2">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="R21" s="29">
+      <c r="R21" s="27">
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="S21" s="2">
@@ -2310,7 +2322,7 @@
       <c r="T21" s="2">
         <v>5.0506000000000002</v>
       </c>
-      <c r="U21" s="29">
+      <c r="U21" s="27">
         <v>2.69E-2</v>
       </c>
       <c r="V21" s="2">
@@ -2363,7 +2375,7 @@
       <c r="N22" s="2">
         <v>0.88470000000000004</v>
       </c>
-      <c r="O22" s="29">
+      <c r="O22" s="27">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="P22" s="2">
@@ -2372,7 +2384,7 @@
       <c r="Q22" s="2">
         <v>0.04</v>
       </c>
-      <c r="R22" s="29">
+      <c r="R22" s="27">
         <v>2.58E-2</v>
       </c>
       <c r="S22" s="2">
@@ -2381,7 +2393,7 @@
       <c r="T22" s="2">
         <v>5.7591999999999999</v>
       </c>
-      <c r="U22" s="29">
+      <c r="U22" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="V22" s="2">
@@ -2434,7 +2446,7 @@
       <c r="N23" s="2">
         <v>0.89870000000000005</v>
       </c>
-      <c r="O23" s="29">
+      <c r="O23" s="27">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P23" s="2">
@@ -2452,7 +2464,7 @@
       <c r="T23" s="2">
         <v>5.5297000000000001</v>
       </c>
-      <c r="U23" s="29">
+      <c r="U23" s="27">
         <v>5.3199999999999997E-2</v>
       </c>
       <c r="V23" s="2">
@@ -2505,7 +2517,7 @@
       <c r="N24" s="3">
         <v>0.90039999999999998</v>
       </c>
-      <c r="O24" s="32">
+      <c r="O24" s="30">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="P24" s="3">
@@ -2514,7 +2526,7 @@
       <c r="Q24" s="3">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="R24" s="32">
+      <c r="R24" s="30">
         <v>5.0700000000000002E-2</v>
       </c>
       <c r="S24" s="3">
@@ -2523,7 +2535,7 @@
       <c r="T24" s="3">
         <v>1.3716999999999999</v>
       </c>
-      <c r="U24" s="32">
+      <c r="U24" s="30">
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="V24" s="3">
@@ -2576,7 +2588,7 @@
       <c r="N25" s="2">
         <v>0.88719999999999999</v>
       </c>
-      <c r="O25" s="29">
+      <c r="O25" s="27">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="P25" s="2">
@@ -2594,7 +2606,7 @@
       <c r="T25" s="2">
         <v>6.1874000000000002</v>
       </c>
-      <c r="U25" s="29">
+      <c r="U25" s="27">
         <v>3.5900000000000001E-2</v>
       </c>
       <c r="V25" s="2">
@@ -2647,7 +2659,7 @@
       <c r="N26" s="2">
         <v>0.90790000000000004</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O26" s="27">
         <v>1E-4</v>
       </c>
       <c r="P26" s="2">
@@ -2665,7 +2677,7 @@
       <c r="T26" s="2">
         <v>4.2000999999999999</v>
       </c>
-      <c r="U26" s="29">
+      <c r="U26" s="27">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="V26" s="2">
@@ -2718,7 +2730,7 @@
       <c r="N27" s="2">
         <v>0.89729999999999999</v>
       </c>
-      <c r="O27" s="29">
+      <c r="O27" s="27">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="P27" s="2">
@@ -2736,7 +2748,7 @@
       <c r="T27" s="2">
         <v>4.5921000000000003</v>
       </c>
-      <c r="U27" s="29">
+      <c r="U27" s="27">
         <v>5.6599999999999998E-2</v>
       </c>
       <c r="V27" s="2">
@@ -2789,7 +2801,7 @@
       <c r="N28" s="2">
         <v>0.91139999999999999</v>
       </c>
-      <c r="O28" s="29">
+      <c r="O28" s="27">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="P28" s="2">
@@ -2807,7 +2819,7 @@
       <c r="T28" s="2">
         <v>3.1808000000000001</v>
       </c>
-      <c r="U28" s="29">
+      <c r="U28" s="27">
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="V28" s="2">
@@ -2860,7 +2872,7 @@
       <c r="N29" s="2">
         <v>0.89549999999999996</v>
       </c>
-      <c r="O29" s="29">
+      <c r="O29" s="27">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P29" s="2">
@@ -2878,7 +2890,7 @@
       <c r="T29" s="2">
         <v>3.5278999999999998</v>
       </c>
-      <c r="U29" s="29">
+      <c r="U29" s="27">
         <v>0.03</v>
       </c>
       <c r="V29" s="2">
@@ -4336,7 +4348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7214CF6-9A35-4870-82BC-6A202AFC67C5}">
   <dimension ref="A5:I45"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D6" sqref="D6:I15"/>
     </sheetView>
   </sheetViews>
@@ -4352,14 +4364,14 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D6" s="26"/>
@@ -4588,14 +4600,14 @@
       <c r="I19" s="21"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D20" s="27">
+      <c r="D20" s="34">
         <v>1016</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D21" s="25"/>
@@ -4816,14 +4828,14 @@
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.4">
       <c r="D35" s="22"/>
@@ -5032,10 +5044,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D6" sqref="D6:I15"/>
-      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
+      <selection pane="bottomLeft" activeCell="E9" activeCellId="1" sqref="B9:B26 E9:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5132,21 +5144,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.2142</v>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.2177</v>
       </c>
       <c r="D2" s="2">
-        <v>0.94410000000000005</v>
-      </c>
-      <c r="E2" s="35">
-        <v>1.49E-2</v>
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="E2" s="33">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -5158,31 +5170,31 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>1.5E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="J2" s="2">
-        <v>0.21629999999999999</v>
+        <v>0.21920000000000001</v>
       </c>
       <c r="K2" s="2">
-        <v>0.2127</v>
+        <v>0.215</v>
       </c>
       <c r="L2" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M2" s="2">
-        <v>0.94489999999999996</v>
+        <v>0.94369999999999998</v>
       </c>
       <c r="N2" s="2">
-        <v>0.94299999999999995</v>
+        <v>0.9415</v>
       </c>
       <c r="O2" s="2">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P2" s="2">
-        <v>1.5100000000000001E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.47E-2</v>
+        <v>1.46E-2</v>
       </c>
       <c r="R2" s="2">
         <v>0</v>
@@ -5203,21 +5215,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.2177</v>
+      <c r="B3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.2142</v>
       </c>
       <c r="D3" s="2">
-        <v>0.94230000000000003</v>
-      </c>
-      <c r="E3" s="35">
-        <v>1.4999999999999999E-2</v>
+        <v>0.94410000000000005</v>
+      </c>
+      <c r="E3" s="33">
+        <v>1.49E-2</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -5229,31 +5241,31 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>1.9E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="J3" s="2">
-        <v>0.21920000000000001</v>
+        <v>0.21629999999999999</v>
       </c>
       <c r="K3" s="2">
-        <v>0.215</v>
+        <v>0.2127</v>
       </c>
       <c r="L3" s="2">
-        <v>1E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M3" s="2">
-        <v>0.94369999999999998</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="N3" s="2">
-        <v>0.9415</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="O3" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P3" s="2">
-        <v>1.5299999999999999E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="Q3" s="2">
-        <v>1.46E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -5274,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5287,7 +5299,7 @@
       <c r="D4" s="2">
         <v>0.94589999999999996</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="33">
         <v>1.52E-2</v>
       </c>
       <c r="F4" s="2">
@@ -5345,21 +5357,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.20930000000000001</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="34">
-        <v>1.55E-2</v>
+        <v>61</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="E5" s="32">
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="F5" s="14">
         <v>0</v>
@@ -5371,31 +5383,31 @@
         <v>0</v>
       </c>
       <c r="I5" s="14">
-        <v>2.8999999999999998E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="J5" s="2">
-        <v>0.21279999999999999</v>
+        <v>0.2424</v>
       </c>
       <c r="K5" s="2">
-        <v>0.20569999999999999</v>
+        <v>0.2392</v>
       </c>
       <c r="L5" s="2">
-        <v>1.5E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M5" s="2">
-        <v>0.94850000000000001</v>
+        <v>0.93030000000000002</v>
       </c>
       <c r="N5" s="2">
-        <v>0.94489999999999996</v>
+        <v>0.92849999999999999</v>
       </c>
       <c r="O5" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P5" s="2">
-        <v>1.5800000000000002E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -5448,20 +5460,20 @@
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2">
-        <v>0.21729999999999999</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E7" s="34">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.9395</v>
+      </c>
+      <c r="E7" s="32">
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="F7" s="14">
@@ -5473,32 +5485,32 @@
       <c r="H7" s="14">
         <v>0</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="16">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.21920000000000001</v>
+      </c>
+      <c r="L7" s="2">
         <v>1.4E-3</v>
       </c>
-      <c r="J7" s="2">
-        <v>0.21840000000000001</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.21529999999999999</v>
-      </c>
-      <c r="L7" s="2">
-        <v>8.0000000000000004E-4</v>
-      </c>
       <c r="M7" s="2">
-        <v>0.94359999999999999</v>
+        <v>0.9415</v>
       </c>
       <c r="N7" s="2">
-        <v>0.94189999999999996</v>
+        <v>0.93830000000000002</v>
       </c>
       <c r="O7" s="2">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P7" s="2">
-        <v>1.5699999999999999E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="Q7" s="2">
-        <v>1.55E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -5519,20 +5531,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C8" s="2">
-        <v>0.22289999999999999</v>
-      </c>
-      <c r="D8" s="14">
-        <v>0.9395</v>
-      </c>
-      <c r="E8" s="34">
+        <v>0.21729999999999999</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="32">
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="F8" s="14">
@@ -5544,32 +5556,32 @@
       <c r="H8" s="14">
         <v>0</v>
       </c>
-      <c r="I8" s="16">
-        <v>2.5999999999999999E-3</v>
+      <c r="I8" s="14">
+        <v>1.4E-3</v>
       </c>
       <c r="J8" s="2">
-        <v>0.22509999999999999</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="K8" s="2">
-        <v>0.21920000000000001</v>
+        <v>0.21529999999999999</v>
       </c>
       <c r="L8" s="2">
-        <v>1.4E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M8" s="2">
-        <v>0.9415</v>
+        <v>0.94359999999999999</v>
       </c>
       <c r="N8" s="2">
-        <v>0.93830000000000002</v>
+        <v>0.94189999999999996</v>
       </c>
       <c r="O8" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P8" s="2">
-        <v>1.5900000000000001E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="Q8" s="2">
-        <v>1.54E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -5590,21 +5602,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.21110000000000001</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0.94579999999999997</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1.5800000000000002E-2</v>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1.61E-2</v>
       </c>
       <c r="F9" s="14">
         <v>0</v>
@@ -5615,32 +5627,32 @@
       <c r="H9" s="14">
         <v>0</v>
       </c>
-      <c r="I9" s="16">
-        <v>1.2999999999999999E-3</v>
+      <c r="I9" s="14">
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>0.21290000000000001</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="K9" s="2">
-        <v>0.2097</v>
+        <v>0.2147</v>
       </c>
       <c r="L9" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M9" s="2">
-        <v>0.94650000000000001</v>
+        <v>0.94389999999999996</v>
       </c>
       <c r="N9" s="2">
-        <v>0.94479999999999997</v>
-      </c>
-      <c r="O9" s="29">
-        <v>4.0000000000000002E-4</v>
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="O9" s="27">
+        <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>1.6400000000000001E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="Q9" s="2">
-        <v>1.55E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -5661,21 +5673,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.2092</v>
-      </c>
-      <c r="D10" s="14">
-        <v>0.94669999999999999</v>
-      </c>
-      <c r="E10" s="34">
-        <v>1.6E-2</v>
+        <v>63</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1.55E-2</v>
       </c>
       <c r="F10" s="14">
         <v>0</v>
@@ -5687,31 +5699,31 @@
         <v>0</v>
       </c>
       <c r="I10" s="14">
-        <v>2.8E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="J10" s="2">
-        <v>0.21299999999999999</v>
+        <v>0.21279999999999999</v>
       </c>
       <c r="K10" s="2">
-        <v>0.20649999999999999</v>
+        <v>0.20569999999999999</v>
       </c>
       <c r="L10" s="2">
         <v>1.5E-3</v>
       </c>
       <c r="M10" s="2">
-        <v>0.94810000000000005</v>
+        <v>0.94850000000000001</v>
       </c>
       <c r="N10" s="2">
-        <v>0.94469999999999998</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="O10" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P10" s="2">
-        <v>1.67E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="Q10" s="2">
-        <v>1.5699999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -5732,21 +5744,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.21690000000000001</v>
-      </c>
-      <c r="D11" s="14">
-        <v>0.94269999999999998</v>
-      </c>
-      <c r="E11" s="14">
-        <v>1.61E-2</v>
+      <c r="B11" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.21110000000000001</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="F11" s="14">
         <v>0</v>
@@ -5757,32 +5769,32 @@
       <c r="H11" s="14">
         <v>0</v>
       </c>
-      <c r="I11" s="14">
-        <v>1.6000000000000001E-3</v>
+      <c r="I11" s="16">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J11" s="2">
-        <v>0.21840000000000001</v>
+        <v>0.21290000000000001</v>
       </c>
       <c r="K11" s="2">
-        <v>0.2147</v>
+        <v>0.2097</v>
       </c>
       <c r="L11" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="M11" s="2">
-        <v>0.94389999999999996</v>
+        <v>0.94650000000000001</v>
       </c>
       <c r="N11" s="2">
-        <v>0.94189999999999996</v>
-      </c>
-      <c r="O11" s="29">
-        <v>0</v>
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="O11" s="27">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P11" s="2">
-        <v>1.61E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="Q11" s="2">
-        <v>1.61E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -5803,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -5846,7 +5858,7 @@
       <c r="N12" s="2">
         <v>0.94420000000000004</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="27">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P12" s="2">
@@ -5874,21 +5886,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.24030000000000001</v>
+        <v>64</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.2092</v>
       </c>
       <c r="D13" s="14">
-        <v>0.92969999999999997</v>
-      </c>
-      <c r="E13" s="34">
-        <v>1.6400000000000001E-2</v>
+        <v>0.94669999999999999</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1.6E-2</v>
       </c>
       <c r="F13" s="14">
         <v>0</v>
@@ -5900,31 +5912,31 @@
         <v>0</v>
       </c>
       <c r="I13" s="14">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.20649999999999999</v>
+      </c>
+      <c r="L13" s="2">
         <v>1.5E-3</v>
       </c>
-      <c r="J13" s="2">
-        <v>0.2424</v>
-      </c>
-      <c r="K13" s="2">
-        <v>0.2392</v>
-      </c>
-      <c r="L13" s="2">
-        <v>8.0000000000000004E-4</v>
-      </c>
       <c r="M13" s="2">
-        <v>0.93030000000000002</v>
+        <v>0.94810000000000005</v>
       </c>
       <c r="N13" s="2">
-        <v>0.92849999999999999</v>
+        <v>0.94469999999999998</v>
       </c>
       <c r="O13" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P13" s="2">
         <v>1.67E-2</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.61E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -5945,57 +5957,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2">
-        <v>0.2137</v>
-      </c>
-      <c r="D14" s="22">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1.66E-2</v>
-      </c>
-      <c r="F14" s="22">
-        <v>0</v>
-      </c>
-      <c r="G14" s="22">
-        <v>0</v>
-      </c>
-      <c r="H14" s="22">
-        <v>0</v>
-      </c>
-      <c r="I14" s="22">
-        <v>1.1000000000000001E-3</v>
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="D14" s="14">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="E14" s="14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>1.4E-3</v>
       </c>
       <c r="J14" s="2">
-        <v>0.21529999999999999</v>
+        <v>0.24129999999999999</v>
       </c>
       <c r="K14" s="2">
-        <v>0.2127</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="L14" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M14" s="2">
-        <v>0.94489999999999996</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="N14" s="2">
-        <v>0.94359999999999999</v>
-      </c>
-      <c r="O14" s="29">
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="O14" s="27">
         <v>1E-4</v>
       </c>
       <c r="P14" s="2">
-        <v>1.67E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="Q14" s="2">
-        <v>1.6500000000000001E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -6029,7 +6039,7 @@
       <c r="D15" s="22">
         <v>0.94010000000000005</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="31">
         <v>1.67E-2</v>
       </c>
       <c r="F15" s="22">
@@ -6059,7 +6069,7 @@
       <c r="N15" s="2">
         <v>0.93910000000000005</v>
       </c>
-      <c r="O15" s="29">
+      <c r="O15" s="27">
         <v>0</v>
       </c>
       <c r="P15" s="2">
@@ -6100,7 +6110,7 @@
       <c r="D16" s="14">
         <v>0.94120000000000004</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="32">
         <v>1.6899999999999998E-2</v>
       </c>
       <c r="F16" s="14">
@@ -6171,7 +6181,7 @@
       <c r="D17" s="22">
         <v>0.93720000000000003</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="31">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="F17" s="16">
@@ -6242,7 +6252,7 @@
       <c r="D18" s="14">
         <v>0.94469999999999998</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="32">
         <v>1.7399999999999999E-2</v>
       </c>
       <c r="F18" s="14">
@@ -6300,56 +6310,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2">
-        <v>0.23980000000000001</v>
-      </c>
-      <c r="D19" s="14">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="E19" s="14">
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="E19" s="22">
+        <v>1.77E-2</v>
+      </c>
+      <c r="F19" s="22">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22">
+        <v>0</v>
+      </c>
+      <c r="H19" s="22">
+        <v>0</v>
+      </c>
+      <c r="I19" s="22">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0.24440000000000001</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0.93130000000000002</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="O19" s="27">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="Q19" s="2">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14">
-        <v>0</v>
-      </c>
-      <c r="H19" s="14">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14">
-        <v>1.4E-3</v>
-      </c>
-      <c r="J19" s="2">
-        <v>0.24129999999999999</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.23799999999999999</v>
-      </c>
-      <c r="L19" s="2">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0.92910000000000004</v>
-      </c>
-      <c r="O19" s="29">
-        <v>1E-4</v>
-      </c>
-      <c r="P19" s="2">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>1.7299999999999999E-2</v>
-      </c>
       <c r="R19" s="2">
         <v>0</v>
       </c>
@@ -6369,21 +6381,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
-        <v>0.24049999999999999</v>
+        <v>0.2137</v>
       </c>
       <c r="D20" s="22">
-        <v>0.92959999999999998</v>
+        <v>0.94440000000000002</v>
       </c>
       <c r="E20" s="22">
-        <v>1.77E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="F20" s="22">
         <v>0</v>
@@ -6395,31 +6407,31 @@
         <v>0</v>
       </c>
       <c r="I20" s="22">
-        <v>2.8999999999999998E-3</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="J20" s="2">
-        <v>0.24440000000000001</v>
+        <v>0.21529999999999999</v>
       </c>
       <c r="K20" s="2">
-        <v>0.23749999999999999</v>
+        <v>0.2127</v>
       </c>
       <c r="L20" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="M20" s="2">
-        <v>0.93130000000000002</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="N20" s="2">
-        <v>0.92730000000000001</v>
-      </c>
-      <c r="O20" s="29">
-        <v>2.0000000000000001E-4</v>
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="O20" s="27">
+        <v>1E-4</v>
       </c>
       <c r="P20" s="2">
-        <v>1.7999999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q20" s="2">
-        <v>1.7500000000000002E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -6485,7 +6497,7 @@
       <c r="D22" s="22">
         <v>0.93979999999999997</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="31">
         <v>1.78E-2</v>
       </c>
       <c r="F22" s="22">
@@ -6543,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -6586,7 +6598,7 @@
       <c r="N23" s="2">
         <v>0.94279999999999997</v>
       </c>
-      <c r="O23" s="29">
+      <c r="O23" s="27">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P23" s="2">
@@ -6627,7 +6639,7 @@
       <c r="D24" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="31">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="F24" s="14">
@@ -6698,7 +6710,7 @@
       <c r="D25" s="22">
         <v>0.92400000000000004</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="31">
         <v>1.8700000000000001E-2</v>
       </c>
       <c r="F25" s="16">
@@ -6756,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -6799,7 +6811,7 @@
       <c r="N26" s="2">
         <v>0.94179999999999997</v>
       </c>
-      <c r="O26" s="29">
+      <c r="O26" s="27">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P26" s="2">
@@ -6840,7 +6852,7 @@
       <c r="D27" s="22">
         <v>0.92169999999999996</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="31">
         <v>1.89E-2</v>
       </c>
       <c r="F27" s="22">
@@ -8917,18 +8929,18 @@
   <autoFilter ref="A1:W60" xr:uid="{0B1DB96E-F0A8-460E-9A4B-15CE75D83F02}">
     <filterColumn colId="1">
       <filters>
-        <filter val="LSTM-3-ew2"/>
-        <filter val="LSTM-3-ew3"/>
-        <filter val="LSTM-3-ew4"/>
-        <filter val="LSTM-3-obs"/>
-        <filter val="LSTM-3-or"/>
-        <filter val="LSTM-3-sg5"/>
-        <filter val="LSTM-3-sg7"/>
-        <filter val="LSTM-3-sg9"/>
+        <filter val="LSTM-ew2"/>
+        <filter val="LSTM-ew3"/>
+        <filter val="LSTM-ew4"/>
+        <filter val="LSTM-obs"/>
+        <filter val="LSTM-or"/>
+        <filter val="LSTM-sg5"/>
+        <filter val="LSTM-sg7"/>
+        <filter val="LSTM-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W13">
-      <sortCondition ref="E1:E60"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:W26">
+      <sortCondition ref="B1:B60"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8937,6 +8949,190 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCFF82F-8486-4016-94B9-0BDD3A2A47CA}">
+  <dimension ref="I13:M21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.3828125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.3828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.84375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="9:13" x14ac:dyDescent="0.4">
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="9:13" x14ac:dyDescent="0.4">
+      <c r="I14" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J14" s="33">
+        <v>1.49E-2</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L14" s="16">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="M14" s="36">
+        <f>ABS(J14-L14)/L14</f>
+        <v>5.6962025316455785E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="9:13" x14ac:dyDescent="0.4">
+      <c r="I15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="33">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L15" s="14">
+        <v>1.61E-2</v>
+      </c>
+      <c r="M15" s="36">
+        <f>ABS(J15-L15)/L15</f>
+        <v>6.8322981366459645E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="9:13" x14ac:dyDescent="0.4">
+      <c r="I16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="33">
+        <v>1.52E-2</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="14">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="M16" s="36">
+        <f>ABS(J16-L16)/L16</f>
+        <v>6.7484662576687032E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:13" x14ac:dyDescent="0.4">
+      <c r="I17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="32">
+        <v>1.55E-2</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="22">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M17" s="36">
+        <f>ABS(J17-L17)/L17</f>
+        <v>0.13888888888888884</v>
+      </c>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.4">
+      <c r="I18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="32">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L18" s="22">
+        <v>1.77E-2</v>
+      </c>
+      <c r="M18" s="36">
+        <f>ABS(J18-L18)/L18</f>
+        <v>0.11864406779661023</v>
+      </c>
+    </row>
+    <row r="19" spans="9:13" x14ac:dyDescent="0.4">
+      <c r="I19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J19" s="32">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="22">
+        <v>1.66E-2</v>
+      </c>
+      <c r="M19" s="36">
+        <f>ABS(J19-L19)/L19</f>
+        <v>6.0240963855421742E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="9:13" x14ac:dyDescent="0.4">
+      <c r="I20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J20" s="32">
+        <v>1.6E-2</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L20" s="22">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="M20" s="36">
+        <f>ABS(J20-L20)/L20</f>
+        <v>0.14893617021276598</v>
+      </c>
+    </row>
+    <row r="21" spans="9:13" x14ac:dyDescent="0.4">
+      <c r="I21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="32">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="14">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="M21" s="36">
+        <f>ABS(J21-L21)/L21</f>
+        <v>6.2857142857142861E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="I13:M21" xr:uid="{7DCFF82F-8486-4016-94B9-0BDD3A2A47CA}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I14:M21">
+      <sortCondition ref="J13:J21"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2614E7D4-0119-49DF-BE51-5E4AC211198A}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V49"/>

--- a/Thesis-codes/NH3-summary-final.xlsx
+++ b/Thesis-codes/NH3-summary-final.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A5AA61-8751-4217-9409-C112938530B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFC8CDA-4364-4C1C-BFE8-59AEA203F78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4149" yWindow="4149" windowWidth="12308" windowHeight="5108" tabRatio="761" activeTab="3" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
+    <workbookView xWindow="5486" yWindow="1749" windowWidth="27308" windowHeight="14331" tabRatio="761" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
   </bookViews>
   <sheets>
     <sheet name="Predict-0116-0122" sheetId="7" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
     <sheet name="Predict-exp3-1010-1016 (final)" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
-    <sheet name="Predict-exp3-1022-1028 (X)" sheetId="6" r:id="rId5"/>
+    <sheet name="0425" sheetId="10" r:id="rId5"/>
+    <sheet name="Predict-exp3-1022-1028 (X)" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'0425'!$H$3:$J$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Predict-0116-0122'!$A$1:$W$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Predict-exp3-1010-1016 (final)'!$A$1:$W$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Predict-exp3-1022-1028 (X)'!$A$1:$V$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Predict-exp3-1022-1028 (X)'!$A$1:$V$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$I$13:$M$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="85">
   <si>
     <t>fc1_rmse_mean</t>
   </si>
@@ -295,6 +297,12 @@
   <si>
     <t>Model-dataset</t>
   </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
 </sst>
 </file>
 
@@ -398,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,9 +440,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,13 +496,34 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,8 +842,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U11" sqref="U11:U24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -827,14 +853,14 @@
     <col min="3" max="3" width="14.07421875" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11.61328125" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.4609375" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="9.765625" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="11.921875" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.765625" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.53515625" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.53515625" style="2" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="10.3828125" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.15234375" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="14.4609375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.765625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.921875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.765625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="12.53515625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.53515625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="10.3828125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.15234375" style="2" customWidth="1"/>
     <col min="15" max="15" width="11.61328125" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.4609375" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.23046875" style="2" bestFit="1" customWidth="1"/>
@@ -1409,7 +1435,7 @@
         <v>1.0158</v>
       </c>
     </row>
-    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
@@ -1452,7 +1478,7 @@
       <c r="N9" s="2">
         <v>0.9204</v>
       </c>
-      <c r="O9" s="27">
+      <c r="O9" s="26">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="P9" s="2">
@@ -1470,7 +1496,7 @@
       <c r="T9" s="2">
         <v>2.1776</v>
       </c>
-      <c r="U9" s="27">
+      <c r="U9" s="26">
         <v>4.58E-2</v>
       </c>
       <c r="V9" s="2">
@@ -1480,7 +1506,7 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -1523,7 +1549,7 @@
       <c r="N10" s="2">
         <v>0.89480000000000004</v>
       </c>
-      <c r="O10" s="27">
+      <c r="O10" s="26">
         <v>1E-4</v>
       </c>
       <c r="P10" s="2">
@@ -1541,7 +1567,7 @@
       <c r="T10" s="2">
         <v>2.9716999999999998</v>
       </c>
-      <c r="U10" s="27">
+      <c r="U10" s="26">
         <v>8.0999999999999996E-3</v>
       </c>
       <c r="V10" s="2">
@@ -1594,7 +1620,7 @@
       <c r="N11" s="2">
         <v>0.89280000000000004</v>
       </c>
-      <c r="O11" s="27">
+      <c r="O11" s="26">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="P11" s="2">
@@ -1603,7 +1629,7 @@
       <c r="Q11" s="2">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="R11" s="27">
+      <c r="R11" s="26">
         <v>3.1E-2</v>
       </c>
       <c r="S11" s="2">
@@ -1612,7 +1638,7 @@
       <c r="T11" s="2">
         <v>2.7313999999999998</v>
       </c>
-      <c r="U11" s="27">
+      <c r="U11" s="26">
         <v>1.12E-2</v>
       </c>
       <c r="V11" s="2">
@@ -1694,148 +1720,148 @@
       </c>
     </row>
     <row r="13" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.2409</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="E13" s="2">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2.5232000000000001</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1.2345999999999999</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.5625000000000001E-6</v>
+      </c>
+      <c r="I13" s="2">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.23250000000000001</v>
+      </c>
+      <c r="L13" s="2">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.90359999999999996</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="O13" s="26">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="P13" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3.85E-2</v>
+      </c>
+      <c r="R13" s="26">
+        <v>0.1004</v>
+      </c>
+      <c r="S13" s="2">
+        <v>2.661</v>
+      </c>
+      <c r="T13" s="2">
+        <v>2.4243999999999999</v>
+      </c>
+      <c r="U13" s="26">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1.2821</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1.1621999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C14" s="4">
         <v>0.2399</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D14" s="4">
         <v>0.89729999999999999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E14" s="4">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F14" s="4">
         <v>1.7656000000000001</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G14" s="4">
         <v>1.1803999999999999</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H14" s="8">
         <v>6.2500000000000003E-6</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I14" s="4">
         <v>7.1000000000000004E-3</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J14" s="4">
         <v>0.24970000000000001</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K14" s="4">
         <v>0.23330000000000001</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L14" s="4">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M14" s="4">
         <v>0.90300000000000002</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N14" s="4">
         <v>0.88890000000000002</v>
-      </c>
-      <c r="O13" s="28">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="P13" s="4">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="R13" s="28">
-        <v>4.41E-2</v>
-      </c>
-      <c r="S13" s="4">
-        <v>1.8274999999999999</v>
-      </c>
-      <c r="T13" s="4">
-        <v>1.7279</v>
-      </c>
-      <c r="U13" s="28">
-        <v>2.9600000000000001E-2</v>
-      </c>
-      <c r="V13" s="4">
-        <v>1.2061999999999999</v>
-      </c>
-      <c r="W13" s="4">
-        <v>1.1389</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.2409</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.89629999999999999</v>
-      </c>
-      <c r="E14" s="2">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="F14" s="2">
-        <v>2.5232000000000001</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1.2345999999999999</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1.5625000000000001E-6</v>
-      </c>
-      <c r="I14" s="2">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.25419999999999998</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.23250000000000001</v>
-      </c>
-      <c r="L14" s="2">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.90359999999999996</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0.88480000000000003</v>
       </c>
       <c r="O14" s="27">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="P14" s="2">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>3.85E-2</v>
+      <c r="P14" s="4">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="R14" s="27">
-        <v>0.1004</v>
-      </c>
-      <c r="S14" s="2">
-        <v>2.661</v>
-      </c>
-      <c r="T14" s="2">
-        <v>2.4243999999999999</v>
+        <v>4.41E-2</v>
+      </c>
+      <c r="S14" s="4">
+        <v>1.8274999999999999</v>
+      </c>
+      <c r="T14" s="4">
+        <v>1.7279</v>
       </c>
       <c r="U14" s="27">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="V14" s="2">
-        <v>1.2821</v>
-      </c>
-      <c r="W14" s="2">
-        <v>1.1621999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1.2061999999999999</v>
+      </c>
+      <c r="W14" s="4">
+        <v>1.1389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>79</v>
       </c>
@@ -1878,7 +1904,7 @@
       <c r="N15" s="2">
         <v>0.89439999999999997</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="26">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="P15" s="2">
@@ -1896,7 +1922,7 @@
       <c r="T15" s="2">
         <v>3.665</v>
       </c>
-      <c r="U15" s="27">
+      <c r="U15" s="26">
         <v>3.0700000000000002E-2</v>
       </c>
       <c r="V15" s="2">
@@ -1906,7 +1932,7 @@
         <v>1.1565000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>79</v>
       </c>
@@ -1949,7 +1975,7 @@
       <c r="N16" s="2">
         <v>0.90569999999999995</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="26">
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="P16" s="2">
@@ -1967,7 +1993,7 @@
       <c r="T16" s="2">
         <v>2.4855</v>
       </c>
-      <c r="U16" s="27">
+      <c r="U16" s="26">
         <v>5.57E-2</v>
       </c>
       <c r="V16" s="2">
@@ -1982,141 +2008,141 @@
         <v>79</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C17" s="2">
-        <v>0.2467</v>
+        <v>0.23089999999999999</v>
       </c>
       <c r="D17" s="2">
-        <v>0.89159999999999995</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="E17" s="2">
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="F17" s="2">
-        <v>3.6937000000000002</v>
+        <v>3.0629</v>
       </c>
       <c r="G17" s="2">
-        <v>1.0969</v>
+        <v>1.2199</v>
       </c>
       <c r="H17" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I17" s="2">
-        <v>3.2000000000000002E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="J17" s="2">
-        <v>0.251</v>
+        <v>0.2346</v>
       </c>
       <c r="K17" s="2">
-        <v>0.24340000000000001</v>
+        <v>0.2266</v>
       </c>
       <c r="L17" s="2">
-        <v>2.8E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="M17" s="2">
-        <v>0.89439999999999997</v>
+        <v>0.90849999999999997</v>
       </c>
       <c r="N17" s="2">
-        <v>0.88780000000000003</v>
-      </c>
-      <c r="O17" s="27">
-        <v>5.9999999999999995E-4</v>
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="O17" s="26">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P17" s="2">
-        <v>0.04</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="Q17" s="2">
-        <v>3.8699999999999998E-2</v>
-      </c>
-      <c r="R17" s="27">
-        <v>0.1038</v>
+        <v>3.9E-2</v>
+      </c>
+      <c r="R17" s="2">
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="S17" s="2">
-        <v>3.8328000000000002</v>
+        <v>3.1074000000000002</v>
       </c>
       <c r="T17" s="2">
-        <v>3.5834999999999999</v>
-      </c>
-      <c r="U17" s="27">
-        <v>1.5900000000000001E-2</v>
+        <v>3.0167000000000002</v>
+      </c>
+      <c r="U17" s="26">
+        <v>1.37E-2</v>
       </c>
       <c r="V17" s="2">
-        <v>1.1185</v>
+        <v>1.2367999999999999</v>
       </c>
       <c r="W17" s="2">
-        <v>1.0807</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.2032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2">
-        <v>0.23089999999999999</v>
+        <v>0.2467</v>
       </c>
       <c r="D18" s="2">
-        <v>0.90500000000000003</v>
+        <v>0.89159999999999995</v>
       </c>
       <c r="E18" s="2">
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="F18" s="2">
-        <v>3.0629</v>
+        <v>3.6937000000000002</v>
       </c>
       <c r="G18" s="2">
-        <v>1.2199</v>
+        <v>1.0969</v>
       </c>
       <c r="H18" s="6">
-        <v>2.5000000000000001E-5</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I18" s="2">
-        <v>3.3E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="J18" s="2">
-        <v>0.2346</v>
+        <v>0.251</v>
       </c>
       <c r="K18" s="2">
-        <v>0.2266</v>
+        <v>0.24340000000000001</v>
       </c>
       <c r="L18" s="2">
-        <v>2.7000000000000001E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="M18" s="2">
-        <v>0.90849999999999997</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="N18" s="2">
-        <v>0.90190000000000003</v>
-      </c>
-      <c r="O18" s="27">
-        <v>2.0000000000000001E-4</v>
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="O18" s="26">
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="P18" s="2">
-        <v>3.9399999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Q18" s="2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="R18" s="2">
-        <v>3.7100000000000001E-2</v>
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="R18" s="26">
+        <v>0.1038</v>
       </c>
       <c r="S18" s="2">
-        <v>3.1074000000000002</v>
+        <v>3.8328000000000002</v>
       </c>
       <c r="T18" s="2">
-        <v>3.0167000000000002</v>
-      </c>
-      <c r="U18" s="27">
-        <v>1.37E-2</v>
+        <v>3.5834999999999999</v>
+      </c>
+      <c r="U18" s="26">
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="V18" s="2">
-        <v>1.2367999999999999</v>
+        <v>1.1185</v>
       </c>
       <c r="W18" s="2">
-        <v>1.2032</v>
+        <v>1.0807</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
@@ -2162,7 +2188,7 @@
       <c r="N19" s="5">
         <v>0.88600000000000001</v>
       </c>
-      <c r="O19" s="29">
+      <c r="O19" s="28">
         <v>1E-3</v>
       </c>
       <c r="P19" s="5">
@@ -2171,7 +2197,7 @@
       <c r="Q19" s="5">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="R19" s="29">
+      <c r="R19" s="28">
         <v>3.4599999999999999E-2</v>
       </c>
       <c r="S19" s="5">
@@ -2180,7 +2206,7 @@
       <c r="T19" s="5">
         <v>2.2993999999999999</v>
       </c>
-      <c r="U19" s="29">
+      <c r="U19" s="28">
         <v>7.9000000000000008E-3</v>
       </c>
       <c r="V19" s="5">
@@ -2190,7 +2216,7 @@
         <v>1.1133</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
@@ -2233,7 +2259,7 @@
       <c r="N20" s="2">
         <v>0.91100000000000003</v>
       </c>
-      <c r="O20" s="27">
+      <c r="O20" s="26">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P20" s="2">
@@ -2251,7 +2277,7 @@
       <c r="T20" s="2">
         <v>1.5353000000000001</v>
       </c>
-      <c r="U20" s="27">
+      <c r="U20" s="26">
         <v>1.7500000000000002E-2</v>
       </c>
       <c r="V20" s="2">
@@ -2304,7 +2330,7 @@
       <c r="N21" s="2">
         <v>0.91049999999999998</v>
       </c>
-      <c r="O21" s="27">
+      <c r="O21" s="26">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P21" s="2">
@@ -2313,7 +2339,7 @@
       <c r="Q21" s="2">
         <v>3.9399999999999998E-2</v>
       </c>
-      <c r="R21" s="27">
+      <c r="R21" s="26">
         <v>4.2799999999999998E-2</v>
       </c>
       <c r="S21" s="2">
@@ -2322,7 +2348,7 @@
       <c r="T21" s="2">
         <v>5.0506000000000002</v>
       </c>
-      <c r="U21" s="27">
+      <c r="U21" s="26">
         <v>2.69E-2</v>
       </c>
       <c r="V21" s="2">
@@ -2337,141 +2363,141 @@
         <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2">
-        <v>0.25159999999999999</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="D22" s="2">
-        <v>0.8871</v>
+        <v>0.90359999999999996</v>
       </c>
       <c r="E22" s="2">
         <v>4.0500000000000001E-2</v>
       </c>
       <c r="F22" s="2">
-        <v>5.7820999999999998</v>
+        <v>5.6917999999999997</v>
       </c>
       <c r="G22" s="2">
-        <v>1.2365999999999999</v>
+        <v>1.3993</v>
       </c>
       <c r="H22" s="6">
-        <v>1.2500000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I22" s="2">
-        <v>2.3E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="J22" s="2">
-        <v>0.25430000000000003</v>
+        <v>0.2384</v>
       </c>
       <c r="K22" s="2">
-        <v>0.24859999999999999</v>
+        <v>0.22720000000000001</v>
       </c>
       <c r="L22" s="2">
-        <v>2.0999999999999999E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="M22" s="2">
-        <v>0.88990000000000002</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="N22" s="2">
-        <v>0.88470000000000004</v>
-      </c>
-      <c r="O22" s="27">
-        <v>4.0000000000000002E-4</v>
+        <v>0.89870000000000005</v>
+      </c>
+      <c r="O22" s="26">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P22" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>4.07E-2</v>
       </c>
       <c r="Q22" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="R22" s="27">
-        <v>2.58E-2</v>
+        <v>4.02E-2</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.12189999999999999</v>
       </c>
       <c r="S22" s="2">
-        <v>5.8181000000000003</v>
+        <v>5.8236999999999997</v>
       </c>
       <c r="T22" s="2">
-        <v>5.7591999999999999</v>
-      </c>
-      <c r="U22" s="27">
-        <v>1.4999999999999999E-2</v>
+        <v>5.5297000000000001</v>
+      </c>
+      <c r="U22" s="26">
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="V22" s="2">
-        <v>1.2484</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="W22" s="2">
-        <v>1.2154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.3244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2">
-        <v>0.23250000000000001</v>
+        <v>0.25159999999999999</v>
       </c>
       <c r="D23" s="2">
-        <v>0.90359999999999996</v>
+        <v>0.8871</v>
       </c>
       <c r="E23" s="2">
         <v>4.0500000000000001E-2</v>
       </c>
       <c r="F23" s="2">
-        <v>5.6917999999999997</v>
+        <v>5.7820999999999998</v>
       </c>
       <c r="G23" s="2">
-        <v>1.3993</v>
+        <v>1.2365999999999999</v>
       </c>
       <c r="H23" s="6">
-        <v>6.2500000000000003E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I23" s="2">
-        <v>4.5999999999999999E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="J23" s="2">
-        <v>0.2384</v>
+        <v>0.25430000000000003</v>
       </c>
       <c r="K23" s="2">
-        <v>0.22720000000000001</v>
+        <v>0.24859999999999999</v>
       </c>
       <c r="L23" s="2">
-        <v>3.8E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="M23" s="2">
-        <v>0.90800000000000003</v>
+        <v>0.88990000000000002</v>
       </c>
       <c r="N23" s="2">
-        <v>0.89870000000000005</v>
-      </c>
-      <c r="O23" s="27">
-        <v>2.0000000000000001E-4</v>
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="O23" s="26">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P23" s="2">
-        <v>4.07E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q23" s="2">
-        <v>4.02E-2</v>
-      </c>
-      <c r="R23" s="2">
-        <v>0.12189999999999999</v>
+        <v>0.04</v>
+      </c>
+      <c r="R23" s="26">
+        <v>2.58E-2</v>
       </c>
       <c r="S23" s="2">
-        <v>5.8236999999999997</v>
+        <v>5.8181000000000003</v>
       </c>
       <c r="T23" s="2">
-        <v>5.5297000000000001</v>
-      </c>
-      <c r="U23" s="27">
-        <v>5.3199999999999997E-2</v>
+        <v>5.7591999999999999</v>
+      </c>
+      <c r="U23" s="26">
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="V23" s="2">
-        <v>1.4430000000000001</v>
+        <v>1.2484</v>
       </c>
       <c r="W23" s="2">
-        <v>1.3244</v>
+        <v>1.2154</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
@@ -2517,7 +2543,7 @@
       <c r="N24" s="3">
         <v>0.90039999999999998</v>
       </c>
-      <c r="O24" s="30">
+      <c r="O24" s="29">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="P24" s="3">
@@ -2526,7 +2552,7 @@
       <c r="Q24" s="3">
         <v>4.0399999999999998E-2</v>
       </c>
-      <c r="R24" s="30">
+      <c r="R24" s="29">
         <v>5.0700000000000002E-2</v>
       </c>
       <c r="S24" s="3">
@@ -2535,7 +2561,7 @@
       <c r="T24" s="3">
         <v>1.3716999999999999</v>
       </c>
-      <c r="U24" s="30">
+      <c r="U24" s="29">
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="V24" s="3">
@@ -2545,7 +2571,7 @@
         <v>1.2837000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
@@ -2588,7 +2614,7 @@
       <c r="N25" s="2">
         <v>0.88719999999999999</v>
       </c>
-      <c r="O25" s="27">
+      <c r="O25" s="26">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="P25" s="2">
@@ -2606,7 +2632,7 @@
       <c r="T25" s="2">
         <v>6.1874000000000002</v>
       </c>
-      <c r="U25" s="27">
+      <c r="U25" s="26">
         <v>3.5900000000000001E-2</v>
       </c>
       <c r="V25" s="2">
@@ -2616,7 +2642,7 @@
         <v>1.3162</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -2659,7 +2685,7 @@
       <c r="N26" s="2">
         <v>0.90790000000000004</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O26" s="26">
         <v>1E-4</v>
       </c>
       <c r="P26" s="2">
@@ -2677,7 +2703,7 @@
       <c r="T26" s="2">
         <v>4.2000999999999999</v>
       </c>
-      <c r="U26" s="27">
+      <c r="U26" s="26">
         <v>3.3599999999999998E-2</v>
       </c>
       <c r="V26" s="2">
@@ -2687,7 +2713,7 @@
         <v>1.4617</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -2730,7 +2756,7 @@
       <c r="N27" s="2">
         <v>0.89729999999999999</v>
       </c>
-      <c r="O27" s="27">
+      <c r="O27" s="26">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="P27" s="2">
@@ -2748,7 +2774,7 @@
       <c r="T27" s="2">
         <v>4.5921000000000003</v>
       </c>
-      <c r="U27" s="27">
+      <c r="U27" s="26">
         <v>5.6599999999999998E-2</v>
       </c>
       <c r="V27" s="2">
@@ -2758,7 +2784,7 @@
         <v>1.4715</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -2801,7 +2827,7 @@
       <c r="N28" s="2">
         <v>0.91139999999999999</v>
       </c>
-      <c r="O28" s="27">
+      <c r="O28" s="26">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="P28" s="2">
@@ -2819,7 +2845,7 @@
       <c r="T28" s="2">
         <v>3.1808000000000001</v>
       </c>
-      <c r="U28" s="27">
+      <c r="U28" s="26">
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="V28" s="2">
@@ -2829,7 +2855,7 @@
         <v>1.6212</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
@@ -2872,7 +2898,7 @@
       <c r="N29" s="2">
         <v>0.89549999999999996</v>
       </c>
-      <c r="O29" s="27">
+      <c r="O29" s="26">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P29" s="2">
@@ -2890,7 +2916,7 @@
       <c r="T29" s="2">
         <v>3.5278999999999998</v>
       </c>
-      <c r="U29" s="27">
+      <c r="U29" s="26">
         <v>0.03</v>
       </c>
       <c r="V29" s="2">
@@ -2900,7 +2926,7 @@
         <v>1.5568</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
@@ -2971,7 +2997,7 @@
         <v>1.5963000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>79</v>
       </c>
@@ -3042,7 +3068,7 @@
         <v>1.542</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>79</v>
       </c>
@@ -3113,7 +3139,7 @@
         <v>1.6511</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>79</v>
       </c>
@@ -3184,7 +3210,7 @@
         <v>1.6722999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
@@ -3255,7 +3281,7 @@
         <v>3.2353999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>79</v>
       </c>
@@ -3326,7 +3352,7 @@
         <v>3.1248999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -3397,7 +3423,7 @@
         <v>3.1204000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -3468,220 +3494,220 @@
         <v>3.1983999999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2">
-        <v>0.34029999999999999</v>
+        <v>0.33760000000000001</v>
       </c>
       <c r="D38" s="2">
-        <v>0.79349999999999998</v>
+        <v>0.79679999999999995</v>
       </c>
       <c r="E38" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F38" s="2">
-        <v>8.4863</v>
+        <v>9.9016999999999999</v>
       </c>
       <c r="G38" s="2">
-        <v>3.1833</v>
+        <v>3.2170999999999998</v>
       </c>
       <c r="H38" s="6">
-        <v>1.5625000000000001E-6</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I38" s="2">
-        <v>6.4999999999999997E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="J38" s="2">
-        <v>0.34949999999999998</v>
+        <v>0.33779999999999999</v>
       </c>
       <c r="K38" s="2">
-        <v>0.3357</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="L38" s="2">
-        <v>7.9000000000000008E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M38" s="2">
-        <v>0.79910000000000003</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="N38" s="2">
-        <v>0.7823</v>
+        <v>0.79659999999999997</v>
       </c>
       <c r="O38" s="2">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P38" s="2">
-        <v>5.7099999999999998E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="Q38" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="R38" s="2">
-        <v>5.3199999999999997E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="S38" s="2">
-        <v>8.5442</v>
+        <v>9.9810999999999996</v>
       </c>
       <c r="T38" s="2">
-        <v>8.4156999999999993</v>
+        <v>9.8398000000000003</v>
       </c>
       <c r="U38" s="2">
-        <v>8.3099999999999993E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="V38" s="2">
-        <v>3.2715999999999998</v>
+        <v>3.2770000000000001</v>
       </c>
       <c r="W38" s="2">
-        <v>3.0720000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.1821000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C39" s="2">
-        <v>0.34250000000000003</v>
+        <v>0.34029999999999999</v>
       </c>
       <c r="D39" s="2">
-        <v>0.79090000000000005</v>
+        <v>0.79349999999999998</v>
       </c>
       <c r="E39" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F39" s="2">
-        <v>8.4193999999999996</v>
+        <v>8.4863</v>
       </c>
       <c r="G39" s="2">
-        <v>3.2014</v>
+        <v>3.1833</v>
       </c>
       <c r="H39" s="6">
         <v>1.5625000000000001E-6</v>
       </c>
       <c r="I39" s="2">
-        <v>4.4999999999999997E-3</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="J39" s="2">
-        <v>0.34849999999999998</v>
+        <v>0.34949999999999998</v>
       </c>
       <c r="K39" s="2">
-        <v>0.33750000000000002</v>
+        <v>0.3357</v>
       </c>
       <c r="L39" s="2">
-        <v>5.5999999999999999E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="M39" s="2">
-        <v>0.79700000000000004</v>
+        <v>0.79910000000000003</v>
       </c>
       <c r="N39" s="2">
-        <v>0.78349999999999997</v>
+        <v>0.7823</v>
       </c>
       <c r="O39" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P39" s="2">
-        <v>5.7200000000000001E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="Q39" s="2">
-        <v>5.6899999999999999E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="R39" s="2">
-        <v>5.8200000000000002E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="S39" s="2">
-        <v>8.4974000000000007</v>
+        <v>8.5442</v>
       </c>
       <c r="T39" s="2">
-        <v>8.3575999999999997</v>
+        <v>8.4156999999999993</v>
       </c>
       <c r="U39" s="2">
-        <v>4.7699999999999999E-2</v>
+        <v>8.3099999999999993E-2</v>
       </c>
       <c r="V39" s="2">
-        <v>3.2688999999999999</v>
+        <v>3.2715999999999998</v>
       </c>
       <c r="W39" s="2">
-        <v>3.1657999999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.0720000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C40" s="2">
-        <v>0.33760000000000001</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="D40" s="2">
-        <v>0.79679999999999995</v>
+        <v>0.79090000000000005</v>
       </c>
       <c r="E40" s="2">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="F40" s="2">
-        <v>9.9016999999999999</v>
+        <v>8.4193999999999996</v>
       </c>
       <c r="G40" s="2">
-        <v>3.2170999999999998</v>
+        <v>3.2014</v>
       </c>
       <c r="H40" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I40" s="2">
-        <v>1E-4</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="J40" s="2">
-        <v>0.33779999999999999</v>
+        <v>0.34849999999999998</v>
       </c>
       <c r="K40" s="2">
         <v>0.33750000000000002</v>
       </c>
       <c r="L40" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="M40" s="2">
         <v>0.79700000000000004</v>
       </c>
       <c r="N40" s="2">
-        <v>0.79659999999999997</v>
+        <v>0.78349999999999997</v>
       </c>
       <c r="O40" s="2">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P40" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="Q40" s="2">
         <v>5.6899999999999999E-2</v>
       </c>
       <c r="R40" s="2">
-        <v>5.8999999999999997E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="S40" s="2">
-        <v>9.9810999999999996</v>
+        <v>8.4974000000000007</v>
       </c>
       <c r="T40" s="2">
-        <v>9.8398000000000003</v>
+        <v>8.3575999999999997</v>
       </c>
       <c r="U40" s="2">
-        <v>4.2599999999999999E-2</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="V40" s="2">
-        <v>3.2770000000000001</v>
+        <v>3.2688999999999999</v>
       </c>
       <c r="W40" s="2">
-        <v>3.1821000000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>3.1657999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
@@ -3752,7 +3778,7 @@
         <v>3.2161</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>79</v>
       </c>
@@ -3823,7 +3849,7 @@
         <v>3.1181000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
@@ -3894,7 +3920,7 @@
         <v>3.2435</v>
       </c>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>79</v>
       </c>
@@ -3965,7 +3991,7 @@
         <v>3.1876000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>79</v>
       </c>
@@ -4036,7 +4062,7 @@
         <v>3.2486999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
@@ -4107,7 +4133,7 @@
         <v>3.2227000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>79</v>
       </c>
@@ -4178,7 +4204,7 @@
         <v>3.2012999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>79</v>
       </c>
@@ -4249,7 +4275,7 @@
         <v>3.1459999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>79</v>
       </c>
@@ -4324,6 +4350,30 @@
   <autoFilter ref="A1:W49" xr:uid="{CA0D07A2-8BFB-4532-81F8-4995D0BF2BB4}">
     <filterColumn colId="1">
       <filters>
+        <filter val="CNN-ew2"/>
+        <filter val="CNN-ew3"/>
+        <filter val="CNN-ew4"/>
+        <filter val="CNN-obs"/>
+        <filter val="CNN-or"/>
+        <filter val="CNN-sg5"/>
+        <filter val="CNN-sg7"/>
+        <filter val="CNN-sg9"/>
+        <filter val="DNN-ew2"/>
+        <filter val="DNN-ew3"/>
+        <filter val="DNN-ew4"/>
+        <filter val="DNN-obs"/>
+        <filter val="DNN-or"/>
+        <filter val="DNN-sg5"/>
+        <filter val="DNN-sg7"/>
+        <filter val="DNN-sg9"/>
+        <filter val="GRU-ew2"/>
+        <filter val="GRU-ew3"/>
+        <filter val="GRU-ew4"/>
+        <filter val="GRU-obs"/>
+        <filter val="GRU-or"/>
+        <filter val="GRU-sg5"/>
+        <filter val="GRU-sg7"/>
+        <filter val="GRU-sg9"/>
         <filter val="LSTM-ew2"/>
         <filter val="LSTM-ew3"/>
         <filter val="LSTM-ew4"/>
@@ -4332,9 +4382,17 @@
         <filter val="LSTM-sg5"/>
         <filter val="LSTM-sg7"/>
         <filter val="LSTM-sg9"/>
+        <filter val="RNN-ew2"/>
+        <filter val="RNN-ew3"/>
+        <filter val="RNN-ew4"/>
+        <filter val="RNN-obs"/>
+        <filter val="RNN-or"/>
+        <filter val="RNN-sg5"/>
+        <filter val="RNN-sg7"/>
+        <filter val="RNN-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:W24">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:W49">
       <sortCondition ref="E1:E49"/>
     </sortState>
   </autoFilter>
@@ -4346,10 +4404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7214CF6-9A35-4870-82BC-6A202AFC67C5}">
-  <dimension ref="A5:I45"/>
+  <dimension ref="A5:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:I15"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8:M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4363,7 +4421,7 @@
     <col min="9" max="9" width="14.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="4:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D5" s="35" t="s">
         <v>79</v>
       </c>
@@ -4373,233 +4431,335 @@
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D6" s="26"/>
-      <c r="E6" s="26" t="s">
+    <row r="6" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="25" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D7" s="22" t="s">
+    <row r="7" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D7" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D8" s="14" t="s">
+    <row r="8" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>3.8300000000000001E-2</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>1.2507999999999999</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="15">
         <v>1.0795999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D9" s="14" t="s">
+      <c r="M8" s="2">
+        <v>10.501200000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>3.85E-2</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>1.2644</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>1.1803999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D10" s="14" t="s">
+      <c r="M9" s="2">
+        <v>10.636100000000001</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="36">
+        <v>1.5800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>3.8899999999999997E-2</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>1.1891</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>1.2345999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D11" s="14" t="s">
+      <c r="M10" s="2">
+        <v>10.6532</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="31">
+        <v>1.61E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>1.2390000000000001</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="15">
         <v>1.0969</v>
       </c>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D12" s="14" t="s">
+      <c r="M11" s="2">
+        <v>6.8270999999999997</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="31">
+        <v>1.6299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D12" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>1.2199</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>3.95E-2</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="18">
         <v>1.1218999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D13" s="14" t="s">
+      <c r="M12" s="2">
+        <v>6.8353000000000002</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P12" s="30">
+        <v>1.66E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>1.3097000000000001</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>1.2612000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D14" s="14" t="s">
+      <c r="M13" s="2">
+        <v>3.2170999999999998</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="30">
+        <v>1.67E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>1.3993</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>1.2365999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D15" s="14" t="s">
+      <c r="M14" s="2">
+        <v>3.1833</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="31">
+        <v>1.6899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>1.3637999999999999</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="19">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="19">
         <v>1.3076000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="M15" s="2">
+        <v>6.9775</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" s="30">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="M16" s="2">
+        <v>3.1677</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="31">
+        <v>1.7399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="M17" s="2">
+        <v>3.2317</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" s="31">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="M18" s="2">
+        <v>3.2187999999999999</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="30">
+        <v>1.77E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="M19" s="2">
+        <v>3.2383000000000002</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P19" s="30">
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D20" s="34">
         <v>1016</v>
       </c>
@@ -4608,226 +4768,322 @@
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D21" s="25"/>
-      <c r="E21" s="25" t="s">
+      <c r="M20" s="2">
+        <v>3.1972</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="P20" s="30">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D21" s="24"/>
+      <c r="E21" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="25" t="s">
+      <c r="I21" s="24" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D22" s="22" t="s">
+      <c r="M21" s="2">
+        <v>3.2170000000000001</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="30">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D22" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="E22" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22" t="s">
+      <c r="G22" s="21"/>
+      <c r="H22" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D23" s="22" t="s">
+      <c r="M22" s="2">
+        <v>3.2014</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P22" s="30">
+        <v>1.8700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D23" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <v>1.67E-2</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="15">
         <v>1.2199</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H23" s="21">
         <v>1.61E-2</v>
       </c>
-      <c r="I23" s="16">
+      <c r="I23" s="15">
         <v>1.0969</v>
       </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D24" s="22" t="s">
+      <c r="M23" s="2">
+        <v>3.2484000000000002</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P23" s="30">
+        <v>1.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D24" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="15">
         <v>1.2390000000000001</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H24" s="21">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="I24" s="16">
+      <c r="I24" s="15">
         <v>1.0795999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D25" s="22" t="s">
+      <c r="M24" s="2">
+        <v>1.1891</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="30">
+        <v>1.89E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D25" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="15">
         <v>1.1891</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="22">
+      <c r="H25" s="21">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="18">
         <v>1.1218999999999999</v>
       </c>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D26" s="22" t="s">
+      <c r="M25" s="2">
+        <v>1.2199</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="30">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D26" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="21">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F26" s="21">
         <v>1.3097000000000001</v>
       </c>
-      <c r="G26" s="22" t="s">
+      <c r="G26" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H26" s="21">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="21">
         <v>1.2365999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D27" s="22" t="s">
+      <c r="M26" s="2">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" s="30">
+        <v>1.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D27" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E27" s="21">
         <v>1.78E-2</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F27" s="21">
         <v>1.2644</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H27" s="21">
         <v>1.77E-2</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="21">
         <v>1.2612000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D28" s="22" t="s">
+      <c r="M27" s="2">
+        <v>1.3637999999999999</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P27" s="30">
+        <v>1.9300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D28" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="21">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F28" s="21">
         <v>1.2507999999999999</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G28" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H28" s="21">
         <v>1.66E-2</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="21">
         <v>1.2345999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D29" s="22" t="s">
+      <c r="M28" s="2">
+        <v>1.3993</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P28" s="30">
+        <v>1.95E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D29" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="21">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="21">
         <v>1.3993</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="22">
+      <c r="H29" s="21">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <v>1.1803999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D30" s="22" t="s">
+      <c r="M29" s="2">
+        <v>1.2644</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D30" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="21">
         <v>1.89E-2</v>
       </c>
-      <c r="F30" s="22">
+      <c r="F30" s="21">
         <v>1.3637999999999999</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G30" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H30" s="22">
+      <c r="H30" s="21">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="23">
         <v>1.3076000000000001</v>
       </c>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="M30" s="2">
+        <v>1.2507999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="M31" s="2">
+        <v>1.3097000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.4">
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="M32" s="2">
+        <v>1.0969</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="M33" s="2">
+        <v>1.0795999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D34" s="34" t="s">
         <v>80</v>
       </c>
@@ -4836,198 +5092,244 @@
       <c r="G34" s="34"/>
       <c r="H34" s="34"/>
       <c r="I34" s="34"/>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D35" s="22"/>
-      <c r="E35" s="22" t="s">
+      <c r="M34" s="5">
+        <v>1.1218999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D35" s="21"/>
+      <c r="E35" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22" t="s">
+      <c r="G35" s="21"/>
+      <c r="H35" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D36" s="22" t="s">
+      <c r="M35" s="2">
+        <v>1.2365999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D36" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E36" s="21">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F36" s="21">
         <v>1.3097000000000001</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H36" s="21">
         <v>4.5699999999999998E-2</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="21">
         <v>1.2365999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D37" s="22" t="s">
+      <c r="M36" s="2">
+        <v>1.2612000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D37" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="21">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="15">
         <v>1.2390000000000001</v>
       </c>
-      <c r="G37" s="22" t="s">
+      <c r="G37" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="H37" s="22">
+      <c r="H37" s="21">
         <v>4.87E-2</v>
       </c>
-      <c r="I37" s="16">
+      <c r="I37" s="15">
         <v>1.0969</v>
       </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D38" s="22" t="s">
+      <c r="M37" s="2">
+        <v>1.2345999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D38" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="21">
         <v>1.67E-2</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="15">
         <v>1.2199</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H38" s="21">
         <v>5.11E-2</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="18">
         <v>1.1218999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D39" s="22" t="s">
+      <c r="M38" s="4">
+        <v>1.1803999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D39" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="22">
+      <c r="E39" s="21">
         <v>1.78E-2</v>
       </c>
-      <c r="F39" s="22">
+      <c r="F39" s="21">
         <v>1.2644</v>
       </c>
-      <c r="G39" s="22" t="s">
+      <c r="G39" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="22">
+      <c r="H39" s="21">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="21">
         <v>1.2612000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D40" s="22" t="s">
+      <c r="M39" s="3">
+        <v>1.3076000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D40" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="21">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F40" s="21">
         <v>1.2507999999999999</v>
       </c>
-      <c r="G40" s="22" t="s">
+      <c r="G40" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H40" s="21">
         <v>5.2600000000000001E-2</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="21">
         <v>1.2345999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D41" s="22" t="s">
+      <c r="M40" s="2">
+        <v>1.5425</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D41" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E41" s="21">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="15">
         <v>1.1891</v>
       </c>
-      <c r="G41" s="22" t="s">
+      <c r="G41" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="22">
+      <c r="H41" s="21">
         <v>5.4800000000000001E-2</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="18">
         <v>1.1218999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D42" s="22" t="s">
+      <c r="M41" s="2">
+        <v>1.6041000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D42" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="E42" s="22">
+      <c r="E42" s="21">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="F42" s="22">
+      <c r="F42" s="21">
         <v>1.3993</v>
       </c>
-      <c r="G42" s="22" t="s">
+      <c r="G42" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="H42" s="22">
+      <c r="H42" s="21">
         <v>6.7400000000000002E-2</v>
       </c>
-      <c r="I42" s="23">
+      <c r="I42" s="22">
         <v>1.1803999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.4">
-      <c r="D43" s="22" t="s">
+      <c r="M42" s="2">
+        <v>1.5992</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D43" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="21">
         <v>1.89E-2</v>
       </c>
-      <c r="F43" s="22">
+      <c r="F43" s="21">
         <v>1.3637999999999999</v>
       </c>
-      <c r="G43" s="22" t="s">
+      <c r="G43" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="H43" s="22">
+      <c r="H43" s="21">
         <v>7.5600000000000001E-2</v>
       </c>
-      <c r="I43" s="24">
+      <c r="I43" s="23">
         <v>1.3076000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="M43" s="2">
+        <v>1.6734</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D44" s="12"/>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.4">
+      <c r="M44" s="2">
+        <v>1.6345000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
+      <c r="M45" s="2">
+        <v>1.5087999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="M46" s="2">
+        <v>1.6267</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="M47" s="2">
+        <v>1.7045999999999999</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5047,7 +5349,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D6" sqref="D6:I15"/>
-      <selection pane="bottomLeft" activeCell="E9" activeCellId="1" sqref="B9:B26 E9:E26"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5157,7 +5459,7 @@
       <c r="D2" s="2">
         <v>0.94230000000000003</v>
       </c>
-      <c r="E2" s="33">
+      <c r="E2" s="32">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F2" s="2">
@@ -5228,7 +5530,7 @@
       <c r="D3" s="2">
         <v>0.94410000000000005</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>1.49E-2</v>
       </c>
       <c r="F3" s="2">
@@ -5299,7 +5601,7 @@
       <c r="D4" s="2">
         <v>0.94589999999999996</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>1.52E-2</v>
       </c>
       <c r="F4" s="2">
@@ -5367,22 +5669,22 @@
       <c r="C5" s="2">
         <v>0.24030000000000001</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>0.92969999999999997</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>1.6400000000000001E-2</v>
       </c>
-      <c r="F5" s="14">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14">
-        <v>0</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0</v>
-      </c>
-      <c r="I5" s="14">
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
         <v>1.5E-3</v>
       </c>
       <c r="J5" s="2">
@@ -5431,18 +5733,18 @@
     <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
       <c r="C6" s="4"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>81</v>
       </c>
       <c r="J6" s="2"/>
@@ -5470,22 +5772,22 @@
       <c r="C7" s="2">
         <v>0.22289999999999999</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>0.9395</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="F7" s="14">
-        <v>0</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="15">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="J7" s="2">
@@ -5541,22 +5843,22 @@
       <c r="C8" s="2">
         <v>0.21729999999999999</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>1.5599999999999999E-2</v>
       </c>
-      <c r="F8" s="14">
-        <v>0</v>
-      </c>
-      <c r="G8" s="14">
-        <v>0</v>
-      </c>
-      <c r="H8" s="14">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
         <v>1.4E-3</v>
       </c>
       <c r="J8" s="2">
@@ -5603,56 +5905,56 @@
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+      <c r="A9" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.21690000000000001</v>
-      </c>
-      <c r="D9" s="14">
-        <v>0.94269999999999998</v>
-      </c>
-      <c r="E9" s="14">
-        <v>1.61E-2</v>
-      </c>
-      <c r="F9" s="14">
-        <v>0</v>
-      </c>
-      <c r="G9" s="14">
-        <v>0</v>
-      </c>
-      <c r="H9" s="14">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>1.6000000000000001E-3</v>
+      <c r="B9" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.21110000000000001</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>0.21840000000000001</v>
+        <v>0.21290000000000001</v>
       </c>
       <c r="K9" s="2">
-        <v>0.2147</v>
+        <v>0.2097</v>
       </c>
       <c r="L9" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="M9" s="2">
-        <v>0.94389999999999996</v>
+        <v>0.94650000000000001</v>
       </c>
       <c r="N9" s="2">
-        <v>0.94189999999999996</v>
-      </c>
-      <c r="O9" s="27">
-        <v>0</v>
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="O9" s="26">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P9" s="2">
-        <v>1.61E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="Q9" s="2">
-        <v>1.61E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -5683,22 +5985,22 @@
       <c r="C10" s="4">
         <v>0.20930000000000001</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="31">
         <v>1.55E-2</v>
       </c>
-      <c r="F10" s="14">
-        <v>0</v>
-      </c>
-      <c r="G10" s="14">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="J10" s="2">
@@ -5745,56 +6047,56 @@
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="A11" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="10">
-        <v>0.21110000000000001</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0.94579999999999997</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0</v>
-      </c>
-      <c r="G11" s="14">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <v>1.2999999999999999E-3</v>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="E11" s="13">
+        <v>1.61E-2</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J11" s="2">
-        <v>0.21290000000000001</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="K11" s="2">
-        <v>0.2097</v>
+        <v>0.2147</v>
       </c>
       <c r="L11" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M11" s="2">
-        <v>0.94650000000000001</v>
+        <v>0.94389999999999996</v>
       </c>
       <c r="N11" s="2">
-        <v>0.94479999999999997</v>
-      </c>
-      <c r="O11" s="27">
-        <v>4.0000000000000002E-4</v>
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="O11" s="26">
+        <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>1.6400000000000001E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="Q11" s="2">
-        <v>1.55E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -5825,22 +6127,22 @@
       <c r="C12" s="5">
         <v>0.2112</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="13">
         <v>0.94569999999999999</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="F12" s="14">
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <v>0</v>
-      </c>
-      <c r="I12" s="16">
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="15">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="J12" s="2">
@@ -5858,7 +6160,7 @@
       <c r="N12" s="2">
         <v>0.94420000000000004</v>
       </c>
-      <c r="O12" s="27">
+      <c r="O12" s="26">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P12" s="2">
@@ -5896,22 +6198,22 @@
       <c r="C13" s="3">
         <v>0.2092</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="13">
         <v>0.94669999999999999</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <v>1.6E-2</v>
       </c>
-      <c r="F13" s="14">
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
         <v>2.8E-3</v>
       </c>
       <c r="J13" s="2">
@@ -5962,50 +6264,52 @@
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C14" s="2">
-        <v>0.23980000000000001</v>
-      </c>
-      <c r="D14" s="14">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="E14" s="14">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14">
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
-        <v>1.4E-3</v>
+        <v>0.2137</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1.66E-2</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0</v>
+      </c>
+      <c r="G14" s="21">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21">
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="J14" s="2">
-        <v>0.24129999999999999</v>
+        <v>0.21529999999999999</v>
       </c>
       <c r="K14" s="2">
-        <v>0.23799999999999999</v>
+        <v>0.2127</v>
       </c>
       <c r="L14" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="M14" s="2">
-        <v>0.93100000000000005</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="N14" s="2">
-        <v>0.92910000000000004</v>
-      </c>
-      <c r="O14" s="27">
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="O14" s="26">
         <v>1E-4</v>
       </c>
       <c r="P14" s="2">
-        <v>1.7600000000000001E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q14" s="2">
-        <v>1.7299999999999999E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -6026,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -6036,22 +6340,22 @@
       <c r="C15" s="2">
         <v>0.2218</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="21">
         <v>0.94010000000000005</v>
       </c>
-      <c r="E15" s="31">
+      <c r="E15" s="30">
         <v>1.67E-2</v>
       </c>
-      <c r="F15" s="22">
-        <v>0</v>
-      </c>
-      <c r="G15" s="22">
-        <v>0</v>
-      </c>
-      <c r="H15" s="22">
-        <v>0</v>
-      </c>
-      <c r="I15" s="22">
+      <c r="F15" s="21">
+        <v>0</v>
+      </c>
+      <c r="G15" s="21">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="J15" s="2">
@@ -6069,7 +6373,7 @@
       <c r="N15" s="2">
         <v>0.93910000000000005</v>
       </c>
-      <c r="O15" s="27">
+      <c r="O15" s="26">
         <v>0</v>
       </c>
       <c r="P15" s="2">
@@ -6097,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6107,22 +6411,22 @@
       <c r="C16" s="2">
         <v>0.2198</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>0.94120000000000004</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="F16" s="14">
-        <v>0</v>
-      </c>
-      <c r="G16" s="14">
-        <v>0</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14">
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="J16" s="2">
@@ -6168,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -6178,22 +6482,22 @@
       <c r="C17" s="2">
         <v>0.2271</v>
       </c>
-      <c r="D17" s="22">
+      <c r="D17" s="21">
         <v>0.93720000000000003</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="30">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-      <c r="G17" s="22">
-        <v>0</v>
-      </c>
-      <c r="H17" s="22">
-        <v>0</v>
-      </c>
-      <c r="I17" s="16">
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="21">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
+        <v>0</v>
+      </c>
+      <c r="I17" s="15">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="J17" s="2">
@@ -6239,7 +6543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -6249,22 +6553,22 @@
       <c r="C18" s="2">
         <v>0.21299999999999999</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="13">
         <v>0.94469999999999998</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="31">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="F18" s="14">
-        <v>0</v>
-      </c>
-      <c r="G18" s="14">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14">
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="J18" s="2">
@@ -6315,52 +6619,50 @@
         <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C19" s="2">
-        <v>0.24049999999999999</v>
-      </c>
-      <c r="D19" s="22">
-        <v>0.92959999999999998</v>
-      </c>
-      <c r="E19" s="22">
-        <v>1.77E-2</v>
-      </c>
-      <c r="F19" s="22">
-        <v>0</v>
-      </c>
-      <c r="G19" s="22">
-        <v>0</v>
-      </c>
-      <c r="H19" s="22">
-        <v>0</v>
-      </c>
-      <c r="I19" s="22">
-        <v>2.8999999999999998E-3</v>
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>1.4E-3</v>
       </c>
       <c r="J19" s="2">
-        <v>0.24440000000000001</v>
+        <v>0.24129999999999999</v>
       </c>
       <c r="K19" s="2">
-        <v>0.23749999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="L19" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M19" s="2">
-        <v>0.93130000000000002</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="N19" s="2">
-        <v>0.92730000000000001</v>
-      </c>
-      <c r="O19" s="27">
-        <v>2.0000000000000001E-4</v>
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="O19" s="26">
+        <v>1E-4</v>
       </c>
       <c r="P19" s="2">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="Q19" s="2">
-        <v>1.7500000000000002E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -6386,52 +6688,52 @@
         <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2">
-        <v>0.2137</v>
-      </c>
-      <c r="D20" s="22">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="E20" s="22">
-        <v>1.66E-2</v>
-      </c>
-      <c r="F20" s="22">
-        <v>0</v>
-      </c>
-      <c r="G20" s="22">
-        <v>0</v>
-      </c>
-      <c r="H20" s="22">
-        <v>0</v>
-      </c>
-      <c r="I20" s="22">
-        <v>1.1000000000000001E-3</v>
+        <v>0.24049999999999999</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0.92959999999999998</v>
+      </c>
+      <c r="E20" s="21">
+        <v>1.77E-2</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
+        <v>0</v>
+      </c>
+      <c r="I20" s="21">
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="J20" s="2">
-        <v>0.21529999999999999</v>
+        <v>0.24440000000000001</v>
       </c>
       <c r="K20" s="2">
-        <v>0.2127</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="L20" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="M20" s="2">
-        <v>0.94489999999999996</v>
+        <v>0.93130000000000002</v>
       </c>
       <c r="N20" s="2">
-        <v>0.94359999999999999</v>
-      </c>
-      <c r="O20" s="27">
-        <v>1E-4</v>
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="O20" s="26">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P20" s="2">
-        <v>1.67E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q20" s="2">
-        <v>1.6500000000000001E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -6455,18 +6757,18 @@
     <row r="21" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22" t="s">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22" t="s">
+      <c r="G21" s="21"/>
+      <c r="H21" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="I21" s="22" t="s">
+      <c r="I21" s="21" t="s">
         <v>81</v>
       </c>
       <c r="J21" s="2"/>
@@ -6484,7 +6786,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -6494,22 +6796,22 @@
       <c r="C22" s="2">
         <v>0.2223</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>0.93979999999999997</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="30">
         <v>1.78E-2</v>
       </c>
-      <c r="F22" s="22">
-        <v>0</v>
-      </c>
-      <c r="G22" s="22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="22">
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" s="21">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0</v>
+      </c>
+      <c r="I22" s="21">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="J22" s="2">
@@ -6560,52 +6862,52 @@
         <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.2165</v>
-      </c>
-      <c r="D23" s="22">
-        <v>0.94289999999999996</v>
-      </c>
-      <c r="E23" s="22">
+        <v>33</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.2243</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="30">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
-      <c r="G23" s="22">
-        <v>0</v>
-      </c>
-      <c r="H23" s="22">
-        <v>0</v>
-      </c>
-      <c r="I23" s="16">
-        <v>1.2999999999999999E-3</v>
+      <c r="F23" s="13">
+        <v>0</v>
+      </c>
+      <c r="G23" s="21">
+        <v>0</v>
+      </c>
+      <c r="H23" s="21">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>0.21679999999999999</v>
+        <v>0.22739999999999999</v>
       </c>
       <c r="K23" s="2">
-        <v>0.216</v>
+        <v>0.2185</v>
       </c>
       <c r="L23" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="M23" s="2">
-        <v>0.94320000000000004</v>
+        <v>0.94189999999999996</v>
       </c>
       <c r="N23" s="2">
-        <v>0.94279999999999997</v>
-      </c>
-      <c r="O23" s="27">
-        <v>2.0000000000000001E-4</v>
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="O23" s="2">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P23" s="2">
-        <v>1.8200000000000001E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="Q23" s="2">
-        <v>1.77E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -6626,57 +6928,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.2243</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="31">
+        <v>35</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.2165</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0.94289999999999996</v>
+      </c>
+      <c r="E24" s="21">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F24" s="14">
-        <v>0</v>
-      </c>
-      <c r="G24" s="22">
-        <v>0</v>
-      </c>
-      <c r="H24" s="22">
-        <v>0</v>
-      </c>
-      <c r="I24" s="14">
-        <v>0</v>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="21">
+        <v>0</v>
+      </c>
+      <c r="H24" s="21">
+        <v>0</v>
+      </c>
+      <c r="I24" s="15">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J24" s="2">
-        <v>0.22739999999999999</v>
+        <v>0.21679999999999999</v>
       </c>
       <c r="K24" s="2">
-        <v>0.2185</v>
+        <v>0.216</v>
       </c>
       <c r="L24" s="2">
-        <v>2.2000000000000001E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M24" s="2">
-        <v>0.94189999999999996</v>
+        <v>0.94320000000000004</v>
       </c>
       <c r="N24" s="2">
-        <v>0.93710000000000004</v>
-      </c>
-      <c r="O24" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="O24" s="26">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P24" s="2">
-        <v>1.84E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="Q24" s="2">
-        <v>1.7299999999999999E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -6697,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -6707,22 +7009,22 @@
       <c r="C25" s="2">
         <v>0.24979999999999999</v>
       </c>
-      <c r="D25" s="22">
+      <c r="D25" s="21">
         <v>0.92400000000000004</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="30">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="F25" s="16">
-        <v>0</v>
-      </c>
-      <c r="G25" s="22">
-        <v>0</v>
-      </c>
-      <c r="H25" s="22">
-        <v>0</v>
-      </c>
-      <c r="I25" s="16">
+      <c r="F25" s="15">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <v>0</v>
+      </c>
+      <c r="H25" s="21">
+        <v>0</v>
+      </c>
+      <c r="I25" s="15">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="J25" s="2">
@@ -6778,22 +7080,22 @@
       <c r="C26" s="3">
         <v>0.21729999999999999</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D26" s="21">
         <v>0.9425</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E26" s="21">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="F26" s="22">
-        <v>0</v>
-      </c>
-      <c r="G26" s="22">
-        <v>0</v>
-      </c>
-      <c r="H26" s="22">
-        <v>0</v>
-      </c>
-      <c r="I26" s="22">
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="21">
+        <v>0</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0</v>
+      </c>
+      <c r="I26" s="21">
         <v>1.4E-3</v>
       </c>
       <c r="J26" s="2">
@@ -6811,7 +7113,7 @@
       <c r="N26" s="2">
         <v>0.94179999999999997</v>
       </c>
-      <c r="O26" s="27">
+      <c r="O26" s="26">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P26" s="2">
@@ -6839,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -6849,22 +7151,22 @@
       <c r="C27" s="2">
         <v>0.25359999999999999</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D27" s="21">
         <v>0.92169999999999996</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="30">
         <v>1.89E-2</v>
       </c>
-      <c r="F27" s="22">
-        <v>0</v>
-      </c>
-      <c r="G27" s="22">
-        <v>0</v>
-      </c>
-      <c r="H27" s="22">
-        <v>0</v>
-      </c>
-      <c r="I27" s="22">
+      <c r="F27" s="21">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
+        <v>0</v>
+      </c>
+      <c r="I27" s="21">
         <v>1.5E-3</v>
       </c>
       <c r="J27" s="2">
@@ -6910,7 +7212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -6920,22 +7222,22 @@
       <c r="C28" s="2">
         <v>0.2384</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28" s="21">
         <v>0.93079999999999996</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28" s="21">
         <v>1.9E-2</v>
       </c>
-      <c r="F28" s="22">
-        <v>0</v>
-      </c>
-      <c r="G28" s="22">
-        <v>0</v>
-      </c>
-      <c r="H28" s="22">
-        <v>0</v>
-      </c>
-      <c r="I28" s="22">
+      <c r="F28" s="21">
+        <v>0</v>
+      </c>
+      <c r="G28" s="21">
+        <v>0</v>
+      </c>
+      <c r="H28" s="21">
+        <v>0</v>
+      </c>
+      <c r="I28" s="21">
         <v>2.8E-3</v>
       </c>
       <c r="J28" s="2">
@@ -6981,7 +7283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -6991,20 +7293,20 @@
       <c r="C29" s="2">
         <v>0.24349999999999999</v>
       </c>
-      <c r="D29" s="22">
+      <c r="D29" s="21">
         <v>0.92779999999999996</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="21">
         <v>1.9099999999999999E-2</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22">
-        <v>0</v>
-      </c>
-      <c r="H29" s="22">
-        <v>0</v>
-      </c>
-      <c r="I29" s="22">
+      <c r="F29" s="21"/>
+      <c r="G29" s="21">
+        <v>0</v>
+      </c>
+      <c r="H29" s="21">
+        <v>0</v>
+      </c>
+      <c r="I29" s="21">
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="J29" s="2">
@@ -7050,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -7060,22 +7362,22 @@
       <c r="C30" s="2">
         <v>0.2399</v>
       </c>
-      <c r="D30" s="22">
+      <c r="D30" s="21">
         <v>0.92989999999999995</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="21">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="F30" s="22">
-        <v>0</v>
-      </c>
-      <c r="G30" s="22">
-        <v>0</v>
-      </c>
-      <c r="H30" s="22">
-        <v>0</v>
-      </c>
-      <c r="I30" s="22">
+      <c r="F30" s="21">
+        <v>0</v>
+      </c>
+      <c r="G30" s="21">
+        <v>0</v>
+      </c>
+      <c r="H30" s="21">
+        <v>0</v>
+      </c>
+      <c r="I30" s="21">
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="J30" s="2">
@@ -7121,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -7131,22 +7433,22 @@
       <c r="C31" s="2">
         <v>0.2382</v>
       </c>
-      <c r="D31" s="22">
+      <c r="D31" s="21">
         <v>0.93089999999999995</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="21">
         <v>1.95E-2</v>
       </c>
-      <c r="F31" s="22">
-        <v>0</v>
-      </c>
-      <c r="G31" s="22">
-        <v>0</v>
-      </c>
-      <c r="H31" s="22">
-        <v>0</v>
-      </c>
-      <c r="I31" s="22">
+      <c r="F31" s="21">
+        <v>0</v>
+      </c>
+      <c r="G31" s="21">
+        <v>0</v>
+      </c>
+      <c r="H31" s="21">
+        <v>0</v>
+      </c>
+      <c r="I31" s="21">
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="J31" s="2">
@@ -7192,7 +7494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -7202,22 +7504,22 @@
       <c r="C32" s="2">
         <v>0.25590000000000002</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21">
         <v>0.92020000000000002</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="21">
         <v>1.9699999999999999E-2</v>
       </c>
-      <c r="F32" s="22">
-        <v>0</v>
-      </c>
-      <c r="G32" s="22">
-        <v>0</v>
-      </c>
-      <c r="H32" s="22">
-        <v>0</v>
-      </c>
-      <c r="I32" s="22">
+      <c r="F32" s="21">
+        <v>0</v>
+      </c>
+      <c r="G32" s="21">
+        <v>0</v>
+      </c>
+      <c r="H32" s="21">
+        <v>0</v>
+      </c>
+      <c r="I32" s="21">
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="J32" s="2">
@@ -7263,7 +7565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -7273,22 +7575,22 @@
       <c r="C33" s="2">
         <v>0.2427</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21">
         <v>0.92830000000000001</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="21">
         <v>2.01E-2</v>
       </c>
-      <c r="F33" s="22">
-        <v>0</v>
-      </c>
-      <c r="G33" s="22">
-        <v>0</v>
-      </c>
-      <c r="H33" s="22">
-        <v>0</v>
-      </c>
-      <c r="I33" s="22">
+      <c r="F33" s="21">
+        <v>0</v>
+      </c>
+      <c r="G33" s="21">
+        <v>0</v>
+      </c>
+      <c r="H33" s="21">
+        <v>0</v>
+      </c>
+      <c r="I33" s="21">
         <v>3.5000000000000001E-3</v>
       </c>
       <c r="J33" s="2">
@@ -7334,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -7344,22 +7646,22 @@
       <c r="C34" s="2">
         <v>0.2397</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21">
         <v>0.93</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="21">
         <v>2.0500000000000001E-2</v>
       </c>
-      <c r="F34" s="22">
-        <v>0</v>
-      </c>
-      <c r="G34" s="22">
-        <v>0</v>
-      </c>
-      <c r="H34" s="22">
-        <v>0</v>
-      </c>
-      <c r="I34" s="22">
+      <c r="F34" s="21">
+        <v>0</v>
+      </c>
+      <c r="G34" s="21">
+        <v>0</v>
+      </c>
+      <c r="H34" s="21">
+        <v>0</v>
+      </c>
+      <c r="I34" s="21">
         <v>1.4E-3</v>
       </c>
       <c r="J34" s="2">
@@ -7405,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -7415,22 +7717,22 @@
       <c r="C35" s="2">
         <v>0.26679999999999998</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21">
         <v>0.9133</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="21">
         <v>2.06E-2</v>
       </c>
-      <c r="F35" s="14">
-        <v>0</v>
-      </c>
-      <c r="G35" s="22">
-        <v>0</v>
-      </c>
-      <c r="H35" s="22">
-        <v>0</v>
-      </c>
-      <c r="I35" s="14">
+      <c r="F35" s="13">
+        <v>0</v>
+      </c>
+      <c r="G35" s="21">
+        <v>0</v>
+      </c>
+      <c r="H35" s="21">
+        <v>0</v>
+      </c>
+      <c r="I35" s="13">
         <v>0</v>
       </c>
       <c r="J35" s="2">
@@ -7476,139 +7778,199 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.36749999999999999</v>
-      </c>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25">
-        <v>2.6700000000000002E-2</v>
-      </c>
-      <c r="F36" s="22">
-        <v>0</v>
-      </c>
-      <c r="G36" s="25"/>
-      <c r="H36" s="25"/>
-      <c r="I36" s="22">
-        <v>1.4E-3</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.36840000000000001</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0.36659999999999998</v>
-      </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-    </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.3609</v>
+      </c>
+      <c r="D36" s="21">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="E36" s="21">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0</v>
+      </c>
+      <c r="G36" s="21">
+        <v>0</v>
+      </c>
+      <c r="H36" s="21">
+        <v>0</v>
+      </c>
+      <c r="I36" s="15">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.3609</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.36080000000000001</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.38340000000000002</v>
-      </c>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="F37" s="16">
-        <v>0</v>
-      </c>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="16">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0.38540000000000002</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0.38140000000000002</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-    </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0.8397</v>
+      </c>
+      <c r="E37" s="21">
+        <v>3.15E-2</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0</v>
+      </c>
+      <c r="G37" s="21">
+        <v>0</v>
+      </c>
+      <c r="H37" s="21">
+        <v>0</v>
+      </c>
+      <c r="I37" s="21">
+        <v>1.5E-3</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.37030000000000002</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="L37" s="2">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.84309999999999996</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="O37" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P37" s="2">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2">
-        <v>0.3609</v>
-      </c>
-      <c r="D38" s="22">
-        <v>0.84150000000000003</v>
-      </c>
-      <c r="E38" s="22">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="F38" s="16">
-        <v>0</v>
-      </c>
-      <c r="G38" s="22">
-        <v>0</v>
-      </c>
-      <c r="H38" s="22">
-        <v>0</v>
-      </c>
-      <c r="I38" s="16">
+        <v>0.36509999999999998</v>
+      </c>
+      <c r="D38" s="21">
+        <v>0.8377</v>
+      </c>
+      <c r="E38" s="21">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="F38" s="15">
+        <v>0</v>
+      </c>
+      <c r="G38" s="21">
+        <v>0</v>
+      </c>
+      <c r="H38" s="21">
+        <v>0</v>
+      </c>
+      <c r="I38" s="15">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="J38" s="2">
-        <v>0.3609</v>
+        <v>0.37159999999999999</v>
       </c>
       <c r="K38" s="2">
-        <v>0.36080000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="L38" s="2">
-        <v>0</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="M38" s="2">
-        <v>0.84150000000000003</v>
+        <v>0.84309999999999996</v>
       </c>
       <c r="N38" s="2">
-        <v>0.84150000000000003</v>
+        <v>0.83179999999999998</v>
       </c>
       <c r="O38" s="2">
-        <v>0</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P38" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="Q38" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="R38" s="2">
         <v>0</v>
@@ -7629,57 +7991,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C39" s="2">
-        <v>0.36280000000000001</v>
-      </c>
-      <c r="D39" s="22">
-        <v>0.8397</v>
-      </c>
-      <c r="E39" s="22">
-        <v>3.15E-2</v>
-      </c>
-      <c r="F39" s="22">
-        <v>0</v>
-      </c>
-      <c r="G39" s="22">
-        <v>0</v>
-      </c>
-      <c r="H39" s="22">
-        <v>0</v>
-      </c>
-      <c r="I39" s="22">
-        <v>1.5E-3</v>
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="E39" s="21">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21">
+        <v>0</v>
+      </c>
+      <c r="H39" s="21">
+        <v>0</v>
+      </c>
+      <c r="I39" s="21">
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J39" s="2">
-        <v>0.37030000000000002</v>
+        <v>0.37859999999999999</v>
       </c>
       <c r="K39" s="2">
-        <v>0.35899999999999999</v>
+        <v>0.35980000000000001</v>
       </c>
       <c r="L39" s="2">
-        <v>4.7999999999999996E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="M39" s="2">
-        <v>0.84309999999999996</v>
+        <v>0.84230000000000005</v>
       </c>
       <c r="N39" s="2">
-        <v>0.83299999999999996</v>
+        <v>0.82540000000000002</v>
       </c>
       <c r="O39" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P39" s="2">
-        <v>3.1800000000000002E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="Q39" s="2">
-        <v>3.1399999999999997E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R39" s="2">
         <v>0</v>
@@ -7700,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -7710,22 +8070,22 @@
       <c r="C40" s="2">
         <v>0.3649</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21">
         <v>0.83779999999999999</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E40" s="21">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="F40" s="22">
-        <v>0</v>
-      </c>
-      <c r="G40" s="22">
-        <v>0</v>
-      </c>
-      <c r="H40" s="22">
-        <v>0</v>
-      </c>
-      <c r="I40" s="22">
+      <c r="F40" s="21">
+        <v>0</v>
+      </c>
+      <c r="G40" s="21">
+        <v>0</v>
+      </c>
+      <c r="H40" s="21">
+        <v>0</v>
+      </c>
+      <c r="I40" s="21">
         <v>2.8E-3</v>
       </c>
       <c r="J40" s="2">
@@ -7771,57 +8131,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2">
-        <v>0.36509999999999998</v>
-      </c>
-      <c r="D41" s="22">
-        <v>0.8377</v>
-      </c>
-      <c r="E41" s="22">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="F41" s="16">
-        <v>0</v>
-      </c>
-      <c r="G41" s="22">
-        <v>0</v>
-      </c>
-      <c r="H41" s="22">
-        <v>0</v>
-      </c>
-      <c r="I41" s="16">
-        <v>2.2000000000000001E-3</v>
+        <v>0.372</v>
+      </c>
+      <c r="D41" s="21">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="E41" s="21">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="F41" s="21">
+        <v>0</v>
+      </c>
+      <c r="G41" s="21">
+        <v>0</v>
+      </c>
+      <c r="H41" s="21">
+        <v>0</v>
+      </c>
+      <c r="I41" s="21">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="J41" s="2">
-        <v>0.37159999999999999</v>
+        <v>0.38140000000000002</v>
       </c>
       <c r="K41" s="2">
-        <v>0.35899999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="L41" s="2">
-        <v>4.5999999999999999E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="M41" s="2">
-        <v>0.84309999999999996</v>
+        <v>0.84219999999999995</v>
       </c>
       <c r="N41" s="2">
-        <v>0.83179999999999998</v>
+        <v>0.82289999999999996</v>
       </c>
       <c r="O41" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P41" s="2">
-        <v>3.1899999999999998E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="Q41" s="2">
-        <v>3.1399999999999997E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R41" s="2">
         <v>0</v>
@@ -7842,55 +8202,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C42" s="2">
-        <v>0.36620000000000003</v>
-      </c>
-      <c r="D42" s="22">
-        <v>0.83660000000000001</v>
-      </c>
-      <c r="E42" s="22">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22">
-        <v>0</v>
-      </c>
-      <c r="H42" s="22">
-        <v>0</v>
-      </c>
-      <c r="I42" s="22">
-        <v>1.6000000000000001E-3</v>
+        <v>0.37</v>
+      </c>
+      <c r="D42" s="21">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="E42" s="21">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="F42" s="21">
+        <v>0</v>
+      </c>
+      <c r="G42" s="21">
+        <v>0</v>
+      </c>
+      <c r="H42" s="21">
+        <v>0</v>
+      </c>
+      <c r="I42" s="21">
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="J42" s="2">
-        <v>0.37859999999999999</v>
+        <v>0.37330000000000002</v>
       </c>
       <c r="K42" s="2">
-        <v>0.35980000000000001</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="L42" s="2">
-        <v>7.9000000000000008E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="M42" s="2">
-        <v>0.84230000000000005</v>
+        <v>0.83720000000000006</v>
       </c>
       <c r="N42" s="2">
-        <v>0.82540000000000002</v>
+        <v>0.83030000000000004</v>
       </c>
       <c r="O42" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P42" s="2">
-        <v>3.2199999999999999E-2</v>
+        <v>3.2099999999999997E-2</v>
       </c>
       <c r="Q42" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="R42" s="2">
         <v>0</v>
@@ -7911,57 +8273,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C43" s="2">
+        <v>0.37740000000000001</v>
+      </c>
+      <c r="D43" s="13">
+        <v>0.8266</v>
+      </c>
+      <c r="E43" s="13">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0</v>
+      </c>
+      <c r="H43" s="13">
+        <v>0</v>
+      </c>
+      <c r="I43" s="13">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.38369999999999999</v>
+      </c>
+      <c r="K43" s="2">
         <v>0.372</v>
       </c>
-      <c r="D43" s="22">
+      <c r="L43" s="2">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="M43" s="2">
         <v>0.83150000000000002</v>
       </c>
-      <c r="E43" s="22">
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="F43" s="22">
-        <v>0</v>
-      </c>
-      <c r="G43" s="22">
-        <v>0</v>
-      </c>
-      <c r="H43" s="22">
-        <v>0</v>
-      </c>
-      <c r="I43" s="22">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="J43" s="2">
-        <v>0.38140000000000002</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="L43" s="2">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0.84219999999999995</v>
-      </c>
       <c r="N43" s="2">
-        <v>0.82289999999999996</v>
+        <v>0.82079999999999997</v>
       </c>
       <c r="O43" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P43" s="2">
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="Q43" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="R43" s="2">
         <v>0</v>
@@ -7987,310 +8349,186 @@
         <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.36620000000000003</v>
-      </c>
-      <c r="D44" s="13">
-        <v>0.8367</v>
-      </c>
-      <c r="E44" s="13">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="F44" s="13">
-        <v>0</v>
-      </c>
-      <c r="G44" s="13">
-        <v>0</v>
-      </c>
-      <c r="H44" s="13">
-        <v>0</v>
-      </c>
-      <c r="I44" s="13">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0.36649999999999999</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0.36580000000000001</v>
-      </c>
-      <c r="L44" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0.83709999999999996</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0.83640000000000003</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-      <c r="P44" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="R44" s="2">
-        <v>0</v>
-      </c>
-      <c r="S44" s="2">
-        <v>0</v>
-      </c>
-      <c r="T44" s="2">
-        <v>0</v>
-      </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0</v>
-      </c>
-      <c r="W44" s="2">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="F44" s="37">
+        <v>0</v>
+      </c>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="37">
+        <v>1.4E-3</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.36659999999999998</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
     </row>
     <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="D45" s="13">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="E45" s="13">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="F45" s="13">
-        <v>0</v>
-      </c>
-      <c r="G45" s="13">
-        <v>0</v>
-      </c>
-      <c r="H45" s="13">
-        <v>0</v>
-      </c>
-      <c r="I45" s="13">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0.37330000000000002</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0.36559999999999998</v>
-      </c>
-      <c r="L45" s="2">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0.83720000000000006</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0.83030000000000004</v>
-      </c>
-      <c r="O45" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="P45" s="2">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>3.1699999999999999E-2</v>
-      </c>
-      <c r="R45" s="2">
-        <v>0</v>
-      </c>
-      <c r="S45" s="2">
-        <v>0</v>
-      </c>
-      <c r="T45" s="2">
-        <v>0</v>
-      </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0</v>
-      </c>
-      <c r="W45" s="2">
-        <v>0</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.37090000000000001</v>
+      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1">
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.37240000000000001</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.36930000000000002</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
     </row>
     <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.37559999999999999</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="E46" s="2">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="F46" s="2">
-        <v>0</v>
-      </c>
-      <c r="G46" s="2">
-        <v>0</v>
-      </c>
-      <c r="H46" s="2">
-        <v>0</v>
-      </c>
-      <c r="I46" s="2">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0.39460000000000001</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0.36059999999999998</v>
-      </c>
-      <c r="L46" s="2">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0.8417</v>
-      </c>
-      <c r="N46" s="2">
-        <v>0.8105</v>
-      </c>
-      <c r="O46" s="2">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="P46" s="2">
-        <v>3.2899999999999999E-2</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="R46" s="2">
-        <v>0</v>
-      </c>
-      <c r="S46" s="2">
-        <v>0</v>
-      </c>
-      <c r="T46" s="2">
-        <v>0</v>
-      </c>
-      <c r="U46" s="2">
-        <v>0</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0</v>
-      </c>
-      <c r="W46" s="2">
-        <v>0</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0.38140000000000002</v>
+      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.38319999999999999</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0.37740000000000001</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0.8266</v>
-      </c>
-      <c r="E47" s="2">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2">
-        <v>0</v>
-      </c>
-      <c r="H47" s="2">
-        <v>0</v>
-      </c>
-      <c r="I47" s="2">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0.38369999999999999</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0.372</v>
-      </c>
-      <c r="L47" s="2">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0.83150000000000002</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0.82079999999999997</v>
-      </c>
-      <c r="O47" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="P47" s="2">
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>3.1699999999999999E-2</v>
-      </c>
-      <c r="R47" s="2">
-        <v>0</v>
-      </c>
-      <c r="S47" s="2">
-        <v>0</v>
-      </c>
-      <c r="T47" s="2">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0</v>
-      </c>
-      <c r="W47" s="2">
-        <v>0</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0.37909999999999999</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.38059999999999999</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.37769999999999998</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C48" s="1">
-        <v>0.37909999999999999</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>0.38340000000000002</v>
+      </c>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="F48" s="39">
+        <v>0</v>
+      </c>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="39">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J48" s="1">
-        <v>0.38059999999999999</v>
+        <v>0.38540000000000002</v>
       </c>
       <c r="K48" s="1">
-        <v>0.37769999999999998</v>
+        <v>0.38140000000000002</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -8387,26 +8625,25 @@
         <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C51" s="1">
-        <v>0.37090000000000001</v>
+        <v>0.36209999999999998</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1">
-        <v>5.3400000000000003E-2</v>
-      </c>
-      <c r="F51" s="1"/>
+        <v>6.0600000000000001E-2</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J51" s="1">
-        <v>0.37240000000000001</v>
+        <v>0.36330000000000001</v>
       </c>
       <c r="K51" s="1">
-        <v>0.36930000000000002</v>
+        <v>0.36080000000000001</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -8421,54 +8658,54 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C52" s="2">
-        <v>0.5272</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0.59340000000000004</v>
-      </c>
-      <c r="E52" s="2">
-        <v>5.6399999999999999E-2</v>
-      </c>
-      <c r="F52" s="2">
-        <v>0</v>
-      </c>
-      <c r="G52" s="2">
-        <v>0</v>
-      </c>
-      <c r="H52" s="2">
-        <v>0</v>
-      </c>
-      <c r="I52" s="2">
-        <v>0.2366</v>
+        <v>0.37559999999999999</v>
+      </c>
+      <c r="D52" s="40">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E52" s="40">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="F52" s="40">
+        <v>0</v>
+      </c>
+      <c r="G52" s="40">
+        <v>0</v>
+      </c>
+      <c r="H52" s="40">
+        <v>0</v>
+      </c>
+      <c r="I52" s="40">
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="J52" s="2">
-        <v>0.86180000000000001</v>
+        <v>0.39460000000000001</v>
       </c>
       <c r="K52" s="2">
-        <v>0.3599</v>
+        <v>0.36059999999999998</v>
       </c>
       <c r="L52" s="2">
-        <v>0.35189999999999999</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="M52" s="2">
-        <v>0.84230000000000005</v>
+        <v>0.8417</v>
       </c>
       <c r="N52" s="2">
-        <v>9.5799999999999996E-2</v>
+        <v>0.8105</v>
       </c>
       <c r="O52" s="2">
-        <v>3.5400000000000001E-2</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="P52" s="2">
-        <v>0.10639999999999999</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="Q52" s="2">
         <v>3.1300000000000001E-2</v>
@@ -8492,57 +8729,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C53" s="2">
-        <v>0.5272</v>
-      </c>
-      <c r="D53" s="2">
-        <v>0.5958</v>
-      </c>
-      <c r="E53" s="2">
-        <v>5.67E-2</v>
-      </c>
-      <c r="F53" s="2">
-        <v>0</v>
-      </c>
-      <c r="G53" s="2">
-        <v>0</v>
-      </c>
-      <c r="H53" s="2">
-        <v>0</v>
-      </c>
-      <c r="I53" s="2">
-        <v>0.2326</v>
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="D53" s="37">
+        <v>0.8367</v>
+      </c>
+      <c r="E53" s="37">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="F53" s="37">
+        <v>0</v>
+      </c>
+      <c r="G53" s="37">
+        <v>0</v>
+      </c>
+      <c r="H53" s="37">
+        <v>0</v>
+      </c>
+      <c r="I53" s="37">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="J53" s="2">
-        <v>0.85609999999999997</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="K53" s="2">
-        <v>0.36099999999999999</v>
+        <v>0.36580000000000001</v>
       </c>
       <c r="L53" s="2">
-        <v>0.34510000000000002</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="M53" s="2">
-        <v>0.84140000000000004</v>
+        <v>0.83709999999999996</v>
       </c>
       <c r="N53" s="2">
-        <v>0.1077</v>
+        <v>0.83640000000000003</v>
       </c>
       <c r="O53" s="2">
-        <v>3.5200000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="P53" s="2">
-        <v>0.1066</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="Q53" s="2">
-        <v>3.1800000000000002E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="R53" s="2">
         <v>0</v>
@@ -8563,57 +8800,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="C54" s="2">
-        <v>0.53649999999999998</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0.58589999999999998</v>
-      </c>
-      <c r="E54" s="2">
-        <v>5.67E-2</v>
-      </c>
-      <c r="F54" s="2">
-        <v>0</v>
-      </c>
-      <c r="G54" s="2">
-        <v>0</v>
-      </c>
-      <c r="H54" s="2">
-        <v>0</v>
-      </c>
-      <c r="I54" s="2">
-        <v>0.2286</v>
+        <v>0.5272</v>
+      </c>
+      <c r="D54" s="40">
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="E54" s="40">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="F54" s="40">
+        <v>0</v>
+      </c>
+      <c r="G54" s="40">
+        <v>0</v>
+      </c>
+      <c r="H54" s="40">
+        <v>0</v>
+      </c>
+      <c r="I54" s="40">
+        <v>0.2366</v>
       </c>
       <c r="J54" s="2">
-        <v>0.85950000000000004</v>
+        <v>0.86180000000000001</v>
       </c>
       <c r="K54" s="2">
-        <v>0.3639</v>
+        <v>0.3599</v>
       </c>
       <c r="L54" s="2">
-        <v>0.34339999999999998</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="M54" s="2">
-        <v>0.83879999999999999</v>
+        <v>0.84230000000000005</v>
       </c>
       <c r="N54" s="2">
-        <v>0.10050000000000001</v>
+        <v>9.5799999999999996E-2</v>
       </c>
       <c r="O54" s="2">
-        <v>3.5099999999999999E-2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="P54" s="2">
-        <v>0.1062</v>
+        <v>0.10639999999999999</v>
       </c>
       <c r="Q54" s="2">
-        <v>3.1399999999999997E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
@@ -8634,84 +8871,149 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.38140000000000002</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1">
-        <v>2.8E-3</v>
-      </c>
-      <c r="J55" s="1">
-        <v>0.38319999999999999</v>
-      </c>
-      <c r="K55" s="1">
-        <v>0.37969999999999998</v>
-      </c>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-    </row>
-    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="D55" s="40">
+        <v>0.58589999999999998</v>
+      </c>
+      <c r="E55" s="40">
+        <v>5.67E-2</v>
+      </c>
+      <c r="F55" s="40">
+        <v>0</v>
+      </c>
+      <c r="G55" s="40">
+        <v>0</v>
+      </c>
+      <c r="H55" s="40">
+        <v>0</v>
+      </c>
+      <c r="I55" s="40">
+        <v>0.2286</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0.3639</v>
+      </c>
+      <c r="L55" s="2">
+        <v>0.34339999999999998</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0.83879999999999999</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0.10050000000000001</v>
+      </c>
+      <c r="O55" s="2">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0.1062</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>3.1399999999999997E-2</v>
+      </c>
+      <c r="R55" s="2">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0</v>
+      </c>
+      <c r="U55" s="2">
+        <v>0</v>
+      </c>
+      <c r="V55" s="2">
+        <v>0</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.36209999999999998</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1">
-        <v>6.0600000000000001E-2</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0.36330000000000001</v>
-      </c>
-      <c r="K56" s="1">
-        <v>0.36080000000000001</v>
-      </c>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-    </row>
-    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.5272</v>
+      </c>
+      <c r="D56" s="40">
+        <v>0.5958</v>
+      </c>
+      <c r="E56" s="40">
+        <v>5.67E-2</v>
+      </c>
+      <c r="F56" s="40">
+        <v>0</v>
+      </c>
+      <c r="G56" s="40">
+        <v>0</v>
+      </c>
+      <c r="H56" s="40">
+        <v>0</v>
+      </c>
+      <c r="I56" s="40">
+        <v>0.2326</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.85609999999999997</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="L56" s="2">
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0.84140000000000004</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0.1077</v>
+      </c>
+      <c r="O56" s="2">
+        <v>3.5200000000000002E-2</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0.1066</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="R56" s="2">
+        <v>0</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0</v>
+      </c>
+      <c r="V56" s="2">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -8721,22 +9023,22 @@
       <c r="C57" s="2">
         <v>0.69089999999999996</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="40">
         <v>0.35220000000000001</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="40">
         <v>8.14E-2</v>
       </c>
-      <c r="F57" s="2">
-        <v>0</v>
-      </c>
-      <c r="G57" s="2">
-        <v>0</v>
-      </c>
-      <c r="H57" s="2">
-        <v>0</v>
-      </c>
-      <c r="I57" s="2">
+      <c r="F57" s="40">
+        <v>0</v>
+      </c>
+      <c r="G57" s="40">
+        <v>0</v>
+      </c>
+      <c r="H57" s="40">
+        <v>0</v>
+      </c>
+      <c r="I57" s="40">
         <v>0.23400000000000001</v>
       </c>
       <c r="J57" s="2">
@@ -8782,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -8792,22 +9094,22 @@
       <c r="C58" s="2">
         <v>0.69199999999999995</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="40">
         <v>0.34920000000000001</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="40">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="F58" s="2">
-        <v>0</v>
-      </c>
-      <c r="G58" s="2">
-        <v>0</v>
-      </c>
-      <c r="H58" s="2">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2">
+      <c r="F58" s="40">
+        <v>0</v>
+      </c>
+      <c r="G58" s="40">
+        <v>0</v>
+      </c>
+      <c r="H58" s="40">
+        <v>0</v>
+      </c>
+      <c r="I58" s="40">
         <v>0.2359</v>
       </c>
       <c r="J58" s="2">
@@ -8853,7 +9155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -8863,22 +9165,22 @@
       <c r="C59" s="2">
         <v>0.69550000000000001</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="40">
         <v>0.34770000000000001</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="40">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="F59" s="2">
-        <v>0</v>
-      </c>
-      <c r="G59" s="2">
-        <v>0</v>
-      </c>
-      <c r="H59" s="2">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2">
+      <c r="F59" s="40">
+        <v>0</v>
+      </c>
+      <c r="G59" s="40">
+        <v>0</v>
+      </c>
+      <c r="H59" s="40">
+        <v>0</v>
+      </c>
+      <c r="I59" s="40">
         <v>0.2283</v>
       </c>
       <c r="J59" s="2">
@@ -8927,8 +9229,37 @@
     <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <autoFilter ref="A1:W60" xr:uid="{0B1DB96E-F0A8-460E-9A4B-15CE75D83F02}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <filterColumn colId="1">
       <filters>
+        <filter val="CNN-ew2"/>
+        <filter val="CNN-ew3"/>
+        <filter val="CNN-ew4"/>
+        <filter val="CNN-obs"/>
+        <filter val="CNN-or"/>
+        <filter val="CNN-sg5"/>
+        <filter val="CNN-sg7"/>
+        <filter val="CNN-sg9"/>
+        <filter val="DNN-ew2"/>
+        <filter val="DNN-ew3"/>
+        <filter val="DNN-ew4"/>
+        <filter val="DNN-obs"/>
+        <filter val="DNN-or"/>
+        <filter val="DNN-sg5"/>
+        <filter val="DNN-sg7"/>
+        <filter val="DNN-sg9"/>
+        <filter val="GRU-ew2"/>
+        <filter val="GRU-ew3"/>
+        <filter val="GRU-ew4"/>
+        <filter val="GRU-obs"/>
+        <filter val="GRU-or"/>
+        <filter val="GRU-sg5"/>
+        <filter val="GRU-sg7"/>
+        <filter val="GRU-sg9"/>
         <filter val="LSTM-ew2"/>
         <filter val="LSTM-ew3"/>
         <filter val="LSTM-ew4"/>
@@ -8937,10 +9268,18 @@
         <filter val="LSTM-sg5"/>
         <filter val="LSTM-sg7"/>
         <filter val="LSTM-sg9"/>
+        <filter val="RNN-ew2"/>
+        <filter val="RNN-ew3"/>
+        <filter val="RNN-ew4"/>
+        <filter val="RNN-obs"/>
+        <filter val="RNN-or"/>
+        <filter val="RNN-sg5"/>
+        <filter val="RNN-sg7"/>
+        <filter val="RNN-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:W26">
-      <sortCondition ref="B1:B60"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:W59">
+      <sortCondition ref="E1:E60"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8952,7 +9291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCFF82F-8486-4016-94B9-0BDD3A2A47CA}">
   <dimension ref="I13:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -8982,17 +9321,17 @@
       <c r="I14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="33">
+      <c r="J14" s="32">
         <v>1.49E-2</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="L14" s="16">
+      <c r="L14" s="15">
         <v>1.5800000000000002E-2</v>
       </c>
-      <c r="M14" s="36">
-        <f>ABS(J14-L14)/L14</f>
+      <c r="M14" s="33">
+        <f t="shared" ref="M14:M21" si="0">ABS(J14-L14)/L14</f>
         <v>5.6962025316455785E-2</v>
       </c>
     </row>
@@ -9000,17 +9339,17 @@
       <c r="I15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="32">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="13">
         <v>1.61E-2</v>
       </c>
-      <c r="M15" s="36">
-        <f>ABS(J15-L15)/L15</f>
+      <c r="M15" s="33">
+        <f t="shared" si="0"/>
         <v>6.8322981366459645E-2</v>
       </c>
     </row>
@@ -9018,17 +9357,17 @@
       <c r="I16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="33">
+      <c r="J16" s="32">
         <v>1.52E-2</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="13">
         <v>1.6299999999999999E-2</v>
       </c>
-      <c r="M16" s="36">
-        <f>ABS(J16-L16)/L16</f>
+      <c r="M16" s="33">
+        <f t="shared" si="0"/>
         <v>6.7484662576687032E-2</v>
       </c>
     </row>
@@ -9036,17 +9375,17 @@
       <c r="I17" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J17" s="32">
+      <c r="J17" s="31">
         <v>1.55E-2</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="22">
+      <c r="L17" s="21">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M17" s="36">
-        <f>ABS(J17-L17)/L17</f>
+      <c r="M17" s="33">
+        <f t="shared" si="0"/>
         <v>0.13888888888888884</v>
       </c>
     </row>
@@ -9054,17 +9393,17 @@
       <c r="I18" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="31">
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L18" s="21">
         <v>1.77E-2</v>
       </c>
-      <c r="M18" s="36">
-        <f>ABS(J18-L18)/L18</f>
+      <c r="M18" s="33">
+        <f t="shared" si="0"/>
         <v>0.11864406779661023</v>
       </c>
     </row>
@@ -9072,17 +9411,17 @@
       <c r="I19" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J19" s="32">
+      <c r="J19" s="31">
         <v>1.5599999999999999E-2</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="21">
         <v>1.66E-2</v>
       </c>
-      <c r="M19" s="36">
-        <f>ABS(J19-L19)/L19</f>
+      <c r="M19" s="33">
+        <f t="shared" si="0"/>
         <v>6.0240963855421742E-2</v>
       </c>
     </row>
@@ -9090,17 +9429,17 @@
       <c r="I20" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J20" s="32">
+      <c r="J20" s="31">
         <v>1.6E-2</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="21">
         <v>1.8800000000000001E-2</v>
       </c>
-      <c r="M20" s="36">
-        <f>ABS(J20-L20)/L20</f>
+      <c r="M20" s="33">
+        <f t="shared" si="0"/>
         <v>0.14893617021276598</v>
       </c>
     </row>
@@ -9108,17 +9447,17 @@
       <c r="I21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="31">
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="14">
+      <c r="L21" s="13">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="M21" s="36">
-        <f>ABS(J21-L21)/L21</f>
+      <c r="M21" s="33">
+        <f t="shared" si="0"/>
         <v>6.2857142857142861E-2</v>
       </c>
     </row>
@@ -9133,6 +9472,475 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E97BAAB-F9AE-46B3-8DD9-B3D5FADC9127}">
+  <dimension ref="H3:J43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24:H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="36">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="J4" s="26">
+        <v>1.0795999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="31">
+        <v>1.61E-2</v>
+      </c>
+      <c r="J5" s="26">
+        <v>1.0969</v>
+      </c>
+    </row>
+    <row r="6" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="31">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="J6" s="28">
+        <v>1.1218999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="30">
+        <v>1.66E-2</v>
+      </c>
+      <c r="J7" s="26">
+        <v>1.2345999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="30">
+        <v>1.67E-2</v>
+      </c>
+      <c r="J8" s="26">
+        <v>1.2199</v>
+      </c>
+    </row>
+    <row r="9" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I9" s="31">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="J9" s="26">
+        <v>1.2390000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="30">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J10" s="26">
+        <v>1.1891</v>
+      </c>
+    </row>
+    <row r="11" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="31">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="J11" s="26">
+        <v>1.3097000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="31">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="J12" s="26">
+        <v>1.2365999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="30">
+        <v>1.77E-2</v>
+      </c>
+      <c r="J13" s="26">
+        <v>1.2612000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="30">
+        <v>1.78E-2</v>
+      </c>
+      <c r="J14" s="26">
+        <v>1.2644</v>
+      </c>
+    </row>
+    <row r="15" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="30">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J15" s="26">
+        <v>1.2507999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="30">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J16" s="27">
+        <v>1.1803999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="30">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="J17" s="26">
+        <v>1.3993</v>
+      </c>
+    </row>
+    <row r="18" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I18" s="30">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="J18" s="29">
+        <v>1.3076000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="30">
+        <v>1.89E-2</v>
+      </c>
+      <c r="J19" s="26">
+        <v>1.3637999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="30">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J20" s="26">
+        <v>1.5992</v>
+      </c>
+    </row>
+    <row r="21" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="30">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="J21" s="26">
+        <v>1.5425</v>
+      </c>
+    </row>
+    <row r="22" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" s="30">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="J22" s="26">
+        <v>1.6041000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" s="30">
+        <v>1.95E-2</v>
+      </c>
+      <c r="J23" s="26">
+        <v>1.5087999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="30">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="J24" s="26">
+        <v>1.6345000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="30">
+        <v>2.01E-2</v>
+      </c>
+      <c r="J25" s="26">
+        <v>1.6267</v>
+      </c>
+    </row>
+    <row r="26" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="30">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="J26" s="26">
+        <v>1.7045999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="30">
+        <v>2.06E-2</v>
+      </c>
+      <c r="J27" s="26">
+        <v>1.6734</v>
+      </c>
+    </row>
+    <row r="28" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="30">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="J28" s="26">
+        <v>3.2170999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="30">
+        <v>3.15E-2</v>
+      </c>
+      <c r="J29" s="26">
+        <v>3.1833</v>
+      </c>
+    </row>
+    <row r="30" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H30" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="30">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="J30" s="26">
+        <v>3.2317</v>
+      </c>
+    </row>
+    <row r="31" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="30">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="J31" s="26">
+        <v>3.1972</v>
+      </c>
+    </row>
+    <row r="32" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I32" s="30">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="J32" s="26">
+        <v>3.2014</v>
+      </c>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="30">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="J33" s="26">
+        <v>3.1677</v>
+      </c>
+    </row>
+    <row r="34" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I34" s="30">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="J34" s="26">
+        <v>3.2187999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="31">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="J35" s="26">
+        <v>3.2383000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="41">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="J36" s="26">
+        <v>3.2170000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="42">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="J37" s="26">
+        <v>3.2484000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I38" s="41">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="J38" s="26">
+        <v>6.8353000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I39" s="41">
+        <v>5.67E-2</v>
+      </c>
+      <c r="J39" s="26">
+        <v>6.8270999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="41">
+        <v>5.67E-2</v>
+      </c>
+      <c r="J40" s="26">
+        <v>6.9775</v>
+      </c>
+    </row>
+    <row r="41" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I41" s="41">
+        <v>8.14E-2</v>
+      </c>
+      <c r="J41" s="26">
+        <v>10.501200000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I42" s="41">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="J42" s="26">
+        <v>10.6532</v>
+      </c>
+    </row>
+    <row r="43" spans="8:10" x14ac:dyDescent="0.4">
+      <c r="H43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" s="41">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="J43" s="26">
+        <v>10.636100000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="H3:J43" xr:uid="{3E97BAAB-F9AE-46B3-8DD9-B3D5FADC9127}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H4:J43">
+      <sortCondition ref="I3:I43"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2614E7D4-0119-49DF-BE51-5E4AC211198A}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V49"/>

--- a/Thesis-codes/NH3-summary-final.xlsx
+++ b/Thesis-codes/NH3-summary-final.xlsx
@@ -8,24 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFC8CDA-4364-4C1C-BFE8-59AEA203F78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D21F4E2-C03B-44DE-B63C-208365375D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5486" yWindow="1749" windowWidth="27308" windowHeight="14331" tabRatio="761" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
+    <workbookView xWindow="-29837" yWindow="1646" windowWidth="27308" windowHeight="14331" tabRatio="761" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
   </bookViews>
   <sheets>
     <sheet name="Predict-0116-0122" sheetId="7" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
-    <sheet name="Predict-exp3-1010-1016 (final)" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId4"/>
-    <sheet name="0425" sheetId="10" r:id="rId5"/>
-    <sheet name="Predict-exp3-1022-1028 (X)" sheetId="6" r:id="rId6"/>
+    <sheet name="pos jan uni multi comparison" sheetId="12" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="Predict-exp3-1010-1016 (final)" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId6"/>
+    <sheet name="0425" sheetId="10" r:id="rId7"/>
+    <sheet name="Predict-exp3-1022-1028 (X)" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'0425'!$H$3:$J$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'0425'!$H$3:$J$43</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Predict-0116-0122'!$A$1:$W$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Predict-exp3-1010-1016 (final)'!$A$1:$W$60</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Predict-exp3-1022-1028 (X)'!$A$1:$V$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$I$13:$M$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Predict-exp3-1010-1016 (final)'!$A$1:$W$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Predict-exp3-1022-1028 (X)'!$A$1:$V$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet2!$I$13:$M$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="85">
   <si>
     <t>fc1_rmse_mean</t>
   </si>
@@ -308,8 +310,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -402,11 +406,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -497,12 +502,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,8 +523,27 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -839,11 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0D07A2-8BFB-4532-81F8-4995D0BF2BB4}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -938,501 +955,501 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.2492</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.88919999999999999</v>
-      </c>
-      <c r="E2" s="2">
-        <v>4.0300000000000002E-2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>3.0945</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0.95250000000000001</v>
-      </c>
-      <c r="H2" s="6">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="I2" s="2">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.24160000000000001</v>
-      </c>
-      <c r="L2" s="2">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0.89590000000000003</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.87960000000000005</v>
-      </c>
-      <c r="O2" s="2">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="P2" s="2">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0.09</v>
-      </c>
-      <c r="S2" s="2">
-        <v>3.2073999999999998</v>
-      </c>
-      <c r="T2" s="2">
-        <v>2.9872000000000001</v>
-      </c>
-      <c r="U2" s="2">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0.9587</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0.94169999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.2329</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.9032</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3.73E-2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.3922000000000001</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1.0146999999999999</v>
+      </c>
+      <c r="H2" s="8">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="I2" s="4">
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="J2" s="4">
+        <v>0.2402</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.22270000000000001</v>
+      </c>
+      <c r="L2" s="4">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.8972</v>
+      </c>
+      <c r="O2" s="4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P2" s="4">
+        <v>3.7699999999999997E-2</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="R2" s="4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="S2" s="4">
+        <v>1.4157999999999999</v>
+      </c>
+      <c r="T2" s="4">
+        <v>1.3593</v>
+      </c>
+      <c r="U2" s="4">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="V2" s="4">
+        <v>1.0394000000000001</v>
+      </c>
+      <c r="W2" s="4">
+        <v>0.99139999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
-        <v>0.2457</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="D3" s="2">
-        <v>0.89239999999999997</v>
+        <v>0.92210000000000003</v>
       </c>
       <c r="E3" s="2">
-        <v>3.9699999999999999E-2</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="F3" s="2">
-        <v>2.2677999999999998</v>
+        <v>2.2033999999999998</v>
       </c>
       <c r="G3" s="2">
-        <v>0.97989999999999999</v>
+        <v>1.2507999999999999</v>
       </c>
       <c r="H3" s="6">
-        <v>2.5000000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I3" s="2">
-        <v>2.3999999999999998E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="J3" s="2">
-        <v>0.24840000000000001</v>
+        <v>0.2114</v>
       </c>
       <c r="K3" s="2">
-        <v>0.24249999999999999</v>
+        <v>0.20610000000000001</v>
       </c>
       <c r="L3" s="2">
-        <v>2.0999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="M3" s="2">
-        <v>0.8952</v>
+        <v>0.92430000000000001</v>
       </c>
       <c r="N3" s="2">
-        <v>0.89</v>
-      </c>
-      <c r="O3" s="2">
+        <v>0.9204</v>
+      </c>
+      <c r="O3" s="26">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="P3" s="2">
-        <v>4.0399999999999998E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="Q3" s="2">
-        <v>3.8699999999999998E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="R3" s="2">
-        <v>4.02E-2</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="S3" s="2">
-        <v>2.3096000000000001</v>
+        <v>2.2353000000000001</v>
       </c>
       <c r="T3" s="2">
-        <v>2.2136</v>
-      </c>
-      <c r="U3" s="2">
-        <v>2.8199999999999999E-2</v>
+        <v>2.1776</v>
+      </c>
+      <c r="U3" s="26">
+        <v>4.58E-2</v>
       </c>
       <c r="V3" s="2">
-        <v>1.0024999999999999</v>
+        <v>1.3038000000000001</v>
       </c>
       <c r="W3" s="2">
-        <v>0.94010000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="4" t="s">
+        <v>1.1919999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.2329</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.9032</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3.73E-2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1.3922000000000001</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1.0146999999999999</v>
-      </c>
-      <c r="H4" s="8">
-        <v>1.2500000000000001E-5</v>
-      </c>
-      <c r="I4" s="4">
-        <v>7.4000000000000003E-3</v>
-      </c>
-      <c r="J4" s="4">
-        <v>0.2402</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0.22270000000000001</v>
-      </c>
-      <c r="L4" s="4">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0.91159999999999997</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0.8972</v>
-      </c>
-      <c r="O4" s="4">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="P4" s="4">
-        <v>3.7699999999999997E-2</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="R4" s="4">
-        <v>2.4E-2</v>
-      </c>
-      <c r="S4" s="4">
-        <v>1.4157999999999999</v>
-      </c>
-      <c r="T4" s="4">
-        <v>1.3593</v>
-      </c>
-      <c r="U4" s="4">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="V4" s="4">
-        <v>1.0394000000000001</v>
-      </c>
-      <c r="W4" s="4">
-        <v>0.99139999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3.85E-2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3.0371000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.2644</v>
+      </c>
+      <c r="H4" s="6">
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="K4" s="2">
+        <v>0.23830000000000001</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.89880000000000004</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="O4" s="26">
+        <v>1E-4</v>
+      </c>
+      <c r="P4" s="2">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="R4" s="2">
+        <v>4.9099999999999998E-2</v>
+      </c>
+      <c r="S4" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="T4" s="2">
+        <v>2.9716999999999998</v>
+      </c>
+      <c r="U4" s="26">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="V4" s="2">
+        <v>1.2710999999999999</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1.2531000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2">
-        <v>0.26300000000000001</v>
+        <v>0.23449999999999999</v>
       </c>
       <c r="D5" s="2">
-        <v>0.87670000000000003</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="E5" s="2">
-        <v>4.2599999999999999E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="F5" s="2">
-        <v>5.0528000000000004</v>
+        <v>4.4535</v>
       </c>
       <c r="G5" s="2">
-        <v>1.0149999999999999</v>
+        <v>1.0266</v>
       </c>
       <c r="H5" s="6">
-        <v>1.2500000000000001E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I5" s="2">
-        <v>2.8999999999999998E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J5" s="2">
-        <v>0.2671</v>
+        <v>0.23699999999999999</v>
       </c>
       <c r="K5" s="2">
-        <v>0.26050000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="L5" s="2">
-        <v>2.8E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="M5" s="2">
-        <v>0.87909999999999999</v>
+        <v>0.90410000000000001</v>
       </c>
       <c r="N5" s="2">
-        <v>0.87280000000000002</v>
+        <v>0.89980000000000004</v>
       </c>
       <c r="O5" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P5" s="2">
-        <v>4.2999999999999997E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="Q5" s="2">
-        <v>4.19E-2</v>
+        <v>3.8199999999999998E-2</v>
       </c>
       <c r="R5" s="2">
-        <v>0.10050000000000001</v>
+        <v>0.1381</v>
       </c>
       <c r="S5" s="2">
-        <v>5.1502999999999997</v>
+        <v>4.6323999999999996</v>
       </c>
       <c r="T5" s="2">
-        <v>4.9143999999999997</v>
+        <v>4.2961</v>
       </c>
       <c r="U5" s="2">
-        <v>1.7500000000000002E-2</v>
+        <v>2.01E-2</v>
       </c>
       <c r="V5" s="2">
-        <v>1.0322</v>
+        <v>1.0530999999999999</v>
       </c>
       <c r="W5" s="2">
-        <v>0.9909</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.0043</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2">
-        <v>0.24329999999999999</v>
+        <v>0.2412</v>
       </c>
       <c r="D6" s="2">
-        <v>0.89439999999999997</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="E6" s="2">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>2.7645</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.0795999999999999</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="I6" s="2">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.2452</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="L6" s="2">
+        <v>4.3E-3</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="O6" s="26">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="P6" s="2">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="F6" s="2">
-        <v>2.3069999999999999</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1.0162</v>
-      </c>
-      <c r="H6" s="6">
-        <v>3.1250000000000001E-6</v>
-      </c>
-      <c r="I6" s="2">
-        <v>7.4999999999999997E-3</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0.25369999999999998</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.2366</v>
-      </c>
-      <c r="L6" s="2">
-        <v>6.6E-3</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0.9002</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.88519999999999999</v>
-      </c>
-      <c r="O6" s="2">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="P6" s="2">
-        <v>4.0500000000000001E-2</v>
-      </c>
       <c r="Q6" s="2">
-        <v>3.85E-2</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.1026</v>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="R6" s="26">
+        <v>3.1E-2</v>
       </c>
       <c r="S6" s="2">
-        <v>2.4051999999999998</v>
+        <v>2.8058999999999998</v>
       </c>
       <c r="T6" s="2">
-        <v>2.1652999999999998</v>
-      </c>
-      <c r="U6" s="2">
-        <v>4.5600000000000002E-2</v>
+        <v>2.7313999999999998</v>
+      </c>
+      <c r="U6" s="26">
+        <v>1.12E-2</v>
       </c>
       <c r="V6" s="2">
-        <v>1.0795999999999999</v>
+        <v>1.0944</v>
       </c>
       <c r="W6" s="2">
-        <v>0.97440000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.0673999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
-        <v>0.23449999999999999</v>
+        <v>0.2409</v>
       </c>
       <c r="D7" s="2">
-        <v>0.90200000000000002</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="E7" s="2">
-        <v>3.8699999999999998E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="F7" s="2">
-        <v>4.4535</v>
+        <v>2.5232000000000001</v>
       </c>
       <c r="G7" s="2">
-        <v>1.0266</v>
+        <v>1.2345999999999999</v>
       </c>
       <c r="H7" s="6">
-        <v>2.5000000000000001E-5</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I7" s="2">
-        <v>2E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>0.23699999999999999</v>
+        <v>0.25419999999999998</v>
       </c>
       <c r="K7" s="2">
-        <v>0.23200000000000001</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="L7" s="2">
-        <v>1.8E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="M7" s="2">
-        <v>0.90410000000000001</v>
+        <v>0.90359999999999996</v>
       </c>
       <c r="N7" s="2">
-        <v>0.89980000000000004</v>
-      </c>
-      <c r="O7" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="O7" s="26">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P7" s="2">
-        <v>3.8899999999999997E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="Q7" s="2">
-        <v>3.8199999999999998E-2</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0.1381</v>
+        <v>3.85E-2</v>
+      </c>
+      <c r="R7" s="26">
+        <v>0.1004</v>
       </c>
       <c r="S7" s="2">
-        <v>4.6323999999999996</v>
+        <v>2.661</v>
       </c>
       <c r="T7" s="2">
-        <v>4.2961</v>
-      </c>
-      <c r="U7" s="2">
-        <v>2.01E-2</v>
+        <v>2.4243999999999999</v>
+      </c>
+      <c r="U7" s="26">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="V7" s="2">
-        <v>1.0530999999999999</v>
+        <v>1.2821</v>
       </c>
       <c r="W7" s="2">
-        <v>1.0043</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+        <v>1.1621999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0.24099999999999999</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.89639999999999997</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.04</v>
-      </c>
-      <c r="F8" s="5">
-        <v>1.9583999999999999</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1.0406</v>
-      </c>
-      <c r="H8" s="9">
-        <v>1.2500000000000001E-5</v>
-      </c>
-      <c r="I8" s="5">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0.24529999999999999</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0.2349</v>
-      </c>
-      <c r="L8" s="5">
-        <v>3.8E-3</v>
-      </c>
-      <c r="M8" s="5">
-        <v>0.90169999999999995</v>
-      </c>
-      <c r="N8" s="5">
-        <v>0.89270000000000005</v>
-      </c>
-      <c r="O8" s="5">
-        <v>1E-4</v>
-      </c>
-      <c r="P8" s="5">
-        <v>4.02E-2</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>3.9899999999999998E-2</v>
-      </c>
-      <c r="R8" s="5">
-        <v>0.1013</v>
-      </c>
-      <c r="S8" s="5">
-        <v>2.0979999999999999</v>
-      </c>
-      <c r="T8" s="5">
-        <v>1.8609</v>
-      </c>
-      <c r="U8" s="5">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="V8" s="5">
-        <v>1.0744</v>
-      </c>
-      <c r="W8" s="5">
-        <v>1.0158</v>
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.2399</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.7656000000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.1803999999999999</v>
+      </c>
+      <c r="H8" s="8">
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.24970000000000001</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="L8" s="4">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="O8" s="27">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="P8" s="4">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="R8" s="27">
+        <v>4.41E-2</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1.8274999999999999</v>
+      </c>
+      <c r="T8" s="4">
+        <v>1.7279</v>
+      </c>
+      <c r="U8" s="27">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="V8" s="4">
+        <v>1.2061999999999999</v>
+      </c>
+      <c r="W8" s="4">
+        <v>1.1389</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
@@ -1440,141 +1457,141 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2">
-        <v>0.20899999999999999</v>
+        <v>0.23949999999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>0.92210000000000003</v>
+        <v>0.89770000000000005</v>
       </c>
       <c r="E9" s="2">
-        <v>3.8300000000000001E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="F9" s="2">
-        <v>2.2033999999999998</v>
+        <v>3.7313999999999998</v>
       </c>
       <c r="G9" s="2">
-        <v>1.2507999999999999</v>
+        <v>1.1891</v>
       </c>
       <c r="H9" s="6">
-        <v>6.2500000000000003E-6</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="I9" s="2">
-        <v>2.2000000000000001E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>0.2114</v>
+        <v>0.24340000000000001</v>
       </c>
       <c r="K9" s="2">
-        <v>0.20610000000000001</v>
+        <v>0.23380000000000001</v>
       </c>
       <c r="L9" s="2">
-        <v>1.6000000000000001E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="M9" s="2">
-        <v>0.92430000000000001</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="N9" s="2">
-        <v>0.9204</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="O9" s="26">
-        <v>6.9999999999999999E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P9" s="2">
-        <v>3.8800000000000001E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="Q9" s="2">
-        <v>3.7199999999999997E-2</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="R9" s="2">
-        <v>2.3900000000000001E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="S9" s="2">
-        <v>2.2353000000000001</v>
+        <v>3.8039000000000001</v>
       </c>
       <c r="T9" s="2">
-        <v>2.1776</v>
+        <v>3.665</v>
       </c>
       <c r="U9" s="26">
-        <v>4.58E-2</v>
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="V9" s="2">
-        <v>1.3038000000000001</v>
+        <v>1.2302</v>
       </c>
       <c r="W9" s="2">
-        <v>1.1919999999999999</v>
+        <v>1.1565000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.24030000000000001</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="E10" s="2">
-        <v>3.85E-2</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3.0371000000000001</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1.2644</v>
-      </c>
-      <c r="H10" s="6">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0.24299999999999999</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.23830000000000001</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0.89880000000000004</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0.89480000000000004</v>
-      </c>
-      <c r="O10" s="26">
-        <v>1E-4</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.2215</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.91259999999999997</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1.2123999999999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.1485000000000001</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.22409999999999999</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.21959999999999999</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1.5E-3</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0.91410000000000002</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="O10" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P10" s="3">
+        <v>3.95E-2</v>
+      </c>
+      <c r="Q10" s="3">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="Q10" s="2">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="R10" s="2">
-        <v>4.9099999999999998E-2</v>
-      </c>
-      <c r="S10" s="2">
-        <v>3.09</v>
-      </c>
-      <c r="T10" s="2">
-        <v>2.9716999999999998</v>
-      </c>
-      <c r="U10" s="26">
-        <v>8.0999999999999996E-3</v>
-      </c>
-      <c r="V10" s="2">
-        <v>1.2710999999999999</v>
-      </c>
-      <c r="W10" s="2">
-        <v>1.2531000000000001</v>
+      <c r="R10" s="3">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1.282</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1.1093999999999999</v>
+      </c>
+      <c r="U10" s="3">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1.1915</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1.1019000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1582,141 +1599,141 @@
         <v>79</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2">
-        <v>0.2412</v>
+        <v>0.22770000000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>0.89629999999999999</v>
+        <v>0.90759999999999996</v>
       </c>
       <c r="E11" s="2">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0.22370000000000001</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2.3E-3</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="O11" s="26">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P11" s="2">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="Q11" s="2">
         <v>3.8800000000000001E-2</v>
       </c>
-      <c r="F11" s="2">
-        <v>2.7645</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="R11" s="2">
+        <v>6.08E-2</v>
+      </c>
+      <c r="S11" s="2">
+        <v>2.6322999999999999</v>
+      </c>
+      <c r="T11" s="2">
+        <v>2.4855</v>
+      </c>
+      <c r="U11" s="26">
+        <v>5.57E-2</v>
+      </c>
+      <c r="V11" s="2">
+        <v>1.3168</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1.1892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.24329999999999999</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>2.3069999999999999</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.0162</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3.1250000000000001E-6</v>
+      </c>
+      <c r="I12" s="2">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.25369999999999998</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.2366</v>
+      </c>
+      <c r="L12" s="2">
+        <v>6.6E-3</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.9002</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="O12" s="2">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="P12" s="2">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3.85E-2</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0.1026</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2.4051999999999998</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2.1652999999999998</v>
+      </c>
+      <c r="U12" s="2">
+        <v>4.5600000000000002E-2</v>
+      </c>
+      <c r="V12" s="2">
         <v>1.0795999999999999</v>
       </c>
-      <c r="H11" s="6">
-        <v>1.2500000000000001E-5</v>
-      </c>
-      <c r="I11" s="2">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.2452</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.23419999999999999</v>
-      </c>
-      <c r="L11" s="2">
-        <v>4.3E-3</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.90229999999999999</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="O11" s="26">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="P11" s="2">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="R11" s="26">
-        <v>3.1E-2</v>
-      </c>
-      <c r="S11" s="2">
-        <v>2.8058999999999998</v>
-      </c>
-      <c r="T11" s="2">
-        <v>2.7313999999999998</v>
-      </c>
-      <c r="U11" s="26">
-        <v>1.12E-2</v>
-      </c>
-      <c r="V11" s="2">
-        <v>1.0944</v>
-      </c>
-      <c r="W11" s="2">
-        <v>1.0673999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.2215</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.91259999999999997</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1.2123999999999999</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1.1485000000000001</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1.2500000000000001E-5</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1.9E-3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.22409999999999999</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0.21959999999999999</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1.5E-3</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0.91410000000000002</v>
-      </c>
-      <c r="N12" s="3">
-        <v>0.91049999999999998</v>
-      </c>
-      <c r="O12" s="3">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="P12" s="3">
-        <v>3.95E-2</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="R12" s="3">
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1.282</v>
-      </c>
-      <c r="T12" s="3">
-        <v>1.1093999999999999</v>
-      </c>
-      <c r="U12" s="3">
-        <v>3.6600000000000001E-2</v>
-      </c>
-      <c r="V12" s="3">
-        <v>1.1915</v>
-      </c>
-      <c r="W12" s="3">
-        <v>1.1019000000000001</v>
+      <c r="W12" s="2">
+        <v>0.97440000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -1724,212 +1741,212 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2">
-        <v>0.2409</v>
+        <v>0.23089999999999999</v>
       </c>
       <c r="D13" s="2">
-        <v>0.89629999999999999</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="E13" s="2">
-        <v>3.8800000000000001E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="F13" s="2">
-        <v>2.5232000000000001</v>
+        <v>3.0629</v>
       </c>
       <c r="G13" s="2">
-        <v>1.2345999999999999</v>
+        <v>1.2199</v>
       </c>
       <c r="H13" s="6">
-        <v>1.5625000000000001E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I13" s="2">
-        <v>9.4999999999999998E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="J13" s="2">
-        <v>0.25419999999999998</v>
+        <v>0.2346</v>
       </c>
       <c r="K13" s="2">
-        <v>0.23250000000000001</v>
+        <v>0.2266</v>
       </c>
       <c r="L13" s="2">
-        <v>8.2000000000000007E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="M13" s="2">
-        <v>0.90359999999999996</v>
+        <v>0.90849999999999997</v>
       </c>
       <c r="N13" s="2">
-        <v>0.88480000000000003</v>
+        <v>0.90190000000000003</v>
       </c>
       <c r="O13" s="26">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P13" s="2">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="R13" s="2">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="S13" s="2">
+        <v>3.1074000000000002</v>
+      </c>
+      <c r="T13" s="2">
+        <v>3.0167000000000002</v>
+      </c>
+      <c r="U13" s="26">
+        <v>1.37E-2</v>
+      </c>
+      <c r="V13" s="2">
+        <v>1.2367999999999999</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1.2032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.2467</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.89159999999999995</v>
+      </c>
+      <c r="E14" s="2">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="Q13" s="2">
-        <v>3.85E-2</v>
-      </c>
-      <c r="R13" s="26">
-        <v>0.1004</v>
-      </c>
-      <c r="S13" s="2">
-        <v>2.661</v>
-      </c>
-      <c r="T13" s="2">
-        <v>2.4243999999999999</v>
-      </c>
-      <c r="U13" s="26">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="V13" s="2">
-        <v>1.2821</v>
-      </c>
-      <c r="W13" s="2">
-        <v>1.1621999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A14" s="4" t="s">
+      <c r="F14" s="2">
+        <v>3.6937000000000002</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.0969</v>
+      </c>
+      <c r="H14" s="6">
+        <v>3.1250000000000001E-6</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.251</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2.8E-3</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="O14" s="26">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="R14" s="26">
+        <v>0.1038</v>
+      </c>
+      <c r="S14" s="2">
+        <v>3.8328000000000002</v>
+      </c>
+      <c r="T14" s="2">
+        <v>3.5834999999999999</v>
+      </c>
+      <c r="U14" s="26">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1.1185</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1.0807</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.2399</v>
-      </c>
-      <c r="D14" s="4">
-        <v>0.89729999999999999</v>
-      </c>
-      <c r="E14" s="4">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="F14" s="4">
-        <v>1.7656000000000001</v>
-      </c>
-      <c r="G14" s="4">
-        <v>1.1803999999999999</v>
-      </c>
-      <c r="H14" s="8">
+      <c r="B15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.24660000000000001</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3.95E-2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2.3408000000000002</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1.1218999999999999</v>
+      </c>
+      <c r="H15" s="9">
         <v>6.2500000000000003E-6</v>
       </c>
-      <c r="I14" s="4">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.24970000000000001</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="L14" s="4">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0.88890000000000002</v>
-      </c>
-      <c r="O14" s="27">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="P14" s="4">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="Q14" s="4">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="R14" s="27">
-        <v>4.41E-2</v>
-      </c>
-      <c r="S14" s="4">
-        <v>1.8274999999999999</v>
-      </c>
-      <c r="T14" s="4">
-        <v>1.7279</v>
-      </c>
-      <c r="U14" s="27">
-        <v>2.9600000000000001E-2</v>
-      </c>
-      <c r="V14" s="4">
-        <v>1.2061999999999999</v>
-      </c>
-      <c r="W14" s="4">
-        <v>1.1389</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.23949999999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.89770000000000005</v>
-      </c>
-      <c r="E15" s="2">
-        <v>3.8899999999999997E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3.7313999999999998</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1.1891</v>
-      </c>
-      <c r="H15" s="6">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="I15" s="2">
-        <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.24340000000000001</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.23380000000000001</v>
-      </c>
-      <c r="L15" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.90259999999999996</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0.89439999999999997</v>
-      </c>
-      <c r="O15" s="26">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="P15" s="2">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="R15" s="2">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="S15" s="2">
-        <v>3.8039000000000001</v>
-      </c>
-      <c r="T15" s="2">
-        <v>3.665</v>
-      </c>
-      <c r="U15" s="26">
-        <v>3.0700000000000002E-2</v>
-      </c>
-      <c r="V15" s="2">
-        <v>1.2302</v>
-      </c>
-      <c r="W15" s="2">
-        <v>1.1565000000000001</v>
+      <c r="I15" s="5">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.25290000000000001</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.2389</v>
+      </c>
+      <c r="L15" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.8982</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="O15" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="P15" s="5">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="R15" s="28">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="S15" s="5">
+        <v>2.3841999999999999</v>
+      </c>
+      <c r="T15" s="5">
+        <v>2.2993999999999999</v>
+      </c>
+      <c r="U15" s="28">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="V15" s="5">
+        <v>1.1324000000000001</v>
+      </c>
+      <c r="W15" s="5">
+        <v>1.1133</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
@@ -1937,70 +1954,70 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>0.22770000000000001</v>
+        <v>0.21729999999999999</v>
       </c>
       <c r="D16" s="2">
-        <v>0.90759999999999996</v>
+        <v>0.91579999999999995</v>
       </c>
       <c r="E16" s="2">
-        <v>3.9100000000000003E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="F16" s="2">
-        <v>2.5659999999999998</v>
+        <v>1.6396999999999999</v>
       </c>
       <c r="G16" s="2">
-        <v>1.2390000000000001</v>
+        <v>1.3097000000000001</v>
       </c>
       <c r="H16" s="6">
-        <v>2.5000000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I16" s="2">
-        <v>2.8E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="J16" s="2">
-        <v>0.23</v>
+        <v>0.22339999999999999</v>
       </c>
       <c r="K16" s="2">
-        <v>0.22370000000000001</v>
+        <v>0.21329999999999999</v>
       </c>
       <c r="L16" s="2">
-        <v>2.3E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="M16" s="2">
-        <v>0.91080000000000005</v>
+        <v>0.91890000000000005</v>
       </c>
       <c r="N16" s="2">
-        <v>0.90569999999999995</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="O16" s="26">
-        <v>4.0000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P16" s="2">
-        <v>3.9600000000000003E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="Q16" s="2">
-        <v>3.8800000000000001E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="R16" s="2">
-        <v>6.08E-2</v>
+        <v>8.1900000000000001E-2</v>
       </c>
       <c r="S16" s="2">
-        <v>2.6322999999999999</v>
+        <v>1.7354000000000001</v>
       </c>
       <c r="T16" s="2">
-        <v>2.4855</v>
+        <v>1.5353000000000001</v>
       </c>
       <c r="U16" s="26">
-        <v>5.57E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="V16" s="2">
-        <v>1.3168</v>
+        <v>1.331</v>
       </c>
       <c r="W16" s="2">
-        <v>1.1892</v>
+        <v>1.2881</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.4">
@@ -2008,70 +2025,70 @@
         <v>79</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2">
-        <v>0.23089999999999999</v>
+        <v>0.2457</v>
       </c>
       <c r="D17" s="2">
-        <v>0.90500000000000003</v>
+        <v>0.89239999999999997</v>
       </c>
       <c r="E17" s="2">
-        <v>3.9199999999999999E-2</v>
+        <v>3.9699999999999999E-2</v>
       </c>
       <c r="F17" s="2">
-        <v>3.0629</v>
+        <v>2.2677999999999998</v>
       </c>
       <c r="G17" s="2">
-        <v>1.2199</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="H17" s="6">
         <v>2.5000000000000001E-5</v>
       </c>
       <c r="I17" s="2">
-        <v>3.3E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="J17" s="2">
-        <v>0.2346</v>
+        <v>0.24840000000000001</v>
       </c>
       <c r="K17" s="2">
-        <v>0.2266</v>
+        <v>0.24249999999999999</v>
       </c>
       <c r="L17" s="2">
-        <v>2.7000000000000001E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="M17" s="2">
-        <v>0.90849999999999997</v>
+        <v>0.8952</v>
       </c>
       <c r="N17" s="2">
-        <v>0.90190000000000003</v>
-      </c>
-      <c r="O17" s="26">
-        <v>2.0000000000000001E-4</v>
+        <v>0.89</v>
+      </c>
+      <c r="O17" s="2">
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="P17" s="2">
-        <v>3.9399999999999998E-2</v>
+        <v>4.0399999999999998E-2</v>
       </c>
       <c r="Q17" s="2">
-        <v>3.9E-2</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="R17" s="2">
-        <v>3.7100000000000001E-2</v>
+        <v>4.02E-2</v>
       </c>
       <c r="S17" s="2">
-        <v>3.1074000000000002</v>
+        <v>2.3096000000000001</v>
       </c>
       <c r="T17" s="2">
-        <v>3.0167000000000002</v>
-      </c>
-      <c r="U17" s="26">
-        <v>1.37E-2</v>
+        <v>2.2136</v>
+      </c>
+      <c r="U17" s="2">
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="V17" s="2">
-        <v>1.2367999999999999</v>
+        <v>1.0024999999999999</v>
       </c>
       <c r="W17" s="2">
-        <v>1.2032</v>
+        <v>0.94010000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
@@ -2079,70 +2096,70 @@
         <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2">
-        <v>0.2467</v>
+        <v>0.222</v>
       </c>
       <c r="D18" s="2">
-        <v>0.89159999999999995</v>
+        <v>0.91210000000000002</v>
       </c>
       <c r="E18" s="2">
-        <v>3.9199999999999999E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="F18" s="2">
-        <v>3.6937000000000002</v>
+        <v>5.0961999999999996</v>
       </c>
       <c r="G18" s="2">
-        <v>1.0969</v>
+        <v>1.2612000000000001</v>
       </c>
       <c r="H18" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I18" s="2">
-        <v>3.2000000000000002E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="J18" s="2">
-        <v>0.251</v>
+        <v>0.22409999999999999</v>
       </c>
       <c r="K18" s="2">
-        <v>0.24340000000000001</v>
+        <v>0.21959999999999999</v>
       </c>
       <c r="L18" s="2">
-        <v>2.8E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="M18" s="2">
-        <v>0.89439999999999997</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="N18" s="2">
-        <v>0.88780000000000003</v>
+        <v>0.91049999999999998</v>
       </c>
       <c r="O18" s="26">
-        <v>5.9999999999999995E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P18" s="2">
         <v>0.04</v>
       </c>
       <c r="Q18" s="2">
-        <v>3.8699999999999998E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="R18" s="26">
-        <v>0.1038</v>
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="S18" s="2">
-        <v>3.8328000000000002</v>
+        <v>5.1534000000000004</v>
       </c>
       <c r="T18" s="2">
-        <v>3.5834999999999999</v>
+        <v>5.0506000000000002</v>
       </c>
       <c r="U18" s="26">
-        <v>1.5900000000000001E-2</v>
+        <v>2.69E-2</v>
       </c>
       <c r="V18" s="2">
-        <v>1.1185</v>
+        <v>1.2866</v>
       </c>
       <c r="W18" s="2">
-        <v>1.0807</v>
+        <v>1.2239</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.4">
@@ -2150,70 +2167,70 @@
         <v>79</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C19" s="5">
-        <v>0.24660000000000001</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="D19" s="5">
-        <v>0.89149999999999996</v>
+        <v>0.89639999999999997</v>
       </c>
       <c r="E19" s="5">
-        <v>3.95E-2</v>
+        <v>0.04</v>
       </c>
       <c r="F19" s="5">
-        <v>2.3408000000000002</v>
+        <v>1.9583999999999999</v>
       </c>
       <c r="G19" s="5">
-        <v>1.1218999999999999</v>
+        <v>1.0406</v>
       </c>
       <c r="H19" s="9">
-        <v>6.2500000000000003E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I19" s="5">
-        <v>5.7999999999999996E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="J19" s="5">
-        <v>0.25290000000000001</v>
+        <v>0.24529999999999999</v>
       </c>
       <c r="K19" s="5">
-        <v>0.2389</v>
+        <v>0.2349</v>
       </c>
       <c r="L19" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="M19" s="5">
-        <v>0.8982</v>
+        <v>0.90169999999999995</v>
       </c>
       <c r="N19" s="5">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="O19" s="28">
-        <v>1E-3</v>
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="O19" s="5">
+        <v>1E-4</v>
       </c>
       <c r="P19" s="5">
-        <v>4.0800000000000003E-2</v>
+        <v>4.02E-2</v>
       </c>
       <c r="Q19" s="5">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="R19" s="28">
-        <v>3.4599999999999999E-2</v>
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.1013</v>
       </c>
       <c r="S19" s="5">
-        <v>2.3841999999999999</v>
+        <v>2.0979999999999999</v>
       </c>
       <c r="T19" s="5">
-        <v>2.2993999999999999</v>
-      </c>
-      <c r="U19" s="28">
-        <v>7.9000000000000008E-3</v>
+        <v>1.8609</v>
+      </c>
+      <c r="U19" s="5">
+        <v>2.4799999999999999E-2</v>
       </c>
       <c r="V19" s="5">
-        <v>1.1324000000000001</v>
+        <v>1.0744</v>
       </c>
       <c r="W19" s="5">
-        <v>1.1133</v>
+        <v>1.0158</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.4">
@@ -2221,70 +2238,70 @@
         <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2">
-        <v>0.21729999999999999</v>
+        <v>0.2492</v>
       </c>
       <c r="D20" s="2">
-        <v>0.91579999999999995</v>
+        <v>0.88919999999999999</v>
       </c>
       <c r="E20" s="2">
-        <v>3.9600000000000003E-2</v>
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="F20" s="2">
-        <v>1.6396999999999999</v>
+        <v>3.0945</v>
       </c>
       <c r="G20" s="2">
-        <v>1.3097000000000001</v>
+        <v>0.95250000000000001</v>
       </c>
       <c r="H20" s="6">
         <v>6.2500000000000003E-6</v>
       </c>
       <c r="I20" s="2">
-        <v>4.4000000000000003E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="J20" s="2">
-        <v>0.22339999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="K20" s="2">
-        <v>0.21329999999999999</v>
+        <v>0.24160000000000001</v>
       </c>
       <c r="L20" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="M20" s="2">
-        <v>0.91890000000000005</v>
+        <v>0.89590000000000003</v>
       </c>
       <c r="N20" s="2">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="O20" s="26">
-        <v>2.9999999999999997E-4</v>
+        <v>0.87960000000000005</v>
+      </c>
+      <c r="O20" s="2">
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="P20" s="2">
-        <v>3.9899999999999998E-2</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="Q20" s="2">
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="R20" s="2">
-        <v>8.1900000000000001E-2</v>
+        <v>0.09</v>
       </c>
       <c r="S20" s="2">
-        <v>1.7354000000000001</v>
+        <v>3.2073999999999998</v>
       </c>
       <c r="T20" s="2">
-        <v>1.5353000000000001</v>
-      </c>
-      <c r="U20" s="26">
-        <v>1.7500000000000002E-2</v>
+        <v>2.9872000000000001</v>
+      </c>
+      <c r="U20" s="2">
+        <v>7.7000000000000002E-3</v>
       </c>
       <c r="V20" s="2">
-        <v>1.331</v>
+        <v>0.9587</v>
       </c>
       <c r="W20" s="2">
-        <v>1.2881</v>
+        <v>0.94169999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.4">
@@ -2292,70 +2309,70 @@
         <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2">
-        <v>0.222</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="D21" s="2">
-        <v>0.91210000000000002</v>
+        <v>0.90359999999999996</v>
       </c>
       <c r="E21" s="2">
-        <v>3.9800000000000002E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="F21" s="2">
-        <v>5.0961999999999996</v>
+        <v>5.6917999999999997</v>
       </c>
       <c r="G21" s="2">
-        <v>1.2612000000000001</v>
+        <v>1.3993</v>
       </c>
       <c r="H21" s="6">
         <v>6.2500000000000003E-6</v>
       </c>
       <c r="I21" s="2">
-        <v>1.9E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="J21" s="2">
-        <v>0.22409999999999999</v>
+        <v>0.2384</v>
       </c>
       <c r="K21" s="2">
-        <v>0.21959999999999999</v>
+        <v>0.22720000000000001</v>
       </c>
       <c r="L21" s="2">
-        <v>1.4E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="M21" s="2">
-        <v>0.91400000000000003</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="N21" s="2">
-        <v>0.91049999999999998</v>
+        <v>0.89870000000000005</v>
       </c>
       <c r="O21" s="26">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P21" s="2">
-        <v>0.04</v>
+        <v>4.07E-2</v>
       </c>
       <c r="Q21" s="2">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="R21" s="26">
-        <v>4.2799999999999998E-2</v>
+        <v>4.02E-2</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.12189999999999999</v>
       </c>
       <c r="S21" s="2">
-        <v>5.1534000000000004</v>
+        <v>5.8236999999999997</v>
       </c>
       <c r="T21" s="2">
-        <v>5.0506000000000002</v>
+        <v>5.5297000000000001</v>
       </c>
       <c r="U21" s="26">
-        <v>2.69E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="V21" s="2">
-        <v>1.2866</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="W21" s="2">
-        <v>1.2239</v>
+        <v>1.3244</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2363,212 +2380,212 @@
         <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2">
-        <v>0.23250000000000001</v>
+        <v>0.25159999999999999</v>
       </c>
       <c r="D22" s="2">
-        <v>0.90359999999999996</v>
+        <v>0.8871</v>
       </c>
       <c r="E22" s="2">
         <v>4.0500000000000001E-2</v>
       </c>
       <c r="F22" s="2">
-        <v>5.6917999999999997</v>
+        <v>5.7820999999999998</v>
       </c>
       <c r="G22" s="2">
-        <v>1.3993</v>
+        <v>1.2365999999999999</v>
       </c>
       <c r="H22" s="6">
-        <v>6.2500000000000003E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I22" s="2">
-        <v>4.5999999999999999E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="J22" s="2">
-        <v>0.2384</v>
+        <v>0.25430000000000003</v>
       </c>
       <c r="K22" s="2">
-        <v>0.22720000000000001</v>
+        <v>0.24859999999999999</v>
       </c>
       <c r="L22" s="2">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.88990000000000002</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0.88470000000000004</v>
+      </c>
+      <c r="O22" s="26">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P22" s="2">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="R22" s="26">
+        <v>2.58E-2</v>
+      </c>
+      <c r="S22" s="2">
+        <v>5.8181000000000003</v>
+      </c>
+      <c r="T22" s="2">
+        <v>5.7591999999999999</v>
+      </c>
+      <c r="U22" s="26">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1.2484</v>
+      </c>
+      <c r="W22" s="2">
+        <v>1.2154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.2311</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.4258</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.3076000000000001</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="I23" s="3">
         <v>3.8E-3</v>
       </c>
-      <c r="M22" s="2">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="N22" s="2">
-        <v>0.89870000000000005</v>
-      </c>
-      <c r="O22" s="26">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="P22" s="2">
-        <v>4.07E-2</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>4.02E-2</v>
-      </c>
-      <c r="R22" s="2">
-        <v>0.12189999999999999</v>
-      </c>
-      <c r="S22" s="2">
-        <v>5.8236999999999997</v>
-      </c>
-      <c r="T22" s="2">
-        <v>5.5297000000000001</v>
-      </c>
-      <c r="U22" s="26">
-        <v>5.3199999999999997E-2</v>
-      </c>
-      <c r="V22" s="2">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="W22" s="2">
-        <v>1.3244</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+      <c r="J23" s="3">
+        <v>0.2364</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.22770000000000001</v>
+      </c>
+      <c r="L23" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="O23" s="29">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P23" s="3">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="R23" s="29">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="S23" s="3">
+        <v>1.4936</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1.3716999999999999</v>
+      </c>
+      <c r="U23" s="29">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1.3357000000000001</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1.2837000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.25159999999999999</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.8871</v>
-      </c>
-      <c r="E23" s="2">
-        <v>4.0500000000000001E-2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>5.7820999999999998</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1.2365999999999999</v>
-      </c>
-      <c r="H23" s="6">
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.249</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>6.3574000000000002</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1.3637999999999999</v>
+      </c>
+      <c r="H24" s="6">
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="I23" s="2">
-        <v>2.3E-3</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0.25430000000000003</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0.24859999999999999</v>
-      </c>
-      <c r="L23" s="2">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0.88990000000000002</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0.88470000000000004</v>
-      </c>
-      <c r="O23" s="26">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="P23" s="2">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="R23" s="26">
-        <v>2.58E-2</v>
-      </c>
-      <c r="S23" s="2">
-        <v>5.8181000000000003</v>
-      </c>
-      <c r="T23" s="2">
-        <v>5.7591999999999999</v>
-      </c>
-      <c r="U23" s="26">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="V23" s="2">
-        <v>1.2484</v>
-      </c>
-      <c r="W23" s="2">
-        <v>1.2154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A24" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.2311</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.90480000000000005</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1.4258</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1.3076000000000001</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1.2500000000000001E-5</v>
-      </c>
-      <c r="I24" s="3">
-        <v>3.8E-3</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0.2364</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0.22770000000000001</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0.90759999999999996</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0.90039999999999998</v>
-      </c>
-      <c r="O24" s="29">
+      <c r="I24" s="2">
+        <v>1.9E-3</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0.2515</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.24709999999999999</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0.89119999999999999</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="O24" s="26">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="P24" s="3">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="R24" s="29">
-        <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="S24" s="3">
-        <v>1.4936</v>
-      </c>
-      <c r="T24" s="3">
-        <v>1.3716999999999999</v>
-      </c>
-      <c r="U24" s="29">
-        <v>2.1399999999999999E-2</v>
-      </c>
-      <c r="V24" s="3">
-        <v>1.3357000000000001</v>
-      </c>
-      <c r="W24" s="3">
-        <v>1.2837000000000001</v>
+      <c r="P24" s="2">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="R24" s="2">
+        <v>0.1777</v>
+      </c>
+      <c r="S24" s="2">
+        <v>6.6025999999999998</v>
+      </c>
+      <c r="T24" s="2">
+        <v>6.1874000000000002</v>
+      </c>
+      <c r="U24" s="26">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="V24" s="2">
+        <v>1.403</v>
+      </c>
+      <c r="W24" s="2">
+        <v>1.3162</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
@@ -2576,70 +2593,70 @@
         <v>79</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2">
-        <v>0.249</v>
+        <v>0.2271</v>
       </c>
       <c r="D25" s="2">
-        <v>0.88949999999999996</v>
+        <v>0.90810000000000002</v>
       </c>
       <c r="E25" s="2">
-        <v>4.1399999999999999E-2</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="F25" s="2">
-        <v>6.3574000000000002</v>
+        <v>4.4733000000000001</v>
       </c>
       <c r="G25" s="2">
-        <v>1.3637999999999999</v>
+        <v>1.5087999999999999</v>
       </c>
       <c r="H25" s="6">
         <v>1.2500000000000001E-5</v>
       </c>
       <c r="I25" s="2">
-        <v>1.9E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J25" s="2">
-        <v>0.2515</v>
+        <v>0.2273</v>
       </c>
       <c r="K25" s="2">
-        <v>0.24709999999999999</v>
+        <v>0.2268</v>
       </c>
       <c r="L25" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M25" s="2">
-        <v>0.89119999999999999</v>
+        <v>0.9083</v>
       </c>
       <c r="N25" s="2">
-        <v>0.88719999999999999</v>
+        <v>0.90790000000000004</v>
       </c>
       <c r="O25" s="26">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P25" s="2">
-        <v>4.2000000000000003E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="Q25" s="2">
-        <v>4.0800000000000003E-2</v>
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="R25" s="2">
-        <v>0.1777</v>
+        <v>0.19869999999999999</v>
       </c>
       <c r="S25" s="2">
-        <v>6.6025999999999998</v>
+        <v>4.6665000000000001</v>
       </c>
       <c r="T25" s="2">
-        <v>6.1874000000000002</v>
+        <v>4.2000999999999999</v>
       </c>
       <c r="U25" s="26">
-        <v>3.5900000000000001E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="V25" s="2">
-        <v>1.403</v>
+        <v>1.5383</v>
       </c>
       <c r="W25" s="2">
-        <v>1.3162</v>
+        <v>1.4617</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
@@ -2647,70 +2664,70 @@
         <v>79</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2">
-        <v>0.2271</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="D26" s="2">
-        <v>0.90810000000000002</v>
+        <v>0.90159999999999996</v>
       </c>
       <c r="E26" s="2">
-        <v>4.1500000000000002E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="F26" s="2">
-        <v>4.4733000000000001</v>
+        <v>4.9897999999999998</v>
       </c>
       <c r="G26" s="2">
-        <v>1.5087999999999999</v>
+        <v>1.5425</v>
       </c>
       <c r="H26" s="6">
-        <v>1.2500000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I26" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="J26" s="2">
-        <v>0.2273</v>
+        <v>0.24010000000000001</v>
       </c>
       <c r="K26" s="2">
-        <v>0.2268</v>
+        <v>0.2324</v>
       </c>
       <c r="L26" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="M26" s="2">
-        <v>0.9083</v>
+        <v>0.90380000000000005</v>
       </c>
       <c r="N26" s="2">
-        <v>0.90790000000000004</v>
+        <v>0.89729999999999999</v>
       </c>
       <c r="O26" s="26">
-        <v>1E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="P26" s="2">
-        <v>4.1599999999999998E-2</v>
+        <v>4.2900000000000001E-2</v>
       </c>
       <c r="Q26" s="2">
-        <v>4.1300000000000003E-2</v>
+        <v>4.1099999999999998E-2</v>
       </c>
       <c r="R26" s="2">
-        <v>0.19869999999999999</v>
+        <v>0.31440000000000001</v>
       </c>
       <c r="S26" s="2">
-        <v>4.6665000000000001</v>
+        <v>5.3608000000000002</v>
       </c>
       <c r="T26" s="2">
-        <v>4.2000999999999999</v>
+        <v>4.5921000000000003</v>
       </c>
       <c r="U26" s="26">
-        <v>3.3599999999999998E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="V26" s="2">
-        <v>1.5383</v>
+        <v>1.61</v>
       </c>
       <c r="W26" s="2">
-        <v>1.4617</v>
+        <v>1.4715</v>
       </c>
     </row>
     <row r="27" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2718,70 +2735,70 @@
         <v>79</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2">
-        <v>0.23499999999999999</v>
+        <v>0.2185</v>
       </c>
       <c r="D27" s="2">
-        <v>0.90159999999999996</v>
+        <v>0.91490000000000005</v>
       </c>
       <c r="E27" s="2">
-        <v>4.2099999999999999E-2</v>
+        <v>4.2299999999999997E-2</v>
       </c>
       <c r="F27" s="2">
-        <v>4.9897999999999998</v>
+        <v>3.3157000000000001</v>
       </c>
       <c r="G27" s="2">
-        <v>1.5425</v>
+        <v>1.6267</v>
       </c>
       <c r="H27" s="6">
-        <v>6.2500000000000003E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I27" s="2">
-        <v>3.5999999999999999E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="J27" s="2">
-        <v>0.24010000000000001</v>
+        <v>0.22289999999999999</v>
       </c>
       <c r="K27" s="2">
-        <v>0.2324</v>
+        <v>0.21129999999999999</v>
       </c>
       <c r="L27" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="M27" s="2">
-        <v>0.90380000000000005</v>
+        <v>0.9204</v>
       </c>
       <c r="N27" s="2">
-        <v>0.89729999999999999</v>
+        <v>0.91139999999999999</v>
       </c>
       <c r="O27" s="26">
-        <v>6.9999999999999999E-4</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="P27" s="2">
-        <v>4.2900000000000001E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="Q27" s="2">
-        <v>4.1099999999999998E-2</v>
+        <v>4.1200000000000001E-2</v>
       </c>
       <c r="R27" s="2">
-        <v>0.31440000000000001</v>
+        <v>0.1532</v>
       </c>
       <c r="S27" s="2">
-        <v>5.3608000000000002</v>
+        <v>3.5299</v>
       </c>
       <c r="T27" s="2">
-        <v>4.5921000000000003</v>
+        <v>3.1808000000000001</v>
       </c>
       <c r="U27" s="26">
-        <v>5.6599999999999998E-2</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="V27" s="2">
-        <v>1.61</v>
+        <v>1.6357999999999999</v>
       </c>
       <c r="W27" s="2">
-        <v>1.4715</v>
+        <v>1.6212</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.4">
@@ -2789,70 +2806,70 @@
         <v>79</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2">
-        <v>0.2185</v>
+        <v>0.26300000000000001</v>
       </c>
       <c r="D28" s="2">
-        <v>0.91490000000000005</v>
+        <v>0.87670000000000003</v>
       </c>
       <c r="E28" s="2">
-        <v>4.2299999999999997E-2</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="F28" s="2">
-        <v>3.3157000000000001</v>
+        <v>5.0528000000000004</v>
       </c>
       <c r="G28" s="2">
-        <v>1.6267</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="H28" s="6">
         <v>1.2500000000000001E-5</v>
       </c>
       <c r="I28" s="2">
-        <v>5.1000000000000004E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="J28" s="2">
-        <v>0.22289999999999999</v>
+        <v>0.2671</v>
       </c>
       <c r="K28" s="2">
-        <v>0.21129999999999999</v>
+        <v>0.26050000000000001</v>
       </c>
       <c r="L28" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="M28" s="2">
-        <v>0.9204</v>
+        <v>0.87909999999999999</v>
       </c>
       <c r="N28" s="2">
-        <v>0.91139999999999999</v>
-      </c>
-      <c r="O28" s="26">
-        <v>8.0000000000000004E-4</v>
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="O28" s="2">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P28" s="2">
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="Q28" s="2">
-        <v>4.1200000000000001E-2</v>
+        <v>4.19E-2</v>
       </c>
       <c r="R28" s="2">
-        <v>0.1532</v>
+        <v>0.10050000000000001</v>
       </c>
       <c r="S28" s="2">
-        <v>3.5299</v>
+        <v>5.1502999999999997</v>
       </c>
       <c r="T28" s="2">
-        <v>3.1808000000000001</v>
-      </c>
-      <c r="U28" s="26">
-        <v>6.4999999999999997E-3</v>
+        <v>4.9143999999999997</v>
+      </c>
+      <c r="U28" s="2">
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="V28" s="2">
-        <v>1.6357999999999999</v>
+        <v>1.0322</v>
       </c>
       <c r="W28" s="2">
-        <v>1.6212</v>
+        <v>0.9909</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.4">
@@ -4348,51 +4365,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:W49" xr:uid="{CA0D07A2-8BFB-4532-81F8-4995D0BF2BB4}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="CNN-ew2"/>
-        <filter val="CNN-ew3"/>
-        <filter val="CNN-ew4"/>
-        <filter val="CNN-obs"/>
-        <filter val="CNN-or"/>
-        <filter val="CNN-sg5"/>
-        <filter val="CNN-sg7"/>
-        <filter val="CNN-sg9"/>
-        <filter val="DNN-ew2"/>
-        <filter val="DNN-ew3"/>
-        <filter val="DNN-ew4"/>
-        <filter val="DNN-obs"/>
-        <filter val="DNN-or"/>
-        <filter val="DNN-sg5"/>
-        <filter val="DNN-sg7"/>
-        <filter val="DNN-sg9"/>
-        <filter val="GRU-ew2"/>
-        <filter val="GRU-ew3"/>
-        <filter val="GRU-ew4"/>
-        <filter val="GRU-obs"/>
-        <filter val="GRU-or"/>
-        <filter val="GRU-sg5"/>
-        <filter val="GRU-sg7"/>
-        <filter val="GRU-sg9"/>
-        <filter val="LSTM-ew2"/>
-        <filter val="LSTM-ew3"/>
-        <filter val="LSTM-ew4"/>
-        <filter val="LSTM-obs"/>
-        <filter val="LSTM-or"/>
-        <filter val="LSTM-sg5"/>
-        <filter val="LSTM-sg7"/>
-        <filter val="LSTM-sg9"/>
-        <filter val="RNN-ew2"/>
-        <filter val="RNN-ew3"/>
-        <filter val="RNN-ew4"/>
-        <filter val="RNN-obs"/>
-        <filter val="RNN-or"/>
-        <filter val="RNN-sg5"/>
-        <filter val="RNN-sg7"/>
-        <filter val="RNN-sg9"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:W49">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W49">
       <sortCondition ref="E1:E49"/>
     </sortState>
   </autoFilter>
@@ -4403,6 +4376,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8A516D-5158-440D-811A-9C777F5FD05C}">
+  <dimension ref="C5:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="41">
+        <v>3.73E-2</v>
+      </c>
+      <c r="E5" s="41">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C6" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="43">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="E6" s="43">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="42">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="E7" s="42">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="42">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="E8" s="42">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C9" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="44">
+        <v>0.04</v>
+      </c>
+      <c r="E9" s="44">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="42">
+        <v>4.0300000000000002E-2</v>
+      </c>
+      <c r="E10" s="42">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.4">
+      <c r="C11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="42">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="E11" s="42">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7214CF6-9A35-4870-82BC-6A202AFC67C5}">
   <dimension ref="A5:P47"/>
   <sheetViews>
@@ -4422,14 +4490,14 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D6" s="25"/>
@@ -4513,7 +4581,7 @@
       <c r="O9" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="P9" s="36">
+      <c r="P9" s="34">
         <v>1.5800000000000002E-2</v>
       </c>
     </row>
@@ -4760,14 +4828,14 @@
       </c>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D20" s="34">
+      <c r="D20" s="45">
         <v>1016</v>
       </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
       <c r="M20" s="2">
         <v>3.1972</v>
       </c>
@@ -5084,14 +5152,14 @@
       </c>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
+      <c r="E34" s="45"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="45"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="45"/>
       <c r="M34" s="5">
         <v>1.1218999999999999</v>
       </c>
@@ -5341,7 +5409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1DB96E-F0A8-460E-9A4B-15CE75D83F02}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W60"/>
@@ -8354,16 +8422,16 @@
       <c r="C44" s="1">
         <v>0.36749999999999999</v>
       </c>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38">
+      <c r="D44" s="36"/>
+      <c r="E44" s="36">
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="F44" s="37">
-        <v>0</v>
-      </c>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="37">
+      <c r="F44" s="35">
+        <v>0</v>
+      </c>
+      <c r="G44" s="36"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="35">
         <v>1.4E-3</v>
       </c>
       <c r="J44" s="1">
@@ -8512,16 +8580,16 @@
       <c r="C48" s="1">
         <v>0.38340000000000002</v>
       </c>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38">
+      <c r="D48" s="36"/>
+      <c r="E48" s="36">
         <v>2.9899999999999999E-2</v>
       </c>
-      <c r="F48" s="39">
-        <v>0</v>
-      </c>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="39">
+      <c r="F48" s="37">
+        <v>0</v>
+      </c>
+      <c r="G48" s="36"/>
+      <c r="H48" s="36"/>
+      <c r="I48" s="37">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="J48" s="1">
@@ -8668,22 +8736,22 @@
       <c r="C52" s="2">
         <v>0.37559999999999999</v>
       </c>
-      <c r="D52" s="40">
+      <c r="D52" s="38">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="38">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="F52" s="40">
-        <v>0</v>
-      </c>
-      <c r="G52" s="40">
-        <v>0</v>
-      </c>
-      <c r="H52" s="40">
-        <v>0</v>
-      </c>
-      <c r="I52" s="40">
+      <c r="F52" s="38">
+        <v>0</v>
+      </c>
+      <c r="G52" s="38">
+        <v>0</v>
+      </c>
+      <c r="H52" s="38">
+        <v>0</v>
+      </c>
+      <c r="I52" s="38">
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="J52" s="2">
@@ -8739,22 +8807,22 @@
       <c r="C53" s="2">
         <v>0.36620000000000003</v>
       </c>
-      <c r="D53" s="37">
+      <c r="D53" s="35">
         <v>0.8367</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="35">
         <v>3.1899999999999998E-2</v>
       </c>
-      <c r="F53" s="37">
-        <v>0</v>
-      </c>
-      <c r="G53" s="37">
-        <v>0</v>
-      </c>
-      <c r="H53" s="37">
-        <v>0</v>
-      </c>
-      <c r="I53" s="37">
+      <c r="F53" s="35">
+        <v>0</v>
+      </c>
+      <c r="G53" s="35">
+        <v>0</v>
+      </c>
+      <c r="H53" s="35">
+        <v>0</v>
+      </c>
+      <c r="I53" s="35">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="J53" s="2">
@@ -8810,22 +8878,22 @@
       <c r="C54" s="2">
         <v>0.5272</v>
       </c>
-      <c r="D54" s="40">
+      <c r="D54" s="38">
         <v>0.59340000000000004</v>
       </c>
-      <c r="E54" s="40">
+      <c r="E54" s="38">
         <v>5.6399999999999999E-2</v>
       </c>
-      <c r="F54" s="40">
-        <v>0</v>
-      </c>
-      <c r="G54" s="40">
-        <v>0</v>
-      </c>
-      <c r="H54" s="40">
-        <v>0</v>
-      </c>
-      <c r="I54" s="40">
+      <c r="F54" s="38">
+        <v>0</v>
+      </c>
+      <c r="G54" s="38">
+        <v>0</v>
+      </c>
+      <c r="H54" s="38">
+        <v>0</v>
+      </c>
+      <c r="I54" s="38">
         <v>0.2366</v>
       </c>
       <c r="J54" s="2">
@@ -8881,22 +8949,22 @@
       <c r="C55" s="2">
         <v>0.53649999999999998</v>
       </c>
-      <c r="D55" s="40">
+      <c r="D55" s="38">
         <v>0.58589999999999998</v>
       </c>
-      <c r="E55" s="40">
+      <c r="E55" s="38">
         <v>5.67E-2</v>
       </c>
-      <c r="F55" s="40">
-        <v>0</v>
-      </c>
-      <c r="G55" s="40">
-        <v>0</v>
-      </c>
-      <c r="H55" s="40">
-        <v>0</v>
-      </c>
-      <c r="I55" s="40">
+      <c r="F55" s="38">
+        <v>0</v>
+      </c>
+      <c r="G55" s="38">
+        <v>0</v>
+      </c>
+      <c r="H55" s="38">
+        <v>0</v>
+      </c>
+      <c r="I55" s="38">
         <v>0.2286</v>
       </c>
       <c r="J55" s="2">
@@ -8952,22 +9020,22 @@
       <c r="C56" s="2">
         <v>0.5272</v>
       </c>
-      <c r="D56" s="40">
+      <c r="D56" s="38">
         <v>0.5958</v>
       </c>
-      <c r="E56" s="40">
+      <c r="E56" s="38">
         <v>5.67E-2</v>
       </c>
-      <c r="F56" s="40">
-        <v>0</v>
-      </c>
-      <c r="G56" s="40">
-        <v>0</v>
-      </c>
-      <c r="H56" s="40">
-        <v>0</v>
-      </c>
-      <c r="I56" s="40">
+      <c r="F56" s="38">
+        <v>0</v>
+      </c>
+      <c r="G56" s="38">
+        <v>0</v>
+      </c>
+      <c r="H56" s="38">
+        <v>0</v>
+      </c>
+      <c r="I56" s="38">
         <v>0.2326</v>
       </c>
       <c r="J56" s="2">
@@ -9023,22 +9091,22 @@
       <c r="C57" s="2">
         <v>0.69089999999999996</v>
       </c>
-      <c r="D57" s="40">
+      <c r="D57" s="38">
         <v>0.35220000000000001</v>
       </c>
-      <c r="E57" s="40">
+      <c r="E57" s="38">
         <v>8.14E-2</v>
       </c>
-      <c r="F57" s="40">
-        <v>0</v>
-      </c>
-      <c r="G57" s="40">
-        <v>0</v>
-      </c>
-      <c r="H57" s="40">
-        <v>0</v>
-      </c>
-      <c r="I57" s="40">
+      <c r="F57" s="38">
+        <v>0</v>
+      </c>
+      <c r="G57" s="38">
+        <v>0</v>
+      </c>
+      <c r="H57" s="38">
+        <v>0</v>
+      </c>
+      <c r="I57" s="38">
         <v>0.23400000000000001</v>
       </c>
       <c r="J57" s="2">
@@ -9094,22 +9162,22 @@
       <c r="C58" s="2">
         <v>0.69199999999999995</v>
       </c>
-      <c r="D58" s="40">
+      <c r="D58" s="38">
         <v>0.34920000000000001</v>
       </c>
-      <c r="E58" s="40">
+      <c r="E58" s="38">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="F58" s="40">
-        <v>0</v>
-      </c>
-      <c r="G58" s="40">
-        <v>0</v>
-      </c>
-      <c r="H58" s="40">
-        <v>0</v>
-      </c>
-      <c r="I58" s="40">
+      <c r="F58" s="38">
+        <v>0</v>
+      </c>
+      <c r="G58" s="38">
+        <v>0</v>
+      </c>
+      <c r="H58" s="38">
+        <v>0</v>
+      </c>
+      <c r="I58" s="38">
         <v>0.2359</v>
       </c>
       <c r="J58" s="2">
@@ -9165,22 +9233,22 @@
       <c r="C59" s="2">
         <v>0.69550000000000001</v>
       </c>
-      <c r="D59" s="40">
+      <c r="D59" s="38">
         <v>0.34770000000000001</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E59" s="38">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="F59" s="40">
-        <v>0</v>
-      </c>
-      <c r="G59" s="40">
-        <v>0</v>
-      </c>
-      <c r="H59" s="40">
-        <v>0</v>
-      </c>
-      <c r="I59" s="40">
+      <c r="F59" s="38">
+        <v>0</v>
+      </c>
+      <c r="G59" s="38">
+        <v>0</v>
+      </c>
+      <c r="H59" s="38">
+        <v>0</v>
+      </c>
+      <c r="I59" s="38">
         <v>0.2283</v>
       </c>
       <c r="J59" s="2">
@@ -9287,7 +9355,182 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE70BE7-0B37-4FD8-8086-1CFE7ED5E795}">
+  <dimension ref="J12:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="12" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3.8300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K17" s="2">
+        <v>3.8899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3.9100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K19" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J21" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="5">
+        <v>3.95E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="2">
+        <v>3.9600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K23" s="2">
+        <v>3.9800000000000002E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K24" s="2">
+        <v>4.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="2">
+        <v>4.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J26" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="2">
+        <v>4.1399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="2">
+        <v>4.1500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="2">
+        <v>4.2099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="2">
+        <v>4.2299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="10:11" x14ac:dyDescent="0.4">
+      <c r="J31" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K31" s="2">
+        <v>4.3200000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DCFF82F-8486-4016-94B9-0BDD3A2A47CA}">
   <dimension ref="I13:M21"/>
   <sheetViews>
@@ -9471,7 +9714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E97BAAB-F9AE-46B3-8DD9-B3D5FADC9127}">
   <dimension ref="H3:J43"/>
   <sheetViews>
@@ -9493,7 +9736,7 @@
       <c r="H4" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="34">
         <v>1.5800000000000002E-2</v>
       </c>
       <c r="J4" s="26">
@@ -9845,7 +10088,7 @@
       <c r="H36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="41">
+      <c r="I36" s="39">
         <v>3.1899999999999998E-2</v>
       </c>
       <c r="J36" s="26">
@@ -9856,7 +10099,7 @@
       <c r="H37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="42">
+      <c r="I37" s="40">
         <v>3.1899999999999998E-2</v>
       </c>
       <c r="J37" s="26">
@@ -9867,7 +10110,7 @@
       <c r="H38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="41">
+      <c r="I38" s="39">
         <v>5.6399999999999999E-2</v>
       </c>
       <c r="J38" s="26">
@@ -9878,7 +10121,7 @@
       <c r="H39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="41">
+      <c r="I39" s="39">
         <v>5.67E-2</v>
       </c>
       <c r="J39" s="26">
@@ -9889,7 +10132,7 @@
       <c r="H40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I40" s="41">
+      <c r="I40" s="39">
         <v>5.67E-2</v>
       </c>
       <c r="J40" s="26">
@@ -9900,7 +10143,7 @@
       <c r="H41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="41">
+      <c r="I41" s="39">
         <v>8.14E-2</v>
       </c>
       <c r="J41" s="26">
@@ -9911,7 +10154,7 @@
       <c r="H42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I42" s="41">
+      <c r="I42" s="39">
         <v>8.2100000000000006E-2</v>
       </c>
       <c r="J42" s="26">
@@ -9922,7 +10165,7 @@
       <c r="H43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I43" s="41">
+      <c r="I43" s="39">
         <v>8.2299999999999998E-2</v>
       </c>
       <c r="J43" s="26">
@@ -9940,7 +10183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2614E7D4-0119-49DF-BE51-5E4AC211198A}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:V49"/>

--- a/Thesis-codes/NH3-summary-final.xlsx
+++ b/Thesis-codes/NH3-summary-final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D21F4E2-C03B-44DE-B63C-208365375D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F0AF0E-0168-416B-8EBB-925968DC6B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29837" yWindow="1646" windowWidth="27308" windowHeight="14331" tabRatio="761" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
+    <workbookView xWindow="-22946" yWindow="3849" windowWidth="20409" windowHeight="13148" tabRatio="761" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
   </bookViews>
   <sheets>
     <sheet name="Predict-0116-0122" sheetId="7" r:id="rId1"/>
@@ -411,7 +411,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -508,12 +508,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -534,6 +528,9 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -859,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0D07A2-8BFB-4532-81F8-4995D0BF2BB4}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="M22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -869,8 +866,9 @@
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.07421875" style="2" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="11.61328125" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.765625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.4609375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.69140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.61328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.4609375" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.765625" style="2" customWidth="1"/>
     <col min="9" max="9" width="11.921875" style="2" customWidth="1"/>
     <col min="10" max="10" width="12.765625" style="2" customWidth="1"/>
@@ -1524,145 +1522,145 @@
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.22770000000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.22370000000000001</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2.3E-3</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="O10" s="26">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P10" s="2">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="R10" s="2">
+        <v>6.08E-2</v>
+      </c>
+      <c r="S10" s="2">
+        <v>2.6322999999999999</v>
+      </c>
+      <c r="T10" s="2">
+        <v>2.4855</v>
+      </c>
+      <c r="U10" s="26">
+        <v>5.57E-2</v>
+      </c>
+      <c r="V10" s="2">
+        <v>1.3168</v>
+      </c>
+      <c r="W10" s="2">
+        <v>1.1892</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>0.2215</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="3">
         <v>0.91259999999999997</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="3">
         <v>1.2123999999999999</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <v>1.1485000000000001</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H11" s="7">
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I11" s="3">
         <v>1.9E-3</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J11" s="3">
         <v>0.22409999999999999</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K11" s="3">
         <v>0.21959999999999999</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L11" s="3">
         <v>1.5E-3</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M11" s="3">
         <v>0.91410000000000002</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N11" s="3">
         <v>0.91049999999999998</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O11" s="3">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P11" s="3">
         <v>3.95E-2</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q11" s="3">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R11" s="3">
         <v>7.4399999999999994E-2</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S11" s="3">
         <v>1.282</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T11" s="3">
         <v>1.1093999999999999</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U11" s="3">
         <v>3.6600000000000001E-2</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V11" s="3">
         <v>1.1915</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W11" s="3">
         <v>1.1019000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.22770000000000001</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.90759999999999996</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="F11" s="2">
-        <v>2.5659999999999998</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1.2390000000000001</v>
-      </c>
-      <c r="H11" s="6">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="I11" s="2">
-        <v>2.8E-3</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="K11" s="2">
-        <v>0.22370000000000001</v>
-      </c>
-      <c r="L11" s="2">
-        <v>2.3E-3</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0.91080000000000005</v>
-      </c>
-      <c r="N11" s="2">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="O11" s="26">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="P11" s="2">
-        <v>3.9600000000000003E-2</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="R11" s="2">
-        <v>6.08E-2</v>
-      </c>
-      <c r="S11" s="2">
-        <v>2.6322999999999999</v>
-      </c>
-      <c r="T11" s="2">
-        <v>2.4855</v>
-      </c>
-      <c r="U11" s="26">
-        <v>5.57E-2</v>
-      </c>
-      <c r="V11" s="2">
-        <v>1.3168</v>
-      </c>
-      <c r="W11" s="2">
-        <v>1.1892</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.4">
@@ -2309,70 +2307,70 @@
         <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2">
-        <v>0.23250000000000001</v>
+        <v>0.25159999999999999</v>
       </c>
       <c r="D21" s="2">
-        <v>0.90359999999999996</v>
+        <v>0.8871</v>
       </c>
       <c r="E21" s="2">
         <v>4.0500000000000001E-2</v>
       </c>
       <c r="F21" s="2">
-        <v>5.6917999999999997</v>
+        <v>5.7820999999999998</v>
       </c>
       <c r="G21" s="2">
-        <v>1.3993</v>
+        <v>1.2365999999999999</v>
       </c>
       <c r="H21" s="6">
-        <v>6.2500000000000003E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I21" s="2">
-        <v>4.5999999999999999E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="J21" s="2">
-        <v>0.2384</v>
+        <v>0.25430000000000003</v>
       </c>
       <c r="K21" s="2">
-        <v>0.22720000000000001</v>
+        <v>0.24859999999999999</v>
       </c>
       <c r="L21" s="2">
-        <v>3.8E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="M21" s="2">
-        <v>0.90800000000000003</v>
+        <v>0.88990000000000002</v>
       </c>
       <c r="N21" s="2">
-        <v>0.89870000000000005</v>
+        <v>0.88470000000000004</v>
       </c>
       <c r="O21" s="26">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P21" s="2">
-        <v>4.07E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q21" s="2">
-        <v>4.02E-2</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0.12189999999999999</v>
+        <v>0.04</v>
+      </c>
+      <c r="R21" s="26">
+        <v>2.58E-2</v>
       </c>
       <c r="S21" s="2">
-        <v>5.8236999999999997</v>
+        <v>5.8181000000000003</v>
       </c>
       <c r="T21" s="2">
-        <v>5.5297000000000001</v>
+        <v>5.7591999999999999</v>
       </c>
       <c r="U21" s="26">
-        <v>5.3199999999999997E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="V21" s="2">
-        <v>1.4430000000000001</v>
+        <v>1.2484</v>
       </c>
       <c r="W21" s="2">
-        <v>1.3244</v>
+        <v>1.2154</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2380,70 +2378,70 @@
         <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2">
-        <v>0.25159999999999999</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="D22" s="2">
-        <v>0.8871</v>
+        <v>0.90359999999999996</v>
       </c>
       <c r="E22" s="2">
         <v>4.0500000000000001E-2</v>
       </c>
       <c r="F22" s="2">
-        <v>5.7820999999999998</v>
+        <v>5.6917999999999997</v>
       </c>
       <c r="G22" s="2">
-        <v>1.2365999999999999</v>
+        <v>1.3993</v>
       </c>
       <c r="H22" s="6">
-        <v>1.2500000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I22" s="2">
-        <v>2.3E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="J22" s="2">
-        <v>0.25430000000000003</v>
+        <v>0.2384</v>
       </c>
       <c r="K22" s="2">
-        <v>0.24859999999999999</v>
+        <v>0.22720000000000001</v>
       </c>
       <c r="L22" s="2">
-        <v>2.0999999999999999E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="M22" s="2">
-        <v>0.88990000000000002</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="N22" s="2">
-        <v>0.88470000000000004</v>
+        <v>0.89870000000000005</v>
       </c>
       <c r="O22" s="26">
-        <v>4.0000000000000002E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P22" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>4.07E-2</v>
       </c>
       <c r="Q22" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="R22" s="26">
-        <v>2.58E-2</v>
+        <v>4.02E-2</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.12189999999999999</v>
       </c>
       <c r="S22" s="2">
-        <v>5.8181000000000003</v>
+        <v>5.8236999999999997</v>
       </c>
       <c r="T22" s="2">
-        <v>5.7591999999999999</v>
+        <v>5.5297000000000001</v>
       </c>
       <c r="U22" s="26">
-        <v>1.4999999999999999E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="V22" s="2">
-        <v>1.2484</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="W22" s="2">
-        <v>1.2154</v>
+        <v>1.3244</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
@@ -4392,10 +4390,10 @@
       <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="39">
         <v>3.73E-2</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="39">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
@@ -4403,10 +4401,10 @@
       <c r="C6" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="41">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="41">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -4414,10 +4412,10 @@
       <c r="C7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="42">
+      <c r="D7" s="40">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="E7" s="42">
+      <c r="E7" s="40">
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
@@ -4425,10 +4423,10 @@
       <c r="C8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="40">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="40">
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
@@ -4436,10 +4434,10 @@
       <c r="C9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="42">
         <v>0.04</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="42">
         <v>1E-4</v>
       </c>
     </row>
@@ -4447,10 +4445,10 @@
       <c r="C10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="40">
         <v>4.0300000000000002E-2</v>
       </c>
-      <c r="E10" s="42">
+      <c r="E10" s="40">
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
@@ -4458,10 +4456,10 @@
       <c r="C11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="40">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="40">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
@@ -4490,14 +4488,14 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D6" s="25"/>
@@ -4828,14 +4826,14 @@
       </c>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D20" s="45">
+      <c r="D20" s="44">
         <v>1016</v>
       </c>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
       <c r="M20" s="2">
         <v>3.1972</v>
       </c>
@@ -5152,14 +5150,14 @@
       </c>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="D34" s="45" t="s">
+      <c r="D34" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="45"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="45"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
       <c r="M34" s="5">
         <v>1.1218999999999999</v>
       </c>
@@ -5417,7 +5415,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D6" sqref="D6:I15"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="B48:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5518,17 +5516,17 @@
       <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.2177</v>
+      <c r="B2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.2142</v>
       </c>
       <c r="D2" s="2">
-        <v>0.94230000000000003</v>
+        <v>0.94410000000000005</v>
       </c>
       <c r="E2" s="32">
-        <v>1.4999999999999999E-2</v>
+        <v>1.49E-2</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
@@ -5540,31 +5538,31 @@
         <v>0</v>
       </c>
       <c r="I2" s="2">
-        <v>1.9E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="J2" s="2">
-        <v>0.21920000000000001</v>
+        <v>0.21629999999999999</v>
       </c>
       <c r="K2" s="2">
-        <v>0.215</v>
+        <v>0.2127</v>
       </c>
       <c r="L2" s="2">
-        <v>1E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M2" s="2">
-        <v>0.94369999999999998</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="N2" s="2">
-        <v>0.9415</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="O2" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P2" s="2">
-        <v>1.5299999999999999E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.46E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="R2" s="2">
         <v>0</v>
@@ -5589,17 +5587,17 @@
       <c r="A3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.2142</v>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.2177</v>
       </c>
       <c r="D3" s="2">
-        <v>0.94410000000000005</v>
+        <v>0.94230000000000003</v>
       </c>
       <c r="E3" s="32">
-        <v>1.49E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F3" s="2">
         <v>0</v>
@@ -5611,31 +5609,31 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>1.5E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="J3" s="2">
-        <v>0.21629999999999999</v>
+        <v>0.21920000000000001</v>
       </c>
       <c r="K3" s="2">
-        <v>0.2127</v>
+        <v>0.215</v>
       </c>
       <c r="L3" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M3" s="2">
-        <v>0.94489999999999996</v>
+        <v>0.94369999999999998</v>
       </c>
       <c r="N3" s="2">
-        <v>0.94299999999999995</v>
+        <v>0.9415</v>
       </c>
       <c r="O3" s="2">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P3" s="2">
-        <v>1.5100000000000001E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="Q3" s="2">
-        <v>1.47E-2</v>
+        <v>1.46E-2</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -5732,16 +5730,16 @@
         <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.24030000000000001</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0.92969999999999997</v>
+        <v>63</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="E5" s="31">
-        <v>1.6400000000000001E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="F5" s="13">
         <v>0</v>
@@ -5753,31 +5751,31 @@
         <v>0</v>
       </c>
       <c r="I5" s="13">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="L5" s="2">
         <v>1.5E-3</v>
       </c>
-      <c r="J5" s="2">
-        <v>0.2424</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.2392</v>
-      </c>
-      <c r="L5" s="2">
-        <v>8.0000000000000004E-4</v>
-      </c>
       <c r="M5" s="2">
-        <v>0.93030000000000002</v>
+        <v>0.94850000000000001</v>
       </c>
       <c r="N5" s="2">
-        <v>0.92849999999999999</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="O5" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P5" s="2">
-        <v>1.67E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.61E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -5972,7 +5970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="11" t="s">
         <v>77</v>
       </c>
@@ -6048,16 +6046,16 @@
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.20930000000000001</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>79</v>
+        <v>64</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.2092</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.94669999999999999</v>
       </c>
       <c r="E10" s="31">
-        <v>1.55E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F10" s="13">
         <v>0</v>
@@ -6069,31 +6067,31 @@
         <v>0</v>
       </c>
       <c r="I10" s="13">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="J10" s="2">
-        <v>0.21279999999999999</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="K10" s="2">
-        <v>0.20569999999999999</v>
+        <v>0.20649999999999999</v>
       </c>
       <c r="L10" s="2">
         <v>1.5E-3</v>
       </c>
       <c r="M10" s="2">
-        <v>0.94850000000000001</v>
+        <v>0.94810000000000005</v>
       </c>
       <c r="N10" s="2">
-        <v>0.94489999999999996</v>
+        <v>0.94469999999999998</v>
       </c>
       <c r="O10" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P10" s="2">
-        <v>1.5800000000000002E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q10" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -6114,7 +6112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -6185,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -6256,21 +6254,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.2092</v>
+        <v>61</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.24030000000000001</v>
       </c>
       <c r="D13" s="13">
-        <v>0.94669999999999999</v>
+        <v>0.92969999999999997</v>
       </c>
       <c r="E13" s="31">
-        <v>1.6E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="F13" s="13">
         <v>0</v>
@@ -6282,31 +6280,31 @@
         <v>0</v>
       </c>
       <c r="I13" s="13">
-        <v>2.8E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="J13" s="2">
-        <v>0.21299999999999999</v>
+        <v>0.2424</v>
       </c>
       <c r="K13" s="2">
-        <v>0.20649999999999999</v>
+        <v>0.2392</v>
       </c>
       <c r="L13" s="2">
-        <v>1.5E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M13" s="2">
-        <v>0.94810000000000005</v>
+        <v>0.93030000000000002</v>
       </c>
       <c r="N13" s="2">
-        <v>0.94469999999999998</v>
+        <v>0.92849999999999999</v>
       </c>
       <c r="O13" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P13" s="2">
         <v>1.67E-2</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.5699999999999999E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -6327,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -6398,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -6469,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6540,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -6611,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -6751,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -6854,7 +6852,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -6925,23 +6923,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.2243</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="30">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.2165</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0.94289999999999996</v>
+      </c>
+      <c r="E23" s="21">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="15">
         <v>0</v>
       </c>
       <c r="G23" s="21">
@@ -6950,32 +6948,32 @@
       <c r="H23" s="21">
         <v>0</v>
       </c>
-      <c r="I23" s="13">
-        <v>0</v>
+      <c r="I23" s="15">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J23" s="2">
-        <v>0.22739999999999999</v>
+        <v>0.21679999999999999</v>
       </c>
       <c r="K23" s="2">
-        <v>0.2185</v>
+        <v>0.216</v>
       </c>
       <c r="L23" s="2">
-        <v>2.2000000000000001E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M23" s="2">
-        <v>0.94189999999999996</v>
+        <v>0.94320000000000004</v>
       </c>
       <c r="N23" s="2">
-        <v>0.93710000000000004</v>
-      </c>
-      <c r="O23" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="O23" s="26">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P23" s="2">
-        <v>1.84E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="Q23" s="2">
-        <v>1.7299999999999999E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -6996,23 +6994,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.2165</v>
-      </c>
-      <c r="D24" s="21">
-        <v>0.94289999999999996</v>
-      </c>
-      <c r="E24" s="21">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.2243</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="30">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24" s="13">
         <v>0</v>
       </c>
       <c r="G24" s="21">
@@ -7021,32 +7019,32 @@
       <c r="H24" s="21">
         <v>0</v>
       </c>
-      <c r="I24" s="15">
-        <v>1.2999999999999999E-3</v>
+      <c r="I24" s="13">
+        <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>0.21679999999999999</v>
+        <v>0.22739999999999999</v>
       </c>
       <c r="K24" s="2">
-        <v>0.216</v>
+        <v>0.2185</v>
       </c>
       <c r="L24" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="M24" s="2">
-        <v>0.94320000000000004</v>
+        <v>0.94189999999999996</v>
       </c>
       <c r="N24" s="2">
-        <v>0.94279999999999997</v>
-      </c>
-      <c r="O24" s="26">
-        <v>2.0000000000000001E-4</v>
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="O24" s="2">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P24" s="2">
-        <v>1.8200000000000001E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="Q24" s="2">
-        <v>1.77E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -7067,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -7138,7 +7136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -7280,7 +7278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -7351,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -7420,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -7491,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -7562,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -7633,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -7704,7 +7702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -7846,163 +7844,103 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.3609</v>
-      </c>
-      <c r="D36" s="21">
-        <v>0.84150000000000003</v>
-      </c>
-      <c r="E36" s="21">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="F36" s="15">
-        <v>0</v>
-      </c>
-      <c r="G36" s="21">
-        <v>0</v>
-      </c>
-      <c r="H36" s="21">
-        <v>0</v>
-      </c>
-      <c r="I36" s="15">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="J36" s="2">
-        <v>0.3609</v>
-      </c>
-      <c r="K36" s="2">
-        <v>0.36080000000000001</v>
-      </c>
-      <c r="L36" s="2">
-        <v>0</v>
-      </c>
-      <c r="M36" s="2">
-        <v>0.84150000000000003</v>
-      </c>
-      <c r="N36" s="2">
-        <v>0.84150000000000003</v>
-      </c>
-      <c r="O36" s="2">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="R36" s="2">
-        <v>0</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0</v>
-      </c>
-      <c r="T36" s="2">
-        <v>0</v>
-      </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.36749999999999999</v>
+      </c>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0</v>
+      </c>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="21">
+        <v>1.4E-3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0.36659999999999998</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+    </row>
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.36280000000000001</v>
-      </c>
-      <c r="D37" s="21">
-        <v>0.8397</v>
-      </c>
-      <c r="E37" s="21">
-        <v>3.15E-2</v>
-      </c>
-      <c r="F37" s="21">
-        <v>0</v>
-      </c>
-      <c r="G37" s="21">
-        <v>0</v>
-      </c>
-      <c r="H37" s="21">
-        <v>0</v>
-      </c>
-      <c r="I37" s="21">
-        <v>1.5E-3</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0.37030000000000002</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="L37" s="2">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0.84309999999999996</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="O37" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="P37" s="2">
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="R37" s="2">
-        <v>0</v>
-      </c>
-      <c r="S37" s="2">
-        <v>0</v>
-      </c>
-      <c r="T37" s="2">
-        <v>0</v>
-      </c>
-      <c r="U37" s="2">
-        <v>0</v>
-      </c>
-      <c r="V37" s="2">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+        <v>76</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.38340000000000002</v>
+      </c>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="15">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0.38540000000000002</v>
+      </c>
+      <c r="K37" s="1">
+        <v>0.38140000000000002</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+    </row>
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="C38" s="2">
-        <v>0.36509999999999998</v>
+        <v>0.3609</v>
       </c>
       <c r="D38" s="21">
-        <v>0.8377</v>
+        <v>0.84150000000000003</v>
       </c>
       <c r="E38" s="21">
-        <v>3.1600000000000003E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="F38" s="15">
         <v>0</v>
@@ -8017,28 +7955,28 @@
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="J38" s="2">
-        <v>0.37159999999999999</v>
+        <v>0.3609</v>
       </c>
       <c r="K38" s="2">
-        <v>0.35899999999999999</v>
+        <v>0.36080000000000001</v>
       </c>
       <c r="L38" s="2">
-        <v>4.5999999999999999E-3</v>
+        <v>0</v>
       </c>
       <c r="M38" s="2">
-        <v>0.84309999999999996</v>
+        <v>0.84150000000000003</v>
       </c>
       <c r="N38" s="2">
-        <v>0.83179999999999998</v>
+        <v>0.84150000000000003</v>
       </c>
       <c r="O38" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="P38" s="2">
-        <v>3.1899999999999998E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="Q38" s="2">
-        <v>3.1399999999999997E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R38" s="2">
         <v>0</v>
@@ -8059,23 +7997,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C39" s="2">
-        <v>0.36620000000000003</v>
+        <v>0.36280000000000001</v>
       </c>
       <c r="D39" s="21">
-        <v>0.83660000000000001</v>
+        <v>0.8397</v>
       </c>
       <c r="E39" s="21">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="F39" s="21"/>
+        <v>3.15E-2</v>
+      </c>
+      <c r="F39" s="21">
+        <v>0</v>
+      </c>
       <c r="G39" s="21">
         <v>0</v>
       </c>
@@ -8083,31 +8023,31 @@
         <v>0</v>
       </c>
       <c r="I39" s="21">
-        <v>1.6000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="J39" s="2">
-        <v>0.37859999999999999</v>
+        <v>0.37030000000000002</v>
       </c>
       <c r="K39" s="2">
-        <v>0.35980000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="L39" s="2">
-        <v>7.9000000000000008E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="M39" s="2">
-        <v>0.84230000000000005</v>
+        <v>0.84309999999999996</v>
       </c>
       <c r="N39" s="2">
-        <v>0.82540000000000002</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="O39" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P39" s="2">
-        <v>3.2199999999999999E-2</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="Q39" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="R39" s="2">
         <v>0</v>
@@ -8128,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -8199,23 +8139,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C41" s="2">
-        <v>0.372</v>
+        <v>0.36509999999999998</v>
       </c>
       <c r="D41" s="21">
-        <v>0.83150000000000002</v>
+        <v>0.8377</v>
       </c>
       <c r="E41" s="21">
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="F41" s="21">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="F41" s="15">
         <v>0</v>
       </c>
       <c r="G41" s="21">
@@ -8224,32 +8164,32 @@
       <c r="H41" s="21">
         <v>0</v>
       </c>
-      <c r="I41" s="21">
-        <v>1.6999999999999999E-3</v>
+      <c r="I41" s="15">
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="J41" s="2">
-        <v>0.38140000000000002</v>
+        <v>0.37159999999999999</v>
       </c>
       <c r="K41" s="2">
-        <v>0.36</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="L41" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="M41" s="2">
-        <v>0.84219999999999995</v>
+        <v>0.84309999999999996</v>
       </c>
       <c r="N41" s="2">
-        <v>0.82289999999999996</v>
+        <v>0.83179999999999998</v>
       </c>
       <c r="O41" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P41" s="2">
-        <v>3.2199999999999999E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="Q41" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="R41" s="2">
         <v>0</v>
@@ -8270,25 +8210,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C42" s="2">
-        <v>0.37</v>
+        <v>0.36620000000000003</v>
       </c>
       <c r="D42" s="21">
-        <v>0.83330000000000004</v>
+        <v>0.83660000000000001</v>
       </c>
       <c r="E42" s="21">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="F42" s="21">
-        <v>0</v>
-      </c>
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="F42" s="21"/>
       <c r="G42" s="21">
         <v>0</v>
       </c>
@@ -8296,31 +8234,31 @@
         <v>0</v>
       </c>
       <c r="I42" s="21">
-        <v>3.2000000000000002E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J42" s="2">
-        <v>0.37330000000000002</v>
+        <v>0.37859999999999999</v>
       </c>
       <c r="K42" s="2">
-        <v>0.36559999999999998</v>
+        <v>0.35980000000000001</v>
       </c>
       <c r="L42" s="2">
-        <v>2.8999999999999998E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="M42" s="2">
-        <v>0.83720000000000006</v>
+        <v>0.84230000000000005</v>
       </c>
       <c r="N42" s="2">
-        <v>0.83030000000000004</v>
+        <v>0.82540000000000002</v>
       </c>
       <c r="O42" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P42" s="2">
-        <v>3.2099999999999997E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="Q42" s="2">
-        <v>3.1699999999999999E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R42" s="2">
         <v>0</v>
@@ -8341,57 +8279,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C43" s="2">
-        <v>0.37740000000000001</v>
-      </c>
-      <c r="D43" s="13">
-        <v>0.8266</v>
-      </c>
-      <c r="E43" s="13">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="F43" s="13">
-        <v>0</v>
-      </c>
-      <c r="G43" s="13">
-        <v>0</v>
-      </c>
-      <c r="H43" s="13">
-        <v>0</v>
-      </c>
-      <c r="I43" s="13">
-        <v>4.7999999999999996E-3</v>
+        <v>0.372</v>
+      </c>
+      <c r="D43" s="21">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="E43" s="21">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="F43" s="21">
+        <v>0</v>
+      </c>
+      <c r="G43" s="21">
+        <v>0</v>
+      </c>
+      <c r="H43" s="21">
+        <v>0</v>
+      </c>
+      <c r="I43" s="21">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="J43" s="2">
-        <v>0.38369999999999999</v>
+        <v>0.38140000000000002</v>
       </c>
       <c r="K43" s="2">
-        <v>0.372</v>
+        <v>0.36</v>
       </c>
       <c r="L43" s="2">
-        <v>4.4000000000000003E-3</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="M43" s="2">
-        <v>0.83150000000000002</v>
+        <v>0.84219999999999995</v>
       </c>
       <c r="N43" s="2">
-        <v>0.82079999999999997</v>
+        <v>0.82289999999999996</v>
       </c>
       <c r="O43" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P43" s="2">
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="Q43" s="2">
-        <v>3.1699999999999999E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R43" s="2">
         <v>0</v>
@@ -8417,186 +8355,310 @@
         <v>77</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.36749999999999999</v>
-      </c>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36">
-        <v>2.6700000000000002E-2</v>
+        <v>39</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="D44" s="35">
+        <v>0.8367</v>
+      </c>
+      <c r="E44" s="35">
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="F44" s="35">
         <v>0</v>
       </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
+      <c r="G44" s="35">
+        <v>0</v>
+      </c>
+      <c r="H44" s="35">
+        <v>0</v>
+      </c>
       <c r="I44" s="35">
-        <v>1.4E-3</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0.36840000000000001</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0.36659999999999998</v>
-      </c>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J44" s="2">
+        <v>0.36649999999999999</v>
+      </c>
+      <c r="K44" s="2">
+        <v>0.36580000000000001</v>
+      </c>
+      <c r="L44" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="M44" s="2">
+        <v>0.83709999999999996</v>
+      </c>
+      <c r="N44" s="2">
+        <v>0.83640000000000003</v>
+      </c>
+      <c r="O44" s="2">
+        <v>0</v>
+      </c>
+      <c r="P44" s="2">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="R44" s="2">
+        <v>0</v>
+      </c>
+      <c r="S44" s="2">
+        <v>0</v>
+      </c>
+      <c r="T44" s="2">
+        <v>0</v>
+      </c>
+      <c r="U44" s="2">
+        <v>0</v>
+      </c>
+      <c r="V44" s="2">
+        <v>0</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>77</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0.37090000000000001</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1">
-        <v>5.3400000000000003E-2</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="J45" s="1">
-        <v>0.37240000000000001</v>
-      </c>
-      <c r="K45" s="1">
-        <v>0.36930000000000002</v>
-      </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="D45" s="35">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="E45" s="35">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="F45" s="35">
+        <v>0</v>
+      </c>
+      <c r="G45" s="35">
+        <v>0</v>
+      </c>
+      <c r="H45" s="35">
+        <v>0</v>
+      </c>
+      <c r="I45" s="35">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="J45" s="2">
+        <v>0.37330000000000002</v>
+      </c>
+      <c r="K45" s="2">
+        <v>0.36559999999999998</v>
+      </c>
+      <c r="L45" s="2">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="M45" s="2">
+        <v>0.83720000000000006</v>
+      </c>
+      <c r="N45" s="2">
+        <v>0.83030000000000004</v>
+      </c>
+      <c r="O45" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P45" s="2">
+        <v>3.2099999999999997E-2</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="R45" s="2">
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
+        <v>0</v>
+      </c>
+      <c r="T45" s="2">
+        <v>0</v>
+      </c>
+      <c r="U45" s="2">
+        <v>0</v>
+      </c>
+      <c r="V45" s="2">
+        <v>0</v>
+      </c>
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>77</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0.38140000000000002</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1">
-        <v>2.8E-3</v>
-      </c>
-      <c r="J46" s="1">
-        <v>0.38319999999999999</v>
-      </c>
-      <c r="K46" s="1">
-        <v>0.37969999999999998</v>
-      </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-    </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.37559999999999999</v>
+      </c>
+      <c r="D46" s="36">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E46" s="36">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="F46" s="36">
+        <v>0</v>
+      </c>
+      <c r="G46" s="36">
+        <v>0</v>
+      </c>
+      <c r="H46" s="36">
+        <v>0</v>
+      </c>
+      <c r="I46" s="36">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0.39460000000000001</v>
+      </c>
+      <c r="K46" s="2">
+        <v>0.36059999999999998</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M46" s="2">
+        <v>0.8417</v>
+      </c>
+      <c r="N46" s="2">
+        <v>0.8105</v>
+      </c>
+      <c r="O46" s="2">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="P46" s="2">
+        <v>3.2899999999999999E-2</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="R46" s="2">
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
+        <v>0</v>
+      </c>
+      <c r="T46" s="2">
+        <v>0</v>
+      </c>
+      <c r="U46" s="2">
+        <v>0</v>
+      </c>
+      <c r="V46" s="2">
+        <v>0</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>77</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0.37909999999999999</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="J47" s="1">
-        <v>0.38059999999999999</v>
-      </c>
-      <c r="K47" s="1">
-        <v>0.37769999999999998</v>
-      </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-    </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.37740000000000001</v>
+      </c>
+      <c r="D47" s="36">
+        <v>0.8266</v>
+      </c>
+      <c r="E47" s="36">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="F47" s="36">
+        <v>0</v>
+      </c>
+      <c r="G47" s="36">
+        <v>0</v>
+      </c>
+      <c r="H47" s="36">
+        <v>0</v>
+      </c>
+      <c r="I47" s="36">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="J47" s="2">
+        <v>0.38369999999999999</v>
+      </c>
+      <c r="K47" s="2">
+        <v>0.372</v>
+      </c>
+      <c r="L47" s="2">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="M47" s="2">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="N47" s="2">
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="O47" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P47" s="2">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>3.1699999999999999E-2</v>
+      </c>
+      <c r="R47" s="2">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2">
+        <v>0</v>
+      </c>
+      <c r="T47" s="2">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2">
+        <v>0</v>
+      </c>
+      <c r="V47" s="2">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>77</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C48" s="1">
-        <v>0.38340000000000002</v>
-      </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="F48" s="37">
-        <v>0</v>
-      </c>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="37">
-        <v>1.2999999999999999E-3</v>
+        <v>0.37909999999999999</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1">
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="J48" s="1">
-        <v>0.38540000000000002</v>
+        <v>0.38059999999999999</v>
       </c>
       <c r="K48" s="1">
-        <v>0.38140000000000002</v>
+        <v>0.37769999999999998</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -8693,25 +8755,26 @@
         <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C51" s="1">
-        <v>0.36209999999999998</v>
+        <v>0.37090000000000001</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1">
-        <v>6.0600000000000001E-2</v>
-      </c>
+        <v>5.3400000000000003E-2</v>
+      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1">
-        <v>2E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="J51" s="1">
-        <v>0.36330000000000001</v>
+        <v>0.37240000000000001</v>
       </c>
       <c r="K51" s="1">
-        <v>0.36080000000000001</v>
+        <v>0.36930000000000002</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -8726,54 +8789,54 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C52" s="2">
-        <v>0.37559999999999999</v>
-      </c>
-      <c r="D52" s="38">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="E52" s="38">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="F52" s="38">
-        <v>0</v>
-      </c>
-      <c r="G52" s="38">
-        <v>0</v>
-      </c>
-      <c r="H52" s="38">
-        <v>0</v>
-      </c>
-      <c r="I52" s="38">
-        <v>1.4200000000000001E-2</v>
+        <v>0.5272</v>
+      </c>
+      <c r="D52" s="36">
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="E52" s="36">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="F52" s="36">
+        <v>0</v>
+      </c>
+      <c r="G52" s="36">
+        <v>0</v>
+      </c>
+      <c r="H52" s="36">
+        <v>0</v>
+      </c>
+      <c r="I52" s="36">
+        <v>0.2366</v>
       </c>
       <c r="J52" s="2">
-        <v>0.39460000000000001</v>
+        <v>0.86180000000000001</v>
       </c>
       <c r="K52" s="2">
-        <v>0.36059999999999998</v>
+        <v>0.3599</v>
       </c>
       <c r="L52" s="2">
-        <v>1.2999999999999999E-2</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="M52" s="2">
-        <v>0.8417</v>
+        <v>0.84230000000000005</v>
       </c>
       <c r="N52" s="2">
-        <v>0.8105</v>
+        <v>9.5799999999999996E-2</v>
       </c>
       <c r="O52" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="P52" s="2">
-        <v>3.2899999999999999E-2</v>
+        <v>0.10639999999999999</v>
       </c>
       <c r="Q52" s="2">
         <v>3.1300000000000001E-2</v>
@@ -8797,57 +8860,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C53" s="2">
-        <v>0.36620000000000003</v>
-      </c>
-      <c r="D53" s="35">
-        <v>0.8367</v>
-      </c>
-      <c r="E53" s="35">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="F53" s="35">
-        <v>0</v>
-      </c>
-      <c r="G53" s="35">
-        <v>0</v>
-      </c>
-      <c r="H53" s="35">
-        <v>0</v>
-      </c>
-      <c r="I53" s="35">
-        <v>2.9999999999999997E-4</v>
+        <v>0.5272</v>
+      </c>
+      <c r="D53" s="36">
+        <v>0.5958</v>
+      </c>
+      <c r="E53" s="36">
+        <v>5.67E-2</v>
+      </c>
+      <c r="F53" s="36">
+        <v>0</v>
+      </c>
+      <c r="G53" s="36">
+        <v>0</v>
+      </c>
+      <c r="H53" s="36">
+        <v>0</v>
+      </c>
+      <c r="I53" s="36">
+        <v>0.2326</v>
       </c>
       <c r="J53" s="2">
-        <v>0.36649999999999999</v>
+        <v>0.85609999999999997</v>
       </c>
       <c r="K53" s="2">
-        <v>0.36580000000000001</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="L53" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>0.34510000000000002</v>
       </c>
       <c r="M53" s="2">
-        <v>0.83709999999999996</v>
+        <v>0.84140000000000004</v>
       </c>
       <c r="N53" s="2">
-        <v>0.83640000000000003</v>
+        <v>0.1077</v>
       </c>
       <c r="O53" s="2">
-        <v>0</v>
+        <v>3.5200000000000002E-2</v>
       </c>
       <c r="P53" s="2">
-        <v>3.2000000000000001E-2</v>
+        <v>0.1066</v>
       </c>
       <c r="Q53" s="2">
-        <v>3.1899999999999998E-2</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="R53" s="2">
         <v>0</v>
@@ -8873,52 +8936,52 @@
         <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="C54" s="2">
-        <v>0.5272</v>
-      </c>
-      <c r="D54" s="38">
-        <v>0.59340000000000004</v>
-      </c>
-      <c r="E54" s="38">
-        <v>5.6399999999999999E-2</v>
-      </c>
-      <c r="F54" s="38">
-        <v>0</v>
-      </c>
-      <c r="G54" s="38">
-        <v>0</v>
-      </c>
-      <c r="H54" s="38">
-        <v>0</v>
-      </c>
-      <c r="I54" s="38">
-        <v>0.2366</v>
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="D54" s="36">
+        <v>0.58589999999999998</v>
+      </c>
+      <c r="E54" s="36">
+        <v>5.67E-2</v>
+      </c>
+      <c r="F54" s="36">
+        <v>0</v>
+      </c>
+      <c r="G54" s="36">
+        <v>0</v>
+      </c>
+      <c r="H54" s="36">
+        <v>0</v>
+      </c>
+      <c r="I54" s="36">
+        <v>0.2286</v>
       </c>
       <c r="J54" s="2">
-        <v>0.86180000000000001</v>
+        <v>0.85950000000000004</v>
       </c>
       <c r="K54" s="2">
-        <v>0.3599</v>
+        <v>0.3639</v>
       </c>
       <c r="L54" s="2">
-        <v>0.35189999999999999</v>
+        <v>0.34339999999999998</v>
       </c>
       <c r="M54" s="2">
-        <v>0.84230000000000005</v>
+        <v>0.83879999999999999</v>
       </c>
       <c r="N54" s="2">
-        <v>9.5799999999999996E-2</v>
+        <v>0.10050000000000001</v>
       </c>
       <c r="O54" s="2">
-        <v>3.5400000000000001E-2</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="P54" s="2">
-        <v>0.10639999999999999</v>
+        <v>0.1062</v>
       </c>
       <c r="Q54" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
@@ -8939,149 +9002,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0.53649999999999998</v>
-      </c>
-      <c r="D55" s="38">
-        <v>0.58589999999999998</v>
-      </c>
-      <c r="E55" s="38">
-        <v>5.67E-2</v>
-      </c>
-      <c r="F55" s="38">
-        <v>0</v>
-      </c>
-      <c r="G55" s="38">
-        <v>0</v>
-      </c>
-      <c r="H55" s="38">
-        <v>0</v>
-      </c>
-      <c r="I55" s="38">
-        <v>0.2286</v>
-      </c>
-      <c r="J55" s="2">
-        <v>0.85950000000000004</v>
-      </c>
-      <c r="K55" s="2">
-        <v>0.3639</v>
-      </c>
-      <c r="L55" s="2">
-        <v>0.34339999999999998</v>
-      </c>
-      <c r="M55" s="2">
-        <v>0.83879999999999999</v>
-      </c>
-      <c r="N55" s="2">
-        <v>0.10050000000000001</v>
-      </c>
-      <c r="O55" s="2">
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="P55" s="2">
-        <v>0.1062</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>3.1399999999999997E-2</v>
-      </c>
-      <c r="R55" s="2">
-        <v>0</v>
-      </c>
-      <c r="S55" s="2">
-        <v>0</v>
-      </c>
-      <c r="T55" s="2">
-        <v>0</v>
-      </c>
-      <c r="U55" s="2">
-        <v>0</v>
-      </c>
-      <c r="V55" s="2">
-        <v>0</v>
-      </c>
-      <c r="W55" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
+        <v>75</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0.38140000000000002</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1">
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.38319999999999999</v>
+      </c>
+      <c r="K55" s="1">
+        <v>0.37969999999999998</v>
+      </c>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+      <c r="V55" s="1"/>
+      <c r="W55" s="1"/>
+    </row>
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0.5272</v>
-      </c>
-      <c r="D56" s="38">
-        <v>0.5958</v>
-      </c>
-      <c r="E56" s="38">
-        <v>5.67E-2</v>
-      </c>
-      <c r="F56" s="38">
-        <v>0</v>
-      </c>
-      <c r="G56" s="38">
-        <v>0</v>
-      </c>
-      <c r="H56" s="38">
-        <v>0</v>
-      </c>
-      <c r="I56" s="38">
-        <v>0.2326</v>
-      </c>
-      <c r="J56" s="2">
-        <v>0.85609999999999997</v>
-      </c>
-      <c r="K56" s="2">
-        <v>0.36099999999999999</v>
-      </c>
-      <c r="L56" s="2">
-        <v>0.34510000000000002</v>
-      </c>
-      <c r="M56" s="2">
-        <v>0.84140000000000004</v>
-      </c>
-      <c r="N56" s="2">
-        <v>0.1077</v>
-      </c>
-      <c r="O56" s="2">
-        <v>3.5200000000000002E-2</v>
-      </c>
-      <c r="P56" s="2">
-        <v>0.1066</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>3.1800000000000002E-2</v>
-      </c>
-      <c r="R56" s="2">
-        <v>0</v>
-      </c>
-      <c r="S56" s="2">
-        <v>0</v>
-      </c>
-      <c r="T56" s="2">
-        <v>0</v>
-      </c>
-      <c r="U56" s="2">
-        <v>0</v>
-      </c>
-      <c r="V56" s="2">
-        <v>0</v>
-      </c>
-      <c r="W56" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
+        <v>72</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0.36209999999999998</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1">
+        <v>2E-3</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.36330000000000001</v>
+      </c>
+      <c r="K56" s="1">
+        <v>0.36080000000000001</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+    </row>
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -9091,22 +9089,22 @@
       <c r="C57" s="2">
         <v>0.69089999999999996</v>
       </c>
-      <c r="D57" s="38">
+      <c r="D57" s="36">
         <v>0.35220000000000001</v>
       </c>
-      <c r="E57" s="38">
+      <c r="E57" s="36">
         <v>8.14E-2</v>
       </c>
-      <c r="F57" s="38">
-        <v>0</v>
-      </c>
-      <c r="G57" s="38">
-        <v>0</v>
-      </c>
-      <c r="H57" s="38">
-        <v>0</v>
-      </c>
-      <c r="I57" s="38">
+      <c r="F57" s="36">
+        <v>0</v>
+      </c>
+      <c r="G57" s="36">
+        <v>0</v>
+      </c>
+      <c r="H57" s="36">
+        <v>0</v>
+      </c>
+      <c r="I57" s="36">
         <v>0.23400000000000001</v>
       </c>
       <c r="J57" s="2">
@@ -9152,7 +9150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -9162,22 +9160,22 @@
       <c r="C58" s="2">
         <v>0.69199999999999995</v>
       </c>
-      <c r="D58" s="38">
+      <c r="D58" s="36">
         <v>0.34920000000000001</v>
       </c>
-      <c r="E58" s="38">
+      <c r="E58" s="36">
         <v>8.2100000000000006E-2</v>
       </c>
-      <c r="F58" s="38">
-        <v>0</v>
-      </c>
-      <c r="G58" s="38">
-        <v>0</v>
-      </c>
-      <c r="H58" s="38">
-        <v>0</v>
-      </c>
-      <c r="I58" s="38">
+      <c r="F58" s="36">
+        <v>0</v>
+      </c>
+      <c r="G58" s="36">
+        <v>0</v>
+      </c>
+      <c r="H58" s="36">
+        <v>0</v>
+      </c>
+      <c r="I58" s="36">
         <v>0.2359</v>
       </c>
       <c r="J58" s="2">
@@ -9223,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -9233,22 +9231,22 @@
       <c r="C59" s="2">
         <v>0.69550000000000001</v>
       </c>
-      <c r="D59" s="38">
+      <c r="D59" s="36">
         <v>0.34770000000000001</v>
       </c>
-      <c r="E59" s="38">
+      <c r="E59" s="36">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="F59" s="38">
-        <v>0</v>
-      </c>
-      <c r="G59" s="38">
-        <v>0</v>
-      </c>
-      <c r="H59" s="38">
-        <v>0</v>
-      </c>
-      <c r="I59" s="38">
+      <c r="F59" s="36">
+        <v>0</v>
+      </c>
+      <c r="G59" s="36">
+        <v>0</v>
+      </c>
+      <c r="H59" s="36">
+        <v>0</v>
+      </c>
+      <c r="I59" s="36">
         <v>0.2283</v>
       </c>
       <c r="J59" s="2">
@@ -9304,49 +9302,16 @@
     </filterColumn>
     <filterColumn colId="1">
       <filters>
-        <filter val="CNN-ew2"/>
-        <filter val="CNN-ew3"/>
-        <filter val="CNN-ew4"/>
         <filter val="CNN-obs"/>
-        <filter val="CNN-or"/>
-        <filter val="CNN-sg5"/>
-        <filter val="CNN-sg7"/>
-        <filter val="CNN-sg9"/>
-        <filter val="DNN-ew2"/>
-        <filter val="DNN-ew3"/>
-        <filter val="DNN-ew4"/>
         <filter val="DNN-obs"/>
-        <filter val="DNN-or"/>
-        <filter val="DNN-sg5"/>
-        <filter val="DNN-sg7"/>
-        <filter val="DNN-sg9"/>
-        <filter val="GRU-ew2"/>
-        <filter val="GRU-ew3"/>
-        <filter val="GRU-ew4"/>
         <filter val="GRU-obs"/>
-        <filter val="GRU-or"/>
-        <filter val="GRU-sg5"/>
-        <filter val="GRU-sg7"/>
-        <filter val="GRU-sg9"/>
-        <filter val="LSTM-ew2"/>
-        <filter val="LSTM-ew3"/>
-        <filter val="LSTM-ew4"/>
+        <filter val="LSTM-3-obs"/>
         <filter val="LSTM-obs"/>
-        <filter val="LSTM-or"/>
-        <filter val="LSTM-sg5"/>
-        <filter val="LSTM-sg7"/>
-        <filter val="LSTM-sg9"/>
-        <filter val="RNN-ew2"/>
-        <filter val="RNN-ew3"/>
-        <filter val="RNN-ew4"/>
+        <filter val="RF-obs"/>
         <filter val="RNN-obs"/>
-        <filter val="RNN-or"/>
-        <filter val="RNN-sg5"/>
-        <filter val="RNN-sg7"/>
-        <filter val="RNN-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:W59">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W59">
       <sortCondition ref="E1:E60"/>
     </sortState>
   </autoFilter>
@@ -10088,7 +10053,7 @@
       <c r="H36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I36" s="39">
+      <c r="I36" s="37">
         <v>3.1899999999999998E-2</v>
       </c>
       <c r="J36" s="26">
@@ -10099,7 +10064,7 @@
       <c r="H37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="40">
+      <c r="I37" s="38">
         <v>3.1899999999999998E-2</v>
       </c>
       <c r="J37" s="26">
@@ -10110,7 +10075,7 @@
       <c r="H38" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="39">
+      <c r="I38" s="37">
         <v>5.6399999999999999E-2</v>
       </c>
       <c r="J38" s="26">
@@ -10121,7 +10086,7 @@
       <c r="H39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I39" s="39">
+      <c r="I39" s="37">
         <v>5.67E-2</v>
       </c>
       <c r="J39" s="26">
@@ -10132,7 +10097,7 @@
       <c r="H40" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I40" s="39">
+      <c r="I40" s="37">
         <v>5.67E-2</v>
       </c>
       <c r="J40" s="26">
@@ -10143,7 +10108,7 @@
       <c r="H41" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="39">
+      <c r="I41" s="37">
         <v>8.14E-2</v>
       </c>
       <c r="J41" s="26">
@@ -10154,7 +10119,7 @@
       <c r="H42" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I42" s="39">
+      <c r="I42" s="37">
         <v>8.2100000000000006E-2</v>
       </c>
       <c r="J42" s="26">
@@ -10165,7 +10130,7 @@
       <c r="H43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I43" s="39">
+      <c r="I43" s="37">
         <v>8.2299999999999998E-2</v>
       </c>
       <c r="J43" s="26">

--- a/Thesis-codes/NH3-summary-final.xlsx
+++ b/Thesis-codes/NH3-summary-final.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F0AF0E-0168-416B-8EBB-925968DC6B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F495981D-37A1-4DC0-B82A-19FE9AE5DCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22946" yWindow="3849" windowWidth="20409" windowHeight="13148" tabRatio="761" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
+    <workbookView xWindow="3960" yWindow="1500" windowWidth="26786" windowHeight="15420" tabRatio="761" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
   </bookViews>
   <sheets>
     <sheet name="Predict-0116-0122" sheetId="7" r:id="rId1"/>
@@ -24,8 +24,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'0425'!$H$3:$J$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Predict-0116-0122'!$A$1:$W$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Predict-exp3-1010-1016 (final)'!$A$1:$W$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Predict-0116-0122'!$A$1:$W$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Predict-exp3-1010-1016 (final)'!$A$1:$W$59</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Predict-exp3-1022-1028 (X)'!$A$1:$V$49</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet2!$I$13:$M$21</definedName>
   </definedNames>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="85">
   <si>
     <t>fc1_rmse_mean</t>
   </si>
@@ -411,7 +411,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -532,11 +532,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -854,18 +860,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0D07A2-8BFB-4532-81F8-4995D0BF2BB4}">
-  <dimension ref="A1:W49"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.4609375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.07421875" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.61328125" style="2" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="14.07421875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.61328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.69140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.61328125" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.4609375" style="2" customWidth="1"/>
@@ -953,7 +960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>79</v>
       </c>
@@ -1029,70 +1036,70 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2">
-        <v>0.20899999999999999</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="D3" s="2">
-        <v>0.92210000000000003</v>
+        <v>0.78769999999999996</v>
       </c>
       <c r="E3" s="2">
-        <v>3.8300000000000001E-2</v>
+        <v>5.6300000000000003E-2</v>
       </c>
       <c r="F3" s="2">
-        <v>2.2033999999999998</v>
+        <v>9.2777999999999992</v>
       </c>
       <c r="G3" s="2">
-        <v>1.2507999999999999</v>
+        <v>3.1677</v>
       </c>
       <c r="H3" s="6">
-        <v>6.2500000000000003E-6</v>
+        <v>7.8125000000000004E-7</v>
       </c>
       <c r="I3" s="2">
-        <v>2.2000000000000001E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="J3" s="2">
-        <v>0.2114</v>
+        <v>0.3528</v>
       </c>
       <c r="K3" s="2">
-        <v>0.20610000000000001</v>
+        <v>0.3357</v>
       </c>
       <c r="L3" s="2">
-        <v>1.6000000000000001E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="M3" s="2">
-        <v>0.92430000000000001</v>
+        <v>0.79910000000000003</v>
       </c>
       <c r="N3" s="2">
-        <v>0.9204</v>
-      </c>
-      <c r="O3" s="26">
-        <v>6.9999999999999999E-4</v>
+        <v>0.77810000000000001</v>
+      </c>
+      <c r="O3" s="2">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P3" s="2">
-        <v>3.8800000000000001E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="Q3" s="2">
-        <v>3.7199999999999997E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="R3" s="2">
-        <v>2.3900000000000001E-2</v>
+        <v>9.0800000000000006E-2</v>
       </c>
       <c r="S3" s="2">
-        <v>2.2353000000000001</v>
+        <v>9.3751999999999995</v>
       </c>
       <c r="T3" s="2">
-        <v>2.1776</v>
-      </c>
-      <c r="U3" s="26">
-        <v>4.58E-2</v>
+        <v>9.1565999999999992</v>
+      </c>
+      <c r="U3" s="2">
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="V3" s="2">
-        <v>1.3038000000000001</v>
+        <v>3.1937000000000002</v>
       </c>
       <c r="W3" s="2">
-        <v>1.1919999999999999</v>
+        <v>3.1204000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
@@ -1100,73 +1107,73 @@
         <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2">
-        <v>0.24030000000000001</v>
+        <v>0.34129999999999999</v>
       </c>
       <c r="D4" s="2">
-        <v>0.89710000000000001</v>
+        <v>0.79239999999999999</v>
       </c>
       <c r="E4" s="2">
-        <v>3.85E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="F4" s="2">
-        <v>3.0371000000000001</v>
+        <v>8.1373999999999995</v>
       </c>
       <c r="G4" s="2">
-        <v>1.2644</v>
+        <v>3.2317</v>
       </c>
       <c r="H4" s="6">
-        <v>6.2500000000000003E-6</v>
+        <v>7.8125000000000004E-7</v>
       </c>
       <c r="I4" s="2">
-        <v>2E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="J4" s="2">
-        <v>0.24299999999999999</v>
+        <v>0.34739999999999999</v>
       </c>
       <c r="K4" s="2">
-        <v>0.23830000000000001</v>
+        <v>0.33550000000000002</v>
       </c>
       <c r="L4" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="M4" s="2">
-        <v>0.89880000000000004</v>
+        <v>0.79930000000000001</v>
       </c>
       <c r="N4" s="2">
-        <v>0.89480000000000004</v>
-      </c>
-      <c r="O4" s="26">
+        <v>0.78490000000000004</v>
+      </c>
+      <c r="O4" s="2">
         <v>1E-4</v>
       </c>
       <c r="P4" s="2">
-        <v>3.8600000000000002E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="Q4" s="2">
-        <v>3.8300000000000001E-2</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="R4" s="2">
-        <v>4.9099999999999998E-2</v>
+        <v>0.108</v>
       </c>
       <c r="S4" s="2">
-        <v>3.09</v>
+        <v>8.2614000000000001</v>
       </c>
       <c r="T4" s="2">
-        <v>2.9716999999999998</v>
-      </c>
-      <c r="U4" s="26">
-        <v>8.0999999999999996E-3</v>
+        <v>7.9981999999999998</v>
+      </c>
+      <c r="U4" s="2">
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="V4" s="2">
-        <v>1.2710999999999999</v>
+        <v>3.2709000000000001</v>
       </c>
       <c r="W4" s="2">
-        <v>1.2531000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>3.1983999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
@@ -1242,70 +1249,70 @@
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2">
-        <v>0.2412</v>
+        <v>0.3473</v>
       </c>
       <c r="D6" s="2">
-        <v>0.89629999999999999</v>
+        <v>0.78510000000000002</v>
       </c>
       <c r="E6" s="2">
-        <v>3.8800000000000001E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="F6" s="2">
-        <v>2.7645</v>
+        <v>7.2785000000000002</v>
       </c>
       <c r="G6" s="2">
-        <v>1.0795999999999999</v>
+        <v>3.2187999999999999</v>
       </c>
       <c r="H6" s="6">
-        <v>1.2500000000000001E-5</v>
+        <v>7.8125000000000004E-7</v>
       </c>
       <c r="I6" s="2">
-        <v>4.8999999999999998E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="J6" s="2">
-        <v>0.2452</v>
+        <v>0.35139999999999999</v>
       </c>
       <c r="K6" s="2">
-        <v>0.23419999999999999</v>
+        <v>0.34279999999999999</v>
       </c>
       <c r="L6" s="2">
         <v>4.3E-3</v>
       </c>
       <c r="M6" s="2">
-        <v>0.90229999999999999</v>
+        <v>0.79059999999999997</v>
       </c>
       <c r="N6" s="2">
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="O6" s="26">
-        <v>5.9999999999999995E-4</v>
+        <v>0.78</v>
+      </c>
+      <c r="O6" s="2">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P6" s="2">
-        <v>3.9199999999999999E-2</v>
+        <v>5.74E-2</v>
       </c>
       <c r="Q6" s="2">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="R6" s="26">
-        <v>3.1E-2</v>
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0.1057</v>
       </c>
       <c r="S6" s="2">
-        <v>2.8058999999999998</v>
+        <v>7.3810000000000002</v>
       </c>
       <c r="T6" s="2">
-        <v>2.7313999999999998</v>
-      </c>
-      <c r="U6" s="26">
-        <v>1.12E-2</v>
+        <v>7.133</v>
+      </c>
+      <c r="U6" s="2">
+        <v>2E-3</v>
       </c>
       <c r="V6" s="2">
-        <v>1.0944</v>
+        <v>3.2210999999999999</v>
       </c>
       <c r="W6" s="2">
-        <v>1.0673999999999999</v>
+        <v>3.2161</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
@@ -1313,141 +1320,141 @@
         <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
-        <v>0.2409</v>
+        <v>0.3493</v>
       </c>
       <c r="D7" s="2">
-        <v>0.89629999999999999</v>
+        <v>0.78249999999999997</v>
       </c>
       <c r="E7" s="2">
-        <v>3.8800000000000001E-2</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="F7" s="2">
-        <v>2.5232000000000001</v>
+        <v>10.982900000000001</v>
       </c>
       <c r="G7" s="2">
-        <v>1.2345999999999999</v>
+        <v>3.2383000000000002</v>
       </c>
       <c r="H7" s="6">
+        <v>3.1250000000000001E-6</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0.35060000000000002</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0.34710000000000002</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.7853</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="O7" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="P7" s="2">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="R7" s="2">
+        <v>2.6599999999999999E-2</v>
+      </c>
+      <c r="S7" s="2">
+        <v>11.0199</v>
+      </c>
+      <c r="T7" s="2">
+        <v>10.958600000000001</v>
+      </c>
+      <c r="U7" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="V7" s="2">
+        <v>3.2440000000000002</v>
+      </c>
+      <c r="W7" s="2">
+        <v>3.2353999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.34129999999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.7923</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9.6792999999999996</v>
+      </c>
+      <c r="G8" s="2">
+        <v>3.1972</v>
+      </c>
+      <c r="H8" s="6">
         <v>1.5625000000000001E-6</v>
       </c>
-      <c r="I7" s="2">
-        <v>9.4999999999999998E-3</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0.25419999999999998</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.23250000000000001</v>
-      </c>
-      <c r="L7" s="2">
-        <v>8.2000000000000007E-3</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0.90359999999999996</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.88480000000000003</v>
-      </c>
-      <c r="O7" s="26">
+      <c r="I8" s="2">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.3538</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.33489999999999998</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1.09E-2</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.80010000000000003</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.77690000000000003</v>
+      </c>
+      <c r="O8" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="P7" s="2">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>3.85E-2</v>
-      </c>
-      <c r="R7" s="26">
-        <v>0.1004</v>
-      </c>
-      <c r="S7" s="2">
-        <v>2.661</v>
-      </c>
-      <c r="T7" s="2">
-        <v>2.4243999999999999</v>
-      </c>
-      <c r="U7" s="26">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="V7" s="2">
-        <v>1.2821</v>
-      </c>
-      <c r="W7" s="2">
-        <v>1.1621999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.2399</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.89729999999999999</v>
-      </c>
-      <c r="E8" s="4">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1.7656000000000001</v>
-      </c>
-      <c r="G8" s="4">
-        <v>1.1803999999999999</v>
-      </c>
-      <c r="H8" s="8">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="I8" s="4">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="J8" s="4">
-        <v>0.24970000000000001</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="L8" s="4">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="M8" s="4">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="N8" s="4">
-        <v>0.88890000000000002</v>
-      </c>
-      <c r="O8" s="27">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="P8" s="4">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="Q8" s="4">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="R8" s="27">
-        <v>4.41E-2</v>
-      </c>
-      <c r="S8" s="4">
-        <v>1.8274999999999999</v>
-      </c>
-      <c r="T8" s="4">
-        <v>1.7279</v>
-      </c>
-      <c r="U8" s="27">
-        <v>2.9600000000000001E-2</v>
-      </c>
-      <c r="V8" s="4">
-        <v>1.2061999999999999</v>
-      </c>
-      <c r="W8" s="4">
-        <v>1.1389</v>
+      <c r="P8" s="2">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="R8" s="2">
+        <v>7.9799999999999996E-2</v>
+      </c>
+      <c r="S8" s="2">
+        <v>9.7509999999999994</v>
+      </c>
+      <c r="T8" s="2">
+        <v>9.5679999999999996</v>
+      </c>
+      <c r="U8" s="2">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="V8" s="2">
+        <v>3.2605</v>
+      </c>
+      <c r="W8" s="2">
+        <v>3.1181000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
@@ -1455,70 +1462,70 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
-        <v>0.23949999999999999</v>
+        <v>0.34810000000000002</v>
       </c>
       <c r="D9" s="2">
-        <v>0.89770000000000005</v>
+        <v>0.78380000000000005</v>
       </c>
       <c r="E9" s="2">
-        <v>3.8899999999999997E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="F9" s="2">
-        <v>3.7313999999999998</v>
+        <v>9.7302999999999997</v>
       </c>
       <c r="G9" s="2">
-        <v>1.1891</v>
+        <v>3.2170000000000001</v>
       </c>
       <c r="H9" s="6">
-        <v>5.0000000000000002E-5</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I9" s="2">
-        <v>4.1000000000000003E-3</v>
+        <v>1.15E-2</v>
       </c>
       <c r="J9" s="2">
-        <v>0.24340000000000001</v>
+        <v>0.36380000000000001</v>
       </c>
       <c r="K9" s="2">
-        <v>0.23380000000000001</v>
+        <v>0.33639999999999998</v>
       </c>
       <c r="L9" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>1.44E-2</v>
       </c>
       <c r="M9" s="2">
-        <v>0.90259999999999996</v>
+        <v>0.79830000000000001</v>
       </c>
       <c r="N9" s="2">
-        <v>0.89439999999999997</v>
-      </c>
-      <c r="O9" s="26">
-        <v>4.0000000000000002E-4</v>
+        <v>0.76419999999999999</v>
+      </c>
+      <c r="O9" s="2">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P9" s="2">
-        <v>3.9399999999999998E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="Q9" s="2">
-        <v>3.8600000000000002E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="R9" s="2">
-        <v>5.6899999999999999E-2</v>
+        <v>0.1021</v>
       </c>
       <c r="S9" s="2">
-        <v>3.8039000000000001</v>
+        <v>9.8604000000000003</v>
       </c>
       <c r="T9" s="2">
-        <v>3.665</v>
-      </c>
-      <c r="U9" s="26">
-        <v>3.0700000000000002E-2</v>
+        <v>9.6111000000000004</v>
+      </c>
+      <c r="U9" s="2">
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="V9" s="2">
-        <v>1.2302</v>
+        <v>3.2744</v>
       </c>
       <c r="W9" s="2">
-        <v>1.1565000000000001</v>
+        <v>3.1248999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
@@ -1526,73 +1533,73 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
-        <v>0.22770000000000001</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="D10" s="2">
-        <v>0.90759999999999996</v>
+        <v>0.79090000000000005</v>
       </c>
       <c r="E10" s="2">
-        <v>3.9100000000000003E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F10" s="2">
-        <v>2.5659999999999998</v>
+        <v>8.4193999999999996</v>
       </c>
       <c r="G10" s="2">
-        <v>1.2390000000000001</v>
+        <v>3.2014</v>
       </c>
       <c r="H10" s="6">
-        <v>2.5000000000000001E-5</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I10" s="2">
-        <v>2.8E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="J10" s="2">
-        <v>0.23</v>
+        <v>0.34849999999999998</v>
       </c>
       <c r="K10" s="2">
-        <v>0.22370000000000001</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="L10" s="2">
-        <v>2.3E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="M10" s="2">
-        <v>0.91080000000000005</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="N10" s="2">
-        <v>0.90569999999999995</v>
-      </c>
-      <c r="O10" s="26">
-        <v>4.0000000000000002E-4</v>
+        <v>0.78349999999999997</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P10" s="2">
-        <v>3.9600000000000003E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="Q10" s="2">
-        <v>3.8800000000000001E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="R10" s="2">
-        <v>6.08E-2</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="S10" s="2">
-        <v>2.6322999999999999</v>
+        <v>8.4974000000000007</v>
       </c>
       <c r="T10" s="2">
-        <v>2.4855</v>
-      </c>
-      <c r="U10" s="26">
-        <v>5.57E-2</v>
+        <v>8.3575999999999997</v>
+      </c>
+      <c r="U10" s="2">
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="V10" s="2">
-        <v>1.3168</v>
+        <v>3.2688999999999999</v>
       </c>
       <c r="W10" s="2">
-        <v>1.1892</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.4">
+        <v>3.1657999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
         <v>79</v>
       </c>
@@ -1663,7 +1670,7 @@
         <v>1.1019000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>79</v>
       </c>
@@ -1739,70 +1746,70 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2">
-        <v>0.23089999999999999</v>
+        <v>0.34510000000000002</v>
       </c>
       <c r="D13" s="2">
-        <v>0.90500000000000003</v>
+        <v>0.78769999999999996</v>
       </c>
       <c r="E13" s="2">
-        <v>3.9199999999999999E-2</v>
+        <v>5.74E-2</v>
       </c>
       <c r="F13" s="2">
-        <v>3.0629</v>
+        <v>7.2619999999999996</v>
       </c>
       <c r="G13" s="2">
-        <v>1.2199</v>
+        <v>3.2484000000000002</v>
       </c>
       <c r="H13" s="6">
-        <v>2.5000000000000001E-5</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I13" s="2">
-        <v>3.3E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="J13" s="2">
-        <v>0.2346</v>
+        <v>0.34649999999999997</v>
       </c>
       <c r="K13" s="2">
-        <v>0.2266</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="L13" s="2">
-        <v>2.7000000000000001E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="M13" s="2">
-        <v>0.90849999999999997</v>
+        <v>0.78890000000000005</v>
       </c>
       <c r="N13" s="2">
-        <v>0.90190000000000003</v>
-      </c>
-      <c r="O13" s="26">
-        <v>2.0000000000000001E-4</v>
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="O13" s="2">
+        <v>1E-4</v>
       </c>
       <c r="P13" s="2">
-        <v>3.9399999999999998E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="Q13" s="2">
-        <v>3.9E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="R13" s="2">
-        <v>3.7100000000000001E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="S13" s="2">
-        <v>3.1074000000000002</v>
+        <v>7.3135000000000003</v>
       </c>
       <c r="T13" s="2">
-        <v>3.0167000000000002</v>
-      </c>
-      <c r="U13" s="26">
-        <v>1.37E-2</v>
+        <v>7.2195999999999998</v>
+      </c>
+      <c r="U13" s="2">
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="V13" s="2">
-        <v>1.2367999999999999</v>
+        <v>3.2538999999999998</v>
       </c>
       <c r="W13" s="2">
-        <v>1.2032</v>
+        <v>3.2435</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
@@ -1810,141 +1817,141 @@
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2">
-        <v>0.2467</v>
+        <v>0.23949999999999999</v>
       </c>
       <c r="D14" s="2">
-        <v>0.89159999999999995</v>
+        <v>0.89770000000000005</v>
       </c>
       <c r="E14" s="2">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3.7313999999999998</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.1891</v>
+      </c>
+      <c r="H14" s="6">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I14" s="2">
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.23380000000000001</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="O14" s="26">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P14" s="2">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="R14" s="2">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="S14" s="2">
+        <v>3.8039000000000001</v>
+      </c>
+      <c r="T14" s="2">
+        <v>3.665</v>
+      </c>
+      <c r="U14" s="26">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="V14" s="2">
+        <v>1.2302</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1.1565000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.23089999999999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="E15" s="2">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="F14" s="2">
-        <v>3.6937000000000002</v>
-      </c>
-      <c r="G14" s="2">
-        <v>1.0969</v>
-      </c>
-      <c r="H14" s="6">
-        <v>3.1250000000000001E-6</v>
-      </c>
-      <c r="I14" s="2">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0.251</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.24340000000000001</v>
-      </c>
-      <c r="L14" s="2">
-        <v>2.8E-3</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0.89439999999999997</v>
-      </c>
-      <c r="N14" s="2">
-        <v>0.88780000000000003</v>
-      </c>
-      <c r="O14" s="26">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="P14" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>3.8699999999999998E-2</v>
-      </c>
-      <c r="R14" s="26">
-        <v>0.1038</v>
-      </c>
-      <c r="S14" s="2">
-        <v>3.8328000000000002</v>
-      </c>
-      <c r="T14" s="2">
-        <v>3.5834999999999999</v>
-      </c>
-      <c r="U14" s="26">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="V14" s="2">
-        <v>1.1185</v>
-      </c>
-      <c r="W14" s="2">
-        <v>1.0807</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0.24660000000000001</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0.89149999999999996</v>
-      </c>
-      <c r="E15" s="5">
-        <v>3.95E-2</v>
-      </c>
-      <c r="F15" s="5">
-        <v>2.3408000000000002</v>
-      </c>
-      <c r="G15" s="5">
-        <v>1.1218999999999999</v>
-      </c>
-      <c r="H15" s="9">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="I15" s="5">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="J15" s="5">
-        <v>0.25290000000000001</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0.2389</v>
-      </c>
-      <c r="L15" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0.8982</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="O15" s="28">
-        <v>1E-3</v>
-      </c>
-      <c r="P15" s="5">
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="R15" s="28">
-        <v>3.4599999999999999E-2</v>
-      </c>
-      <c r="S15" s="5">
-        <v>2.3841999999999999</v>
-      </c>
-      <c r="T15" s="5">
-        <v>2.2993999999999999</v>
-      </c>
-      <c r="U15" s="28">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="V15" s="5">
-        <v>1.1324000000000001</v>
-      </c>
-      <c r="W15" s="5">
-        <v>1.1133</v>
+      <c r="F15" s="2">
+        <v>3.0629</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.2199</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3.3E-3</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0.2346</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.2266</v>
+      </c>
+      <c r="L15" s="2">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0.90849999999999997</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="O15" s="26">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3.9E-2</v>
+      </c>
+      <c r="R15" s="2">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="S15" s="2">
+        <v>3.1074000000000002</v>
+      </c>
+      <c r="T15" s="2">
+        <v>3.0167000000000002</v>
+      </c>
+      <c r="U15" s="26">
+        <v>1.37E-2</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1.2367999999999999</v>
+      </c>
+      <c r="W15" s="2">
+        <v>1.2032</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
@@ -1952,73 +1959,73 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2">
-        <v>0.21729999999999999</v>
+        <v>0.22770000000000001</v>
       </c>
       <c r="D16" s="2">
-        <v>0.91579999999999995</v>
+        <v>0.90759999999999996</v>
       </c>
       <c r="E16" s="2">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.5659999999999998</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="H16" s="6">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="I16" s="2">
+        <v>2.8E-3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.23</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.22370000000000001</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2.3E-3</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="O16" s="26">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P16" s="2">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="F16" s="2">
-        <v>1.6396999999999999</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1.3097000000000001</v>
-      </c>
-      <c r="H16" s="6">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="I16" s="2">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0.22339999999999999</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.21329999999999999</v>
-      </c>
-      <c r="L16" s="2">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="M16" s="2">
-        <v>0.91890000000000005</v>
-      </c>
-      <c r="N16" s="2">
-        <v>0.91100000000000003</v>
-      </c>
-      <c r="O16" s="26">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="P16" s="2">
-        <v>3.9899999999999998E-2</v>
-      </c>
       <c r="Q16" s="2">
-        <v>3.9199999999999999E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="R16" s="2">
-        <v>8.1900000000000001E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="S16" s="2">
-        <v>1.7354000000000001</v>
+        <v>2.6322999999999999</v>
       </c>
       <c r="T16" s="2">
-        <v>1.5353000000000001</v>
+        <v>2.4855</v>
       </c>
       <c r="U16" s="26">
-        <v>1.7500000000000002E-2</v>
+        <v>5.57E-2</v>
       </c>
       <c r="V16" s="2">
-        <v>1.331</v>
+        <v>1.3168</v>
       </c>
       <c r="W16" s="2">
-        <v>1.2881</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+        <v>1.1892</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>79</v>
       </c>
@@ -2094,73 +2101,73 @@
         <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
-        <v>0.222</v>
+        <v>0.249</v>
       </c>
       <c r="D18" s="2">
-        <v>0.91210000000000002</v>
+        <v>0.88949999999999996</v>
       </c>
       <c r="E18" s="2">
-        <v>3.9800000000000002E-2</v>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="F18" s="2">
-        <v>5.0961999999999996</v>
+        <v>6.3574000000000002</v>
       </c>
       <c r="G18" s="2">
-        <v>1.2612000000000001</v>
+        <v>1.3637999999999999</v>
       </c>
       <c r="H18" s="6">
-        <v>6.2500000000000003E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I18" s="2">
         <v>1.9E-3</v>
       </c>
       <c r="J18" s="2">
-        <v>0.22409999999999999</v>
+        <v>0.2515</v>
       </c>
       <c r="K18" s="2">
-        <v>0.21959999999999999</v>
+        <v>0.24709999999999999</v>
       </c>
       <c r="L18" s="2">
-        <v>1.4E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="M18" s="2">
-        <v>0.91400000000000003</v>
+        <v>0.89119999999999999</v>
       </c>
       <c r="N18" s="2">
-        <v>0.91049999999999998</v>
+        <v>0.88719999999999999</v>
       </c>
       <c r="O18" s="26">
-        <v>2.9999999999999997E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P18" s="2">
-        <v>0.04</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="Q18" s="2">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="R18" s="26">
-        <v>4.2799999999999998E-2</v>
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0.1777</v>
       </c>
       <c r="S18" s="2">
-        <v>5.1534000000000004</v>
+        <v>6.6025999999999998</v>
       </c>
       <c r="T18" s="2">
-        <v>5.0506000000000002</v>
+        <v>6.1874000000000002</v>
       </c>
       <c r="U18" s="26">
-        <v>2.69E-2</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="V18" s="2">
-        <v>1.2866</v>
+        <v>1.403</v>
       </c>
       <c r="W18" s="2">
-        <v>1.2239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+        <v>1.3162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5" t="s">
         <v>79</v>
       </c>
@@ -2231,7 +2238,7 @@
         <v>1.0158</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
@@ -2307,70 +2314,70 @@
         <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2">
-        <v>0.25159999999999999</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="D21" s="2">
-        <v>0.8871</v>
+        <v>0.90359999999999996</v>
       </c>
       <c r="E21" s="2">
         <v>4.0500000000000001E-2</v>
       </c>
       <c r="F21" s="2">
-        <v>5.7820999999999998</v>
+        <v>5.6917999999999997</v>
       </c>
       <c r="G21" s="2">
-        <v>1.2365999999999999</v>
+        <v>1.3993</v>
       </c>
       <c r="H21" s="6">
-        <v>1.2500000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I21" s="2">
-        <v>2.3E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="J21" s="2">
-        <v>0.25430000000000003</v>
+        <v>0.2384</v>
       </c>
       <c r="K21" s="2">
-        <v>0.24859999999999999</v>
+        <v>0.22720000000000001</v>
       </c>
       <c r="L21" s="2">
-        <v>2.0999999999999999E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="M21" s="2">
-        <v>0.88990000000000002</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="N21" s="2">
-        <v>0.88470000000000004</v>
+        <v>0.89870000000000005</v>
       </c>
       <c r="O21" s="26">
-        <v>4.0000000000000002E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P21" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>4.07E-2</v>
       </c>
       <c r="Q21" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="R21" s="26">
-        <v>2.58E-2</v>
+        <v>4.02E-2</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.12189999999999999</v>
       </c>
       <c r="S21" s="2">
-        <v>5.8181000000000003</v>
+        <v>5.8236999999999997</v>
       </c>
       <c r="T21" s="2">
-        <v>5.7591999999999999</v>
+        <v>5.5297000000000001</v>
       </c>
       <c r="U21" s="26">
-        <v>1.4999999999999999E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="V21" s="2">
-        <v>1.2484</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="W21" s="2">
-        <v>1.2154</v>
+        <v>1.3244</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2378,141 +2385,141 @@
         <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C22" s="2">
-        <v>0.23250000000000001</v>
+        <v>0.24030000000000001</v>
       </c>
       <c r="D22" s="2">
-        <v>0.90359999999999996</v>
+        <v>0.89710000000000001</v>
       </c>
       <c r="E22" s="2">
-        <v>4.0500000000000001E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="F22" s="2">
-        <v>5.6917999999999997</v>
+        <v>3.0371000000000001</v>
       </c>
       <c r="G22" s="2">
-        <v>1.3993</v>
+        <v>1.2644</v>
       </c>
       <c r="H22" s="6">
         <v>6.2500000000000003E-6</v>
       </c>
       <c r="I22" s="2">
-        <v>4.5999999999999999E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J22" s="2">
-        <v>0.2384</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="K22" s="2">
-        <v>0.22720000000000001</v>
+        <v>0.23830000000000001</v>
       </c>
       <c r="L22" s="2">
-        <v>3.8E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="M22" s="2">
-        <v>0.90800000000000003</v>
+        <v>0.89880000000000004</v>
       </c>
       <c r="N22" s="2">
-        <v>0.89870000000000005</v>
+        <v>0.89480000000000004</v>
       </c>
       <c r="O22" s="26">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P22" s="2">
-        <v>4.07E-2</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="Q22" s="2">
-        <v>4.02E-2</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="R22" s="2">
-        <v>0.12189999999999999</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="S22" s="2">
-        <v>5.8236999999999997</v>
+        <v>3.09</v>
       </c>
       <c r="T22" s="2">
-        <v>5.5297000000000001</v>
+        <v>2.9716999999999998</v>
       </c>
       <c r="U22" s="26">
-        <v>5.3199999999999997E-2</v>
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="V22" s="2">
-        <v>1.4430000000000001</v>
+        <v>1.2710999999999999</v>
       </c>
       <c r="W22" s="2">
-        <v>1.3244</v>
+        <v>1.2531000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.2311</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.90480000000000005</v>
-      </c>
-      <c r="E23" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1.4258</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1.3076000000000001</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1.2500000000000001E-5</v>
-      </c>
-      <c r="I23" s="3">
-        <v>3.8E-3</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0.2364</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0.22770000000000001</v>
-      </c>
-      <c r="L23" s="3">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0.90759999999999996</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0.90039999999999998</v>
-      </c>
-      <c r="O23" s="29">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="P23" s="3">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="R23" s="29">
-        <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1.4936</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1.3716999999999999</v>
-      </c>
-      <c r="U23" s="29">
-        <v>2.1399999999999999E-2</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1.3357000000000001</v>
-      </c>
-      <c r="W23" s="3">
-        <v>1.2837000000000001</v>
+      <c r="B23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2.2033999999999998</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1.2507999999999999</v>
+      </c>
+      <c r="H23" s="6">
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0.2114</v>
+      </c>
+      <c r="K23" s="2">
+        <v>0.20610000000000001</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.9204</v>
+      </c>
+      <c r="O23" s="26">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="P23" s="2">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="R23" s="2">
+        <v>2.3900000000000001E-2</v>
+      </c>
+      <c r="S23" s="2">
+        <v>2.2353000000000001</v>
+      </c>
+      <c r="T23" s="2">
+        <v>2.1776</v>
+      </c>
+      <c r="U23" s="26">
+        <v>4.58E-2</v>
+      </c>
+      <c r="V23" s="2">
+        <v>1.3038000000000001</v>
+      </c>
+      <c r="W23" s="2">
+        <v>1.1919999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
@@ -2520,70 +2527,70 @@
         <v>79</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>0.249</v>
+        <v>0.21729999999999999</v>
       </c>
       <c r="D24" s="2">
-        <v>0.88949999999999996</v>
+        <v>0.91579999999999995</v>
       </c>
       <c r="E24" s="2">
-        <v>4.1399999999999999E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="F24" s="2">
-        <v>6.3574000000000002</v>
+        <v>1.6396999999999999</v>
       </c>
       <c r="G24" s="2">
-        <v>1.3637999999999999</v>
+        <v>1.3097000000000001</v>
       </c>
       <c r="H24" s="6">
-        <v>1.2500000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I24" s="2">
-        <v>1.9E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="J24" s="2">
-        <v>0.2515</v>
+        <v>0.22339999999999999</v>
       </c>
       <c r="K24" s="2">
-        <v>0.24709999999999999</v>
+        <v>0.21329999999999999</v>
       </c>
       <c r="L24" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="M24" s="2">
-        <v>0.89119999999999999</v>
+        <v>0.91890000000000005</v>
       </c>
       <c r="N24" s="2">
-        <v>0.88719999999999999</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="O24" s="26">
-        <v>5.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P24" s="2">
-        <v>4.2000000000000003E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="Q24" s="2">
-        <v>4.0800000000000003E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="R24" s="2">
-        <v>0.1777</v>
+        <v>8.1900000000000001E-2</v>
       </c>
       <c r="S24" s="2">
-        <v>6.6025999999999998</v>
+        <v>1.7354000000000001</v>
       </c>
       <c r="T24" s="2">
-        <v>6.1874000000000002</v>
+        <v>1.5353000000000001</v>
       </c>
       <c r="U24" s="26">
-        <v>3.5900000000000001E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="V24" s="2">
-        <v>1.403</v>
+        <v>1.331</v>
       </c>
       <c r="W24" s="2">
-        <v>1.3162</v>
+        <v>1.2881</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
@@ -2591,70 +2598,70 @@
         <v>79</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2">
-        <v>0.2271</v>
+        <v>0.2467</v>
       </c>
       <c r="D25" s="2">
-        <v>0.90810000000000002</v>
+        <v>0.89159999999999995</v>
       </c>
       <c r="E25" s="2">
-        <v>4.1500000000000002E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="F25" s="2">
-        <v>4.4733000000000001</v>
+        <v>3.6937000000000002</v>
       </c>
       <c r="G25" s="2">
-        <v>1.5087999999999999</v>
+        <v>1.0969</v>
       </c>
       <c r="H25" s="6">
-        <v>1.2500000000000001E-5</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I25" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="J25" s="2">
-        <v>0.2273</v>
+        <v>0.251</v>
       </c>
       <c r="K25" s="2">
-        <v>0.2268</v>
+        <v>0.24340000000000001</v>
       </c>
       <c r="L25" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>2.8E-3</v>
       </c>
       <c r="M25" s="2">
-        <v>0.9083</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="N25" s="2">
-        <v>0.90790000000000004</v>
+        <v>0.88780000000000003</v>
       </c>
       <c r="O25" s="26">
-        <v>1E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="P25" s="2">
-        <v>4.1599999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Q25" s="2">
-        <v>4.1300000000000003E-2</v>
-      </c>
-      <c r="R25" s="2">
-        <v>0.19869999999999999</v>
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="R25" s="26">
+        <v>0.1038</v>
       </c>
       <c r="S25" s="2">
-        <v>4.6665000000000001</v>
+        <v>3.8328000000000002</v>
       </c>
       <c r="T25" s="2">
-        <v>4.2000999999999999</v>
+        <v>3.5834999999999999</v>
       </c>
       <c r="U25" s="26">
-        <v>3.3599999999999998E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="V25" s="2">
-        <v>1.5383</v>
+        <v>1.1185</v>
       </c>
       <c r="W25" s="2">
-        <v>1.4617</v>
+        <v>1.0807</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
@@ -2662,144 +2669,144 @@
         <v>79</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2">
-        <v>0.23499999999999999</v>
+        <v>0.2412</v>
       </c>
       <c r="D26" s="2">
-        <v>0.90159999999999996</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="E26" s="2">
-        <v>4.2099999999999999E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="F26" s="2">
-        <v>4.9897999999999998</v>
+        <v>2.7645</v>
       </c>
       <c r="G26" s="2">
-        <v>1.5425</v>
+        <v>1.0795999999999999</v>
       </c>
       <c r="H26" s="6">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="I26" s="2">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.2452</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.23419999999999999</v>
+      </c>
+      <c r="L26" s="2">
+        <v>4.3E-3</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="O26" s="26">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="P26" s="2">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="R26" s="26">
+        <v>3.1E-2</v>
+      </c>
+      <c r="S26" s="2">
+        <v>2.8058999999999998</v>
+      </c>
+      <c r="T26" s="2">
+        <v>2.7313999999999998</v>
+      </c>
+      <c r="U26" s="26">
+        <v>1.12E-2</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1.0944</v>
+      </c>
+      <c r="W26" s="2">
+        <v>1.0673999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.24660000000000001</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="E27" s="5">
+        <v>3.95E-2</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2.3408000000000002</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1.1218999999999999</v>
+      </c>
+      <c r="H27" s="9">
         <v>6.2500000000000003E-6</v>
       </c>
-      <c r="I26" s="2">
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.24010000000000001</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0.2324</v>
-      </c>
-      <c r="L26" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0.90380000000000005</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0.89729999999999999</v>
-      </c>
-      <c r="O26" s="26">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="P26" s="2">
-        <v>4.2900000000000001E-2</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>4.1099999999999998E-2</v>
-      </c>
-      <c r="R26" s="2">
-        <v>0.31440000000000001</v>
-      </c>
-      <c r="S26" s="2">
-        <v>5.3608000000000002</v>
-      </c>
-      <c r="T26" s="2">
-        <v>4.5921000000000003</v>
-      </c>
-      <c r="U26" s="26">
-        <v>5.6599999999999998E-2</v>
-      </c>
-      <c r="V26" s="2">
-        <v>1.61</v>
-      </c>
-      <c r="W26" s="2">
-        <v>1.4715</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.2185</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.91490000000000005</v>
-      </c>
-      <c r="E27" s="2">
-        <v>4.2299999999999997E-2</v>
-      </c>
-      <c r="F27" s="2">
-        <v>3.3157000000000001</v>
-      </c>
-      <c r="G27" s="2">
-        <v>1.6267</v>
-      </c>
-      <c r="H27" s="6">
-        <v>1.2500000000000001E-5</v>
-      </c>
-      <c r="I27" s="2">
-        <v>5.1000000000000004E-3</v>
-      </c>
-      <c r="J27" s="2">
-        <v>0.22289999999999999</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0.21129999999999999</v>
-      </c>
-      <c r="L27" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0.9204</v>
-      </c>
-      <c r="N27" s="2">
-        <v>0.91139999999999999</v>
-      </c>
-      <c r="O27" s="26">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="P27" s="2">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>4.1200000000000001E-2</v>
-      </c>
-      <c r="R27" s="2">
-        <v>0.1532</v>
-      </c>
-      <c r="S27" s="2">
-        <v>3.5299</v>
-      </c>
-      <c r="T27" s="2">
-        <v>3.1808000000000001</v>
-      </c>
-      <c r="U27" s="26">
-        <v>6.4999999999999997E-3</v>
-      </c>
-      <c r="V27" s="2">
-        <v>1.6357999999999999</v>
-      </c>
-      <c r="W27" s="2">
-        <v>1.6212</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="I27" s="5">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0.25290000000000001</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0.2389</v>
+      </c>
+      <c r="L27" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M27" s="5">
+        <v>0.8982</v>
+      </c>
+      <c r="N27" s="5">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="O27" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="P27" s="5">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="Q27" s="5">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="R27" s="28">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="S27" s="5">
+        <v>2.3841999999999999</v>
+      </c>
+      <c r="T27" s="5">
+        <v>2.2993999999999999</v>
+      </c>
+      <c r="U27" s="28">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="V27" s="5">
+        <v>1.1324000000000001</v>
+      </c>
+      <c r="W27" s="5">
+        <v>1.1133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>79</v>
       </c>
@@ -2875,70 +2882,70 @@
         <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2">
-        <v>0.2384</v>
+        <v>0.25159999999999999</v>
       </c>
       <c r="D29" s="2">
-        <v>0.89859999999999995</v>
+        <v>0.8871</v>
       </c>
       <c r="E29" s="2">
-        <v>4.3200000000000002E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="F29" s="2">
-        <v>3.5800999999999998</v>
+        <v>5.7820999999999998</v>
       </c>
       <c r="G29" s="2">
-        <v>1.5992</v>
+        <v>1.2365999999999999</v>
       </c>
       <c r="H29" s="6">
-        <v>2.5000000000000001E-5</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I29" s="2">
-        <v>2.8E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="J29" s="2">
-        <v>0.24210000000000001</v>
+        <v>0.25430000000000003</v>
       </c>
       <c r="K29" s="2">
-        <v>0.2354</v>
+        <v>0.24859999999999999</v>
       </c>
       <c r="L29" s="2">
-        <v>2.3999999999999998E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="M29" s="2">
-        <v>0.9012</v>
+        <v>0.88990000000000002</v>
       </c>
       <c r="N29" s="2">
-        <v>0.89549999999999996</v>
+        <v>0.88470000000000004</v>
       </c>
       <c r="O29" s="26">
-        <v>2.9999999999999997E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P29" s="2">
-        <v>4.3499999999999997E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q29" s="2">
-        <v>4.2700000000000002E-2</v>
-      </c>
-      <c r="R29" s="2">
-        <v>6.9500000000000006E-2</v>
+        <v>0.04</v>
+      </c>
+      <c r="R29" s="26">
+        <v>2.58E-2</v>
       </c>
       <c r="S29" s="2">
-        <v>3.6783000000000001</v>
+        <v>5.8181000000000003</v>
       </c>
       <c r="T29" s="2">
-        <v>3.5278999999999998</v>
+        <v>5.7591999999999999</v>
       </c>
       <c r="U29" s="26">
-        <v>0.03</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="V29" s="2">
-        <v>1.6215999999999999</v>
+        <v>1.2484</v>
       </c>
       <c r="W29" s="2">
-        <v>1.5568</v>
+        <v>1.2154</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
@@ -2946,70 +2953,70 @@
         <v>79</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C30" s="2">
-        <v>0.24049999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="D30" s="2">
-        <v>0.89690000000000003</v>
+        <v>0.91210000000000002</v>
       </c>
       <c r="E30" s="2">
-        <v>4.3200000000000002E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="F30" s="2">
-        <v>6.3140999999999998</v>
+        <v>5.0961999999999996</v>
       </c>
       <c r="G30" s="2">
-        <v>1.6345000000000001</v>
+        <v>1.2612000000000001</v>
       </c>
       <c r="H30" s="6">
         <v>6.2500000000000003E-6</v>
       </c>
       <c r="I30" s="2">
-        <v>4.7999999999999996E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="J30" s="2">
-        <v>0.2447</v>
+        <v>0.22409999999999999</v>
       </c>
       <c r="K30" s="2">
-        <v>0.23380000000000001</v>
+        <v>0.21959999999999999</v>
       </c>
       <c r="L30" s="2">
-        <v>4.1000000000000003E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="M30" s="2">
-        <v>0.90259999999999996</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="N30" s="2">
-        <v>0.89329999999999998</v>
-      </c>
-      <c r="O30" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>0.91049999999999998</v>
+      </c>
+      <c r="O30" s="26">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P30" s="2">
-        <v>4.3700000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Q30" s="2">
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="R30" s="2">
-        <v>0.13009999999999999</v>
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="R30" s="26">
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="S30" s="2">
-        <v>6.4614000000000003</v>
+        <v>5.1534000000000004</v>
       </c>
       <c r="T30" s="2">
-        <v>6.1448999999999998</v>
-      </c>
-      <c r="U30" s="2">
-        <v>4.6399999999999997E-2</v>
+        <v>5.0506000000000002</v>
+      </c>
+      <c r="U30" s="26">
+        <v>2.69E-2</v>
       </c>
       <c r="V30" s="2">
-        <v>1.6998</v>
+        <v>1.2866</v>
       </c>
       <c r="W30" s="2">
-        <v>1.5963000000000001</v>
+        <v>1.2239</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
@@ -3017,212 +3024,212 @@
         <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="C31" s="2">
-        <v>0.2465</v>
+        <v>0.2409</v>
       </c>
       <c r="D31" s="2">
-        <v>0.89149999999999996</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="E31" s="2">
-        <v>4.3400000000000001E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="F31" s="2">
-        <v>4.3446999999999996</v>
+        <v>2.5232000000000001</v>
       </c>
       <c r="G31" s="2">
-        <v>1.6041000000000001</v>
+        <v>1.2345999999999999</v>
       </c>
       <c r="H31" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I31" s="2">
-        <v>1.06E-2</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="J31" s="2">
-        <v>0.26</v>
+        <v>0.25419999999999998</v>
       </c>
       <c r="K31" s="2">
-        <v>0.23400000000000001</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="L31" s="2">
-        <v>9.4000000000000004E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="M31" s="2">
-        <v>0.90239999999999998</v>
+        <v>0.90359999999999996</v>
       </c>
       <c r="N31" s="2">
-        <v>0.87949999999999995</v>
-      </c>
-      <c r="O31" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="O31" s="26">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P31" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="Q31" s="2">
-        <v>4.3099999999999999E-2</v>
-      </c>
-      <c r="R31" s="2">
-        <v>0.1153</v>
+        <v>3.85E-2</v>
+      </c>
+      <c r="R31" s="26">
+        <v>0.1004</v>
       </c>
       <c r="S31" s="2">
-        <v>4.5061999999999998</v>
+        <v>2.661</v>
       </c>
       <c r="T31" s="2">
-        <v>4.2450999999999999</v>
-      </c>
-      <c r="U31" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>2.4243999999999999</v>
+      </c>
+      <c r="U31" s="26">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="V31" s="2">
-        <v>1.6476</v>
+        <v>1.2821</v>
       </c>
       <c r="W31" s="2">
-        <v>1.542</v>
+        <v>1.1621999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0.25180000000000002</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="E32" s="2">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="F32" s="2">
-        <v>7.2229999999999999</v>
-      </c>
-      <c r="G32" s="2">
-        <v>1.6734</v>
-      </c>
-      <c r="H32" s="6">
-        <v>3.1250000000000001E-6</v>
-      </c>
-      <c r="I32" s="2">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0.2581</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0.24640000000000001</v>
-      </c>
-      <c r="L32" s="2">
-        <v>4.3E-3</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0.89180000000000004</v>
-      </c>
-      <c r="N32" s="2">
-        <v>0.88129999999999997</v>
-      </c>
-      <c r="O32" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="P32" s="2">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="R32" s="2">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="S32" s="2">
-        <v>7.2816999999999998</v>
-      </c>
-      <c r="T32" s="2">
-        <v>7.1710000000000003</v>
-      </c>
-      <c r="U32" s="2">
-        <v>1.5900000000000001E-2</v>
-      </c>
-      <c r="V32" s="2">
-        <v>1.6875</v>
-      </c>
-      <c r="W32" s="2">
-        <v>1.6511</v>
+      <c r="B32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.2399</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1.7656000000000001</v>
+      </c>
+      <c r="G32" s="4">
+        <v>1.1803999999999999</v>
+      </c>
+      <c r="H32" s="8">
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="I32" s="4">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="J32" s="4">
+        <v>0.24970000000000001</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="L32" s="4">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M32" s="4">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="O32" s="27">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="P32" s="4">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="R32" s="27">
+        <v>4.41E-2</v>
+      </c>
+      <c r="S32" s="4">
+        <v>1.8274999999999999</v>
+      </c>
+      <c r="T32" s="4">
+        <v>1.7279</v>
+      </c>
+      <c r="U32" s="27">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="V32" s="4">
+        <v>1.2061999999999999</v>
+      </c>
+      <c r="W32" s="4">
+        <v>1.1389</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.2286</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.90690000000000004</v>
-      </c>
-      <c r="E33" s="2">
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="F33" s="2">
-        <v>2.8605</v>
-      </c>
-      <c r="G33" s="2">
-        <v>1.7045999999999999</v>
-      </c>
-      <c r="H33" s="6">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="I33" s="2">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0.2344</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0.22459999999999999</v>
-      </c>
-      <c r="L33" s="2">
-        <v>3.3999999999999998E-3</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0.91010000000000002</v>
-      </c>
-      <c r="N33" s="2">
-        <v>0.90210000000000001</v>
-      </c>
-      <c r="O33" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="P33" s="2">
-        <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="R33" s="2">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="S33" s="2">
-        <v>2.9194</v>
-      </c>
-      <c r="T33" s="2">
-        <v>2.8243999999999998</v>
-      </c>
-      <c r="U33" s="2">
-        <v>2.4E-2</v>
-      </c>
-      <c r="V33" s="2">
-        <v>1.7299</v>
-      </c>
-      <c r="W33" s="2">
-        <v>1.6722999999999999</v>
+      <c r="B33" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.2311</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1.4258</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1.3076000000000001</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>3.8E-3</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.2364</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0.22770000000000001</v>
+      </c>
+      <c r="L33" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="O33" s="29">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P33" s="3">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="R33" s="29">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="S33" s="3">
+        <v>1.4936</v>
+      </c>
+      <c r="T33" s="3">
+        <v>1.3716999999999999</v>
+      </c>
+      <c r="U33" s="29">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1.3357000000000001</v>
+      </c>
+      <c r="W33" s="3">
+        <v>1.2837000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.4">
@@ -3230,70 +3237,70 @@
         <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C34" s="2">
-        <v>0.3493</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="D34" s="2">
-        <v>0.78249999999999997</v>
+        <v>0.90159999999999996</v>
       </c>
       <c r="E34" s="2">
-        <v>5.6099999999999997E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="F34" s="2">
-        <v>10.982900000000001</v>
+        <v>4.9897999999999998</v>
       </c>
       <c r="G34" s="2">
-        <v>3.2383000000000002</v>
+        <v>1.5425</v>
       </c>
       <c r="H34" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I34" s="2">
-        <v>1.6000000000000001E-3</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="J34" s="2">
-        <v>0.35060000000000002</v>
+        <v>0.24010000000000001</v>
       </c>
       <c r="K34" s="2">
-        <v>0.34710000000000002</v>
+        <v>0.2324</v>
       </c>
       <c r="L34" s="2">
-        <v>2E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="M34" s="2">
-        <v>0.7853</v>
+        <v>0.90380000000000005</v>
       </c>
       <c r="N34" s="2">
-        <v>0.78090000000000004</v>
-      </c>
-      <c r="O34" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="O34" s="26">
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="P34" s="2">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0.31440000000000001</v>
+      </c>
+      <c r="S34" s="2">
+        <v>5.3608000000000002</v>
+      </c>
+      <c r="T34" s="2">
+        <v>4.5921000000000003</v>
+      </c>
+      <c r="U34" s="26">
         <v>5.6599999999999998E-2</v>
       </c>
-      <c r="Q34" s="2">
-        <v>5.5199999999999999E-2</v>
-      </c>
-      <c r="R34" s="2">
-        <v>2.6599999999999999E-2</v>
-      </c>
-      <c r="S34" s="2">
-        <v>11.0199</v>
-      </c>
-      <c r="T34" s="2">
-        <v>10.958600000000001</v>
-      </c>
-      <c r="U34" s="2">
-        <v>4.0000000000000001E-3</v>
-      </c>
       <c r="V34" s="2">
-        <v>3.2440000000000002</v>
+        <v>1.61</v>
       </c>
       <c r="W34" s="2">
-        <v>3.2353999999999998</v>
+        <v>1.4715</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.4">
@@ -3301,70 +3308,70 @@
         <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2">
-        <v>0.34810000000000002</v>
+        <v>0.2465</v>
       </c>
       <c r="D35" s="2">
-        <v>0.78380000000000005</v>
+        <v>0.89149999999999996</v>
       </c>
       <c r="E35" s="2">
-        <v>5.62E-2</v>
+        <v>4.3400000000000001E-2</v>
       </c>
       <c r="F35" s="2">
-        <v>9.7302999999999997</v>
+        <v>4.3446999999999996</v>
       </c>
       <c r="G35" s="2">
-        <v>3.2170000000000001</v>
+        <v>1.6041000000000001</v>
       </c>
       <c r="H35" s="6">
         <v>3.1250000000000001E-6</v>
       </c>
       <c r="I35" s="2">
-        <v>1.15E-2</v>
+        <v>1.06E-2</v>
       </c>
       <c r="J35" s="2">
-        <v>0.36380000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="K35" s="2">
-        <v>0.33639999999999998</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="L35" s="2">
-        <v>1.44E-2</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="M35" s="2">
-        <v>0.79830000000000001</v>
+        <v>0.90239999999999998</v>
       </c>
       <c r="N35" s="2">
-        <v>0.76419999999999999</v>
+        <v>0.87949999999999995</v>
       </c>
       <c r="O35" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P35" s="2">
-        <v>5.6899999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q35" s="2">
-        <v>5.5800000000000002E-2</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="R35" s="2">
-        <v>0.1021</v>
+        <v>0.1153</v>
       </c>
       <c r="S35" s="2">
-        <v>9.8604000000000003</v>
+        <v>4.5061999999999998</v>
       </c>
       <c r="T35" s="2">
-        <v>9.6111000000000004</v>
+        <v>4.2450999999999999</v>
       </c>
       <c r="U35" s="2">
-        <v>6.5799999999999997E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="V35" s="2">
-        <v>3.2744</v>
+        <v>1.6476</v>
       </c>
       <c r="W35" s="2">
-        <v>3.1248999999999998</v>
+        <v>1.542</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.4">
@@ -3372,70 +3379,70 @@
         <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C36" s="2">
-        <v>0.34499999999999997</v>
+        <v>0.2384</v>
       </c>
       <c r="D36" s="2">
-        <v>0.78769999999999996</v>
+        <v>0.89859999999999995</v>
       </c>
       <c r="E36" s="2">
-        <v>5.6300000000000003E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="F36" s="2">
-        <v>9.2777999999999992</v>
+        <v>3.5800999999999998</v>
       </c>
       <c r="G36" s="2">
-        <v>3.1677</v>
+        <v>1.5992</v>
       </c>
       <c r="H36" s="6">
-        <v>7.8125000000000004E-7</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I36" s="2">
-        <v>7.1000000000000004E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="J36" s="2">
-        <v>0.3528</v>
+        <v>0.24210000000000001</v>
       </c>
       <c r="K36" s="2">
-        <v>0.3357</v>
+        <v>0.2354</v>
       </c>
       <c r="L36" s="2">
-        <v>8.6999999999999994E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="M36" s="2">
-        <v>0.79910000000000003</v>
+        <v>0.9012</v>
       </c>
       <c r="N36" s="2">
-        <v>0.77810000000000001</v>
-      </c>
-      <c r="O36" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>0.89549999999999996</v>
+      </c>
+      <c r="O36" s="26">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P36" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="Q36" s="2">
-        <v>5.5800000000000002E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="R36" s="2">
-        <v>9.0800000000000006E-2</v>
+        <v>6.9500000000000006E-2</v>
       </c>
       <c r="S36" s="2">
-        <v>9.3751999999999995</v>
+        <v>3.6783000000000001</v>
       </c>
       <c r="T36" s="2">
-        <v>9.1565999999999992</v>
-      </c>
-      <c r="U36" s="2">
-        <v>3.3500000000000002E-2</v>
+        <v>3.5278999999999998</v>
+      </c>
+      <c r="U36" s="26">
+        <v>0.03</v>
       </c>
       <c r="V36" s="2">
-        <v>3.1937000000000002</v>
+        <v>1.6215999999999999</v>
       </c>
       <c r="W36" s="2">
-        <v>3.1204000000000001</v>
+        <v>1.5568</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.4">
@@ -3443,73 +3450,73 @@
         <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C37" s="2">
-        <v>0.34129999999999999</v>
+        <v>0.25180000000000002</v>
       </c>
       <c r="D37" s="2">
-        <v>0.79239999999999999</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="E37" s="2">
-        <v>5.6899999999999999E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="F37" s="2">
-        <v>8.1373999999999995</v>
+        <v>7.2229999999999999</v>
       </c>
       <c r="G37" s="2">
-        <v>3.2317</v>
+        <v>1.6734</v>
       </c>
       <c r="H37" s="6">
-        <v>7.8125000000000004E-7</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I37" s="2">
-        <v>4.8999999999999998E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="J37" s="2">
-        <v>0.34739999999999999</v>
+        <v>0.2581</v>
       </c>
       <c r="K37" s="2">
-        <v>0.33550000000000002</v>
+        <v>0.24640000000000001</v>
       </c>
       <c r="L37" s="2">
-        <v>5.8999999999999999E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="M37" s="2">
-        <v>0.79930000000000001</v>
+        <v>0.89180000000000004</v>
       </c>
       <c r="N37" s="2">
-        <v>0.78490000000000004</v>
+        <v>0.88129999999999997</v>
       </c>
       <c r="O37" s="2">
         <v>1E-4</v>
       </c>
       <c r="P37" s="2">
-        <v>5.7099999999999998E-2</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="Q37" s="2">
-        <v>5.6800000000000003E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="R37" s="2">
-        <v>0.108</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="S37" s="2">
-        <v>8.2614000000000001</v>
+        <v>7.2816999999999998</v>
       </c>
       <c r="T37" s="2">
-        <v>7.9981999999999998</v>
+        <v>7.1710000000000003</v>
       </c>
       <c r="U37" s="2">
-        <v>2.9899999999999999E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="V37" s="2">
-        <v>3.2709000000000001</v>
+        <v>1.6875</v>
       </c>
       <c r="W37" s="2">
-        <v>3.1983999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+        <v>1.6511</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>79</v>
       </c>
@@ -3580,7 +3587,7 @@
         <v>3.1821000000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>79</v>
       </c>
@@ -3656,70 +3663,70 @@
         <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C40" s="2">
-        <v>0.34250000000000003</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="D40" s="2">
-        <v>0.79090000000000005</v>
+        <v>0.89690000000000003</v>
       </c>
       <c r="E40" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="F40" s="2">
-        <v>8.4193999999999996</v>
+        <v>6.3140999999999998</v>
       </c>
       <c r="G40" s="2">
-        <v>3.2014</v>
+        <v>1.6345000000000001</v>
       </c>
       <c r="H40" s="6">
-        <v>1.5625000000000001E-6</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I40" s="2">
-        <v>4.4999999999999997E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="J40" s="2">
-        <v>0.34849999999999998</v>
+        <v>0.2447</v>
       </c>
       <c r="K40" s="2">
-        <v>0.33750000000000002</v>
+        <v>0.23380000000000001</v>
       </c>
       <c r="L40" s="2">
-        <v>5.5999999999999999E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="M40" s="2">
-        <v>0.79700000000000004</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="N40" s="2">
-        <v>0.78349999999999997</v>
+        <v>0.89329999999999998</v>
       </c>
       <c r="O40" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P40" s="2">
-        <v>5.7200000000000001E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="Q40" s="2">
-        <v>5.6899999999999999E-2</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="R40" s="2">
-        <v>5.8200000000000002E-2</v>
+        <v>0.13009999999999999</v>
       </c>
       <c r="S40" s="2">
-        <v>8.4974000000000007</v>
+        <v>6.4614000000000003</v>
       </c>
       <c r="T40" s="2">
-        <v>8.3575999999999997</v>
+        <v>6.1448999999999998</v>
       </c>
       <c r="U40" s="2">
-        <v>4.7699999999999999E-2</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="V40" s="2">
-        <v>3.2688999999999999</v>
+        <v>1.6998</v>
       </c>
       <c r="W40" s="2">
-        <v>3.1657999999999999</v>
+        <v>1.5963000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.4">
@@ -3727,70 +3734,70 @@
         <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C41" s="2">
-        <v>0.3473</v>
+        <v>0.2271</v>
       </c>
       <c r="D41" s="2">
-        <v>0.78510000000000002</v>
+        <v>0.90810000000000002</v>
       </c>
       <c r="E41" s="2">
-        <v>5.7099999999999998E-2</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="F41" s="2">
-        <v>7.2785000000000002</v>
+        <v>4.4733000000000001</v>
       </c>
       <c r="G41" s="2">
-        <v>3.2187999999999999</v>
+        <v>1.5087999999999999</v>
       </c>
       <c r="H41" s="6">
-        <v>7.8125000000000004E-7</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I41" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J41" s="2">
-        <v>0.35139999999999999</v>
+        <v>0.2273</v>
       </c>
       <c r="K41" s="2">
-        <v>0.34279999999999999</v>
+        <v>0.2268</v>
       </c>
       <c r="L41" s="2">
-        <v>4.3E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M41" s="2">
-        <v>0.79059999999999997</v>
+        <v>0.9083</v>
       </c>
       <c r="N41" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="O41" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="O41" s="26">
+        <v>1E-4</v>
       </c>
       <c r="P41" s="2">
-        <v>5.74E-2</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="Q41" s="2">
-        <v>5.6899999999999999E-2</v>
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="R41" s="2">
-        <v>0.1057</v>
+        <v>0.19869999999999999</v>
       </c>
       <c r="S41" s="2">
-        <v>7.3810000000000002</v>
+        <v>4.6665000000000001</v>
       </c>
       <c r="T41" s="2">
-        <v>7.133</v>
-      </c>
-      <c r="U41" s="2">
-        <v>2E-3</v>
+        <v>4.2000999999999999</v>
+      </c>
+      <c r="U41" s="26">
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="V41" s="2">
-        <v>3.2210999999999999</v>
+        <v>1.5383</v>
       </c>
       <c r="W41" s="2">
-        <v>3.2161</v>
+        <v>1.4617</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.4">
@@ -3798,70 +3805,70 @@
         <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C42" s="2">
-        <v>0.34129999999999999</v>
+        <v>0.2185</v>
       </c>
       <c r="D42" s="2">
-        <v>0.7923</v>
+        <v>0.91490000000000005</v>
       </c>
       <c r="E42" s="2">
-        <v>5.7200000000000001E-2</v>
+        <v>4.2299999999999997E-2</v>
       </c>
       <c r="F42" s="2">
-        <v>9.6792999999999996</v>
+        <v>3.3157000000000001</v>
       </c>
       <c r="G42" s="2">
-        <v>3.1972</v>
+        <v>1.6267</v>
       </c>
       <c r="H42" s="6">
-        <v>1.5625000000000001E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I42" s="2">
-        <v>8.8999999999999999E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="J42" s="2">
-        <v>0.3538</v>
+        <v>0.22289999999999999</v>
       </c>
       <c r="K42" s="2">
-        <v>0.33489999999999998</v>
+        <v>0.21129999999999999</v>
       </c>
       <c r="L42" s="2">
-        <v>1.09E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="M42" s="2">
-        <v>0.80010000000000003</v>
+        <v>0.9204</v>
       </c>
       <c r="N42" s="2">
-        <v>0.77690000000000003</v>
-      </c>
-      <c r="O42" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="O42" s="26">
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="P42" s="2">
-        <v>5.7599999999999998E-2</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="Q42" s="2">
-        <v>5.6899999999999999E-2</v>
+        <v>4.1200000000000001E-2</v>
       </c>
       <c r="R42" s="2">
-        <v>7.9799999999999996E-2</v>
+        <v>0.1532</v>
       </c>
       <c r="S42" s="2">
-        <v>9.7509999999999994</v>
+        <v>3.5299</v>
       </c>
       <c r="T42" s="2">
-        <v>9.5679999999999996</v>
-      </c>
-      <c r="U42" s="2">
-        <v>5.9200000000000003E-2</v>
+        <v>3.1808000000000001</v>
+      </c>
+      <c r="U42" s="26">
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="V42" s="2">
-        <v>3.2605</v>
+        <v>1.6357999999999999</v>
       </c>
       <c r="W42" s="2">
-        <v>3.1181000000000001</v>
+        <v>1.6212</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.4">
@@ -3869,73 +3876,73 @@
         <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2">
-        <v>0.34510000000000002</v>
+        <v>0.2286</v>
       </c>
       <c r="D43" s="2">
-        <v>0.78769999999999996</v>
+        <v>0.90690000000000004</v>
       </c>
       <c r="E43" s="2">
-        <v>5.74E-2</v>
+        <v>4.4200000000000003E-2</v>
       </c>
       <c r="F43" s="2">
-        <v>7.2619999999999996</v>
+        <v>2.8605</v>
       </c>
       <c r="G43" s="2">
-        <v>3.2484000000000002</v>
+        <v>1.7045999999999999</v>
       </c>
       <c r="H43" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I43" s="2">
-        <v>1E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="J43" s="2">
-        <v>0.34649999999999997</v>
+        <v>0.2344</v>
       </c>
       <c r="K43" s="2">
-        <v>0.34420000000000001</v>
+        <v>0.22459999999999999</v>
       </c>
       <c r="L43" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>3.3999999999999998E-3</v>
       </c>
       <c r="M43" s="2">
-        <v>0.78890000000000005</v>
+        <v>0.91010000000000002</v>
       </c>
       <c r="N43" s="2">
-        <v>0.78600000000000003</v>
+        <v>0.90210000000000001</v>
       </c>
       <c r="O43" s="2">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P43" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>4.4600000000000001E-2</v>
       </c>
       <c r="Q43" s="2">
-        <v>5.7200000000000001E-2</v>
+        <v>4.3799999999999999E-2</v>
       </c>
       <c r="R43" s="2">
-        <v>3.8899999999999997E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="S43" s="2">
-        <v>7.3135000000000003</v>
+        <v>2.9194</v>
       </c>
       <c r="T43" s="2">
-        <v>7.2195999999999998</v>
+        <v>2.8243999999999998</v>
       </c>
       <c r="U43" s="2">
-        <v>4.1999999999999997E-3</v>
+        <v>2.4E-2</v>
       </c>
       <c r="V43" s="2">
-        <v>3.2538999999999998</v>
+        <v>1.7299</v>
       </c>
       <c r="W43" s="2">
-        <v>3.2435</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
+        <v>1.6722999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>79</v>
       </c>
@@ -4006,7 +4013,7 @@
         <v>3.1876000000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>79</v>
       </c>
@@ -4077,7 +4084,7 @@
         <v>3.2486999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>79</v>
       </c>
@@ -4148,7 +4155,7 @@
         <v>3.2227000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>79</v>
       </c>
@@ -4219,7 +4226,7 @@
         <v>3.2012999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>79</v>
       </c>
@@ -4290,7 +4297,7 @@
         <v>3.1459999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>79</v>
       </c>
@@ -4361,10 +4368,158 @@
         <v>3.2698999999999998</v>
       </c>
     </row>
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50">
+        <v>0.1158</v>
+      </c>
+      <c r="O50">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
+        <v>70</v>
+      </c>
+      <c r="E51">
+        <v>0.1298</v>
+      </c>
+      <c r="O51">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52">
+        <v>0.1409</v>
+      </c>
+      <c r="O52">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53">
+        <v>0.1196</v>
+      </c>
+      <c r="O53">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E54">
+        <v>0.12859999999999999</v>
+      </c>
+      <c r="O54">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55">
+        <v>0.1313</v>
+      </c>
+      <c r="O55">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56">
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="O56">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57">
+        <v>0.12939999999999999</v>
+      </c>
+      <c r="O57">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:W49" xr:uid="{CA0D07A2-8BFB-4532-81F8-4995D0BF2BB4}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W49">
-      <sortCondition ref="E1:E49"/>
+  <autoFilter ref="A1:W58" xr:uid="{CA0D07A2-8BFB-4532-81F8-4995D0BF2BB4}">
+    <filterColumn colId="1">
+      <filters blank="1">
+        <filter val="DNN-ew2"/>
+        <filter val="DNN-ew3"/>
+        <filter val="DNN-ew4"/>
+        <filter val="DNN-obs"/>
+        <filter val="DNN-or"/>
+        <filter val="DNN-sg5"/>
+        <filter val="DNN-sg7"/>
+        <filter val="DNN-sg9"/>
+        <filter val="GRU-ew2"/>
+        <filter val="GRU-ew3"/>
+        <filter val="GRU-ew4"/>
+        <filter val="GRU-obs"/>
+        <filter val="GRU-or"/>
+        <filter val="GRU-sg5"/>
+        <filter val="GRU-sg7"/>
+        <filter val="GRU-sg9"/>
+        <filter val="LSTM-ew2"/>
+        <filter val="LSTM-ew3"/>
+        <filter val="LSTM-ew4"/>
+        <filter val="LSTM-obs"/>
+        <filter val="LSTM-or"/>
+        <filter val="LSTM-sg5"/>
+        <filter val="LSTM-sg7"/>
+        <filter val="LSTM-sg9"/>
+        <filter val="RNN-ew2"/>
+        <filter val="RNN-ew3"/>
+        <filter val="RNN-ew4"/>
+        <filter val="RNN-obs"/>
+        <filter val="RNN-or"/>
+        <filter val="RNN-sg5"/>
+        <filter val="RNN-sg7"/>
+        <filter val="RNN-sg9"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:W43">
+      <sortCondition ref="B1:B58"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4473,7 +4628,7 @@
   <dimension ref="A5:P47"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8:M47"/>
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4488,14 +4643,14 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D6" s="25"/>
@@ -4826,14 +4981,14 @@
       </c>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D20" s="44">
+      <c r="D20" s="43">
         <v>1016</v>
       </c>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
       <c r="M20" s="2">
         <v>3.1972</v>
       </c>
@@ -5150,14 +5305,14 @@
       </c>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
       <c r="M34" s="5">
         <v>1.1218999999999999</v>
       </c>
@@ -5410,37 +5565,37 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1DB96E-F0A8-460E-9A4B-15CE75D83F02}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:W60"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D6" sqref="D6:I15"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="B48:C54"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.53515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.53515625" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" customWidth="1"/>
     <col min="5" max="5" width="18.23046875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="18.921875" customWidth="1"/>
     <col min="8" max="8" width="14.23046875" customWidth="1"/>
-    <col min="9" max="9" width="16.3828125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.23046875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.84375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.61328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3828125" customWidth="1"/>
+    <col min="10" max="10" width="17.23046875" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="14.84375" customWidth="1"/>
+    <col min="14" max="14" width="14.61328125" customWidth="1"/>
     <col min="15" max="15" width="16.07421875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.921875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.69140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.765625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="17.69140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="17.4609375" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="16.765625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="17.69140625" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="17.4609375" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="16.765625" customWidth="1"/>
+    <col min="19" max="19" width="17.69140625" customWidth="1"/>
+    <col min="20" max="20" width="17.4609375" customWidth="1"/>
+    <col min="21" max="21" width="16.765625" customWidth="1"/>
+    <col min="22" max="22" width="17.69140625" customWidth="1"/>
+    <col min="23" max="23" width="17.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.4">
@@ -5516,53 +5671,53 @@
       <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.2142</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.94410000000000005</v>
-      </c>
-      <c r="E2" s="32">
-        <v>1.49E-2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1.5E-3</v>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.69089999999999996</v>
+      </c>
+      <c r="D2" s="36">
+        <v>0.35220000000000001</v>
+      </c>
+      <c r="E2" s="36">
+        <v>8.14E-2</v>
+      </c>
+      <c r="F2" s="36">
+        <v>0</v>
+      </c>
+      <c r="G2" s="36">
+        <v>0</v>
+      </c>
+      <c r="H2" s="36">
+        <v>0</v>
+      </c>
+      <c r="I2" s="36">
+        <v>0.23400000000000001</v>
       </c>
       <c r="J2" s="2">
-        <v>0.21629999999999999</v>
+        <v>0.85640000000000005</v>
       </c>
       <c r="K2" s="2">
-        <v>0.2127</v>
+        <v>0.3599</v>
       </c>
       <c r="L2" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>0.34660000000000002</v>
       </c>
       <c r="M2" s="2">
-        <v>0.94489999999999996</v>
+        <v>0.84230000000000005</v>
       </c>
       <c r="N2" s="2">
-        <v>0.94299999999999995</v>
+        <v>0.107</v>
       </c>
       <c r="O2" s="2">
-        <v>1E-4</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="P2" s="2">
-        <v>1.5100000000000001E-2</v>
+        <v>0.10639999999999999</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.47E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R2" s="2">
         <v>0</v>
@@ -5588,52 +5743,52 @@
         <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
-        <v>0.2177</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0.94230000000000003</v>
-      </c>
-      <c r="E3" s="32">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1.9E-3</v>
+        <v>0.69550000000000001</v>
+      </c>
+      <c r="D3" s="36">
+        <v>0.34770000000000001</v>
+      </c>
+      <c r="E3" s="36">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="F3" s="36">
+        <v>0</v>
+      </c>
+      <c r="G3" s="36">
+        <v>0</v>
+      </c>
+      <c r="H3" s="36">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36">
+        <v>0.2283</v>
       </c>
       <c r="J3" s="2">
-        <v>0.21920000000000001</v>
+        <v>0.8569</v>
       </c>
       <c r="K3" s="2">
-        <v>0.215</v>
+        <v>0.37269999999999998</v>
       </c>
       <c r="L3" s="2">
-        <v>1E-3</v>
+        <v>0.3417</v>
       </c>
       <c r="M3" s="2">
-        <v>0.94369999999999998</v>
+        <v>0.83089999999999997</v>
       </c>
       <c r="N3" s="2">
-        <v>0.9415</v>
+        <v>0.1061</v>
       </c>
       <c r="O3" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>3.5700000000000003E-2</v>
       </c>
       <c r="P3" s="2">
-        <v>1.5299999999999999E-2</v>
+        <v>0.1076</v>
       </c>
       <c r="Q3" s="2">
-        <v>1.46E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
@@ -5659,52 +5814,52 @@
         <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0.2107</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.94589999999999996</v>
-      </c>
-      <c r="E4" s="32">
-        <v>1.52E-2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1.4E-3</v>
+        <v>51</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.69199999999999995</v>
+      </c>
+      <c r="D4" s="36">
+        <v>0.34920000000000001</v>
+      </c>
+      <c r="E4" s="36">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="F4" s="36">
+        <v>0</v>
+      </c>
+      <c r="G4" s="36">
+        <v>0</v>
+      </c>
+      <c r="H4" s="36">
+        <v>0</v>
+      </c>
+      <c r="I4" s="36">
+        <v>0.2359</v>
       </c>
       <c r="J4" s="2">
-        <v>0.21260000000000001</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="K4" s="2">
-        <v>0.20910000000000001</v>
+        <v>0.3584</v>
       </c>
       <c r="L4" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>0.34960000000000002</v>
       </c>
       <c r="M4" s="2">
-        <v>0.94679999999999997</v>
+        <v>0.84360000000000002</v>
       </c>
       <c r="N4" s="2">
-        <v>0.94499999999999995</v>
+        <v>0.1017</v>
       </c>
       <c r="O4" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>3.5799999999999998E-2</v>
       </c>
       <c r="P4" s="2">
-        <v>1.55E-2</v>
+        <v>0.1085</v>
       </c>
       <c r="Q4" s="2">
-        <v>1.49E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
@@ -5730,16 +5885,16 @@
         <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.20930000000000001</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E5" s="31">
-        <v>1.55E-2</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.53649999999999998</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.58589999999999998</v>
+      </c>
+      <c r="E5" s="13">
+        <v>5.67E-2</v>
       </c>
       <c r="F5" s="13">
         <v>0</v>
@@ -5751,31 +5906,31 @@
         <v>0</v>
       </c>
       <c r="I5" s="13">
-        <v>2.8999999999999998E-3</v>
+        <v>0.2286</v>
       </c>
       <c r="J5" s="2">
-        <v>0.21279999999999999</v>
+        <v>0.85950000000000004</v>
       </c>
       <c r="K5" s="2">
-        <v>0.20569999999999999</v>
+        <v>0.3639</v>
       </c>
       <c r="L5" s="2">
-        <v>1.5E-3</v>
+        <v>0.34339999999999998</v>
       </c>
       <c r="M5" s="2">
-        <v>0.94850000000000001</v>
+        <v>0.83879999999999999</v>
       </c>
       <c r="N5" s="2">
-        <v>0.94489999999999996</v>
+        <v>0.10050000000000001</v>
       </c>
       <c r="O5" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>3.5099999999999999E-2</v>
       </c>
       <c r="P5" s="2">
-        <v>1.5800000000000002E-2</v>
+        <v>0.1062</v>
       </c>
       <c r="Q5" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
@@ -5800,9 +5955,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="4"/>
       <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
-        <v>79</v>
-      </c>
+      <c r="E6" s="13"/>
       <c r="F6" s="13" t="s">
         <v>81</v>
       </c>
@@ -5833,16 +5986,16 @@
         <v>77</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2">
-        <v>0.22289999999999999</v>
+        <v>0.5272</v>
       </c>
       <c r="D7" s="13">
-        <v>0.9395</v>
-      </c>
-      <c r="E7" s="31">
-        <v>1.5599999999999999E-2</v>
+        <v>0.59340000000000004</v>
+      </c>
+      <c r="E7" s="13">
+        <v>5.6399999999999999E-2</v>
       </c>
       <c r="F7" s="13">
         <v>0</v>
@@ -5853,32 +6006,32 @@
       <c r="H7" s="13">
         <v>0</v>
       </c>
-      <c r="I7" s="15">
-        <v>2.5999999999999999E-3</v>
+      <c r="I7" s="13">
+        <v>0.2366</v>
       </c>
       <c r="J7" s="2">
-        <v>0.22509999999999999</v>
+        <v>0.86180000000000001</v>
       </c>
       <c r="K7" s="2">
-        <v>0.21920000000000001</v>
+        <v>0.3599</v>
       </c>
       <c r="L7" s="2">
-        <v>1.4E-3</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="M7" s="2">
-        <v>0.9415</v>
+        <v>0.84230000000000005</v>
       </c>
       <c r="N7" s="2">
-        <v>0.93830000000000002</v>
+        <v>9.5799999999999996E-2</v>
       </c>
       <c r="O7" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="P7" s="2">
-        <v>1.5900000000000001E-2</v>
+        <v>0.10639999999999999</v>
       </c>
       <c r="Q7" s="2">
-        <v>1.54E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R7" s="2">
         <v>0</v>
@@ -5904,52 +6057,52 @@
         <v>77</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
-        <v>0.21729999999999999</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="31">
-        <v>1.5599999999999999E-2</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="13">
-        <v>1.4E-3</v>
+        <v>0.3609</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.84150000000000003</v>
+      </c>
+      <c r="E8" s="21">
+        <v>3.1300000000000001E-2</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15">
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="J8" s="2">
-        <v>0.21840000000000001</v>
+        <v>0.3609</v>
       </c>
       <c r="K8" s="2">
-        <v>0.21529999999999999</v>
+        <v>0.36080000000000001</v>
       </c>
       <c r="L8" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
-        <v>0.94359999999999999</v>
+        <v>0.84150000000000003</v>
       </c>
       <c r="N8" s="2">
-        <v>0.94189999999999996</v>
+        <v>0.84150000000000003</v>
       </c>
       <c r="O8" s="2">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>1.5699999999999999E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="Q8" s="2">
-        <v>1.55E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
@@ -5971,56 +6124,56 @@
       </c>
     </row>
     <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
+      <c r="A9" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0.21110000000000001</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0.94579999999999997</v>
-      </c>
-      <c r="E9" s="15">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="15">
-        <v>1.2999999999999999E-3</v>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.36280000000000001</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.8397</v>
+      </c>
+      <c r="E9" s="21">
+        <v>3.15E-2</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="21">
+        <v>0</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+      <c r="I9" s="21">
+        <v>1.5E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>0.21290000000000001</v>
+        <v>0.37030000000000002</v>
       </c>
       <c r="K9" s="2">
-        <v>0.2097</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="L9" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="M9" s="2">
-        <v>0.94650000000000001</v>
+        <v>0.84309999999999996</v>
       </c>
       <c r="N9" s="2">
-        <v>0.94479999999999997</v>
-      </c>
-      <c r="O9" s="26">
-        <v>4.0000000000000002E-4</v>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P9" s="2">
-        <v>1.6400000000000001E-2</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="Q9" s="2">
-        <v>1.55E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
@@ -6046,16 +6199,16 @@
         <v>77</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.2092</v>
+        <v>36</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.5272</v>
       </c>
       <c r="D10" s="13">
-        <v>0.94669999999999999</v>
-      </c>
-      <c r="E10" s="31">
-        <v>1.6E-2</v>
+        <v>0.5958</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5.67E-2</v>
       </c>
       <c r="F10" s="13">
         <v>0</v>
@@ -6067,31 +6220,31 @@
         <v>0</v>
       </c>
       <c r="I10" s="13">
-        <v>2.8E-3</v>
+        <v>0.2326</v>
       </c>
       <c r="J10" s="2">
-        <v>0.21299999999999999</v>
+        <v>0.85609999999999997</v>
       </c>
       <c r="K10" s="2">
-        <v>0.20649999999999999</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="L10" s="2">
-        <v>1.5E-3</v>
+        <v>0.34510000000000002</v>
       </c>
       <c r="M10" s="2">
-        <v>0.94810000000000005</v>
+        <v>0.84140000000000004</v>
       </c>
       <c r="N10" s="2">
-        <v>0.94469999999999998</v>
+        <v>0.1077</v>
       </c>
       <c r="O10" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>3.5200000000000002E-2</v>
       </c>
       <c r="P10" s="2">
-        <v>1.67E-2</v>
+        <v>0.1066</v>
       </c>
       <c r="Q10" s="2">
-        <v>1.5699999999999999E-2</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="R10" s="2">
         <v>0</v>
@@ -6112,57 +6265,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>77</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2">
-        <v>0.21690000000000001</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0.94269999999999998</v>
-      </c>
-      <c r="E11" s="13">
-        <v>1.61E-2</v>
-      </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="13">
-        <v>1.6000000000000001E-3</v>
+        <v>0.372</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.83150000000000002</v>
+      </c>
+      <c r="E11" s="21">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0</v>
+      </c>
+      <c r="I11" s="21">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="J11" s="2">
-        <v>0.21840000000000001</v>
+        <v>0.38140000000000002</v>
       </c>
       <c r="K11" s="2">
-        <v>0.2147</v>
+        <v>0.36</v>
       </c>
       <c r="L11" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="M11" s="2">
-        <v>0.94389999999999996</v>
+        <v>0.84219999999999995</v>
       </c>
       <c r="N11" s="2">
-        <v>0.94189999999999996</v>
-      </c>
-      <c r="O11" s="26">
-        <v>0</v>
+        <v>0.82289999999999996</v>
+      </c>
+      <c r="O11" s="2">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P11" s="2">
-        <v>1.61E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="Q11" s="2">
-        <v>1.61E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R11" s="2">
         <v>0</v>
@@ -6183,57 +6336,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0.2112</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.94569999999999999</v>
-      </c>
-      <c r="E12" s="13">
-        <v>1.6299999999999999E-2</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
+        <v>49</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.36509999999999998</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.8377</v>
+      </c>
+      <c r="E12" s="21">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="F12" s="15">
+        <v>0</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21">
         <v>0</v>
       </c>
       <c r="I12" s="15">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="J12" s="2">
-        <v>0.21410000000000001</v>
+        <v>0.37159999999999999</v>
       </c>
       <c r="K12" s="2">
-        <v>0.2087</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="L12" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="M12" s="2">
-        <v>0.94699999999999995</v>
+        <v>0.84309999999999996</v>
       </c>
       <c r="N12" s="2">
-        <v>0.94420000000000004</v>
-      </c>
-      <c r="O12" s="26">
-        <v>2.9999999999999997E-4</v>
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="O12" s="2">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P12" s="2">
-        <v>1.6799999999999999E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="Q12" s="2">
-        <v>1.6E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
@@ -6259,52 +6412,52 @@
         <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2">
-        <v>0.24030000000000001</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.92969999999999997</v>
-      </c>
-      <c r="E13" s="31">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="13">
-        <v>1.5E-3</v>
+        <v>0.37</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="E13" s="21">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0</v>
+      </c>
+      <c r="I13" s="21">
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="J13" s="2">
-        <v>0.2424</v>
+        <v>0.37330000000000002</v>
       </c>
       <c r="K13" s="2">
-        <v>0.2392</v>
+        <v>0.36559999999999998</v>
       </c>
       <c r="L13" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="M13" s="2">
-        <v>0.93030000000000002</v>
+        <v>0.83720000000000006</v>
       </c>
       <c r="N13" s="2">
-        <v>0.92849999999999999</v>
+        <v>0.83030000000000004</v>
       </c>
       <c r="O13" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P13" s="2">
-        <v>1.67E-2</v>
+        <v>3.2099999999999997E-2</v>
       </c>
       <c r="Q13" s="2">
-        <v>1.61E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="R13" s="2">
         <v>0</v>
@@ -6325,57 +6478,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
-        <v>0.2137</v>
-      </c>
-      <c r="D14" s="21">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="E14" s="21">
-        <v>1.66E-2</v>
-      </c>
-      <c r="F14" s="21">
-        <v>0</v>
-      </c>
-      <c r="G14" s="21">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21">
-        <v>0</v>
-      </c>
-      <c r="I14" s="21">
-        <v>1.1000000000000001E-3</v>
+        <v>0.37740000000000001</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.8266</v>
+      </c>
+      <c r="E14" s="13">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="J14" s="2">
-        <v>0.21529999999999999</v>
+        <v>0.38369999999999999</v>
       </c>
       <c r="K14" s="2">
-        <v>0.2127</v>
+        <v>0.372</v>
       </c>
       <c r="L14" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="M14" s="2">
-        <v>0.94489999999999996</v>
+        <v>0.83150000000000002</v>
       </c>
       <c r="N14" s="2">
-        <v>0.94359999999999999</v>
-      </c>
-      <c r="O14" s="26">
-        <v>1E-4</v>
+        <v>0.82079999999999997</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P14" s="2">
-        <v>1.67E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="Q14" s="2">
-        <v>1.6500000000000001E-2</v>
+        <v>3.1699999999999999E-2</v>
       </c>
       <c r="R14" s="2">
         <v>0</v>
@@ -6396,25 +6549,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>77</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2">
-        <v>0.2218</v>
+        <v>0.36620000000000003</v>
       </c>
       <c r="D15" s="21">
-        <v>0.94010000000000005</v>
-      </c>
-      <c r="E15" s="30">
-        <v>1.67E-2</v>
-      </c>
-      <c r="F15" s="21">
-        <v>0</v>
-      </c>
+        <v>0.83660000000000001</v>
+      </c>
+      <c r="E15" s="21">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="F15" s="21"/>
       <c r="G15" s="21">
         <v>0</v>
       </c>
@@ -6422,31 +6573,31 @@
         <v>0</v>
       </c>
       <c r="I15" s="21">
-        <v>1.2999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J15" s="2">
-        <v>0.22359999999999999</v>
+        <v>0.37859999999999999</v>
       </c>
       <c r="K15" s="2">
-        <v>0.2208</v>
+        <v>0.35980000000000001</v>
       </c>
       <c r="L15" s="2">
-        <v>6.9999999999999999E-4</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="M15" s="2">
-        <v>0.94059999999999999</v>
+        <v>0.84230000000000005</v>
       </c>
       <c r="N15" s="2">
-        <v>0.93910000000000005</v>
-      </c>
-      <c r="O15" s="26">
-        <v>0</v>
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="O15" s="2">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P15" s="2">
-        <v>1.67E-2</v>
+        <v>3.2199999999999999E-2</v>
       </c>
       <c r="Q15" s="2">
-        <v>1.67E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R15" s="2">
         <v>0</v>
@@ -6467,21 +6618,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2">
-        <v>0.2198</v>
+        <v>0.37559999999999999</v>
       </c>
       <c r="D16" s="13">
-        <v>0.94120000000000004</v>
-      </c>
-      <c r="E16" s="31">
-        <v>1.6899999999999998E-2</v>
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="E16" s="13">
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="F16" s="13">
         <v>0</v>
@@ -6493,31 +6644,31 @@
         <v>0</v>
       </c>
       <c r="I16" s="13">
-        <v>1.1000000000000001E-3</v>
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="J16" s="2">
-        <v>0.22109999999999999</v>
+        <v>0.39460000000000001</v>
       </c>
       <c r="K16" s="2">
-        <v>0.2185</v>
+        <v>0.36059999999999998</v>
       </c>
       <c r="L16" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="M16" s="2">
-        <v>0.94189999999999996</v>
+        <v>0.8417</v>
       </c>
       <c r="N16" s="2">
-        <v>0.9405</v>
+        <v>0.8105</v>
       </c>
       <c r="O16" s="2">
-        <v>1E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="P16" s="2">
-        <v>1.7000000000000001E-2</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="Q16" s="2">
-        <v>1.67E-2</v>
+        <v>3.1300000000000001E-2</v>
       </c>
       <c r="R16" s="2">
         <v>0</v>
@@ -6538,23 +6689,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>77</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2">
-        <v>0.2271</v>
+        <v>0.3649</v>
       </c>
       <c r="D17" s="21">
-        <v>0.93720000000000003</v>
-      </c>
-      <c r="E17" s="30">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="F17" s="15">
+        <v>0.83779999999999999</v>
+      </c>
+      <c r="E17" s="21">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="F17" s="21">
         <v>0</v>
       </c>
       <c r="G17" s="21">
@@ -6563,32 +6714,32 @@
       <c r="H17" s="21">
         <v>0</v>
       </c>
-      <c r="I17" s="15">
-        <v>2.5999999999999999E-3</v>
+      <c r="I17" s="21">
+        <v>2.8E-3</v>
       </c>
       <c r="J17" s="2">
-        <v>0.23019999999999999</v>
+        <v>0.37130000000000002</v>
       </c>
       <c r="K17" s="2">
-        <v>0.22450000000000001</v>
+        <v>0.35920000000000002</v>
       </c>
       <c r="L17" s="2">
-        <v>1.2999999999999999E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="M17" s="2">
-        <v>0.93859999999999999</v>
+        <v>0.84289999999999998</v>
       </c>
       <c r="N17" s="2">
-        <v>0.9355</v>
+        <v>0.83209999999999995</v>
       </c>
       <c r="O17" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P17" s="2">
-        <v>1.7399999999999999E-2</v>
+        <v>3.1800000000000002E-2</v>
       </c>
       <c r="Q17" s="2">
-        <v>1.66E-2</v>
+        <v>3.1399999999999997E-2</v>
       </c>
       <c r="R17" s="2">
         <v>0</v>
@@ -6609,57 +6760,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>77</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="D18" s="13">
-        <v>0.94469999999999998</v>
-      </c>
-      <c r="E18" s="31">
-        <v>1.7399999999999999E-2</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="13">
-        <v>1.6999999999999999E-3</v>
+        <v>0.36620000000000003</v>
+      </c>
+      <c r="D18" s="21">
+        <v>0.8367</v>
+      </c>
+      <c r="E18" s="21">
+        <v>3.1899999999999998E-2</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
+        <v>0</v>
+      </c>
+      <c r="I18" s="21">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="J18" s="2">
-        <v>0.21529999999999999</v>
+        <v>0.36649999999999999</v>
       </c>
       <c r="K18" s="2">
-        <v>0.21149999999999999</v>
+        <v>0.36580000000000001</v>
       </c>
       <c r="L18" s="2">
-        <v>8.9999999999999998E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="M18" s="2">
-        <v>0.94550000000000001</v>
+        <v>0.83709999999999996</v>
       </c>
       <c r="N18" s="2">
-        <v>0.94350000000000001</v>
+        <v>0.83640000000000003</v>
       </c>
       <c r="O18" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2">
-        <v>1.7600000000000001E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="Q18" s="2">
-        <v>1.72E-2</v>
+        <v>3.1899999999999998E-2</v>
       </c>
       <c r="R18" s="2">
         <v>0</v>
@@ -6685,50 +6836,52 @@
         <v>77</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2">
-        <v>0.23980000000000001</v>
-      </c>
-      <c r="D19" s="13">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="E19" s="13">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="13">
-        <v>1.4E-3</v>
+        <v>0.2271</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0.93720000000000003</v>
+      </c>
+      <c r="E19" s="30">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="21">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="J19" s="2">
-        <v>0.24129999999999999</v>
+        <v>0.23019999999999999</v>
       </c>
       <c r="K19" s="2">
-        <v>0.23799999999999999</v>
+        <v>0.22450000000000001</v>
       </c>
       <c r="L19" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="M19" s="2">
-        <v>0.93100000000000005</v>
+        <v>0.93859999999999999</v>
       </c>
       <c r="N19" s="2">
-        <v>0.92910000000000004</v>
-      </c>
-      <c r="O19" s="26">
-        <v>1E-4</v>
+        <v>0.9355</v>
+      </c>
+      <c r="O19" s="2">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P19" s="2">
-        <v>1.7600000000000001E-2</v>
+        <v>1.7399999999999999E-2</v>
       </c>
       <c r="Q19" s="2">
-        <v>1.7299999999999999E-2</v>
+        <v>1.66E-2</v>
       </c>
       <c r="R19" s="2">
         <v>0</v>
@@ -6749,21 +6902,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>77</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C20" s="2">
-        <v>0.24049999999999999</v>
+        <v>0.2218</v>
       </c>
       <c r="D20" s="21">
-        <v>0.92959999999999998</v>
-      </c>
-      <c r="E20" s="21">
-        <v>1.77E-2</v>
+        <v>0.94010000000000005</v>
+      </c>
+      <c r="E20" s="30">
+        <v>1.67E-2</v>
       </c>
       <c r="F20" s="21">
         <v>0</v>
@@ -6775,31 +6928,31 @@
         <v>0</v>
       </c>
       <c r="I20" s="21">
-        <v>2.8999999999999998E-3</v>
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J20" s="2">
-        <v>0.24440000000000001</v>
+        <v>0.22359999999999999</v>
       </c>
       <c r="K20" s="2">
-        <v>0.23749999999999999</v>
+        <v>0.2208</v>
       </c>
       <c r="L20" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="M20" s="2">
-        <v>0.93130000000000002</v>
+        <v>0.94059999999999999</v>
       </c>
       <c r="N20" s="2">
-        <v>0.92730000000000001</v>
+        <v>0.93910000000000005</v>
       </c>
       <c r="O20" s="26">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2">
-        <v>1.7999999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q20" s="2">
-        <v>1.7500000000000002E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="R20" s="2">
         <v>0</v>
@@ -6824,9 +6977,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="21"/>
-      <c r="E21" s="21" t="s">
-        <v>77</v>
-      </c>
+      <c r="E21" s="21"/>
       <c r="F21" s="21" t="s">
         <v>81</v>
       </c>
@@ -6852,57 +7003,57 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>77</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2">
-        <v>0.2223</v>
-      </c>
-      <c r="D22" s="21">
-        <v>0.93979999999999997</v>
-      </c>
-      <c r="E22" s="30">
-        <v>1.78E-2</v>
-      </c>
-      <c r="F22" s="21">
-        <v>0</v>
-      </c>
-      <c r="G22" s="21">
-        <v>0</v>
-      </c>
-      <c r="H22" s="21">
-        <v>0</v>
-      </c>
-      <c r="I22" s="21">
-        <v>2.8999999999999998E-3</v>
+        <v>0.2198</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0.94120000000000004</v>
+      </c>
+      <c r="E22" s="31">
+        <v>1.6899999999999998E-2</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="J22" s="2">
-        <v>0.22620000000000001</v>
+        <v>0.22109999999999999</v>
       </c>
       <c r="K22" s="2">
-        <v>0.21940000000000001</v>
+        <v>0.2185</v>
       </c>
       <c r="L22" s="2">
-        <v>1.6000000000000001E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="M22" s="2">
-        <v>0.94140000000000001</v>
+        <v>0.94189999999999996</v>
       </c>
       <c r="N22" s="2">
-        <v>0.93769999999999998</v>
+        <v>0.9405</v>
       </c>
       <c r="O22" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P22" s="2">
-        <v>1.84E-2</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="Q22" s="2">
-        <v>1.7500000000000002E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="R22" s="2">
         <v>0</v>
@@ -6923,23 +7074,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.2165</v>
+        <v>23</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.25359999999999999</v>
       </c>
       <c r="D23" s="21">
-        <v>0.94289999999999996</v>
-      </c>
-      <c r="E23" s="21">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F23" s="15">
+        <v>0.92169999999999996</v>
+      </c>
+      <c r="E23" s="30">
+        <v>1.89E-2</v>
+      </c>
+      <c r="F23" s="21">
         <v>0</v>
       </c>
       <c r="G23" s="21">
@@ -6948,32 +7099,32 @@
       <c r="H23" s="21">
         <v>0</v>
       </c>
-      <c r="I23" s="15">
-        <v>1.2999999999999999E-3</v>
+      <c r="I23" s="21">
+        <v>1.5E-3</v>
       </c>
       <c r="J23" s="2">
-        <v>0.21679999999999999</v>
+        <v>0.25750000000000001</v>
       </c>
       <c r="K23" s="2">
-        <v>0.216</v>
+        <v>0.249</v>
       </c>
       <c r="L23" s="2">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0.91930000000000001</v>
+      </c>
+      <c r="O23" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="M23" s="2">
-        <v>0.94320000000000004</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0.94279999999999997</v>
-      </c>
-      <c r="O23" s="26">
-        <v>2.0000000000000001E-4</v>
-      </c>
       <c r="P23" s="2">
-        <v>1.8200000000000001E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="Q23" s="2">
-        <v>1.77E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="R23" s="2">
         <v>0</v>
@@ -6994,23 +7145,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C24" s="2">
-        <v>0.2243</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>82</v>
+        <v>0.24979999999999999</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0.92400000000000004</v>
       </c>
       <c r="E24" s="30">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="F24" s="13">
+        <v>1.8700000000000001E-2</v>
+      </c>
+      <c r="F24" s="15">
         <v>0</v>
       </c>
       <c r="G24" s="21">
@@ -7019,32 +7170,32 @@
       <c r="H24" s="21">
         <v>0</v>
       </c>
-      <c r="I24" s="13">
-        <v>0</v>
+      <c r="I24" s="15">
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="J24" s="2">
-        <v>0.22739999999999999</v>
+        <v>0.25230000000000002</v>
       </c>
       <c r="K24" s="2">
-        <v>0.2185</v>
+        <v>0.24660000000000001</v>
       </c>
       <c r="L24" s="2">
-        <v>2.2000000000000001E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="M24" s="2">
-        <v>0.94189999999999996</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="N24" s="2">
-        <v>0.93710000000000004</v>
+        <v>0.92249999999999999</v>
       </c>
       <c r="O24" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P24" s="2">
-        <v>1.84E-2</v>
+        <v>1.89E-2</v>
       </c>
       <c r="Q24" s="2">
-        <v>1.7299999999999999E-2</v>
+        <v>1.8499999999999999E-2</v>
       </c>
       <c r="R24" s="2">
         <v>0</v>
@@ -7065,23 +7216,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="C25" s="2">
-        <v>0.24979999999999999</v>
+        <v>0.2223</v>
       </c>
       <c r="D25" s="21">
-        <v>0.92400000000000004</v>
+        <v>0.93979999999999997</v>
       </c>
       <c r="E25" s="30">
-        <v>1.8700000000000001E-2</v>
-      </c>
-      <c r="F25" s="15">
+        <v>1.78E-2</v>
+      </c>
+      <c r="F25" s="21">
         <v>0</v>
       </c>
       <c r="G25" s="21">
@@ -7090,32 +7241,32 @@
       <c r="H25" s="21">
         <v>0</v>
       </c>
-      <c r="I25" s="15">
-        <v>2.2000000000000001E-3</v>
+      <c r="I25" s="21">
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="J25" s="2">
-        <v>0.25230000000000002</v>
+        <v>0.22620000000000001</v>
       </c>
       <c r="K25" s="2">
-        <v>0.24660000000000001</v>
+        <v>0.21940000000000001</v>
       </c>
       <c r="L25" s="2">
-        <v>1.4E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="M25" s="2">
-        <v>0.92589999999999995</v>
+        <v>0.94140000000000001</v>
       </c>
       <c r="N25" s="2">
-        <v>0.92249999999999999</v>
+        <v>0.93769999999999998</v>
       </c>
       <c r="O25" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P25" s="2">
-        <v>1.89E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="Q25" s="2">
-        <v>1.8499999999999999E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="R25" s="2">
         <v>0</v>
@@ -7136,23 +7287,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.21729999999999999</v>
-      </c>
-      <c r="D26" s="21">
-        <v>0.9425</v>
-      </c>
-      <c r="E26" s="21">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="F26" s="21">
+        <v>33</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.2243</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="30">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F26" s="13">
         <v>0</v>
       </c>
       <c r="G26" s="21">
@@ -7161,32 +7312,32 @@
       <c r="H26" s="21">
         <v>0</v>
       </c>
-      <c r="I26" s="21">
-        <v>1.4E-3</v>
+      <c r="I26" s="13">
+        <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>0.21870000000000001</v>
+        <v>0.22739999999999999</v>
       </c>
       <c r="K26" s="2">
-        <v>0.2157</v>
+        <v>0.2185</v>
       </c>
       <c r="L26" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="M26" s="2">
-        <v>0.94330000000000003</v>
+        <v>0.94189999999999996</v>
       </c>
       <c r="N26" s="2">
-        <v>0.94179999999999997</v>
-      </c>
-      <c r="O26" s="26">
-        <v>2.0000000000000001E-4</v>
+        <v>0.93710000000000004</v>
+      </c>
+      <c r="O26" s="2">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P26" s="2">
-        <v>1.9099999999999999E-2</v>
+        <v>1.84E-2</v>
       </c>
       <c r="Q26" s="2">
-        <v>1.8599999999999998E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="R26" s="2">
         <v>0</v>
@@ -7212,52 +7363,52 @@
         <v>77</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C27" s="2">
-        <v>0.25359999999999999</v>
-      </c>
-      <c r="D27" s="21">
-        <v>0.92169999999999996</v>
-      </c>
-      <c r="E27" s="30">
-        <v>1.89E-2</v>
-      </c>
-      <c r="F27" s="21">
-        <v>0</v>
-      </c>
-      <c r="G27" s="21">
-        <v>0</v>
-      </c>
-      <c r="H27" s="21">
-        <v>0</v>
-      </c>
-      <c r="I27" s="21">
-        <v>1.5E-3</v>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0.94469999999999998</v>
+      </c>
+      <c r="E27" s="31">
+        <v>1.7399999999999999E-2</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="J27" s="2">
-        <v>0.25750000000000001</v>
+        <v>0.21529999999999999</v>
       </c>
       <c r="K27" s="2">
-        <v>0.249</v>
+        <v>0.21149999999999999</v>
       </c>
       <c r="L27" s="2">
-        <v>2.0999999999999999E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="M27" s="2">
-        <v>0.92449999999999999</v>
+        <v>0.94550000000000001</v>
       </c>
       <c r="N27" s="2">
-        <v>0.91930000000000001</v>
+        <v>0.94350000000000001</v>
       </c>
       <c r="O27" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P27" s="2">
-        <v>1.9199999999999998E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="Q27" s="2">
-        <v>1.8700000000000001E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="R27" s="2">
         <v>0</v>
@@ -7283,52 +7434,52 @@
         <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="C28" s="2">
-        <v>0.2384</v>
-      </c>
-      <c r="D28" s="21">
-        <v>0.93079999999999996</v>
-      </c>
-      <c r="E28" s="21">
-        <v>1.9E-2</v>
-      </c>
-      <c r="F28" s="21">
-        <v>0</v>
-      </c>
-      <c r="G28" s="21">
-        <v>0</v>
-      </c>
-      <c r="H28" s="21">
-        <v>0</v>
-      </c>
-      <c r="I28" s="21">
-        <v>2.8E-3</v>
+        <v>0.2177</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0.94230000000000003</v>
+      </c>
+      <c r="E28" s="46">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <v>1.9E-3</v>
       </c>
       <c r="J28" s="2">
-        <v>0.24049999999999999</v>
+        <v>0.21920000000000001</v>
       </c>
       <c r="K28" s="2">
-        <v>0.23619999999999999</v>
+        <v>0.215</v>
       </c>
       <c r="L28" s="2">
         <v>1E-3</v>
       </c>
       <c r="M28" s="2">
-        <v>0.93210000000000004</v>
+        <v>0.94369999999999998</v>
       </c>
       <c r="N28" s="2">
-        <v>0.92959999999999998</v>
+        <v>0.9415</v>
       </c>
       <c r="O28" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P28" s="2">
-        <v>1.9300000000000001E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="Q28" s="2">
-        <v>1.8800000000000001E-2</v>
+        <v>1.46E-2</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
@@ -7353,51 +7504,53 @@
       <c r="A29" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.24349999999999999</v>
-      </c>
-      <c r="D29" s="21">
-        <v>0.92779999999999996</v>
-      </c>
-      <c r="E29" s="21">
-        <v>1.9099999999999999E-2</v>
-      </c>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21">
-        <v>0</v>
-      </c>
-      <c r="H29" s="21">
-        <v>0</v>
-      </c>
-      <c r="I29" s="21">
-        <v>1.6000000000000001E-3</v>
+      <c r="B29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.2142</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0.94410000000000005</v>
+      </c>
+      <c r="E29" s="46">
+        <v>1.49E-2</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <v>1.5E-3</v>
       </c>
       <c r="J29" s="2">
-        <v>0.2467</v>
+        <v>0.21629999999999999</v>
       </c>
       <c r="K29" s="2">
-        <v>0.24110000000000001</v>
+        <v>0.2127</v>
       </c>
       <c r="L29" s="2">
-        <v>1.4E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M29" s="2">
-        <v>0.92920000000000003</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="N29" s="2">
-        <v>0.92589999999999995</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="O29" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P29" s="2">
-        <v>1.9599999999999999E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="Q29" s="2">
-        <v>1.8700000000000001E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="R29" s="2">
         <v>0</v>
@@ -7423,52 +7576,52 @@
         <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.2399</v>
-      </c>
-      <c r="D30" s="21">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="E30" s="21">
-        <v>1.9300000000000001E-2</v>
-      </c>
-      <c r="F30" s="21">
-        <v>0</v>
-      </c>
-      <c r="G30" s="21">
-        <v>0</v>
-      </c>
-      <c r="H30" s="21">
-        <v>0</v>
-      </c>
-      <c r="I30" s="21">
-        <v>1.6999999999999999E-3</v>
+        <v>67</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0.2107</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0.94589999999999996</v>
+      </c>
+      <c r="E30" s="46">
+        <v>1.52E-2</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
+        <v>1.4E-3</v>
       </c>
       <c r="J30" s="2">
-        <v>0.24410000000000001</v>
+        <v>0.21260000000000001</v>
       </c>
       <c r="K30" s="2">
-        <v>0.23669999999999999</v>
+        <v>0.20910000000000001</v>
       </c>
       <c r="L30" s="2">
-        <v>1.8E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="M30" s="2">
-        <v>0.93179999999999996</v>
+        <v>0.94679999999999997</v>
       </c>
       <c r="N30" s="2">
-        <v>0.92749999999999999</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="O30" s="2">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P30" s="2">
-        <v>1.9400000000000001E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="Q30" s="2">
-        <v>1.9099999999999999E-2</v>
+        <v>1.49E-2</v>
       </c>
       <c r="R30" s="2">
         <v>0</v>
@@ -7494,52 +7647,52 @@
         <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2">
-        <v>0.2382</v>
-      </c>
-      <c r="D31" s="21">
-        <v>0.93089999999999995</v>
-      </c>
-      <c r="E31" s="21">
-        <v>1.95E-2</v>
-      </c>
-      <c r="F31" s="21">
-        <v>0</v>
-      </c>
-      <c r="G31" s="21">
-        <v>0</v>
-      </c>
-      <c r="H31" s="21">
-        <v>0</v>
-      </c>
-      <c r="I31" s="21">
-        <v>1.6999999999999999E-3</v>
+        <v>0.24030000000000001</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="E31" s="31">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="F31" s="13">
+        <v>0</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
+        <v>1.5E-3</v>
       </c>
       <c r="J31" s="2">
-        <v>0.24049999999999999</v>
+        <v>0.2424</v>
       </c>
       <c r="K31" s="2">
-        <v>0.23630000000000001</v>
+        <v>0.2392</v>
       </c>
       <c r="L31" s="2">
-        <v>1E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M31" s="2">
-        <v>0.93200000000000005</v>
+        <v>0.93030000000000002</v>
       </c>
       <c r="N31" s="2">
-        <v>0.92959999999999998</v>
+        <v>0.92849999999999999</v>
       </c>
       <c r="O31" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P31" s="2">
-        <v>1.9800000000000002E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q31" s="2">
-        <v>1.9199999999999998E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="R31" s="2">
         <v>0</v>
@@ -7565,52 +7718,52 @@
         <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2">
-        <v>0.25590000000000002</v>
-      </c>
-      <c r="D32" s="21">
-        <v>0.92020000000000002</v>
-      </c>
-      <c r="E32" s="21">
-        <v>1.9699999999999999E-2</v>
-      </c>
-      <c r="F32" s="21">
-        <v>0</v>
-      </c>
-      <c r="G32" s="21">
-        <v>0</v>
-      </c>
-      <c r="H32" s="21">
-        <v>0</v>
-      </c>
-      <c r="I32" s="21">
-        <v>2.8999999999999998E-3</v>
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0.9395</v>
+      </c>
+      <c r="E32" s="31">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="15">
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="J32" s="2">
-        <v>0.25950000000000001</v>
+        <v>0.22509999999999999</v>
       </c>
       <c r="K32" s="2">
-        <v>0.25240000000000001</v>
+        <v>0.21920000000000001</v>
       </c>
       <c r="L32" s="2">
-        <v>1.8E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="M32" s="2">
-        <v>0.9224</v>
+        <v>0.9415</v>
       </c>
       <c r="N32" s="2">
-        <v>0.91800000000000004</v>
+        <v>0.93830000000000002</v>
       </c>
       <c r="O32" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P32" s="2">
-        <v>1.9800000000000002E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="Q32" s="2">
-        <v>1.9400000000000001E-2</v>
+        <v>1.54E-2</v>
       </c>
       <c r="R32" s="2">
         <v>0</v>
@@ -7636,52 +7789,52 @@
         <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2">
-        <v>0.2427</v>
-      </c>
-      <c r="D33" s="21">
-        <v>0.92830000000000001</v>
-      </c>
-      <c r="E33" s="21">
-        <v>2.01E-2</v>
-      </c>
-      <c r="F33" s="21">
-        <v>0</v>
-      </c>
-      <c r="G33" s="21">
-        <v>0</v>
-      </c>
-      <c r="H33" s="21">
-        <v>0</v>
-      </c>
-      <c r="I33" s="21">
-        <v>3.5000000000000001E-3</v>
+        <v>0.21729999999999999</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="31">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13">
+        <v>1.4E-3</v>
       </c>
       <c r="J33" s="2">
-        <v>0.24759999999999999</v>
+        <v>0.21840000000000001</v>
       </c>
       <c r="K33" s="2">
-        <v>0.2399</v>
+        <v>0.21529999999999999</v>
       </c>
       <c r="L33" s="2">
-        <v>2.0999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M33" s="2">
-        <v>0.92989999999999995</v>
+        <v>0.94359999999999999</v>
       </c>
       <c r="N33" s="2">
-        <v>0.92530000000000001</v>
+        <v>0.94189999999999996</v>
       </c>
       <c r="O33" s="2">
         <v>1E-4</v>
       </c>
       <c r="P33" s="2">
-        <v>2.0299999999999999E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="Q33" s="2">
-        <v>0.02</v>
+        <v>1.55E-2</v>
       </c>
       <c r="R33" s="2">
         <v>0</v>
@@ -7707,52 +7860,52 @@
         <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.2397</v>
-      </c>
-      <c r="D34" s="21">
-        <v>0.93</v>
-      </c>
-      <c r="E34" s="21">
-        <v>2.0500000000000001E-2</v>
-      </c>
-      <c r="F34" s="21">
-        <v>0</v>
-      </c>
-      <c r="G34" s="21">
-        <v>0</v>
-      </c>
-      <c r="H34" s="21">
-        <v>0</v>
-      </c>
-      <c r="I34" s="21">
-        <v>1.4E-3</v>
+        <v>63</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="31">
+        <v>1.55E-2</v>
+      </c>
+      <c r="F34" s="13">
+        <v>0</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13">
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="J34" s="2">
-        <v>0.2417</v>
+        <v>0.21279999999999999</v>
       </c>
       <c r="K34" s="2">
-        <v>0.2384</v>
+        <v>0.20569999999999999</v>
       </c>
       <c r="L34" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="M34" s="2">
-        <v>0.93079999999999996</v>
+        <v>0.94850000000000001</v>
       </c>
       <c r="N34" s="2">
-        <v>0.92889999999999995</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="O34" s="2">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P34" s="2">
-        <v>2.07E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="Q34" s="2">
-        <v>2.0400000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R34" s="2">
         <v>0</v>
@@ -7773,57 +7926,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.26679999999999998</v>
-      </c>
-      <c r="D35" s="21">
-        <v>0.9133</v>
-      </c>
-      <c r="E35" s="21">
-        <v>2.06E-2</v>
+        <v>64</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.2092</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0.94669999999999999</v>
+      </c>
+      <c r="E35" s="31">
+        <v>1.6E-2</v>
       </c>
       <c r="F35" s="13">
         <v>0</v>
       </c>
-      <c r="G35" s="21">
-        <v>0</v>
-      </c>
-      <c r="H35" s="21">
+      <c r="G35" s="13">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
         <v>0</v>
       </c>
       <c r="I35" s="13">
-        <v>0</v>
+        <v>2.8E-3</v>
       </c>
       <c r="J35" s="2">
-        <v>0.26889999999999997</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="K35" s="2">
-        <v>0.26419999999999999</v>
+        <v>0.20649999999999999</v>
       </c>
       <c r="L35" s="2">
-        <v>1.2999999999999999E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="M35" s="2">
-        <v>0.91500000000000004</v>
+        <v>0.94810000000000005</v>
       </c>
       <c r="N35" s="2">
-        <v>0.91190000000000004</v>
+        <v>0.94469999999999998</v>
       </c>
       <c r="O35" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P35" s="2">
-        <v>2.0799999999999999E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q35" s="2">
-        <v>2.0400000000000001E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="R35" s="2">
         <v>0</v>
@@ -7844,139 +7997,199 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0.36749999999999999</v>
-      </c>
-      <c r="D36" s="43"/>
-      <c r="E36" s="43">
-        <v>2.6700000000000002E-2</v>
-      </c>
-      <c r="F36" s="21">
-        <v>0</v>
-      </c>
-      <c r="G36" s="43"/>
-      <c r="H36" s="43"/>
-      <c r="I36" s="21">
-        <v>1.4E-3</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.36840000000000001</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0.36659999999999998</v>
-      </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-    </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0.94269999999999998</v>
+      </c>
+      <c r="E36" s="13">
+        <v>1.61E-2</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.21840000000000001</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.2147</v>
+      </c>
+      <c r="L36" s="2">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.94389999999999996</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.94189999999999996</v>
+      </c>
+      <c r="O36" s="26">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1.61E-2</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>1.61E-2</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A37" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0.38340000000000002</v>
-      </c>
-      <c r="D37" s="43"/>
-      <c r="E37" s="43">
-        <v>2.9899999999999999E-2</v>
-      </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
+      <c r="B37" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="10">
+        <v>0.21110000000000001</v>
+      </c>
+      <c r="D37" s="15">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="E37" s="15">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
       <c r="I37" s="15">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="J37" s="1">
-        <v>0.38540000000000002</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0.38140000000000002</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-    </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="J37" s="2">
+        <v>0.21290000000000001</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.2097</v>
+      </c>
+      <c r="L37" s="2">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="O37" s="26">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>1.55E-2</v>
+      </c>
+      <c r="R37" s="2">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
+        <v>0</v>
+      </c>
+      <c r="T37" s="2">
+        <v>0</v>
+      </c>
+      <c r="U37" s="2">
+        <v>0</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.3609</v>
-      </c>
-      <c r="D38" s="21">
-        <v>0.84150000000000003</v>
-      </c>
-      <c r="E38" s="21">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="F38" s="15">
-        <v>0</v>
-      </c>
-      <c r="G38" s="21">
-        <v>0</v>
-      </c>
-      <c r="H38" s="21">
+        <v>55</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.2112</v>
+      </c>
+      <c r="D38" s="13">
+        <v>0.94569999999999999</v>
+      </c>
+      <c r="E38" s="13">
+        <v>1.6299999999999999E-2</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
         <v>0</v>
       </c>
       <c r="I38" s="15">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="J38" s="2">
-        <v>0.3609</v>
+        <v>0.21410000000000001</v>
       </c>
       <c r="K38" s="2">
-        <v>0.36080000000000001</v>
+        <v>0.2087</v>
       </c>
       <c r="L38" s="2">
-        <v>0</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="M38" s="2">
-        <v>0.84150000000000003</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="N38" s="2">
-        <v>0.84150000000000003</v>
-      </c>
-      <c r="O38" s="2">
-        <v>0</v>
+        <v>0.94420000000000004</v>
+      </c>
+      <c r="O38" s="26">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P38" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="Q38" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="R38" s="2">
         <v>0</v>
@@ -7997,57 +8210,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C39" s="2">
-        <v>0.36280000000000001</v>
-      </c>
-      <c r="D39" s="21">
-        <v>0.8397</v>
-      </c>
-      <c r="E39" s="21">
-        <v>3.15E-2</v>
-      </c>
-      <c r="F39" s="21">
-        <v>0</v>
-      </c>
-      <c r="G39" s="21">
-        <v>0</v>
-      </c>
-      <c r="H39" s="21">
-        <v>0</v>
-      </c>
-      <c r="I39" s="21">
-        <v>1.5E-3</v>
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="D39" s="13">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="E39" s="13">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13">
+        <v>1.4E-3</v>
       </c>
       <c r="J39" s="2">
-        <v>0.37030000000000002</v>
+        <v>0.24129999999999999</v>
       </c>
       <c r="K39" s="2">
-        <v>0.35899999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="L39" s="2">
-        <v>4.7999999999999996E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M39" s="2">
-        <v>0.84309999999999996</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="N39" s="2">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="O39" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>0.92910000000000004</v>
+      </c>
+      <c r="O39" s="26">
+        <v>1E-4</v>
       </c>
       <c r="P39" s="2">
-        <v>3.1800000000000002E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="Q39" s="2">
-        <v>3.1399999999999997E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="R39" s="2">
         <v>0</v>
@@ -8068,21 +8279,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2">
-        <v>0.3649</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="D40" s="21">
-        <v>0.83779999999999999</v>
+        <v>0.92959999999999998</v>
       </c>
       <c r="E40" s="21">
-        <v>3.1600000000000003E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="F40" s="21">
         <v>0</v>
@@ -8094,31 +8305,31 @@
         <v>0</v>
       </c>
       <c r="I40" s="21">
-        <v>2.8E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="J40" s="2">
-        <v>0.37130000000000002</v>
+        <v>0.24440000000000001</v>
       </c>
       <c r="K40" s="2">
-        <v>0.35920000000000002</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="L40" s="2">
-        <v>4.4000000000000003E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="M40" s="2">
-        <v>0.84289999999999998</v>
+        <v>0.93130000000000002</v>
       </c>
       <c r="N40" s="2">
-        <v>0.83209999999999995</v>
-      </c>
-      <c r="O40" s="2">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="O40" s="26">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="P40" s="2">
-        <v>3.1800000000000002E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q40" s="2">
-        <v>3.1399999999999997E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="R40" s="2">
         <v>0</v>
@@ -8139,23 +8350,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C41" s="2">
-        <v>0.36509999999999998</v>
+        <v>0.2137</v>
       </c>
       <c r="D41" s="21">
-        <v>0.8377</v>
+        <v>0.94440000000000002</v>
       </c>
       <c r="E41" s="21">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="F41" s="15">
+        <v>1.66E-2</v>
+      </c>
+      <c r="F41" s="21">
         <v>0</v>
       </c>
       <c r="G41" s="21">
@@ -8164,32 +8375,32 @@
       <c r="H41" s="21">
         <v>0</v>
       </c>
-      <c r="I41" s="15">
-        <v>2.2000000000000001E-3</v>
+      <c r="I41" s="21">
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="J41" s="2">
-        <v>0.37159999999999999</v>
+        <v>0.21529999999999999</v>
       </c>
       <c r="K41" s="2">
-        <v>0.35899999999999999</v>
+        <v>0.2127</v>
       </c>
       <c r="L41" s="2">
-        <v>4.5999999999999999E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="M41" s="2">
-        <v>0.84309999999999996</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="N41" s="2">
-        <v>0.83179999999999998</v>
-      </c>
-      <c r="O41" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>0.94359999999999999</v>
+      </c>
+      <c r="O41" s="26">
+        <v>1E-4</v>
       </c>
       <c r="P41" s="2">
-        <v>3.1899999999999998E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q41" s="2">
-        <v>3.1399999999999997E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="R41" s="2">
         <v>0</v>
@@ -8210,55 +8421,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>77</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.36620000000000003</v>
+        <v>35</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.2165</v>
       </c>
       <c r="D42" s="21">
-        <v>0.83660000000000001</v>
+        <v>0.94289999999999996</v>
       </c>
       <c r="E42" s="21">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="F42" s="21"/>
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F42" s="15">
+        <v>0</v>
+      </c>
       <c r="G42" s="21">
         <v>0</v>
       </c>
       <c r="H42" s="21">
         <v>0</v>
       </c>
-      <c r="I42" s="21">
-        <v>1.6000000000000001E-3</v>
+      <c r="I42" s="15">
+        <v>1.2999999999999999E-3</v>
       </c>
       <c r="J42" s="2">
-        <v>0.37859999999999999</v>
+        <v>0.21679999999999999</v>
       </c>
       <c r="K42" s="2">
-        <v>0.35980000000000001</v>
+        <v>0.216</v>
       </c>
       <c r="L42" s="2">
-        <v>7.9000000000000008E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M42" s="2">
-        <v>0.84230000000000005</v>
+        <v>0.94320000000000004</v>
       </c>
       <c r="N42" s="2">
-        <v>0.82540000000000002</v>
-      </c>
-      <c r="O42" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>0.94279999999999997</v>
+      </c>
+      <c r="O42" s="26">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P42" s="2">
-        <v>3.2199999999999999E-2</v>
+        <v>1.8200000000000001E-2</v>
       </c>
       <c r="Q42" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="R42" s="2">
         <v>0</v>
@@ -8279,21 +8492,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>77</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.372</v>
+        <v>40</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.21729999999999999</v>
       </c>
       <c r="D43" s="21">
-        <v>0.83150000000000002</v>
+        <v>0.9425</v>
       </c>
       <c r="E43" s="21">
-        <v>3.1800000000000002E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="F43" s="21">
         <v>0</v>
@@ -8305,31 +8518,31 @@
         <v>0</v>
       </c>
       <c r="I43" s="21">
-        <v>1.6999999999999999E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="J43" s="2">
-        <v>0.38140000000000002</v>
+        <v>0.21870000000000001</v>
       </c>
       <c r="K43" s="2">
-        <v>0.36</v>
+        <v>0.2157</v>
       </c>
       <c r="L43" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="M43" s="2">
-        <v>0.84219999999999995</v>
+        <v>0.94330000000000003</v>
       </c>
       <c r="N43" s="2">
-        <v>0.82289999999999996</v>
-      </c>
-      <c r="O43" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>0.94179999999999997</v>
+      </c>
+      <c r="O43" s="26">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P43" s="2">
-        <v>3.2199999999999999E-2</v>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="Q43" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>1.8599999999999998E-2</v>
       </c>
       <c r="R43" s="2">
         <v>0</v>
@@ -8350,320 +8563,194 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44" s="2">
-        <v>0.36620000000000003</v>
-      </c>
-      <c r="D44" s="35">
-        <v>0.8367</v>
-      </c>
-      <c r="E44" s="35">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="F44" s="35">
-        <v>0</v>
-      </c>
-      <c r="G44" s="35">
-        <v>0</v>
-      </c>
-      <c r="H44" s="35">
-        <v>0</v>
-      </c>
-      <c r="I44" s="35">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="J44" s="2">
-        <v>0.36649999999999999</v>
-      </c>
-      <c r="K44" s="2">
-        <v>0.36580000000000001</v>
-      </c>
-      <c r="L44" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="M44" s="2">
-        <v>0.83709999999999996</v>
-      </c>
-      <c r="N44" s="2">
-        <v>0.83640000000000003</v>
-      </c>
-      <c r="O44" s="2">
-        <v>0</v>
-      </c>
-      <c r="P44" s="2">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="R44" s="2">
-        <v>0</v>
-      </c>
-      <c r="S44" s="2">
-        <v>0</v>
-      </c>
-      <c r="T44" s="2">
-        <v>0</v>
-      </c>
-      <c r="U44" s="2">
-        <v>0</v>
-      </c>
-      <c r="V44" s="2">
-        <v>0</v>
-      </c>
-      <c r="W44" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="45"/>
+      <c r="E44">
+        <v>0.1346</v>
+      </c>
+      <c r="F44" s="47">
+        <v>0</v>
+      </c>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="47">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.38540000000000002</v>
+      </c>
+      <c r="K44" s="1">
+        <v>0.38140000000000002</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>77</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.37</v>
-      </c>
-      <c r="D45" s="35">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="E45" s="35">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="F45" s="35">
-        <v>0</v>
-      </c>
-      <c r="G45" s="35">
-        <v>0</v>
-      </c>
-      <c r="H45" s="35">
-        <v>0</v>
-      </c>
-      <c r="I45" s="35">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="J45" s="2">
-        <v>0.37330000000000002</v>
-      </c>
-      <c r="K45" s="2">
-        <v>0.36559999999999998</v>
-      </c>
-      <c r="L45" s="2">
-        <v>2.8999999999999998E-3</v>
-      </c>
-      <c r="M45" s="2">
-        <v>0.83720000000000006</v>
-      </c>
-      <c r="N45" s="2">
-        <v>0.83030000000000004</v>
-      </c>
-      <c r="O45" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="P45" s="2">
-        <v>3.2099999999999997E-2</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>3.1699999999999999E-2</v>
-      </c>
-      <c r="R45" s="2">
-        <v>0</v>
-      </c>
-      <c r="S45" s="2">
-        <v>0</v>
-      </c>
-      <c r="T45" s="2">
-        <v>0</v>
-      </c>
-      <c r="U45" s="2">
-        <v>0</v>
-      </c>
-      <c r="V45" s="2">
-        <v>0</v>
-      </c>
-      <c r="W45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45">
+        <v>0.1368</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="J45" s="1">
+        <v>0.36680000000000001</v>
+      </c>
+      <c r="K45" s="1">
+        <v>0.36480000000000001</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>77</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="2">
-        <v>0.37559999999999999</v>
-      </c>
-      <c r="D46" s="36">
-        <v>0.82799999999999996</v>
-      </c>
-      <c r="E46" s="36">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="F46" s="36">
-        <v>0</v>
-      </c>
-      <c r="G46" s="36">
-        <v>0</v>
-      </c>
-      <c r="H46" s="36">
-        <v>0</v>
-      </c>
-      <c r="I46" s="36">
-        <v>1.4200000000000001E-2</v>
-      </c>
-      <c r="J46" s="2">
-        <v>0.39460000000000001</v>
-      </c>
-      <c r="K46" s="2">
-        <v>0.36059999999999998</v>
-      </c>
-      <c r="L46" s="2">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="M46" s="2">
-        <v>0.8417</v>
-      </c>
-      <c r="N46" s="2">
-        <v>0.8105</v>
-      </c>
-      <c r="O46" s="2">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="P46" s="2">
-        <v>3.2899999999999999E-2</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>3.1300000000000001E-2</v>
-      </c>
-      <c r="R46" s="2">
-        <v>0</v>
-      </c>
-      <c r="S46" s="2">
-        <v>0</v>
-      </c>
-      <c r="T46" s="2">
-        <v>0</v>
-      </c>
-      <c r="U46" s="2">
-        <v>0</v>
-      </c>
-      <c r="V46" s="2">
-        <v>0</v>
-      </c>
-      <c r="W46" s="2">
-        <v>0</v>
-      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.3629</v>
+      </c>
+      <c r="K46" s="1">
+        <v>0.3599</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>77</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0.37740000000000001</v>
-      </c>
-      <c r="D47" s="36">
-        <v>0.8266</v>
-      </c>
-      <c r="E47" s="36">
-        <v>3.1899999999999998E-2</v>
-      </c>
-      <c r="F47" s="36">
-        <v>0</v>
-      </c>
-      <c r="G47" s="36">
-        <v>0</v>
-      </c>
-      <c r="H47" s="36">
-        <v>0</v>
-      </c>
-      <c r="I47" s="36">
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="J47" s="2">
-        <v>0.38369999999999999</v>
-      </c>
-      <c r="K47" s="2">
-        <v>0.372</v>
-      </c>
-      <c r="L47" s="2">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="M47" s="2">
-        <v>0.83150000000000002</v>
-      </c>
-      <c r="N47" s="2">
-        <v>0.82079999999999997</v>
-      </c>
-      <c r="O47" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="P47" s="2">
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>3.1699999999999999E-2</v>
-      </c>
-      <c r="R47" s="2">
-        <v>0</v>
-      </c>
-      <c r="S47" s="2">
-        <v>0</v>
-      </c>
-      <c r="T47" s="2">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2">
-        <v>0</v>
-      </c>
-      <c r="W47" s="2">
-        <v>0</v>
-      </c>
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="45"/>
+      <c r="E47">
+        <v>0.14430000000000001</v>
+      </c>
+      <c r="F47" s="35">
+        <v>0</v>
+      </c>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="35">
+        <v>1.4E-3</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.36840000000000001</v>
+      </c>
+      <c r="K47" s="1">
+        <v>0.36659999999999998</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47">
+        <v>1.9E-3</v>
+      </c>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>77</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0.37909999999999999</v>
-      </c>
+      <c r="B48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1">
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="F48" s="1"/>
+      <c r="E48">
+        <v>0.1477</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J48" s="1">
-        <v>0.38059999999999999</v>
+        <v>0.36330000000000001</v>
       </c>
       <c r="K48" s="1">
-        <v>0.37769999999999998</v>
+        <v>0.36080000000000001</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
+      <c r="O48">
+        <v>2.2000000000000001E-3</v>
+      </c>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -8673,35 +8760,36 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>77</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="1">
-        <v>0.36580000000000001</v>
-      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1">
-        <v>4.7100000000000003E-2</v>
-      </c>
+      <c r="E49">
+        <v>0.1343</v>
+      </c>
+      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1">
-        <v>1.6999999999999999E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="J49" s="1">
-        <v>0.36680000000000001</v>
+        <v>0.37240000000000001</v>
       </c>
       <c r="K49" s="1">
-        <v>0.36480000000000001</v>
+        <v>0.36930000000000002</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
+      <c r="O49">
+        <v>1.6999999999999999E-3</v>
+      </c>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -8711,36 +8799,36 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>77</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>71</v>
       </c>
-      <c r="C50" s="1">
-        <v>0.3614</v>
-      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1">
-        <v>5.2699999999999997E-2</v>
+      <c r="E50">
+        <v>0.13109999999999999</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1">
-        <v>2.3999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="J50" s="1">
-        <v>0.3629</v>
+        <v>0.38319999999999999</v>
       </c>
       <c r="K50" s="1">
-        <v>0.3599</v>
+        <v>0.37969999999999998</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
+      <c r="O50">
+        <v>1.1999999999999999E-3</v>
+      </c>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -8750,36 +8838,36 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>77</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.37090000000000001</v>
-      </c>
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1">
-        <v>5.3400000000000003E-2</v>
+      <c r="E51">
+        <v>0.13070000000000001</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1">
-        <v>2.5000000000000001E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="J51" s="1">
-        <v>0.37240000000000001</v>
+        <v>0.38059999999999999</v>
       </c>
       <c r="K51" s="1">
-        <v>0.36930000000000002</v>
+        <v>0.37769999999999998</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
+      <c r="O51">
+        <v>2.2000000000000001E-3</v>
+      </c>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -8789,57 +8877,55 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>77</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C52" s="2">
-        <v>0.5272</v>
-      </c>
-      <c r="D52" s="36">
-        <v>0.59340000000000004</v>
-      </c>
-      <c r="E52" s="36">
-        <v>5.6399999999999999E-2</v>
-      </c>
-      <c r="F52" s="36">
-        <v>0</v>
-      </c>
-      <c r="G52" s="36">
-        <v>0</v>
-      </c>
-      <c r="H52" s="36">
-        <v>0</v>
-      </c>
-      <c r="I52" s="36">
-        <v>0.2366</v>
+        <v>0.24349999999999999</v>
+      </c>
+      <c r="D52" s="35">
+        <v>0.92779999999999996</v>
+      </c>
+      <c r="E52" s="35">
+        <v>1.9099999999999999E-2</v>
+      </c>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35">
+        <v>0</v>
+      </c>
+      <c r="H52" s="35">
+        <v>0</v>
+      </c>
+      <c r="I52" s="35">
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J52" s="2">
-        <v>0.86180000000000001</v>
+        <v>0.2467</v>
       </c>
       <c r="K52" s="2">
-        <v>0.3599</v>
+        <v>0.24110000000000001</v>
       </c>
       <c r="L52" s="2">
-        <v>0.35189999999999999</v>
+        <v>1.4E-3</v>
       </c>
       <c r="M52" s="2">
-        <v>0.84230000000000005</v>
+        <v>0.92920000000000003</v>
       </c>
       <c r="N52" s="2">
-        <v>9.5799999999999996E-2</v>
+        <v>0.92589999999999995</v>
       </c>
       <c r="O52" s="2">
-        <v>3.5400000000000001E-2</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P52" s="2">
-        <v>0.10639999999999999</v>
+        <v>1.9599999999999999E-2</v>
       </c>
       <c r="Q52" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>1.8700000000000001E-2</v>
       </c>
       <c r="R52" s="2">
         <v>0</v>
@@ -8860,57 +8946,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>77</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C53" s="2">
-        <v>0.5272</v>
-      </c>
-      <c r="D53" s="36">
-        <v>0.5958</v>
-      </c>
-      <c r="E53" s="36">
-        <v>5.67E-2</v>
-      </c>
-      <c r="F53" s="36">
-        <v>0</v>
-      </c>
-      <c r="G53" s="36">
-        <v>0</v>
-      </c>
-      <c r="H53" s="36">
-        <v>0</v>
-      </c>
-      <c r="I53" s="36">
-        <v>0.2326</v>
+        <v>0.2399</v>
+      </c>
+      <c r="D53" s="35">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="E53" s="35">
+        <v>1.9300000000000001E-2</v>
+      </c>
+      <c r="F53" s="35">
+        <v>0</v>
+      </c>
+      <c r="G53" s="35">
+        <v>0</v>
+      </c>
+      <c r="H53" s="35">
+        <v>0</v>
+      </c>
+      <c r="I53" s="35">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="J53" s="2">
-        <v>0.85609999999999997</v>
+        <v>0.24410000000000001</v>
       </c>
       <c r="K53" s="2">
-        <v>0.36099999999999999</v>
+        <v>0.23669999999999999</v>
       </c>
       <c r="L53" s="2">
-        <v>0.34510000000000002</v>
+        <v>1.8E-3</v>
       </c>
       <c r="M53" s="2">
-        <v>0.84140000000000004</v>
+        <v>0.93179999999999996</v>
       </c>
       <c r="N53" s="2">
-        <v>0.1077</v>
+        <v>0.92749999999999999</v>
       </c>
       <c r="O53" s="2">
-        <v>3.5200000000000002E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="P53" s="2">
-        <v>0.1066</v>
+        <v>1.9400000000000001E-2</v>
       </c>
       <c r="Q53" s="2">
-        <v>3.1800000000000002E-2</v>
+        <v>1.9099999999999999E-2</v>
       </c>
       <c r="R53" s="2">
         <v>0</v>
@@ -8936,52 +9022,52 @@
         <v>77</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2">
-        <v>0.53649999999999998</v>
-      </c>
-      <c r="D54" s="36">
-        <v>0.58589999999999998</v>
-      </c>
-      <c r="E54" s="36">
-        <v>5.67E-2</v>
-      </c>
-      <c r="F54" s="36">
-        <v>0</v>
-      </c>
-      <c r="G54" s="36">
-        <v>0</v>
-      </c>
-      <c r="H54" s="36">
-        <v>0</v>
-      </c>
-      <c r="I54" s="36">
-        <v>0.2286</v>
+        <v>0.2384</v>
+      </c>
+      <c r="D54" s="35">
+        <v>0.93079999999999996</v>
+      </c>
+      <c r="E54" s="35">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F54" s="35">
+        <v>0</v>
+      </c>
+      <c r="G54" s="35">
+        <v>0</v>
+      </c>
+      <c r="H54" s="35">
+        <v>0</v>
+      </c>
+      <c r="I54" s="35">
+        <v>2.8E-3</v>
       </c>
       <c r="J54" s="2">
-        <v>0.85950000000000004</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="K54" s="2">
-        <v>0.3639</v>
+        <v>0.23619999999999999</v>
       </c>
       <c r="L54" s="2">
-        <v>0.34339999999999998</v>
+        <v>1E-3</v>
       </c>
       <c r="M54" s="2">
-        <v>0.83879999999999999</v>
+        <v>0.93210000000000004</v>
       </c>
       <c r="N54" s="2">
-        <v>0.10050000000000001</v>
+        <v>0.92959999999999998</v>
       </c>
       <c r="O54" s="2">
-        <v>3.5099999999999999E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P54" s="2">
-        <v>0.1062</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="Q54" s="2">
-        <v>3.1399999999999997E-2</v>
+        <v>1.8800000000000001E-2</v>
       </c>
       <c r="R54" s="2">
         <v>0</v>
@@ -9002,134 +9088,199 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>77</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0.38140000000000002</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1">
-        <v>5.9400000000000001E-2</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1">
-        <v>2.8E-3</v>
-      </c>
-      <c r="J55" s="1">
-        <v>0.38319999999999999</v>
-      </c>
-      <c r="K55" s="1">
-        <v>0.37969999999999998</v>
-      </c>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1"/>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-    </row>
-    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>22</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.26679999999999998</v>
+      </c>
+      <c r="D55" s="35">
+        <v>0.9133</v>
+      </c>
+      <c r="E55" s="35">
+        <v>2.06E-2</v>
+      </c>
+      <c r="F55" s="36">
+        <v>0</v>
+      </c>
+      <c r="G55" s="35">
+        <v>0</v>
+      </c>
+      <c r="H55" s="35">
+        <v>0</v>
+      </c>
+      <c r="I55" s="36">
+        <v>0</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0.26889999999999997</v>
+      </c>
+      <c r="K55" s="2">
+        <v>0.26419999999999999</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="M55" s="2">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="N55" s="2">
+        <v>0.91190000000000004</v>
+      </c>
+      <c r="O55" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P55" s="2">
+        <v>2.0799999999999999E-2</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="R55" s="2">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2">
+        <v>0</v>
+      </c>
+      <c r="U55" s="2">
+        <v>0</v>
+      </c>
+      <c r="V55" s="2">
+        <v>0</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>77</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0.36209999999999998</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1">
-        <v>6.0600000000000001E-2</v>
-      </c>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1">
-        <v>2E-3</v>
-      </c>
-      <c r="J56" s="1">
-        <v>0.36330000000000001</v>
-      </c>
-      <c r="K56" s="1">
-        <v>0.36080000000000001</v>
-      </c>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="1"/>
-    </row>
-    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>57</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0.25590000000000002</v>
+      </c>
+      <c r="D56" s="35">
+        <v>0.92020000000000002</v>
+      </c>
+      <c r="E56" s="35">
+        <v>1.9699999999999999E-2</v>
+      </c>
+      <c r="F56" s="35">
+        <v>0</v>
+      </c>
+      <c r="G56" s="35">
+        <v>0</v>
+      </c>
+      <c r="H56" s="35">
+        <v>0</v>
+      </c>
+      <c r="I56" s="35">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0.25950000000000001</v>
+      </c>
+      <c r="K56" s="2">
+        <v>0.25240000000000001</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1.8E-3</v>
+      </c>
+      <c r="M56" s="2">
+        <v>0.9224</v>
+      </c>
+      <c r="N56" s="2">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="O56" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="P56" s="2">
+        <v>1.9800000000000002E-2</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="R56" s="2">
+        <v>0</v>
+      </c>
+      <c r="S56" s="2">
+        <v>0</v>
+      </c>
+      <c r="T56" s="2">
+        <v>0</v>
+      </c>
+      <c r="U56" s="2">
+        <v>0</v>
+      </c>
+      <c r="V56" s="2">
+        <v>0</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>77</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C57" s="2">
-        <v>0.69089999999999996</v>
-      </c>
-      <c r="D57" s="36">
-        <v>0.35220000000000001</v>
-      </c>
-      <c r="E57" s="36">
-        <v>8.14E-2</v>
-      </c>
-      <c r="F57" s="36">
-        <v>0</v>
-      </c>
-      <c r="G57" s="36">
-        <v>0</v>
-      </c>
-      <c r="H57" s="36">
-        <v>0</v>
-      </c>
-      <c r="I57" s="36">
-        <v>0.23400000000000001</v>
+        <v>0.2382</v>
+      </c>
+      <c r="D57" s="35">
+        <v>0.93089999999999995</v>
+      </c>
+      <c r="E57" s="35">
+        <v>1.95E-2</v>
+      </c>
+      <c r="F57" s="35">
+        <v>0</v>
+      </c>
+      <c r="G57" s="35">
+        <v>0</v>
+      </c>
+      <c r="H57" s="35">
+        <v>0</v>
+      </c>
+      <c r="I57" s="35">
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="J57" s="2">
-        <v>0.85640000000000005</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="K57" s="2">
-        <v>0.3599</v>
+        <v>0.23630000000000001</v>
       </c>
       <c r="L57" s="2">
-        <v>0.34660000000000002</v>
+        <v>1E-3</v>
       </c>
       <c r="M57" s="2">
-        <v>0.84230000000000005</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="N57" s="2">
-        <v>0.107</v>
+        <v>0.92959999999999998</v>
       </c>
       <c r="O57" s="2">
-        <v>3.5400000000000001E-2</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P57" s="2">
-        <v>0.10639999999999999</v>
+        <v>1.9800000000000002E-2</v>
       </c>
       <c r="Q57" s="2">
-        <v>3.1300000000000001E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="R57" s="2">
         <v>0</v>
@@ -9150,57 +9301,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>77</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C58" s="2">
-        <v>0.69199999999999995</v>
-      </c>
-      <c r="D58" s="36">
-        <v>0.34920000000000001</v>
-      </c>
-      <c r="E58" s="36">
-        <v>8.2100000000000006E-2</v>
-      </c>
-      <c r="F58" s="36">
-        <v>0</v>
-      </c>
-      <c r="G58" s="36">
-        <v>0</v>
-      </c>
-      <c r="H58" s="36">
-        <v>0</v>
-      </c>
-      <c r="I58" s="36">
-        <v>0.2359</v>
+        <v>0.2427</v>
+      </c>
+      <c r="D58" s="35">
+        <v>0.92830000000000001</v>
+      </c>
+      <c r="E58" s="35">
+        <v>2.01E-2</v>
+      </c>
+      <c r="F58" s="35">
+        <v>0</v>
+      </c>
+      <c r="G58" s="35">
+        <v>0</v>
+      </c>
+      <c r="H58" s="35">
+        <v>0</v>
+      </c>
+      <c r="I58" s="35">
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="J58" s="2">
-        <v>0.85899999999999999</v>
+        <v>0.24759999999999999</v>
       </c>
       <c r="K58" s="2">
-        <v>0.3584</v>
+        <v>0.2399</v>
       </c>
       <c r="L58" s="2">
-        <v>0.34960000000000002</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="M58" s="2">
-        <v>0.84360000000000002</v>
+        <v>0.92989999999999995</v>
       </c>
       <c r="N58" s="2">
-        <v>0.1017</v>
+        <v>0.92530000000000001</v>
       </c>
       <c r="O58" s="2">
-        <v>3.5799999999999998E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="P58" s="2">
-        <v>0.1085</v>
+        <v>2.0299999999999999E-2</v>
       </c>
       <c r="Q58" s="2">
-        <v>3.1399999999999997E-2</v>
+        <v>0.02</v>
       </c>
       <c r="R58" s="2">
         <v>0</v>
@@ -9221,57 +9372,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>77</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C59" s="2">
-        <v>0.69550000000000001</v>
-      </c>
-      <c r="D59" s="36">
-        <v>0.34770000000000001</v>
-      </c>
-      <c r="E59" s="36">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="F59" s="36">
-        <v>0</v>
-      </c>
-      <c r="G59" s="36">
-        <v>0</v>
-      </c>
-      <c r="H59" s="36">
-        <v>0</v>
-      </c>
-      <c r="I59" s="36">
-        <v>0.2283</v>
+        <v>0.2397</v>
+      </c>
+      <c r="D59" s="35">
+        <v>0.93</v>
+      </c>
+      <c r="E59" s="35">
+        <v>2.0500000000000001E-2</v>
+      </c>
+      <c r="F59" s="35">
+        <v>0</v>
+      </c>
+      <c r="G59" s="35">
+        <v>0</v>
+      </c>
+      <c r="H59" s="35">
+        <v>0</v>
+      </c>
+      <c r="I59" s="35">
+        <v>1.4E-3</v>
       </c>
       <c r="J59" s="2">
-        <v>0.8569</v>
+        <v>0.2417</v>
       </c>
       <c r="K59" s="2">
-        <v>0.37269999999999998</v>
+        <v>0.2384</v>
       </c>
       <c r="L59" s="2">
-        <v>0.3417</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M59" s="2">
-        <v>0.83089999999999997</v>
+        <v>0.93079999999999996</v>
       </c>
       <c r="N59" s="2">
-        <v>0.1061</v>
+        <v>0.92889999999999995</v>
       </c>
       <c r="O59" s="2">
-        <v>3.5700000000000003E-2</v>
+        <v>1E-4</v>
       </c>
       <c r="P59" s="2">
-        <v>0.1076</v>
+        <v>2.07E-2</v>
       </c>
       <c r="Q59" s="2">
-        <v>3.1899999999999998E-2</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="R59" s="2">
         <v>0</v>
@@ -9292,27 +9443,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:23" hidden="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <autoFilter ref="A1:W60" xr:uid="{0B1DB96E-F0A8-460E-9A4B-15CE75D83F02}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:W59" xr:uid="{0B1DB96E-F0A8-460E-9A4B-15CE75D83F02}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="DNN-ew2"/>
+        <filter val="DNN-ew3"/>
+        <filter val="DNN-ew4"/>
+        <filter val="DNN-obs"/>
+        <filter val="DNN-or"/>
+        <filter val="DNN-sg5"/>
+        <filter val="DNN-sg7"/>
+        <filter val="DNN-sg9"/>
+        <filter val="GRU-ew2"/>
+        <filter val="GRU-ew3"/>
+        <filter val="GRU-ew4"/>
+        <filter val="GRU-obs"/>
+        <filter val="GRU-or"/>
+        <filter val="GRU-sg5"/>
+        <filter val="GRU-sg7"/>
+        <filter val="GRU-sg9"/>
+        <filter val="LSTM-ew2"/>
+        <filter val="LSTM-ew3"/>
+        <filter val="LSTM-ew4"/>
+        <filter val="LSTM-obs"/>
+        <filter val="LSTM-or"/>
+        <filter val="LSTM-sg5"/>
+        <filter val="LSTM-sg7"/>
+        <filter val="LSTM-sg9"/>
+        <filter val="RF-ew2"/>
+        <filter val="RF-ew3"/>
+        <filter val="RF-ew4"/>
+        <filter val="RF-obs"/>
+        <filter val="RF-or"/>
+        <filter val="RF-sg5"/>
+        <filter val="RF-sg7"/>
+        <filter val="RF-sg9"/>
+        <filter val="RNN-ew2"/>
+        <filter val="RNN-ew3"/>
+        <filter val="RNN-ew4"/>
+        <filter val="RNN-obs"/>
+        <filter val="RNN-or"/>
+        <filter val="RNN-sg5"/>
+        <filter val="RNN-sg7"/>
+        <filter val="RNN-sg9"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="CNN-obs"/>
-        <filter val="DNN-obs"/>
-        <filter val="GRU-obs"/>
-        <filter val="LSTM-3-obs"/>
-        <filter val="LSTM-obs"/>
-        <filter val="RF-obs"/>
-        <filter val="RNN-obs"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W59">
-      <sortCondition ref="E1:E60"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:W59">
+      <sortCondition ref="B1:B59"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Thesis-codes/NH3-summary-final.xlsx
+++ b/Thesis-codes/NH3-summary-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F495981D-37A1-4DC0-B82A-19FE9AE5DCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3F2032-0E50-4471-8D5A-4D76D8A846D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="1500" windowWidth="26786" windowHeight="15420" tabRatio="761" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
+    <workbookView xWindow="12643" yWindow="2871" windowWidth="19388" windowHeight="12403" tabRatio="761" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
   </bookViews>
   <sheets>
     <sheet name="Predict-0116-0122" sheetId="7" r:id="rId1"/>
@@ -529,12 +529,6 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,6 +537,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -863,8 +863,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G43"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -874,17 +874,17 @@
     <col min="3" max="3" width="14.07421875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.61328125" style="2" customWidth="1"/>
     <col min="5" max="5" width="20.69140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.61328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.4609375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.765625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="11.921875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.765625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.53515625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.53515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.3828125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="17.61328125" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.4609375" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.765625" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="11.921875" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.765625" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.53515625" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.53515625" style="2" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="10.3828125" style="2" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="10.15234375" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.61328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.4609375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.765625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="23.23046875" style="2" customWidth="1"/>
     <col min="17" max="17" width="12.23046875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.3046875" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.23046875" style="2" bestFit="1" customWidth="1"/>
@@ -1036,70 +1036,70 @@
         <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
-        <v>0.34499999999999997</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="D3" s="2">
-        <v>0.78769999999999996</v>
+        <v>0.92210000000000003</v>
       </c>
       <c r="E3" s="2">
-        <v>5.6300000000000003E-2</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="F3" s="2">
-        <v>9.2777999999999992</v>
+        <v>2.2033999999999998</v>
       </c>
       <c r="G3" s="2">
-        <v>3.1677</v>
+        <v>1.2507999999999999</v>
       </c>
       <c r="H3" s="6">
-        <v>7.8125000000000004E-7</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I3" s="2">
-        <v>7.1000000000000004E-3</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="J3" s="2">
-        <v>0.3528</v>
+        <v>0.2114</v>
       </c>
       <c r="K3" s="2">
-        <v>0.3357</v>
+        <v>0.20610000000000001</v>
       </c>
       <c r="L3" s="2">
-        <v>8.6999999999999994E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="M3" s="2">
-        <v>0.79910000000000003</v>
+        <v>0.92430000000000001</v>
       </c>
       <c r="N3" s="2">
-        <v>0.77810000000000001</v>
-      </c>
-      <c r="O3" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>0.9204</v>
+      </c>
+      <c r="O3" s="26">
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="P3" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="Q3" s="2">
-        <v>5.5800000000000002E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="R3" s="2">
-        <v>9.0800000000000006E-2</v>
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="S3" s="2">
-        <v>9.3751999999999995</v>
+        <v>2.2353000000000001</v>
       </c>
       <c r="T3" s="2">
-        <v>9.1565999999999992</v>
-      </c>
-      <c r="U3" s="2">
-        <v>3.3500000000000002E-2</v>
+        <v>2.1776</v>
+      </c>
+      <c r="U3" s="26">
+        <v>4.58E-2</v>
       </c>
       <c r="V3" s="2">
-        <v>3.1937000000000002</v>
+        <v>1.3038000000000001</v>
       </c>
       <c r="W3" s="2">
-        <v>3.1204000000000001</v>
+        <v>1.1919999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.4">
@@ -1107,70 +1107,70 @@
         <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2">
-        <v>0.34129999999999999</v>
+        <v>0.24030000000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>0.79239999999999999</v>
+        <v>0.89710000000000001</v>
       </c>
       <c r="E4" s="2">
-        <v>5.6899999999999999E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="F4" s="2">
-        <v>8.1373999999999995</v>
+        <v>3.0371000000000001</v>
       </c>
       <c r="G4" s="2">
-        <v>3.2317</v>
+        <v>1.2644</v>
       </c>
       <c r="H4" s="6">
-        <v>7.8125000000000004E-7</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I4" s="2">
-        <v>4.8999999999999998E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J4" s="2">
-        <v>0.34739999999999999</v>
+        <v>0.24299999999999999</v>
       </c>
       <c r="K4" s="2">
-        <v>0.33550000000000002</v>
+        <v>0.23830000000000001</v>
       </c>
       <c r="L4" s="2">
-        <v>5.8999999999999999E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="M4" s="2">
-        <v>0.79930000000000001</v>
+        <v>0.89880000000000004</v>
       </c>
       <c r="N4" s="2">
-        <v>0.78490000000000004</v>
-      </c>
-      <c r="O4" s="2">
+        <v>0.89480000000000004</v>
+      </c>
+      <c r="O4" s="26">
         <v>1E-4</v>
       </c>
       <c r="P4" s="2">
-        <v>5.7099999999999998E-2</v>
+        <v>3.8600000000000002E-2</v>
       </c>
       <c r="Q4" s="2">
-        <v>5.6800000000000003E-2</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="R4" s="2">
-        <v>0.108</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="S4" s="2">
-        <v>8.2614000000000001</v>
+        <v>3.09</v>
       </c>
       <c r="T4" s="2">
-        <v>7.9981999999999998</v>
-      </c>
-      <c r="U4" s="2">
-        <v>2.9899999999999999E-2</v>
+        <v>2.9716999999999998</v>
+      </c>
+      <c r="U4" s="26">
+        <v>8.0999999999999996E-3</v>
       </c>
       <c r="V4" s="2">
-        <v>3.2709000000000001</v>
+        <v>1.2710999999999999</v>
       </c>
       <c r="W4" s="2">
-        <v>3.1983999999999999</v>
+        <v>1.2531000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
@@ -1249,70 +1249,70 @@
         <v>79</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2">
-        <v>0.3473</v>
+        <v>0.2412</v>
       </c>
       <c r="D6" s="2">
-        <v>0.78510000000000002</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="E6" s="2">
-        <v>5.7099999999999998E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="F6" s="2">
-        <v>7.2785000000000002</v>
+        <v>2.7645</v>
       </c>
       <c r="G6" s="2">
-        <v>3.2187999999999999</v>
+        <v>1.0795999999999999</v>
       </c>
       <c r="H6" s="6">
-        <v>7.8125000000000004E-7</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I6" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="J6" s="2">
-        <v>0.35139999999999999</v>
+        <v>0.2452</v>
       </c>
       <c r="K6" s="2">
-        <v>0.34279999999999999</v>
+        <v>0.23419999999999999</v>
       </c>
       <c r="L6" s="2">
         <v>4.3E-3</v>
       </c>
       <c r="M6" s="2">
-        <v>0.79059999999999997</v>
+        <v>0.90229999999999999</v>
       </c>
       <c r="N6" s="2">
-        <v>0.78</v>
-      </c>
-      <c r="O6" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="O6" s="26">
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="P6" s="2">
-        <v>5.74E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="Q6" s="2">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0.1057</v>
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="R6" s="26">
+        <v>3.1E-2</v>
       </c>
       <c r="S6" s="2">
-        <v>7.3810000000000002</v>
+        <v>2.8058999999999998</v>
       </c>
       <c r="T6" s="2">
-        <v>7.133</v>
-      </c>
-      <c r="U6" s="2">
-        <v>2E-3</v>
+        <v>2.7313999999999998</v>
+      </c>
+      <c r="U6" s="26">
+        <v>1.12E-2</v>
       </c>
       <c r="V6" s="2">
-        <v>3.2210999999999999</v>
+        <v>1.0944</v>
       </c>
       <c r="W6" s="2">
-        <v>3.2161</v>
+        <v>1.0673999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.4">
@@ -1320,141 +1320,141 @@
         <v>79</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
-        <v>0.3493</v>
+        <v>0.2409</v>
       </c>
       <c r="D7" s="2">
-        <v>0.78249999999999997</v>
+        <v>0.89629999999999999</v>
       </c>
       <c r="E7" s="2">
-        <v>5.6099999999999997E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="F7" s="2">
-        <v>10.982900000000001</v>
+        <v>2.5232000000000001</v>
       </c>
       <c r="G7" s="2">
-        <v>3.2383000000000002</v>
+        <v>1.2345999999999999</v>
       </c>
       <c r="H7" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I7" s="2">
-        <v>1.6000000000000001E-3</v>
+        <v>9.4999999999999998E-3</v>
       </c>
       <c r="J7" s="2">
-        <v>0.35060000000000002</v>
+        <v>0.25419999999999998</v>
       </c>
       <c r="K7" s="2">
-        <v>0.34710000000000002</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="L7" s="2">
-        <v>2E-3</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="M7" s="2">
-        <v>0.7853</v>
+        <v>0.90359999999999996</v>
       </c>
       <c r="N7" s="2">
-        <v>0.78090000000000004</v>
-      </c>
-      <c r="O7" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="O7" s="26">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P7" s="2">
-        <v>5.6599999999999998E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="Q7" s="2">
-        <v>5.5199999999999999E-2</v>
-      </c>
-      <c r="R7" s="2">
-        <v>2.6599999999999999E-2</v>
+        <v>3.85E-2</v>
+      </c>
+      <c r="R7" s="26">
+        <v>0.1004</v>
       </c>
       <c r="S7" s="2">
-        <v>11.0199</v>
+        <v>2.661</v>
       </c>
       <c r="T7" s="2">
-        <v>10.958600000000001</v>
-      </c>
-      <c r="U7" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>2.4243999999999999</v>
+      </c>
+      <c r="U7" s="26">
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="V7" s="2">
-        <v>3.2440000000000002</v>
+        <v>1.2821</v>
       </c>
       <c r="W7" s="2">
-        <v>3.2353999999999998</v>
+        <v>1.1621999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.34129999999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.7923</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5.7200000000000001E-2</v>
-      </c>
-      <c r="F8" s="2">
-        <v>9.6792999999999996</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3.1972</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1.5625000000000001E-6</v>
-      </c>
-      <c r="I8" s="2">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.3538</v>
-      </c>
-      <c r="K8" s="2">
-        <v>0.33489999999999998</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1.09E-2</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0.80010000000000003</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.77690000000000003</v>
-      </c>
-      <c r="O8" s="2">
+      <c r="B8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.2399</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1.7656000000000001</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1.1803999999999999</v>
+      </c>
+      <c r="H8" s="8">
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="I8" s="4">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.24970000000000001</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.23330000000000001</v>
+      </c>
+      <c r="L8" s="4">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="M8" s="4">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="O8" s="27">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="P8" s="2">
-        <v>5.7599999999999998E-2</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>5.6899999999999999E-2</v>
-      </c>
-      <c r="R8" s="2">
-        <v>7.9799999999999996E-2</v>
-      </c>
-      <c r="S8" s="2">
-        <v>9.7509999999999994</v>
-      </c>
-      <c r="T8" s="2">
-        <v>9.5679999999999996</v>
-      </c>
-      <c r="U8" s="2">
-        <v>5.9200000000000003E-2</v>
-      </c>
-      <c r="V8" s="2">
-        <v>3.2605</v>
-      </c>
-      <c r="W8" s="2">
-        <v>3.1181000000000001</v>
+      <c r="P8" s="4">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>3.8300000000000001E-2</v>
+      </c>
+      <c r="R8" s="27">
+        <v>4.41E-2</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1.8274999999999999</v>
+      </c>
+      <c r="T8" s="4">
+        <v>1.7279</v>
+      </c>
+      <c r="U8" s="27">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="V8" s="4">
+        <v>1.2061999999999999</v>
+      </c>
+      <c r="W8" s="4">
+        <v>1.1389</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.4">
@@ -1462,70 +1462,70 @@
         <v>79</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2">
-        <v>0.34810000000000002</v>
+        <v>0.23949999999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>0.78380000000000005</v>
+        <v>0.89770000000000005</v>
       </c>
       <c r="E9" s="2">
-        <v>5.62E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="F9" s="2">
-        <v>9.7302999999999997</v>
+        <v>3.7313999999999998</v>
       </c>
       <c r="G9" s="2">
-        <v>3.2170000000000001</v>
+        <v>1.1891</v>
       </c>
       <c r="H9" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="I9" s="2">
-        <v>1.15E-2</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="J9" s="2">
-        <v>0.36380000000000001</v>
+        <v>0.24340000000000001</v>
       </c>
       <c r="K9" s="2">
-        <v>0.33639999999999998</v>
+        <v>0.23380000000000001</v>
       </c>
       <c r="L9" s="2">
-        <v>1.44E-2</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="M9" s="2">
-        <v>0.79830000000000001</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="N9" s="2">
-        <v>0.76419999999999999</v>
-      </c>
-      <c r="O9" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="O9" s="26">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P9" s="2">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="R9" s="2">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="Q9" s="2">
-        <v>5.5800000000000002E-2</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0.1021</v>
-      </c>
       <c r="S9" s="2">
-        <v>9.8604000000000003</v>
+        <v>3.8039000000000001</v>
       </c>
       <c r="T9" s="2">
-        <v>9.6111000000000004</v>
-      </c>
-      <c r="U9" s="2">
-        <v>6.5799999999999997E-2</v>
+        <v>3.665</v>
+      </c>
+      <c r="U9" s="26">
+        <v>3.0700000000000002E-2</v>
       </c>
       <c r="V9" s="2">
-        <v>3.2744</v>
+        <v>1.2302</v>
       </c>
       <c r="W9" s="2">
-        <v>3.1248999999999998</v>
+        <v>1.1565000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.4">
@@ -1533,70 +1533,70 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2">
-        <v>0.34250000000000003</v>
+        <v>0.22770000000000001</v>
       </c>
       <c r="D10" s="2">
-        <v>0.79090000000000005</v>
+        <v>0.90759999999999996</v>
       </c>
       <c r="E10" s="2">
-        <v>5.7000000000000002E-2</v>
+        <v>3.9100000000000003E-2</v>
       </c>
       <c r="F10" s="2">
-        <v>8.4193999999999996</v>
+        <v>2.5659999999999998</v>
       </c>
       <c r="G10" s="2">
-        <v>3.2014</v>
+        <v>1.2390000000000001</v>
       </c>
       <c r="H10" s="6">
-        <v>1.5625000000000001E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I10" s="2">
-        <v>4.4999999999999997E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="J10" s="2">
-        <v>0.34849999999999998</v>
+        <v>0.23</v>
       </c>
       <c r="K10" s="2">
-        <v>0.33750000000000002</v>
+        <v>0.22370000000000001</v>
       </c>
       <c r="L10" s="2">
-        <v>5.5999999999999999E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="M10" s="2">
-        <v>0.79700000000000004</v>
+        <v>0.91080000000000005</v>
       </c>
       <c r="N10" s="2">
-        <v>0.78349999999999997</v>
-      </c>
-      <c r="O10" s="2">
-        <v>2.0000000000000001E-4</v>
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="O10" s="26">
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P10" s="2">
-        <v>5.7200000000000001E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="Q10" s="2">
-        <v>5.6899999999999999E-2</v>
+        <v>3.8800000000000001E-2</v>
       </c>
       <c r="R10" s="2">
-        <v>5.8200000000000002E-2</v>
+        <v>6.08E-2</v>
       </c>
       <c r="S10" s="2">
-        <v>8.4974000000000007</v>
+        <v>2.6322999999999999</v>
       </c>
       <c r="T10" s="2">
-        <v>8.3575999999999997</v>
-      </c>
-      <c r="U10" s="2">
-        <v>4.7699999999999999E-2</v>
+        <v>2.4855</v>
+      </c>
+      <c r="U10" s="26">
+        <v>5.57E-2</v>
       </c>
       <c r="V10" s="2">
-        <v>3.2688999999999999</v>
+        <v>1.3168</v>
       </c>
       <c r="W10" s="2">
-        <v>3.1657999999999999</v>
+        <v>1.1892</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
@@ -1746,70 +1746,70 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2">
-        <v>0.34510000000000002</v>
+        <v>0.23089999999999999</v>
       </c>
       <c r="D13" s="2">
-        <v>0.78769999999999996</v>
+        <v>0.90500000000000003</v>
       </c>
       <c r="E13" s="2">
-        <v>5.74E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="F13" s="2">
-        <v>7.2619999999999996</v>
+        <v>3.0629</v>
       </c>
       <c r="G13" s="2">
-        <v>3.2484000000000002</v>
+        <v>1.2199</v>
       </c>
       <c r="H13" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I13" s="2">
-        <v>1E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="J13" s="2">
-        <v>0.34649999999999997</v>
+        <v>0.2346</v>
       </c>
       <c r="K13" s="2">
-        <v>0.34420000000000001</v>
+        <v>0.2266</v>
       </c>
       <c r="L13" s="2">
-        <v>1.1999999999999999E-3</v>
+        <v>2.7000000000000001E-3</v>
       </c>
       <c r="M13" s="2">
-        <v>0.78890000000000005</v>
+        <v>0.90849999999999997</v>
       </c>
       <c r="N13" s="2">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="O13" s="2">
-        <v>1E-4</v>
+        <v>0.90190000000000003</v>
+      </c>
+      <c r="O13" s="26">
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P13" s="2">
-        <v>5.7500000000000002E-2</v>
+        <v>3.9399999999999998E-2</v>
       </c>
       <c r="Q13" s="2">
-        <v>5.7200000000000001E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="R13" s="2">
-        <v>3.8899999999999997E-2</v>
+        <v>3.7100000000000001E-2</v>
       </c>
       <c r="S13" s="2">
-        <v>7.3135000000000003</v>
+        <v>3.1074000000000002</v>
       </c>
       <c r="T13" s="2">
-        <v>7.2195999999999998</v>
-      </c>
-      <c r="U13" s="2">
-        <v>4.1999999999999997E-3</v>
+        <v>3.0167000000000002</v>
+      </c>
+      <c r="U13" s="26">
+        <v>1.37E-2</v>
       </c>
       <c r="V13" s="2">
-        <v>3.2538999999999998</v>
+        <v>1.2367999999999999</v>
       </c>
       <c r="W13" s="2">
-        <v>3.2435</v>
+        <v>1.2032</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.4">
@@ -1817,141 +1817,141 @@
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2">
-        <v>0.23949999999999999</v>
+        <v>0.2467</v>
       </c>
       <c r="D14" s="2">
-        <v>0.89770000000000005</v>
+        <v>0.89159999999999995</v>
       </c>
       <c r="E14" s="2">
-        <v>3.8899999999999997E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="F14" s="2">
-        <v>3.7313999999999998</v>
+        <v>3.6937000000000002</v>
       </c>
       <c r="G14" s="2">
-        <v>1.1891</v>
+        <v>1.0969</v>
       </c>
       <c r="H14" s="6">
-        <v>5.0000000000000002E-5</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I14" s="2">
-        <v>4.1000000000000003E-3</v>
+        <v>3.2000000000000002E-3</v>
       </c>
       <c r="J14" s="2">
+        <v>0.251</v>
+      </c>
+      <c r="K14" s="2">
         <v>0.24340000000000001</v>
       </c>
-      <c r="K14" s="2">
-        <v>0.23380000000000001</v>
-      </c>
       <c r="L14" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="M14" s="2">
-        <v>0.90259999999999996</v>
+        <v>0.89439999999999997</v>
       </c>
       <c r="N14" s="2">
-        <v>0.89439999999999997</v>
+        <v>0.88780000000000003</v>
       </c>
       <c r="O14" s="26">
-        <v>4.0000000000000002E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="P14" s="2">
-        <v>3.9399999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Q14" s="2">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="R14" s="2">
-        <v>5.6899999999999999E-2</v>
+        <v>3.8699999999999998E-2</v>
+      </c>
+      <c r="R14" s="26">
+        <v>0.1038</v>
       </c>
       <c r="S14" s="2">
-        <v>3.8039000000000001</v>
+        <v>3.8328000000000002</v>
       </c>
       <c r="T14" s="2">
-        <v>3.665</v>
+        <v>3.5834999999999999</v>
       </c>
       <c r="U14" s="26">
-        <v>3.0700000000000002E-2</v>
+        <v>1.5900000000000001E-2</v>
       </c>
       <c r="V14" s="2">
-        <v>1.2302</v>
+        <v>1.1185</v>
       </c>
       <c r="W14" s="2">
-        <v>1.1565000000000001</v>
+        <v>1.0807</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.23089999999999999</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="E15" s="2">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3.0629</v>
-      </c>
-      <c r="G15" s="2">
-        <v>1.2199</v>
-      </c>
-      <c r="H15" s="6">
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="I15" s="2">
-        <v>3.3E-3</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0.2346</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.2266</v>
-      </c>
-      <c r="L15" s="2">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0.90849999999999997</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0.90190000000000003</v>
-      </c>
-      <c r="O15" s="26">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="P15" s="2">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>3.9E-2</v>
-      </c>
-      <c r="R15" s="2">
-        <v>3.7100000000000001E-2</v>
-      </c>
-      <c r="S15" s="2">
-        <v>3.1074000000000002</v>
-      </c>
-      <c r="T15" s="2">
-        <v>3.0167000000000002</v>
-      </c>
-      <c r="U15" s="26">
-        <v>1.37E-2</v>
-      </c>
-      <c r="V15" s="2">
-        <v>1.2367999999999999</v>
-      </c>
-      <c r="W15" s="2">
-        <v>1.2032</v>
+      <c r="B15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.24660000000000001</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.89149999999999996</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3.95E-2</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2.3408000000000002</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1.1218999999999999</v>
+      </c>
+      <c r="H15" s="9">
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="I15" s="5">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="J15" s="5">
+        <v>0.25290000000000001</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.2389</v>
+      </c>
+      <c r="L15" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="M15" s="5">
+        <v>0.8982</v>
+      </c>
+      <c r="N15" s="5">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="O15" s="28">
+        <v>1E-3</v>
+      </c>
+      <c r="P15" s="5">
+        <v>4.0800000000000003E-2</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="R15" s="28">
+        <v>3.4599999999999999E-2</v>
+      </c>
+      <c r="S15" s="5">
+        <v>2.3841999999999999</v>
+      </c>
+      <c r="T15" s="5">
+        <v>2.2993999999999999</v>
+      </c>
+      <c r="U15" s="28">
+        <v>7.9000000000000008E-3</v>
+      </c>
+      <c r="V15" s="5">
+        <v>1.1324000000000001</v>
+      </c>
+      <c r="W15" s="5">
+        <v>1.1133</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.4">
@@ -1959,70 +1959,70 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2">
-        <v>0.22770000000000001</v>
+        <v>0.21729999999999999</v>
       </c>
       <c r="D16" s="2">
-        <v>0.90759999999999996</v>
+        <v>0.91579999999999995</v>
       </c>
       <c r="E16" s="2">
-        <v>3.9100000000000003E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="F16" s="2">
-        <v>2.5659999999999998</v>
+        <v>1.6396999999999999</v>
       </c>
       <c r="G16" s="2">
-        <v>1.2390000000000001</v>
+        <v>1.3097000000000001</v>
       </c>
       <c r="H16" s="6">
-        <v>2.5000000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I16" s="2">
-        <v>2.8E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="J16" s="2">
-        <v>0.23</v>
+        <v>0.22339999999999999</v>
       </c>
       <c r="K16" s="2">
-        <v>0.22370000000000001</v>
+        <v>0.21329999999999999</v>
       </c>
       <c r="L16" s="2">
-        <v>2.3E-3</v>
+        <v>3.5000000000000001E-3</v>
       </c>
       <c r="M16" s="2">
-        <v>0.91080000000000005</v>
+        <v>0.91890000000000005</v>
       </c>
       <c r="N16" s="2">
-        <v>0.90569999999999995</v>
+        <v>0.91100000000000003</v>
       </c>
       <c r="O16" s="26">
-        <v>4.0000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P16" s="2">
-        <v>3.9600000000000003E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="Q16" s="2">
-        <v>3.8800000000000001E-2</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="R16" s="2">
-        <v>6.08E-2</v>
+        <v>8.1900000000000001E-2</v>
       </c>
       <c r="S16" s="2">
-        <v>2.6322999999999999</v>
+        <v>1.7354000000000001</v>
       </c>
       <c r="T16" s="2">
-        <v>2.4855</v>
+        <v>1.5353000000000001</v>
       </c>
       <c r="U16" s="26">
-        <v>5.57E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="V16" s="2">
-        <v>1.3168</v>
+        <v>1.331</v>
       </c>
       <c r="W16" s="2">
-        <v>1.1892</v>
+        <v>1.2881</v>
       </c>
     </row>
     <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
@@ -2101,70 +2101,70 @@
         <v>79</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C18" s="2">
-        <v>0.249</v>
+        <v>0.222</v>
       </c>
       <c r="D18" s="2">
-        <v>0.88949999999999996</v>
+        <v>0.91210000000000002</v>
       </c>
       <c r="E18" s="2">
-        <v>4.1399999999999999E-2</v>
+        <v>3.9800000000000002E-2</v>
       </c>
       <c r="F18" s="2">
-        <v>6.3574000000000002</v>
+        <v>5.0961999999999996</v>
       </c>
       <c r="G18" s="2">
-        <v>1.3637999999999999</v>
+        <v>1.2612000000000001</v>
       </c>
       <c r="H18" s="6">
-        <v>1.2500000000000001E-5</v>
+        <v>6.2500000000000003E-6</v>
       </c>
       <c r="I18" s="2">
         <v>1.9E-3</v>
       </c>
       <c r="J18" s="2">
-        <v>0.2515</v>
+        <v>0.22409999999999999</v>
       </c>
       <c r="K18" s="2">
-        <v>0.24709999999999999</v>
+        <v>0.21959999999999999</v>
       </c>
       <c r="L18" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="M18" s="2">
-        <v>0.89119999999999999</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="N18" s="2">
-        <v>0.88719999999999999</v>
+        <v>0.91049999999999998</v>
       </c>
       <c r="O18" s="26">
-        <v>5.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P18" s="2">
-        <v>4.2000000000000003E-2</v>
+        <v>0.04</v>
       </c>
       <c r="Q18" s="2">
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0.1777</v>
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="R18" s="26">
+        <v>4.2799999999999998E-2</v>
       </c>
       <c r="S18" s="2">
-        <v>6.6025999999999998</v>
+        <v>5.1534000000000004</v>
       </c>
       <c r="T18" s="2">
-        <v>6.1874000000000002</v>
+        <v>5.0506000000000002</v>
       </c>
       <c r="U18" s="26">
-        <v>3.5900000000000001E-2</v>
+        <v>2.69E-2</v>
       </c>
       <c r="V18" s="2">
-        <v>1.403</v>
+        <v>1.2866</v>
       </c>
       <c r="W18" s="2">
-        <v>1.3162</v>
+        <v>1.2239</v>
       </c>
     </row>
     <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
@@ -2314,70 +2314,70 @@
         <v>79</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C21" s="2">
-        <v>0.23250000000000001</v>
+        <v>0.25159999999999999</v>
       </c>
       <c r="D21" s="2">
-        <v>0.90359999999999996</v>
+        <v>0.8871</v>
       </c>
       <c r="E21" s="2">
         <v>4.0500000000000001E-2</v>
       </c>
       <c r="F21" s="2">
-        <v>5.6917999999999997</v>
+        <v>5.7820999999999998</v>
       </c>
       <c r="G21" s="2">
-        <v>1.3993</v>
+        <v>1.2365999999999999</v>
       </c>
       <c r="H21" s="6">
-        <v>6.2500000000000003E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I21" s="2">
-        <v>4.5999999999999999E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="J21" s="2">
-        <v>0.2384</v>
+        <v>0.25430000000000003</v>
       </c>
       <c r="K21" s="2">
-        <v>0.22720000000000001</v>
+        <v>0.24859999999999999</v>
       </c>
       <c r="L21" s="2">
-        <v>3.8E-3</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="M21" s="2">
-        <v>0.90800000000000003</v>
+        <v>0.88990000000000002</v>
       </c>
       <c r="N21" s="2">
-        <v>0.89870000000000005</v>
+        <v>0.88470000000000004</v>
       </c>
       <c r="O21" s="26">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="P21" s="2">
-        <v>4.07E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q21" s="2">
-        <v>4.02E-2</v>
-      </c>
-      <c r="R21" s="2">
-        <v>0.12189999999999999</v>
+        <v>0.04</v>
+      </c>
+      <c r="R21" s="26">
+        <v>2.58E-2</v>
       </c>
       <c r="S21" s="2">
-        <v>5.8236999999999997</v>
+        <v>5.8181000000000003</v>
       </c>
       <c r="T21" s="2">
-        <v>5.5297000000000001</v>
+        <v>5.7591999999999999</v>
       </c>
       <c r="U21" s="26">
-        <v>5.3199999999999997E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="V21" s="2">
-        <v>1.4430000000000001</v>
+        <v>1.2484</v>
       </c>
       <c r="W21" s="2">
-        <v>1.3244</v>
+        <v>1.2154</v>
       </c>
     </row>
     <row r="22" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -2385,141 +2385,141 @@
         <v>79</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2">
-        <v>0.24030000000000001</v>
+        <v>0.23250000000000001</v>
       </c>
       <c r="D22" s="2">
-        <v>0.89710000000000001</v>
+        <v>0.90359999999999996</v>
       </c>
       <c r="E22" s="2">
-        <v>3.85E-2</v>
+        <v>4.0500000000000001E-2</v>
       </c>
       <c r="F22" s="2">
-        <v>3.0371000000000001</v>
+        <v>5.6917999999999997</v>
       </c>
       <c r="G22" s="2">
-        <v>1.2644</v>
+        <v>1.3993</v>
       </c>
       <c r="H22" s="6">
         <v>6.2500000000000003E-6</v>
       </c>
       <c r="I22" s="2">
-        <v>2E-3</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="J22" s="2">
-        <v>0.24299999999999999</v>
+        <v>0.2384</v>
       </c>
       <c r="K22" s="2">
-        <v>0.23830000000000001</v>
+        <v>0.22720000000000001</v>
       </c>
       <c r="L22" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>3.8E-3</v>
       </c>
       <c r="M22" s="2">
-        <v>0.89880000000000004</v>
+        <v>0.90800000000000003</v>
       </c>
       <c r="N22" s="2">
-        <v>0.89480000000000004</v>
+        <v>0.89870000000000005</v>
       </c>
       <c r="O22" s="26">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P22" s="2">
-        <v>3.8600000000000002E-2</v>
+        <v>4.07E-2</v>
       </c>
       <c r="Q22" s="2">
-        <v>3.8300000000000001E-2</v>
+        <v>4.02E-2</v>
       </c>
       <c r="R22" s="2">
-        <v>4.9099999999999998E-2</v>
+        <v>0.12189999999999999</v>
       </c>
       <c r="S22" s="2">
-        <v>3.09</v>
+        <v>5.8236999999999997</v>
       </c>
       <c r="T22" s="2">
-        <v>2.9716999999999998</v>
+        <v>5.5297000000000001</v>
       </c>
       <c r="U22" s="26">
-        <v>8.0999999999999996E-3</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="V22" s="2">
-        <v>1.2710999999999999</v>
+        <v>1.4430000000000001</v>
       </c>
       <c r="W22" s="2">
-        <v>1.2531000000000001</v>
+        <v>1.3244</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.92210000000000003</v>
-      </c>
-      <c r="E23" s="2">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2.2033999999999998</v>
-      </c>
-      <c r="G23" s="2">
-        <v>1.2507999999999999</v>
-      </c>
-      <c r="H23" s="6">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="I23" s="2">
-        <v>2.2000000000000001E-3</v>
-      </c>
-      <c r="J23" s="2">
-        <v>0.2114</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0.20610000000000001</v>
-      </c>
-      <c r="L23" s="2">
-        <v>1.6000000000000001E-3</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0.92430000000000001</v>
-      </c>
-      <c r="N23" s="2">
-        <v>0.9204</v>
-      </c>
-      <c r="O23" s="26">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="P23" s="2">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>3.7199999999999997E-2</v>
-      </c>
-      <c r="R23" s="2">
-        <v>2.3900000000000001E-2</v>
-      </c>
-      <c r="S23" s="2">
-        <v>2.2353000000000001</v>
-      </c>
-      <c r="T23" s="2">
-        <v>2.1776</v>
-      </c>
-      <c r="U23" s="26">
-        <v>4.58E-2</v>
-      </c>
-      <c r="V23" s="2">
-        <v>1.3038000000000001</v>
-      </c>
-      <c r="W23" s="2">
-        <v>1.1919999999999999</v>
+      <c r="B23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.2311</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.90480000000000005</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1.4258</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1.3076000000000001</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1.2500000000000001E-5</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3.8E-3</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0.2364</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0.22770000000000001</v>
+      </c>
+      <c r="L23" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0.90039999999999998</v>
+      </c>
+      <c r="O23" s="29">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="P23" s="3">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>4.0399999999999998E-2</v>
+      </c>
+      <c r="R23" s="29">
+        <v>5.0700000000000002E-2</v>
+      </c>
+      <c r="S23" s="3">
+        <v>1.4936</v>
+      </c>
+      <c r="T23" s="3">
+        <v>1.3716999999999999</v>
+      </c>
+      <c r="U23" s="29">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1.3357000000000001</v>
+      </c>
+      <c r="W23" s="3">
+        <v>1.2837000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.4">
@@ -2527,70 +2527,70 @@
         <v>79</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="C24" s="2">
-        <v>0.21729999999999999</v>
+        <v>0.249</v>
       </c>
       <c r="D24" s="2">
-        <v>0.91579999999999995</v>
+        <v>0.88949999999999996</v>
       </c>
       <c r="E24" s="2">
-        <v>3.9600000000000003E-2</v>
+        <v>4.1399999999999999E-2</v>
       </c>
       <c r="F24" s="2">
-        <v>1.6396999999999999</v>
+        <v>6.3574000000000002</v>
       </c>
       <c r="G24" s="2">
-        <v>1.3097000000000001</v>
+        <v>1.3637999999999999</v>
       </c>
       <c r="H24" s="6">
-        <v>6.2500000000000003E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I24" s="2">
-        <v>4.4000000000000003E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="J24" s="2">
-        <v>0.22339999999999999</v>
+        <v>0.2515</v>
       </c>
       <c r="K24" s="2">
-        <v>0.21329999999999999</v>
+        <v>0.24709999999999999</v>
       </c>
       <c r="L24" s="2">
-        <v>3.5000000000000001E-3</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="M24" s="2">
-        <v>0.91890000000000005</v>
+        <v>0.89119999999999999</v>
       </c>
       <c r="N24" s="2">
-        <v>0.91100000000000003</v>
+        <v>0.88719999999999999</v>
       </c>
       <c r="O24" s="26">
-        <v>2.9999999999999997E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P24" s="2">
-        <v>3.9899999999999998E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="Q24" s="2">
-        <v>3.9199999999999999E-2</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="R24" s="2">
-        <v>8.1900000000000001E-2</v>
+        <v>0.1777</v>
       </c>
       <c r="S24" s="2">
-        <v>1.7354000000000001</v>
+        <v>6.6025999999999998</v>
       </c>
       <c r="T24" s="2">
-        <v>1.5353000000000001</v>
+        <v>6.1874000000000002</v>
       </c>
       <c r="U24" s="26">
-        <v>1.7500000000000002E-2</v>
+        <v>3.5900000000000001E-2</v>
       </c>
       <c r="V24" s="2">
-        <v>1.331</v>
+        <v>1.403</v>
       </c>
       <c r="W24" s="2">
-        <v>1.2881</v>
+        <v>1.3162</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.4">
@@ -2598,70 +2598,70 @@
         <v>79</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2">
-        <v>0.2467</v>
+        <v>0.2271</v>
       </c>
       <c r="D25" s="2">
-        <v>0.89159999999999995</v>
+        <v>0.90810000000000002</v>
       </c>
       <c r="E25" s="2">
-        <v>3.9199999999999999E-2</v>
+        <v>4.1500000000000002E-2</v>
       </c>
       <c r="F25" s="2">
-        <v>3.6937000000000002</v>
+        <v>4.4733000000000001</v>
       </c>
       <c r="G25" s="2">
-        <v>1.0969</v>
+        <v>1.5087999999999999</v>
       </c>
       <c r="H25" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>1.2500000000000001E-5</v>
       </c>
       <c r="I25" s="2">
-        <v>3.2000000000000002E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="J25" s="2">
-        <v>0.251</v>
+        <v>0.2273</v>
       </c>
       <c r="K25" s="2">
-        <v>0.24340000000000001</v>
+        <v>0.2268</v>
       </c>
       <c r="L25" s="2">
-        <v>2.8E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="M25" s="2">
-        <v>0.89439999999999997</v>
+        <v>0.9083</v>
       </c>
       <c r="N25" s="2">
-        <v>0.88780000000000003</v>
+        <v>0.90790000000000004</v>
       </c>
       <c r="O25" s="26">
-        <v>5.9999999999999995E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P25" s="2">
-        <v>0.04</v>
+        <v>4.1599999999999998E-2</v>
       </c>
       <c r="Q25" s="2">
-        <v>3.8699999999999998E-2</v>
-      </c>
-      <c r="R25" s="26">
-        <v>0.1038</v>
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="R25" s="2">
+        <v>0.19869999999999999</v>
       </c>
       <c r="S25" s="2">
-        <v>3.8328000000000002</v>
+        <v>4.6665000000000001</v>
       </c>
       <c r="T25" s="2">
-        <v>3.5834999999999999</v>
+        <v>4.2000999999999999</v>
       </c>
       <c r="U25" s="26">
-        <v>1.5900000000000001E-2</v>
+        <v>3.3599999999999998E-2</v>
       </c>
       <c r="V25" s="2">
-        <v>1.1185</v>
+        <v>1.5383</v>
       </c>
       <c r="W25" s="2">
-        <v>1.0807</v>
+        <v>1.4617</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.4">
@@ -2669,141 +2669,141 @@
         <v>79</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2">
-        <v>0.2412</v>
+        <v>0.23499999999999999</v>
       </c>
       <c r="D26" s="2">
-        <v>0.89629999999999999</v>
+        <v>0.90159999999999996</v>
       </c>
       <c r="E26" s="2">
-        <v>3.8800000000000001E-2</v>
+        <v>4.2099999999999999E-2</v>
       </c>
       <c r="F26" s="2">
-        <v>2.7645</v>
+        <v>4.9897999999999998</v>
       </c>
       <c r="G26" s="2">
-        <v>1.0795999999999999</v>
+        <v>1.5425</v>
       </c>
       <c r="H26" s="6">
+        <v>6.2500000000000003E-6</v>
+      </c>
+      <c r="I26" s="2">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0.24010000000000001</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0.2324</v>
+      </c>
+      <c r="L26" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0.90380000000000005</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0.89729999999999999</v>
+      </c>
+      <c r="O26" s="26">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="P26" s="2">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="R26" s="2">
+        <v>0.31440000000000001</v>
+      </c>
+      <c r="S26" s="2">
+        <v>5.3608000000000002</v>
+      </c>
+      <c r="T26" s="2">
+        <v>4.5921000000000003</v>
+      </c>
+      <c r="U26" s="26">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="V26" s="2">
+        <v>1.61</v>
+      </c>
+      <c r="W26" s="2">
+        <v>1.4715</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.2185</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.91490000000000005</v>
+      </c>
+      <c r="E27" s="2">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>3.3157000000000001</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1.6267</v>
+      </c>
+      <c r="H27" s="6">
         <v>1.2500000000000001E-5</v>
       </c>
-      <c r="I26" s="2">
-        <v>4.8999999999999998E-3</v>
-      </c>
-      <c r="J26" s="2">
-        <v>0.2452</v>
-      </c>
-      <c r="K26" s="2">
-        <v>0.23419999999999999</v>
-      </c>
-      <c r="L26" s="2">
-        <v>4.3E-3</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0.90229999999999999</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0.89280000000000004</v>
-      </c>
-      <c r="O26" s="26">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="P26" s="2">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="R26" s="26">
-        <v>3.1E-2</v>
-      </c>
-      <c r="S26" s="2">
-        <v>2.8058999999999998</v>
-      </c>
-      <c r="T26" s="2">
-        <v>2.7313999999999998</v>
-      </c>
-      <c r="U26" s="26">
-        <v>1.12E-2</v>
-      </c>
-      <c r="V26" s="2">
-        <v>1.0944</v>
-      </c>
-      <c r="W26" s="2">
-        <v>1.0673999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="5">
-        <v>0.24660000000000001</v>
-      </c>
-      <c r="D27" s="5">
-        <v>0.89149999999999996</v>
-      </c>
-      <c r="E27" s="5">
-        <v>3.95E-2</v>
-      </c>
-      <c r="F27" s="5">
-        <v>2.3408000000000002</v>
-      </c>
-      <c r="G27" s="5">
-        <v>1.1218999999999999</v>
-      </c>
-      <c r="H27" s="9">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="I27" s="5">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="J27" s="5">
-        <v>0.25290000000000001</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0.2389</v>
-      </c>
-      <c r="L27" s="5">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="M27" s="5">
-        <v>0.8982</v>
-      </c>
-      <c r="N27" s="5">
-        <v>0.88600000000000001</v>
-      </c>
-      <c r="O27" s="28">
-        <v>1E-3</v>
-      </c>
-      <c r="P27" s="5">
-        <v>4.0800000000000003E-2</v>
-      </c>
-      <c r="Q27" s="5">
-        <v>3.8399999999999997E-2</v>
-      </c>
-      <c r="R27" s="28">
-        <v>3.4599999999999999E-2</v>
-      </c>
-      <c r="S27" s="5">
-        <v>2.3841999999999999</v>
-      </c>
-      <c r="T27" s="5">
-        <v>2.2993999999999999</v>
-      </c>
-      <c r="U27" s="28">
-        <v>7.9000000000000008E-3</v>
-      </c>
-      <c r="V27" s="5">
-        <v>1.1324000000000001</v>
-      </c>
-      <c r="W27" s="5">
-        <v>1.1133</v>
+      <c r="I27" s="2">
+        <v>5.1000000000000004E-3</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.22289999999999999</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.21129999999999999</v>
+      </c>
+      <c r="L27" s="2">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0.9204</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="O27" s="26">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="P27" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>4.1200000000000001E-2</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0.1532</v>
+      </c>
+      <c r="S27" s="2">
+        <v>3.5299</v>
+      </c>
+      <c r="T27" s="2">
+        <v>3.1808000000000001</v>
+      </c>
+      <c r="U27" s="26">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="V27" s="2">
+        <v>1.6357999999999999</v>
+      </c>
+      <c r="W27" s="2">
+        <v>1.6212</v>
       </c>
     </row>
     <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
@@ -2882,70 +2882,70 @@
         <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C29" s="2">
-        <v>0.25159999999999999</v>
+        <v>0.2384</v>
       </c>
       <c r="D29" s="2">
-        <v>0.8871</v>
+        <v>0.89859999999999995</v>
       </c>
       <c r="E29" s="2">
-        <v>4.0500000000000001E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="F29" s="2">
-        <v>5.7820999999999998</v>
+        <v>3.5800999999999998</v>
       </c>
       <c r="G29" s="2">
-        <v>1.2365999999999999</v>
+        <v>1.5992</v>
       </c>
       <c r="H29" s="6">
-        <v>1.2500000000000001E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="I29" s="2">
-        <v>2.3E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="J29" s="2">
-        <v>0.25430000000000003</v>
+        <v>0.24210000000000001</v>
       </c>
       <c r="K29" s="2">
-        <v>0.24859999999999999</v>
+        <v>0.2354</v>
       </c>
       <c r="L29" s="2">
-        <v>2.0999999999999999E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="M29" s="2">
-        <v>0.88990000000000002</v>
+        <v>0.9012</v>
       </c>
       <c r="N29" s="2">
-        <v>0.88470000000000004</v>
+        <v>0.89549999999999996</v>
       </c>
       <c r="O29" s="26">
-        <v>4.0000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P29" s="2">
-        <v>4.1000000000000002E-2</v>
+        <v>4.3499999999999997E-2</v>
       </c>
       <c r="Q29" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="R29" s="26">
-        <v>2.58E-2</v>
+        <v>4.2700000000000002E-2</v>
+      </c>
+      <c r="R29" s="2">
+        <v>6.9500000000000006E-2</v>
       </c>
       <c r="S29" s="2">
-        <v>5.8181000000000003</v>
+        <v>3.6783000000000001</v>
       </c>
       <c r="T29" s="2">
-        <v>5.7591999999999999</v>
+        <v>3.5278999999999998</v>
       </c>
       <c r="U29" s="26">
-        <v>1.4999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="V29" s="2">
-        <v>1.2484</v>
+        <v>1.6215999999999999</v>
       </c>
       <c r="W29" s="2">
-        <v>1.2154</v>
+        <v>1.5568</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.4">
@@ -2953,70 +2953,70 @@
         <v>79</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C30" s="2">
-        <v>0.222</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="D30" s="2">
-        <v>0.91210000000000002</v>
+        <v>0.89690000000000003</v>
       </c>
       <c r="E30" s="2">
-        <v>3.9800000000000002E-2</v>
+        <v>4.3200000000000002E-2</v>
       </c>
       <c r="F30" s="2">
-        <v>5.0961999999999996</v>
+        <v>6.3140999999999998</v>
       </c>
       <c r="G30" s="2">
-        <v>1.2612000000000001</v>
+        <v>1.6345000000000001</v>
       </c>
       <c r="H30" s="6">
         <v>6.2500000000000003E-6</v>
       </c>
       <c r="I30" s="2">
-        <v>1.9E-3</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="J30" s="2">
-        <v>0.22409999999999999</v>
+        <v>0.2447</v>
       </c>
       <c r="K30" s="2">
-        <v>0.21959999999999999</v>
+        <v>0.23380000000000001</v>
       </c>
       <c r="L30" s="2">
-        <v>1.4E-3</v>
+        <v>4.1000000000000003E-3</v>
       </c>
       <c r="M30" s="2">
-        <v>0.91400000000000003</v>
+        <v>0.90259999999999996</v>
       </c>
       <c r="N30" s="2">
-        <v>0.91049999999999998</v>
-      </c>
-      <c r="O30" s="26">
-        <v>2.9999999999999997E-4</v>
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="O30" s="2">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P30" s="2">
-        <v>0.04</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="Q30" s="2">
-        <v>3.9399999999999998E-2</v>
-      </c>
-      <c r="R30" s="26">
-        <v>4.2799999999999998E-2</v>
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.13009999999999999</v>
       </c>
       <c r="S30" s="2">
-        <v>5.1534000000000004</v>
+        <v>6.4614000000000003</v>
       </c>
       <c r="T30" s="2">
-        <v>5.0506000000000002</v>
-      </c>
-      <c r="U30" s="26">
-        <v>2.69E-2</v>
+        <v>6.1448999999999998</v>
+      </c>
+      <c r="U30" s="2">
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="V30" s="2">
-        <v>1.2866</v>
+        <v>1.6998</v>
       </c>
       <c r="W30" s="2">
-        <v>1.2239</v>
+        <v>1.5963000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.4">
@@ -3024,212 +3024,212 @@
         <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C31" s="2">
-        <v>0.2409</v>
+        <v>0.2465</v>
       </c>
       <c r="D31" s="2">
-        <v>0.89629999999999999</v>
+        <v>0.89149999999999996</v>
       </c>
       <c r="E31" s="2">
-        <v>3.8800000000000001E-2</v>
+        <v>4.3400000000000001E-2</v>
       </c>
       <c r="F31" s="2">
-        <v>2.5232000000000001</v>
+        <v>4.3446999999999996</v>
       </c>
       <c r="G31" s="2">
-        <v>1.2345999999999999</v>
+        <v>1.6041000000000001</v>
       </c>
       <c r="H31" s="6">
-        <v>1.5625000000000001E-6</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I31" s="2">
-        <v>9.4999999999999998E-3</v>
+        <v>1.06E-2</v>
       </c>
       <c r="J31" s="2">
-        <v>0.25419999999999998</v>
+        <v>0.26</v>
       </c>
       <c r="K31" s="2">
-        <v>0.23250000000000001</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="L31" s="2">
-        <v>8.2000000000000007E-3</v>
+        <v>9.4000000000000004E-3</v>
       </c>
       <c r="M31" s="2">
-        <v>0.90359999999999996</v>
+        <v>0.90239999999999998</v>
       </c>
       <c r="N31" s="2">
-        <v>0.88480000000000003</v>
-      </c>
-      <c r="O31" s="26">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="O31" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P31" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0.1153</v>
+      </c>
+      <c r="S31" s="2">
+        <v>4.5061999999999998</v>
+      </c>
+      <c r="T31" s="2">
+        <v>4.2450999999999999</v>
+      </c>
+      <c r="U31" s="2">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="V31" s="2">
+        <v>1.6476</v>
+      </c>
+      <c r="W31" s="2">
+        <v>1.542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.25180000000000002</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>7.2229999999999999</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1.6734</v>
+      </c>
+      <c r="H32" s="6">
+        <v>3.1250000000000001E-6</v>
+      </c>
+      <c r="I32" s="2">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.2581</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.24640000000000001</v>
+      </c>
+      <c r="L32" s="2">
+        <v>4.3E-3</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.89180000000000004</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0.88129999999999997</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="P32" s="2">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="R32" s="2">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="S32" s="2">
+        <v>7.2816999999999998</v>
+      </c>
+      <c r="T32" s="2">
+        <v>7.1710000000000003</v>
+      </c>
+      <c r="U32" s="2">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="V32" s="2">
+        <v>1.6875</v>
+      </c>
+      <c r="W32" s="2">
+        <v>1.6511</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.2286</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2.8605</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1.7045999999999999</v>
+      </c>
+      <c r="H33" s="6">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="I33" s="2">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.2344</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.22459999999999999</v>
+      </c>
+      <c r="L33" s="2">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0.90210000000000001</v>
+      </c>
+      <c r="O33" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="P31" s="2">
-        <v>3.9199999999999999E-2</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>3.85E-2</v>
-      </c>
-      <c r="R31" s="26">
-        <v>0.1004</v>
-      </c>
-      <c r="S31" s="2">
-        <v>2.661</v>
-      </c>
-      <c r="T31" s="2">
-        <v>2.4243999999999999</v>
-      </c>
-      <c r="U31" s="26">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="V31" s="2">
-        <v>1.2821</v>
-      </c>
-      <c r="W31" s="2">
-        <v>1.1621999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A32" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="4">
-        <v>0.2399</v>
-      </c>
-      <c r="D32" s="4">
-        <v>0.89729999999999999</v>
-      </c>
-      <c r="E32" s="4">
-        <v>3.8800000000000001E-2</v>
-      </c>
-      <c r="F32" s="4">
-        <v>1.7656000000000001</v>
-      </c>
-      <c r="G32" s="4">
-        <v>1.1803999999999999</v>
-      </c>
-      <c r="H32" s="8">
-        <v>6.2500000000000003E-6</v>
-      </c>
-      <c r="I32" s="4">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="J32" s="4">
-        <v>0.24970000000000001</v>
-      </c>
-      <c r="K32" s="4">
-        <v>0.23330000000000001</v>
-      </c>
-      <c r="L32" s="4">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="M32" s="4">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="N32" s="4">
-        <v>0.88890000000000002</v>
-      </c>
-      <c r="O32" s="27">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="P32" s="4">
-        <v>3.9100000000000003E-2</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="R32" s="27">
-        <v>4.41E-2</v>
-      </c>
-      <c r="S32" s="4">
-        <v>1.8274999999999999</v>
-      </c>
-      <c r="T32" s="4">
-        <v>1.7279</v>
-      </c>
-      <c r="U32" s="27">
-        <v>2.9600000000000001E-2</v>
-      </c>
-      <c r="V32" s="4">
-        <v>1.2061999999999999</v>
-      </c>
-      <c r="W32" s="4">
-        <v>1.1389</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0.2311</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0.90480000000000005</v>
-      </c>
-      <c r="E33" s="3">
-        <v>4.1000000000000002E-2</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1.4258</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1.3076000000000001</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1.2500000000000001E-5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>3.8E-3</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0.2364</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0.22770000000000001</v>
-      </c>
-      <c r="L33" s="3">
-        <v>3.2000000000000002E-3</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0.90759999999999996</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0.90039999999999998</v>
-      </c>
-      <c r="O33" s="29">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="P33" s="3">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>4.0399999999999998E-2</v>
-      </c>
-      <c r="R33" s="29">
-        <v>5.0700000000000002E-2</v>
-      </c>
-      <c r="S33" s="3">
-        <v>1.4936</v>
-      </c>
-      <c r="T33" s="3">
-        <v>1.3716999999999999</v>
-      </c>
-      <c r="U33" s="29">
-        <v>2.1399999999999999E-2</v>
-      </c>
-      <c r="V33" s="3">
-        <v>1.3357000000000001</v>
-      </c>
-      <c r="W33" s="3">
-        <v>1.2837000000000001</v>
+      <c r="P33" s="2">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>4.3799999999999999E-2</v>
+      </c>
+      <c r="R33" s="2">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="S33" s="2">
+        <v>2.9194</v>
+      </c>
+      <c r="T33" s="2">
+        <v>2.8243999999999998</v>
+      </c>
+      <c r="U33" s="2">
+        <v>2.4E-2</v>
+      </c>
+      <c r="V33" s="2">
+        <v>1.7299</v>
+      </c>
+      <c r="W33" s="2">
+        <v>1.6722999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.4">
@@ -3237,70 +3237,70 @@
         <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C34" s="2">
-        <v>0.23499999999999999</v>
+        <v>0.3493</v>
       </c>
       <c r="D34" s="2">
-        <v>0.90159999999999996</v>
+        <v>0.78249999999999997</v>
       </c>
       <c r="E34" s="2">
-        <v>4.2099999999999999E-2</v>
+        <v>5.6099999999999997E-2</v>
       </c>
       <c r="F34" s="2">
-        <v>4.9897999999999998</v>
+        <v>10.982900000000001</v>
       </c>
       <c r="G34" s="2">
-        <v>1.5425</v>
+        <v>3.2383000000000002</v>
       </c>
       <c r="H34" s="6">
-        <v>6.2500000000000003E-6</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I34" s="2">
-        <v>3.5999999999999999E-3</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="J34" s="2">
-        <v>0.24010000000000001</v>
+        <v>0.35060000000000002</v>
       </c>
       <c r="K34" s="2">
-        <v>0.2324</v>
+        <v>0.34710000000000002</v>
       </c>
       <c r="L34" s="2">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="M34" s="2">
-        <v>0.90380000000000005</v>
+        <v>0.7853</v>
       </c>
       <c r="N34" s="2">
-        <v>0.89729999999999999</v>
-      </c>
-      <c r="O34" s="26">
-        <v>6.9999999999999999E-4</v>
+        <v>0.78090000000000004</v>
+      </c>
+      <c r="O34" s="2">
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="P34" s="2">
-        <v>4.2900000000000001E-2</v>
+        <v>5.6599999999999998E-2</v>
       </c>
       <c r="Q34" s="2">
-        <v>4.1099999999999998E-2</v>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="R34" s="2">
-        <v>0.31440000000000001</v>
+        <v>2.6599999999999999E-2</v>
       </c>
       <c r="S34" s="2">
-        <v>5.3608000000000002</v>
+        <v>11.0199</v>
       </c>
       <c r="T34" s="2">
-        <v>4.5921000000000003</v>
-      </c>
-      <c r="U34" s="26">
-        <v>5.6599999999999998E-2</v>
+        <v>10.958600000000001</v>
+      </c>
+      <c r="U34" s="2">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="V34" s="2">
-        <v>1.61</v>
+        <v>3.2440000000000002</v>
       </c>
       <c r="W34" s="2">
-        <v>1.4715</v>
+        <v>3.2353999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.4">
@@ -3308,70 +3308,70 @@
         <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2">
-        <v>0.2465</v>
+        <v>0.34810000000000002</v>
       </c>
       <c r="D35" s="2">
-        <v>0.89149999999999996</v>
+        <v>0.78380000000000005</v>
       </c>
       <c r="E35" s="2">
-        <v>4.3400000000000001E-2</v>
+        <v>5.62E-2</v>
       </c>
       <c r="F35" s="2">
-        <v>4.3446999999999996</v>
+        <v>9.7302999999999997</v>
       </c>
       <c r="G35" s="2">
-        <v>1.6041000000000001</v>
+        <v>3.2170000000000001</v>
       </c>
       <c r="H35" s="6">
         <v>3.1250000000000001E-6</v>
       </c>
       <c r="I35" s="2">
-        <v>1.06E-2</v>
+        <v>1.15E-2</v>
       </c>
       <c r="J35" s="2">
-        <v>0.26</v>
+        <v>0.36380000000000001</v>
       </c>
       <c r="K35" s="2">
-        <v>0.23400000000000001</v>
+        <v>0.33639999999999998</v>
       </c>
       <c r="L35" s="2">
-        <v>9.4000000000000004E-3</v>
+        <v>1.44E-2</v>
       </c>
       <c r="M35" s="2">
-        <v>0.90239999999999998</v>
+        <v>0.79830000000000001</v>
       </c>
       <c r="N35" s="2">
-        <v>0.87949999999999995</v>
+        <v>0.76419999999999999</v>
       </c>
       <c r="O35" s="2">
-        <v>4.0000000000000002E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P35" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="Q35" s="2">
-        <v>4.3099999999999999E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="R35" s="2">
-        <v>0.1153</v>
+        <v>0.1021</v>
       </c>
       <c r="S35" s="2">
-        <v>4.5061999999999998</v>
+        <v>9.8604000000000003</v>
       </c>
       <c r="T35" s="2">
-        <v>4.2450999999999999</v>
+        <v>9.6111000000000004</v>
       </c>
       <c r="U35" s="2">
-        <v>4.4999999999999998E-2</v>
+        <v>6.5799999999999997E-2</v>
       </c>
       <c r="V35" s="2">
-        <v>1.6476</v>
+        <v>3.2744</v>
       </c>
       <c r="W35" s="2">
-        <v>1.542</v>
+        <v>3.1248999999999998</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.4">
@@ -3379,70 +3379,70 @@
         <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C36" s="2">
-        <v>0.2384</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="D36" s="2">
-        <v>0.89859999999999995</v>
+        <v>0.78769999999999996</v>
       </c>
       <c r="E36" s="2">
-        <v>4.3200000000000002E-2</v>
+        <v>5.6300000000000003E-2</v>
       </c>
       <c r="F36" s="2">
-        <v>3.5800999999999998</v>
+        <v>9.2777999999999992</v>
       </c>
       <c r="G36" s="2">
-        <v>1.5992</v>
+        <v>3.1677</v>
       </c>
       <c r="H36" s="6">
-        <v>2.5000000000000001E-5</v>
+        <v>7.8125000000000004E-7</v>
       </c>
       <c r="I36" s="2">
-        <v>2.8E-3</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="J36" s="2">
-        <v>0.24210000000000001</v>
+        <v>0.3528</v>
       </c>
       <c r="K36" s="2">
-        <v>0.2354</v>
+        <v>0.3357</v>
       </c>
       <c r="L36" s="2">
-        <v>2.3999999999999998E-3</v>
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="M36" s="2">
-        <v>0.9012</v>
+        <v>0.79910000000000003</v>
       </c>
       <c r="N36" s="2">
-        <v>0.89549999999999996</v>
-      </c>
-      <c r="O36" s="26">
-        <v>2.9999999999999997E-4</v>
+        <v>0.77810000000000001</v>
+      </c>
+      <c r="O36" s="2">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P36" s="2">
-        <v>4.3499999999999997E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="Q36" s="2">
-        <v>4.2700000000000002E-2</v>
+        <v>5.5800000000000002E-2</v>
       </c>
       <c r="R36" s="2">
-        <v>6.9500000000000006E-2</v>
+        <v>9.0800000000000006E-2</v>
       </c>
       <c r="S36" s="2">
-        <v>3.6783000000000001</v>
+        <v>9.3751999999999995</v>
       </c>
       <c r="T36" s="2">
-        <v>3.5278999999999998</v>
-      </c>
-      <c r="U36" s="26">
-        <v>0.03</v>
+        <v>9.1565999999999992</v>
+      </c>
+      <c r="U36" s="2">
+        <v>3.3500000000000002E-2</v>
       </c>
       <c r="V36" s="2">
-        <v>1.6215999999999999</v>
+        <v>3.1937000000000002</v>
       </c>
       <c r="W36" s="2">
-        <v>1.5568</v>
+        <v>3.1204000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.4">
@@ -3450,70 +3450,70 @@
         <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
-        <v>0.25180000000000002</v>
+        <v>0.34129999999999999</v>
       </c>
       <c r="D37" s="2">
-        <v>0.88700000000000001</v>
+        <v>0.79239999999999999</v>
       </c>
       <c r="E37" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="F37" s="2">
-        <v>7.2229999999999999</v>
+        <v>8.1373999999999995</v>
       </c>
       <c r="G37" s="2">
-        <v>1.6734</v>
+        <v>3.2317</v>
       </c>
       <c r="H37" s="6">
-        <v>3.1250000000000001E-6</v>
+        <v>7.8125000000000004E-7</v>
       </c>
       <c r="I37" s="2">
-        <v>4.7999999999999996E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="J37" s="2">
-        <v>0.2581</v>
+        <v>0.34739999999999999</v>
       </c>
       <c r="K37" s="2">
-        <v>0.24640000000000001</v>
+        <v>0.33550000000000002</v>
       </c>
       <c r="L37" s="2">
-        <v>4.3E-3</v>
+        <v>5.8999999999999999E-3</v>
       </c>
       <c r="M37" s="2">
-        <v>0.89180000000000004</v>
+        <v>0.79930000000000001</v>
       </c>
       <c r="N37" s="2">
-        <v>0.88129999999999997</v>
+        <v>0.78490000000000004</v>
       </c>
       <c r="O37" s="2">
         <v>1E-4</v>
       </c>
       <c r="P37" s="2">
-        <v>4.3999999999999997E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="Q37" s="2">
-        <v>4.3799999999999999E-2</v>
+        <v>5.6800000000000003E-2</v>
       </c>
       <c r="R37" s="2">
-        <v>4.5499999999999999E-2</v>
+        <v>0.108</v>
       </c>
       <c r="S37" s="2">
-        <v>7.2816999999999998</v>
+        <v>8.2614000000000001</v>
       </c>
       <c r="T37" s="2">
-        <v>7.1710000000000003</v>
+        <v>7.9981999999999998</v>
       </c>
       <c r="U37" s="2">
-        <v>1.5900000000000001E-2</v>
+        <v>2.9899999999999999E-2</v>
       </c>
       <c r="V37" s="2">
-        <v>1.6875</v>
+        <v>3.2709000000000001</v>
       </c>
       <c r="W37" s="2">
-        <v>1.6511</v>
+        <v>3.1983999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
@@ -3663,70 +3663,70 @@
         <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C40" s="2">
-        <v>0.24049999999999999</v>
+        <v>0.34250000000000003</v>
       </c>
       <c r="D40" s="2">
-        <v>0.89690000000000003</v>
+        <v>0.79090000000000005</v>
       </c>
       <c r="E40" s="2">
-        <v>4.3200000000000002E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="F40" s="2">
-        <v>6.3140999999999998</v>
+        <v>8.4193999999999996</v>
       </c>
       <c r="G40" s="2">
-        <v>1.6345000000000001</v>
+        <v>3.2014</v>
       </c>
       <c r="H40" s="6">
-        <v>6.2500000000000003E-6</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I40" s="2">
-        <v>4.7999999999999996E-3</v>
+        <v>4.4999999999999997E-3</v>
       </c>
       <c r="J40" s="2">
-        <v>0.2447</v>
+        <v>0.34849999999999998</v>
       </c>
       <c r="K40" s="2">
-        <v>0.23380000000000001</v>
+        <v>0.33750000000000002</v>
       </c>
       <c r="L40" s="2">
-        <v>4.1000000000000003E-3</v>
+        <v>5.5999999999999999E-3</v>
       </c>
       <c r="M40" s="2">
-        <v>0.90259999999999996</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="N40" s="2">
-        <v>0.89329999999999998</v>
+        <v>0.78349999999999997</v>
       </c>
       <c r="O40" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P40" s="2">
-        <v>4.3700000000000003E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="Q40" s="2">
-        <v>4.2500000000000003E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="R40" s="2">
-        <v>0.13009999999999999</v>
+        <v>5.8200000000000002E-2</v>
       </c>
       <c r="S40" s="2">
-        <v>6.4614000000000003</v>
+        <v>8.4974000000000007</v>
       </c>
       <c r="T40" s="2">
-        <v>6.1448999999999998</v>
+        <v>8.3575999999999997</v>
       </c>
       <c r="U40" s="2">
-        <v>4.6399999999999997E-2</v>
+        <v>4.7699999999999999E-2</v>
       </c>
       <c r="V40" s="2">
-        <v>1.6998</v>
+        <v>3.2688999999999999</v>
       </c>
       <c r="W40" s="2">
-        <v>1.5963000000000001</v>
+        <v>3.1657999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.4">
@@ -3734,70 +3734,70 @@
         <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="C41" s="2">
-        <v>0.2271</v>
+        <v>0.3473</v>
       </c>
       <c r="D41" s="2">
-        <v>0.90810000000000002</v>
+        <v>0.78510000000000002</v>
       </c>
       <c r="E41" s="2">
-        <v>4.1500000000000002E-2</v>
+        <v>5.7099999999999998E-2</v>
       </c>
       <c r="F41" s="2">
-        <v>4.4733000000000001</v>
+        <v>7.2785000000000002</v>
       </c>
       <c r="G41" s="2">
-        <v>1.5087999999999999</v>
+        <v>3.2187999999999999</v>
       </c>
       <c r="H41" s="6">
-        <v>1.2500000000000001E-5</v>
+        <v>7.8125000000000004E-7</v>
       </c>
       <c r="I41" s="2">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.35139999999999999</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.34279999999999999</v>
+      </c>
+      <c r="L41" s="2">
+        <v>4.3E-3</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0.79059999999999997</v>
+      </c>
+      <c r="N41" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="O41" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="J41" s="2">
-        <v>0.2273</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0.2268</v>
-      </c>
-      <c r="L41" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0.9083</v>
-      </c>
-      <c r="N41" s="2">
-        <v>0.90790000000000004</v>
-      </c>
-      <c r="O41" s="26">
-        <v>1E-4</v>
-      </c>
       <c r="P41" s="2">
-        <v>4.1599999999999998E-2</v>
+        <v>5.74E-2</v>
       </c>
       <c r="Q41" s="2">
-        <v>4.1300000000000003E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="R41" s="2">
-        <v>0.19869999999999999</v>
+        <v>0.1057</v>
       </c>
       <c r="S41" s="2">
-        <v>4.6665000000000001</v>
+        <v>7.3810000000000002</v>
       </c>
       <c r="T41" s="2">
-        <v>4.2000999999999999</v>
-      </c>
-      <c r="U41" s="26">
-        <v>3.3599999999999998E-2</v>
+        <v>7.133</v>
+      </c>
+      <c r="U41" s="2">
+        <v>2E-3</v>
       </c>
       <c r="V41" s="2">
-        <v>1.5383</v>
+        <v>3.2210999999999999</v>
       </c>
       <c r="W41" s="2">
-        <v>1.4617</v>
+        <v>3.2161</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.4">
@@ -3805,70 +3805,70 @@
         <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="C42" s="2">
-        <v>0.2185</v>
+        <v>0.34129999999999999</v>
       </c>
       <c r="D42" s="2">
-        <v>0.91490000000000005</v>
+        <v>0.7923</v>
       </c>
       <c r="E42" s="2">
-        <v>4.2299999999999997E-2</v>
+        <v>5.7200000000000001E-2</v>
       </c>
       <c r="F42" s="2">
-        <v>3.3157000000000001</v>
+        <v>9.6792999999999996</v>
       </c>
       <c r="G42" s="2">
-        <v>1.6267</v>
+        <v>3.1972</v>
       </c>
       <c r="H42" s="6">
-        <v>1.2500000000000001E-5</v>
+        <v>1.5625000000000001E-6</v>
       </c>
       <c r="I42" s="2">
-        <v>5.1000000000000004E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="J42" s="2">
-        <v>0.22289999999999999</v>
+        <v>0.3538</v>
       </c>
       <c r="K42" s="2">
-        <v>0.21129999999999999</v>
+        <v>0.33489999999999998</v>
       </c>
       <c r="L42" s="2">
-        <v>4.0000000000000001E-3</v>
+        <v>1.09E-2</v>
       </c>
       <c r="M42" s="2">
-        <v>0.9204</v>
+        <v>0.80010000000000003</v>
       </c>
       <c r="N42" s="2">
-        <v>0.91139999999999999</v>
-      </c>
-      <c r="O42" s="26">
-        <v>8.0000000000000004E-4</v>
+        <v>0.77690000000000003</v>
+      </c>
+      <c r="O42" s="2">
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P42" s="2">
-        <v>4.2999999999999997E-2</v>
+        <v>5.7599999999999998E-2</v>
       </c>
       <c r="Q42" s="2">
-        <v>4.1200000000000001E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="R42" s="2">
-        <v>0.1532</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="S42" s="2">
-        <v>3.5299</v>
+        <v>9.7509999999999994</v>
       </c>
       <c r="T42" s="2">
-        <v>3.1808000000000001</v>
-      </c>
-      <c r="U42" s="26">
-        <v>6.4999999999999997E-3</v>
+        <v>9.5679999999999996</v>
+      </c>
+      <c r="U42" s="2">
+        <v>5.9200000000000003E-2</v>
       </c>
       <c r="V42" s="2">
-        <v>1.6357999999999999</v>
+        <v>3.2605</v>
       </c>
       <c r="W42" s="2">
-        <v>1.6212</v>
+        <v>3.1181000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.4">
@@ -3876,70 +3876,70 @@
         <v>79</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2">
-        <v>0.2286</v>
+        <v>0.34510000000000002</v>
       </c>
       <c r="D43" s="2">
-        <v>0.90690000000000004</v>
+        <v>0.78769999999999996</v>
       </c>
       <c r="E43" s="2">
-        <v>4.4200000000000003E-2</v>
+        <v>5.74E-2</v>
       </c>
       <c r="F43" s="2">
-        <v>2.8605</v>
+        <v>7.2619999999999996</v>
       </c>
       <c r="G43" s="2">
-        <v>1.7045999999999999</v>
+        <v>3.2484000000000002</v>
       </c>
       <c r="H43" s="6">
-        <v>2.5000000000000001E-5</v>
+        <v>3.1250000000000001E-6</v>
       </c>
       <c r="I43" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="J43" s="2">
+        <v>0.34649999999999997</v>
+      </c>
+      <c r="K43" s="2">
+        <v>0.34420000000000001</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M43" s="2">
+        <v>0.78890000000000005</v>
+      </c>
+      <c r="N43" s="2">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="P43" s="2">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="R43" s="2">
+        <v>3.8899999999999997E-2</v>
+      </c>
+      <c r="S43" s="2">
+        <v>7.3135000000000003</v>
+      </c>
+      <c r="T43" s="2">
+        <v>7.2195999999999998</v>
+      </c>
+      <c r="U43" s="2">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="J43" s="2">
-        <v>0.2344</v>
-      </c>
-      <c r="K43" s="2">
-        <v>0.22459999999999999</v>
-      </c>
-      <c r="L43" s="2">
-        <v>3.3999999999999998E-3</v>
-      </c>
-      <c r="M43" s="2">
-        <v>0.91010000000000002</v>
-      </c>
-      <c r="N43" s="2">
-        <v>0.90210000000000001</v>
-      </c>
-      <c r="O43" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="P43" s="2">
-        <v>4.4600000000000001E-2</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>4.3799999999999999E-2</v>
-      </c>
-      <c r="R43" s="2">
-        <v>4.2099999999999999E-2</v>
-      </c>
-      <c r="S43" s="2">
-        <v>2.9194</v>
-      </c>
-      <c r="T43" s="2">
-        <v>2.8243999999999998</v>
-      </c>
-      <c r="U43" s="2">
-        <v>2.4E-2</v>
-      </c>
       <c r="V43" s="2">
-        <v>1.7299</v>
+        <v>3.2538999999999998</v>
       </c>
       <c r="W43" s="2">
-        <v>1.6722999999999999</v>
+        <v>3.2435</v>
       </c>
     </row>
     <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
@@ -4368,7 +4368,7 @@
         <v>3.2698999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>79</v>
       </c>
@@ -4382,63 +4382,63 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E51">
-        <v>0.1298</v>
+        <v>0.1196</v>
       </c>
       <c r="O51">
-        <v>2.8E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E52">
-        <v>0.1409</v>
+        <v>0.12859999999999999</v>
       </c>
       <c r="O52">
-        <v>1.6000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E53">
-        <v>0.1196</v>
+        <v>0.12939999999999999</v>
       </c>
       <c r="O53">
-        <v>2.5999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E54">
-        <v>0.12859999999999999</v>
+        <v>0.1298</v>
       </c>
       <c r="O54">
-        <v>1.8E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>79</v>
       </c>
@@ -4452,32 +4452,32 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E56">
-        <v>0.14410000000000001</v>
+        <v>0.1409</v>
       </c>
       <c r="O56">
-        <v>2.8999999999999998E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E57">
-        <v>0.12939999999999999</v>
+        <v>0.14410000000000001</v>
       </c>
       <c r="O57">
-        <v>2.5000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
     </row>
   </sheetData>
@@ -4508,6 +4508,14 @@
         <filter val="LSTM-sg5"/>
         <filter val="LSTM-sg7"/>
         <filter val="LSTM-sg9"/>
+        <filter val="RF-ew2"/>
+        <filter val="RF-ew3"/>
+        <filter val="RF-ew4"/>
+        <filter val="RF-obs"/>
+        <filter val="RF-or"/>
+        <filter val="RF-sg5"/>
+        <filter val="RF-sg7"/>
+        <filter val="RF-sg9"/>
         <filter val="RNN-ew2"/>
         <filter val="RNN-ew3"/>
         <filter val="RNN-ew4"/>
@@ -4518,8 +4526,8 @@
         <filter val="RNN-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:W43">
-      <sortCondition ref="B1:B58"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:W58">
+      <sortCondition ref="E1:E58"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -4643,14 +4651,14 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.4">
       <c r="D6" s="25"/>
@@ -4981,14 +4989,14 @@
       </c>
     </row>
     <row r="20" spans="4:16" x14ac:dyDescent="0.4">
-      <c r="D20" s="43">
+      <c r="D20" s="46">
         <v>1016</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
       <c r="M20" s="2">
         <v>3.1972</v>
       </c>
@@ -5305,14 +5313,14 @@
       </c>
     </row>
     <row r="34" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="43"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="43"/>
-      <c r="I34" s="43"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
       <c r="M34" s="5">
         <v>1.1218999999999999</v>
       </c>
@@ -7442,7 +7450,7 @@
       <c r="D28" s="13">
         <v>0.94230000000000003</v>
       </c>
-      <c r="E28" s="46">
+      <c r="E28" s="44">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F28" s="13">
@@ -7513,7 +7521,7 @@
       <c r="D29" s="13">
         <v>0.94410000000000005</v>
       </c>
-      <c r="E29" s="46">
+      <c r="E29" s="44">
         <v>1.49E-2</v>
       </c>
       <c r="F29" s="13">
@@ -7584,7 +7592,7 @@
       <c r="D30" s="13">
         <v>0.94589999999999996</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="44">
         <v>1.52E-2</v>
       </c>
       <c r="F30" s="13">
@@ -8571,16 +8579,16 @@
         <v>73</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="45"/>
+      <c r="D44" s="43"/>
       <c r="E44">
         <v>0.1346</v>
       </c>
-      <c r="F44" s="47">
-        <v>0</v>
-      </c>
-      <c r="G44" s="45"/>
-      <c r="H44" s="45"/>
-      <c r="I44" s="47">
+      <c r="F44" s="45">
+        <v>0</v>
+      </c>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="45">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="J44" s="1">
@@ -8689,15 +8697,15 @@
         <v>69</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="45"/>
+      <c r="D47" s="43"/>
       <c r="E47">
         <v>0.14430000000000001</v>
       </c>
       <c r="F47" s="35">
         <v>0</v>
       </c>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
       <c r="I47" s="35">
         <v>1.4E-3</v>
       </c>

--- a/Thesis-codes/NH3-summary-final.xlsx
+++ b/Thesis-codes/NH3-summary-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3F2032-0E50-4471-8D5A-4D76D8A846D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E94F39-55F2-4E54-A1CC-902C2FE21141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12643" yWindow="2871" windowWidth="19388" windowHeight="12403" tabRatio="761" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
+    <workbookView xWindow="1114" yWindow="1149" windowWidth="19389" windowHeight="12402" tabRatio="761" activeTab="3" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
   </bookViews>
   <sheets>
     <sheet name="Predict-0116-0122" sheetId="7" r:id="rId1"/>
@@ -863,7 +863,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
@@ -5575,10 +5575,10 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D6" sqref="D6:I15"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11:B43"/>
+      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -5587,14 +5587,14 @@
     <col min="3" max="3" width="18.53515625" customWidth="1"/>
     <col min="4" max="4" width="16.07421875" customWidth="1"/>
     <col min="5" max="5" width="18.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.921875" customWidth="1"/>
-    <col min="8" max="8" width="14.23046875" customWidth="1"/>
-    <col min="9" max="9" width="16.3828125" customWidth="1"/>
-    <col min="10" max="10" width="17.23046875" customWidth="1"/>
-    <col min="11" max="11" width="17" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.84375" customWidth="1"/>
-    <col min="14" max="14" width="14.61328125" customWidth="1"/>
+    <col min="6" max="7" width="18.921875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.23046875" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="16.3828125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="17.23046875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.84375" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.61328125" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="16.07421875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.921875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="16.69140625" bestFit="1" customWidth="1"/>
@@ -6273,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>77</v>
       </c>
@@ -6486,7 +6486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>77</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>77</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>77</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -7011,7 +7011,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>77</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>77</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>77</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>77</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>77</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>77</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>77</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>77</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="11" t="s">
         <v>77</v>
       </c>
@@ -8147,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>77</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -8612,7 +8612,7 @@
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>77</v>
       </c>
@@ -8650,7 +8650,7 @@
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -8689,7 +8689,7 @@
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>77</v>
       </c>
@@ -8730,7 +8730,7 @@
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>77</v>
       </c>
@@ -8768,7 +8768,7 @@
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -8807,7 +8807,7 @@
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>77</v>
       </c>
@@ -8846,7 +8846,7 @@
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>77</v>
       </c>
@@ -8885,7 +8885,7 @@
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>77</v>
       </c>
@@ -8954,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>77</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
         <v>77</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
         <v>77</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
         <v>77</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
         <v>77</v>
       </c>
@@ -9455,46 +9455,14 @@
   <autoFilter ref="A1:W59" xr:uid="{0B1DB96E-F0A8-460E-9A4B-15CE75D83F02}">
     <filterColumn colId="1">
       <filters>
-        <filter val="DNN-ew2"/>
-        <filter val="DNN-ew3"/>
-        <filter val="DNN-ew4"/>
-        <filter val="DNN-obs"/>
-        <filter val="DNN-or"/>
-        <filter val="DNN-sg5"/>
-        <filter val="DNN-sg7"/>
-        <filter val="DNN-sg9"/>
-        <filter val="GRU-ew2"/>
-        <filter val="GRU-ew3"/>
-        <filter val="GRU-ew4"/>
-        <filter val="GRU-obs"/>
-        <filter val="GRU-or"/>
-        <filter val="GRU-sg5"/>
-        <filter val="GRU-sg7"/>
-        <filter val="GRU-sg9"/>
-        <filter val="LSTM-ew2"/>
-        <filter val="LSTM-ew3"/>
-        <filter val="LSTM-ew4"/>
-        <filter val="LSTM-obs"/>
-        <filter val="LSTM-or"/>
-        <filter val="LSTM-sg5"/>
-        <filter val="LSTM-sg7"/>
-        <filter val="LSTM-sg9"/>
-        <filter val="RF-ew2"/>
-        <filter val="RF-ew3"/>
-        <filter val="RF-ew4"/>
-        <filter val="RF-obs"/>
-        <filter val="RF-or"/>
-        <filter val="RF-sg5"/>
-        <filter val="RF-sg7"/>
-        <filter val="RF-sg9"/>
-        <filter val="RNN-ew2"/>
-        <filter val="RNN-ew3"/>
-        <filter val="RNN-ew4"/>
-        <filter val="RNN-obs"/>
-        <filter val="RNN-or"/>
-        <filter val="RNN-sg5"/>
-        <filter val="RNN-sg7"/>
-        <filter val="RNN-sg9"/>
+        <filter val="LSTM-3-ew2"/>
+        <filter val="LSTM-3-ew3"/>
+        <filter val="LSTM-3-ew4"/>
+        <filter val="LSTM-3-obs"/>
+        <filter val="LSTM-3-or"/>
+        <filter val="LSTM-3-sg5"/>
+        <filter val="LSTM-3-sg7"/>
+        <filter val="LSTM-3-sg9"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">

--- a/Thesis-codes/NH3-summary-final.xlsx
+++ b/Thesis-codes/NH3-summary-final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MPhil-thesis-github-library\MPhil-thesis\Thesis-codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E94F39-55F2-4E54-A1CC-902C2FE21141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51989AF5-A200-4B3E-9234-DFE6BAEDF1F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1114" yWindow="1149" windowWidth="19389" windowHeight="12402" tabRatio="761" activeTab="3" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
+    <workbookView xWindow="5314" yWindow="1766" windowWidth="19389" windowHeight="12403" tabRatio="761" activeTab="3" xr2:uid="{9C29DC90-41F1-4265-93AB-0FF6FABE6854}"/>
   </bookViews>
   <sheets>
     <sheet name="Predict-0116-0122" sheetId="7" r:id="rId1"/>
@@ -861,18 +861,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0D07A2-8BFB-4532-81F8-4995D0BF2BB4}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:W57"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.4609375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.07421875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.61328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.07421875" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.61328125" style="2" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="20.69140625" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.61328125" style="2" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="14.4609375" style="2" hidden="1" customWidth="1"/>
@@ -1031,7 +1031,7 @@
         <v>0.99139999999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>79</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>1.1919999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>79</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>1.1389</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>79</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>1.1565000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>0.97440000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>1.1133</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>79</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>1.2154</v>
       </c>
     </row>
-    <row r="22" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>1.2837000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>79</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>1.3162</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>79</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>1.4617</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>79</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>1.4715</v>
       </c>
     </row>
-    <row r="27" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:23" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>79</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>0.9909</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>79</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>1.5568</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>79</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>1.5963000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>79</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>1.542</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>79</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>1.6511</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>79</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>1.6722999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>79</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>3.2353999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>79</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>3.1248999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>3.1204000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>3.0720000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>79</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>3.1657999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>79</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>3.2161</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>79</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>3.1181000000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>3.2698999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>79</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>79</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>79</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>79</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>79</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>79</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>79</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>79</v>
       </c>
@@ -4480,26 +4480,11 @@
         <v>2.8999999999999998E-3</v>
       </c>
     </row>
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <autoFilter ref="A1:W58" xr:uid="{CA0D07A2-8BFB-4532-81F8-4995D0BF2BB4}">
     <filterColumn colId="1">
-      <filters blank="1">
-        <filter val="DNN-ew2"/>
-        <filter val="DNN-ew3"/>
-        <filter val="DNN-ew4"/>
-        <filter val="DNN-obs"/>
-        <filter val="DNN-or"/>
-        <filter val="DNN-sg5"/>
-        <filter val="DNN-sg7"/>
-        <filter val="DNN-sg9"/>
-        <filter val="GRU-ew2"/>
-        <filter val="GRU-ew3"/>
-        <filter val="GRU-ew4"/>
-        <filter val="GRU-obs"/>
-        <filter val="GRU-or"/>
-        <filter val="GRU-sg5"/>
-        <filter val="GRU-sg7"/>
-        <filter val="GRU-sg9"/>
+      <filters>
         <filter val="LSTM-ew2"/>
         <filter val="LSTM-ew3"/>
         <filter val="LSTM-ew4"/>
@@ -4508,25 +4493,9 @@
         <filter val="LSTM-sg5"/>
         <filter val="LSTM-sg7"/>
         <filter val="LSTM-sg9"/>
-        <filter val="RF-ew2"/>
-        <filter val="RF-ew3"/>
-        <filter val="RF-ew4"/>
-        <filter val="RF-obs"/>
-        <filter val="RF-or"/>
-        <filter val="RF-sg5"/>
-        <filter val="RF-sg7"/>
-        <filter val="RF-sg9"/>
-        <filter val="RNN-ew2"/>
-        <filter val="RNN-ew3"/>
-        <filter val="RNN-ew4"/>
-        <filter val="RNN-obs"/>
-        <filter val="RNN-or"/>
-        <filter val="RNN-sg5"/>
-        <filter val="RNN-sg7"/>
-        <filter val="RNN-sg9"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:W58">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:W23">
       <sortCondition ref="E1:E58"/>
     </sortState>
   </autoFilter>
@@ -5576,16 +5545,16 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D6" sqref="D6:I15"/>
-      <selection pane="bottomLeft" activeCell="O31" sqref="O31"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.53515625" customWidth="1"/>
-    <col min="4" max="4" width="16.07421875" customWidth="1"/>
+    <col min="3" max="3" width="18.53515625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.07421875" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="18.23046875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="18.921875" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="14.23046875" hidden="1" customWidth="1"/>
@@ -7437,21 +7406,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.2177</v>
+      <c r="B28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.2142</v>
       </c>
       <c r="D28" s="13">
-        <v>0.94230000000000003</v>
+        <v>0.94410000000000005</v>
       </c>
       <c r="E28" s="44">
-        <v>1.4999999999999999E-2</v>
+        <v>1.49E-2</v>
       </c>
       <c r="F28" s="13">
         <v>0</v>
@@ -7463,31 +7432,31 @@
         <v>0</v>
       </c>
       <c r="I28" s="13">
-        <v>1.9E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="J28" s="2">
-        <v>0.21920000000000001</v>
+        <v>0.21629999999999999</v>
       </c>
       <c r="K28" s="2">
-        <v>0.215</v>
+        <v>0.2127</v>
       </c>
       <c r="L28" s="2">
-        <v>1E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M28" s="2">
-        <v>0.94369999999999998</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="N28" s="2">
-        <v>0.9415</v>
+        <v>0.94299999999999995</v>
       </c>
       <c r="O28" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P28" s="2">
-        <v>1.5299999999999999E-2</v>
+        <v>1.5100000000000001E-2</v>
       </c>
       <c r="Q28" s="2">
-        <v>1.46E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="R28" s="2">
         <v>0</v>
@@ -7508,21 +7477,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="10">
-        <v>0.2142</v>
+      <c r="B29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.2177</v>
       </c>
       <c r="D29" s="13">
-        <v>0.94410000000000005</v>
+        <v>0.94230000000000003</v>
       </c>
       <c r="E29" s="44">
-        <v>1.49E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F29" s="13">
         <v>0</v>
@@ -7534,31 +7503,31 @@
         <v>0</v>
       </c>
       <c r="I29" s="13">
-        <v>1.5E-3</v>
+        <v>1.9E-3</v>
       </c>
       <c r="J29" s="2">
-        <v>0.21629999999999999</v>
+        <v>0.21920000000000001</v>
       </c>
       <c r="K29" s="2">
-        <v>0.2127</v>
+        <v>0.215</v>
       </c>
       <c r="L29" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="M29" s="2">
-        <v>0.94489999999999996</v>
+        <v>0.94369999999999998</v>
       </c>
       <c r="N29" s="2">
-        <v>0.94299999999999995</v>
+        <v>0.9415</v>
       </c>
       <c r="O29" s="2">
-        <v>1E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P29" s="2">
-        <v>1.5100000000000001E-2</v>
+        <v>1.5299999999999999E-2</v>
       </c>
       <c r="Q29" s="2">
-        <v>1.47E-2</v>
+        <v>1.46E-2</v>
       </c>
       <c r="R29" s="2">
         <v>0</v>
@@ -7579,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -7650,21 +7619,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.24030000000000001</v>
-      </c>
-      <c r="D31" s="13">
-        <v>0.92969999999999997</v>
+        <v>63</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.20930000000000001</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="E31" s="31">
-        <v>1.6400000000000001E-2</v>
+        <v>1.55E-2</v>
       </c>
       <c r="F31" s="13">
         <v>0</v>
@@ -7676,31 +7645,31 @@
         <v>0</v>
       </c>
       <c r="I31" s="13">
+        <v>2.8999999999999998E-3</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.21279999999999999</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.20569999999999999</v>
+      </c>
+      <c r="L31" s="2">
         <v>1.5E-3</v>
       </c>
-      <c r="J31" s="2">
-        <v>0.2424</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0.2392</v>
-      </c>
-      <c r="L31" s="2">
-        <v>8.0000000000000004E-4</v>
-      </c>
       <c r="M31" s="2">
-        <v>0.93030000000000002</v>
+        <v>0.94850000000000001</v>
       </c>
       <c r="N31" s="2">
-        <v>0.92849999999999999</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="O31" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="P31" s="2">
-        <v>1.67E-2</v>
+        <v>1.5800000000000002E-2</v>
       </c>
       <c r="Q31" s="2">
-        <v>1.61E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="R31" s="2">
         <v>0</v>
@@ -7721,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>77</v>
       </c>
@@ -7792,7 +7761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -7863,21 +7832,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="4">
-        <v>0.20930000000000001</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>79</v>
+        <v>64</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.2092</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0.94669999999999999</v>
       </c>
       <c r="E34" s="31">
-        <v>1.55E-2</v>
+        <v>1.6E-2</v>
       </c>
       <c r="F34" s="13">
         <v>0</v>
@@ -7889,31 +7858,31 @@
         <v>0</v>
       </c>
       <c r="I34" s="13">
-        <v>2.8999999999999998E-3</v>
+        <v>2.8E-3</v>
       </c>
       <c r="J34" s="2">
-        <v>0.21279999999999999</v>
+        <v>0.21299999999999999</v>
       </c>
       <c r="K34" s="2">
-        <v>0.20569999999999999</v>
+        <v>0.20649999999999999</v>
       </c>
       <c r="L34" s="2">
         <v>1.5E-3</v>
       </c>
       <c r="M34" s="2">
-        <v>0.94850000000000001</v>
+        <v>0.94810000000000005</v>
       </c>
       <c r="N34" s="2">
-        <v>0.94489999999999996</v>
+        <v>0.94469999999999998</v>
       </c>
       <c r="O34" s="2">
-        <v>2.9999999999999997E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="P34" s="2">
-        <v>1.5800000000000002E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q34" s="2">
-        <v>1.4999999999999999E-2</v>
+        <v>1.5699999999999999E-2</v>
       </c>
       <c r="R34" s="2">
         <v>0</v>
@@ -7934,21 +7903,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.2092</v>
+        <v>61</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.24030000000000001</v>
       </c>
       <c r="D35" s="13">
-        <v>0.94669999999999999</v>
+        <v>0.92969999999999997</v>
       </c>
       <c r="E35" s="31">
-        <v>1.6E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="F35" s="13">
         <v>0</v>
@@ -7960,31 +7929,31 @@
         <v>0</v>
       </c>
       <c r="I35" s="13">
-        <v>2.8E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="J35" s="2">
-        <v>0.21299999999999999</v>
+        <v>0.2424</v>
       </c>
       <c r="K35" s="2">
-        <v>0.20649999999999999</v>
+        <v>0.2392</v>
       </c>
       <c r="L35" s="2">
-        <v>1.5E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M35" s="2">
-        <v>0.94810000000000005</v>
+        <v>0.93030000000000002</v>
       </c>
       <c r="N35" s="2">
-        <v>0.94469999999999998</v>
+        <v>0.92849999999999999</v>
       </c>
       <c r="O35" s="2">
-        <v>5.0000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="P35" s="2">
         <v>1.67E-2</v>
       </c>
       <c r="Q35" s="2">
-        <v>1.5699999999999999E-2</v>
+        <v>1.61E-2</v>
       </c>
       <c r="R35" s="2">
         <v>0</v>
@@ -8005,129 +7974,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A36" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.21110000000000001</v>
+      </c>
+      <c r="D36" s="15">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1.5800000000000002E-2</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="15">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.21290000000000001</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.2097</v>
+      </c>
+      <c r="L36" s="2">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0.94479999999999997</v>
+      </c>
+      <c r="O36" s="26">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P36" s="2">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>1.55E-2</v>
+      </c>
+      <c r="R36" s="2">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2">
+        <v>0</v>
+      </c>
+      <c r="T36" s="2">
+        <v>0</v>
+      </c>
+      <c r="U36" s="2">
+        <v>0</v>
+      </c>
+      <c r="V36" s="2">
+        <v>0</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C37" s="2">
         <v>0.21690000000000001</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13">
         <v>0.94269999999999998</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="13">
         <v>1.61E-2</v>
       </c>
-      <c r="F36" s="13">
-        <v>0</v>
-      </c>
-      <c r="G36" s="13">
-        <v>0</v>
-      </c>
-      <c r="H36" s="13">
-        <v>0</v>
-      </c>
-      <c r="I36" s="13">
+      <c r="F37" s="13">
+        <v>0</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
         <v>1.6000000000000001E-3</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J37" s="2">
         <v>0.21840000000000001</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K37" s="2">
         <v>0.2147</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L37" s="2">
         <v>8.0000000000000004E-4</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M37" s="2">
         <v>0.94389999999999996</v>
       </c>
-      <c r="N36" s="2">
+      <c r="N37" s="2">
         <v>0.94189999999999996</v>
       </c>
-      <c r="O36" s="26">
-        <v>0</v>
-      </c>
-      <c r="P36" s="2">
+      <c r="O37" s="26">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
         <v>1.61E-2</v>
       </c>
-      <c r="Q36" s="2">
+      <c r="Q37" s="2">
         <v>1.61E-2</v>
       </c>
-      <c r="R36" s="2">
-        <v>0</v>
-      </c>
-      <c r="S36" s="2">
-        <v>0</v>
-      </c>
-      <c r="T36" s="2">
-        <v>0</v>
-      </c>
-      <c r="U36" s="2">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="10">
-        <v>0.21110000000000001</v>
-      </c>
-      <c r="D37" s="15">
-        <v>0.94579999999999997</v>
-      </c>
-      <c r="E37" s="15">
-        <v>1.5800000000000002E-2</v>
-      </c>
-      <c r="F37" s="13">
-        <v>0</v>
-      </c>
-      <c r="G37" s="13">
-        <v>0</v>
-      </c>
-      <c r="H37" s="13">
-        <v>0</v>
-      </c>
-      <c r="I37" s="15">
-        <v>1.2999999999999999E-3</v>
-      </c>
-      <c r="J37" s="2">
-        <v>0.21290000000000001</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0.2097</v>
-      </c>
-      <c r="L37" s="2">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0.94650000000000001</v>
-      </c>
-      <c r="N37" s="2">
-        <v>0.94479999999999997</v>
-      </c>
-      <c r="O37" s="26">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="P37" s="2">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>1.55E-2</v>
-      </c>
       <c r="R37" s="2">
         <v>0</v>
       </c>
@@ -8147,7 +8116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>77</v>
       </c>
@@ -8218,55 +8187,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C39" s="2">
-        <v>0.23980000000000001</v>
-      </c>
-      <c r="D39" s="13">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="E39" s="13">
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13">
-        <v>0</v>
-      </c>
-      <c r="H39" s="13">
-        <v>0</v>
-      </c>
-      <c r="I39" s="13">
-        <v>1.4E-3</v>
+        <v>0.2137</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="E39" s="21">
+        <v>1.66E-2</v>
+      </c>
+      <c r="F39" s="21">
+        <v>0</v>
+      </c>
+      <c r="G39" s="21">
+        <v>0</v>
+      </c>
+      <c r="H39" s="21">
+        <v>0</v>
+      </c>
+      <c r="I39" s="21">
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="J39" s="2">
-        <v>0.24129999999999999</v>
+        <v>0.21529999999999999</v>
       </c>
       <c r="K39" s="2">
-        <v>0.23799999999999999</v>
+        <v>0.2127</v>
       </c>
       <c r="L39" s="2">
-        <v>8.0000000000000004E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="M39" s="2">
-        <v>0.93100000000000005</v>
+        <v>0.94489999999999996</v>
       </c>
       <c r="N39" s="2">
-        <v>0.92910000000000004</v>
+        <v>0.94359999999999999</v>
       </c>
       <c r="O39" s="26">
         <v>1E-4</v>
       </c>
       <c r="P39" s="2">
-        <v>1.7600000000000001E-2</v>
+        <v>1.67E-2</v>
       </c>
       <c r="Q39" s="2">
-        <v>1.7299999999999999E-2</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="R39" s="2">
         <v>0</v>
@@ -8287,57 +8258,55 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2">
-        <v>0.24049999999999999</v>
-      </c>
-      <c r="D40" s="21">
-        <v>0.92959999999999998</v>
-      </c>
-      <c r="E40" s="21">
-        <v>1.77E-2</v>
-      </c>
-      <c r="F40" s="21">
-        <v>0</v>
-      </c>
-      <c r="G40" s="21">
-        <v>0</v>
-      </c>
-      <c r="H40" s="21">
-        <v>0</v>
-      </c>
-      <c r="I40" s="21">
-        <v>2.8999999999999998E-3</v>
+        <v>0.23980000000000001</v>
+      </c>
+      <c r="D40" s="13">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="E40" s="13">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
+        <v>1.4E-3</v>
       </c>
       <c r="J40" s="2">
-        <v>0.24440000000000001</v>
+        <v>0.24129999999999999</v>
       </c>
       <c r="K40" s="2">
-        <v>0.23749999999999999</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="L40" s="2">
-        <v>1.6999999999999999E-3</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="M40" s="2">
-        <v>0.93130000000000002</v>
+        <v>0.93100000000000005</v>
       </c>
       <c r="N40" s="2">
-        <v>0.92730000000000001</v>
+        <v>0.92910000000000004</v>
       </c>
       <c r="O40" s="26">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="P40" s="2">
-        <v>1.7999999999999999E-2</v>
+        <v>1.7600000000000001E-2</v>
       </c>
       <c r="Q40" s="2">
-        <v>1.7500000000000002E-2</v>
+        <v>1.7299999999999999E-2</v>
       </c>
       <c r="R40" s="2">
         <v>0</v>
@@ -8358,21 +8327,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="C41" s="2">
-        <v>0.2137</v>
+        <v>0.24049999999999999</v>
       </c>
       <c r="D41" s="21">
-        <v>0.94440000000000002</v>
+        <v>0.92959999999999998</v>
       </c>
       <c r="E41" s="21">
-        <v>1.66E-2</v>
+        <v>1.77E-2</v>
       </c>
       <c r="F41" s="21">
         <v>0</v>
@@ -8384,31 +8353,31 @@
         <v>0</v>
       </c>
       <c r="I41" s="21">
-        <v>1.1000000000000001E-3</v>
+        <v>2.8999999999999998E-3</v>
       </c>
       <c r="J41" s="2">
-        <v>0.21529999999999999</v>
+        <v>0.24440000000000001</v>
       </c>
       <c r="K41" s="2">
-        <v>0.2127</v>
+        <v>0.23749999999999999</v>
       </c>
       <c r="L41" s="2">
-        <v>5.9999999999999995E-4</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="M41" s="2">
-        <v>0.94489999999999996</v>
+        <v>0.93130000000000002</v>
       </c>
       <c r="N41" s="2">
-        <v>0.94359999999999999</v>
+        <v>0.92730000000000001</v>
       </c>
       <c r="O41" s="26">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="P41" s="2">
-        <v>1.67E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="Q41" s="2">
-        <v>1.6500000000000001E-2</v>
+        <v>1.7500000000000002E-2</v>
       </c>
       <c r="R41" s="2">
         <v>0</v>
@@ -8429,7 +8398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -8500,7 +8469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -9455,14 +9424,14 @@
   <autoFilter ref="A1:W59" xr:uid="{0B1DB96E-F0A8-460E-9A4B-15CE75D83F02}">
     <filterColumn colId="1">
       <filters>
-        <filter val="LSTM-3-ew2"/>
-        <filter val="LSTM-3-ew3"/>
-        <filter val="LSTM-3-ew4"/>
-        <filter val="LSTM-3-obs"/>
-        <filter val="LSTM-3-or"/>
-        <filter val="LSTM-3-sg5"/>
-        <filter val="LSTM-3-sg7"/>
-        <filter val="LSTM-3-sg9"/>
+        <filter val="LSTM-ew2"/>
+        <filter val="LSTM-ew3"/>
+        <filter val="LSTM-ew4"/>
+        <filter val="LSTM-obs"/>
+        <filter val="LSTM-or"/>
+        <filter val="LSTM-sg5"/>
+        <filter val="LSTM-sg7"/>
+        <filter val="LSTM-sg9"/>
       </filters>
     </filterColumn>
     <filterColumn colId="4">
@@ -9470,8 +9439,8 @@
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:W59">
-      <sortCondition ref="B1:B59"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:W43">
+      <sortCondition ref="E1:E59"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
